--- a/VVencidos.xlsx
+++ b/VVencidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F83F00-F204-488E-9D3E-3BEF5CD7C117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6161D974-8169-4CB5-BEF8-B690419183DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{269BE8FF-AC33-4B8A-A7D2-D9ACD2484502}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="197">
+  <futureMetadata name="XLRICHVALUE" count="322">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -1420,8 +1420,883 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="197"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="198"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="199"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="200"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="201"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="202"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="203"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="204"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="205"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="206"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="207"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="208"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="209"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="210"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="211"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="212"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="213"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="214"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="215"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="216"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="217"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="218"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="219"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="220"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="221"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="222"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="223"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="224"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="225"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="226"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="227"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="228"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="229"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="230"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="231"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="232"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="233"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="234"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="235"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="236"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="237"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="238"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="239"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="240"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="241"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="242"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="243"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="244"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="245"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="246"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="247"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="248"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="249"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="250"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="251"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="252"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="253"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="254"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="255"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="256"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="257"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="258"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="259"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="260"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="261"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="262"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="263"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="264"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="265"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="266"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="267"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="268"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="269"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="270"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="271"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="272"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="273"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="274"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="275"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="276"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="277"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="278"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="279"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="280"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="281"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="282"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="283"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="284"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="285"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="286"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="287"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="288"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="289"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="290"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="291"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="292"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="293"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="294"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="295"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="296"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="297"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="298"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="299"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="300"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="301"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="302"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="303"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="304"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="305"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="306"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="307"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="308"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="309"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="310"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="311"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="312"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="313"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="314"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="315"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="316"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="317"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="318"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="319"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="320"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="321"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="197">
+  <valueMetadata count="322">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -2012,13 +2887,408 @@
     </bk>
     <bk>
       <rc t="1" v="196"/>
+    </bk>
+    <bk>
+      <rc t="1" v="197"/>
+    </bk>
+    <bk>
+      <rc t="1" v="198"/>
+    </bk>
+    <bk>
+      <rc t="1" v="199"/>
+    </bk>
+    <bk>
+      <rc t="1" v="200"/>
+    </bk>
+    <bk>
+      <rc t="1" v="201"/>
+    </bk>
+    <bk>
+      <rc t="1" v="202"/>
+    </bk>
+    <bk>
+      <rc t="1" v="203"/>
+    </bk>
+    <bk>
+      <rc t="1" v="204"/>
+    </bk>
+    <bk>
+      <rc t="1" v="205"/>
+    </bk>
+    <bk>
+      <rc t="1" v="206"/>
+    </bk>
+    <bk>
+      <rc t="1" v="207"/>
+    </bk>
+    <bk>
+      <rc t="1" v="208"/>
+    </bk>
+    <bk>
+      <rc t="1" v="209"/>
+    </bk>
+    <bk>
+      <rc t="1" v="210"/>
+    </bk>
+    <bk>
+      <rc t="1" v="211"/>
+    </bk>
+    <bk>
+      <rc t="1" v="212"/>
+    </bk>
+    <bk>
+      <rc t="1" v="213"/>
+    </bk>
+    <bk>
+      <rc t="1" v="214"/>
+    </bk>
+    <bk>
+      <rc t="1" v="215"/>
+    </bk>
+    <bk>
+      <rc t="1" v="216"/>
+    </bk>
+    <bk>
+      <rc t="1" v="217"/>
+    </bk>
+    <bk>
+      <rc t="1" v="218"/>
+    </bk>
+    <bk>
+      <rc t="1" v="219"/>
+    </bk>
+    <bk>
+      <rc t="1" v="220"/>
+    </bk>
+    <bk>
+      <rc t="1" v="221"/>
+    </bk>
+    <bk>
+      <rc t="1" v="222"/>
+    </bk>
+    <bk>
+      <rc t="1" v="223"/>
+    </bk>
+    <bk>
+      <rc t="1" v="224"/>
+    </bk>
+    <bk>
+      <rc t="1" v="225"/>
+    </bk>
+    <bk>
+      <rc t="1" v="226"/>
+    </bk>
+    <bk>
+      <rc t="1" v="227"/>
+    </bk>
+    <bk>
+      <rc t="1" v="228"/>
+    </bk>
+    <bk>
+      <rc t="1" v="229"/>
+    </bk>
+    <bk>
+      <rc t="1" v="230"/>
+    </bk>
+    <bk>
+      <rc t="1" v="231"/>
+    </bk>
+    <bk>
+      <rc t="1" v="232"/>
+    </bk>
+    <bk>
+      <rc t="1" v="233"/>
+    </bk>
+    <bk>
+      <rc t="1" v="234"/>
+    </bk>
+    <bk>
+      <rc t="1" v="235"/>
+    </bk>
+    <bk>
+      <rc t="1" v="236"/>
+    </bk>
+    <bk>
+      <rc t="1" v="237"/>
+    </bk>
+    <bk>
+      <rc t="1" v="238"/>
+    </bk>
+    <bk>
+      <rc t="1" v="239"/>
+    </bk>
+    <bk>
+      <rc t="1" v="240"/>
+    </bk>
+    <bk>
+      <rc t="1" v="241"/>
+    </bk>
+    <bk>
+      <rc t="1" v="242"/>
+    </bk>
+    <bk>
+      <rc t="1" v="243"/>
+    </bk>
+    <bk>
+      <rc t="1" v="244"/>
+    </bk>
+    <bk>
+      <rc t="1" v="245"/>
+    </bk>
+    <bk>
+      <rc t="1" v="246"/>
+    </bk>
+    <bk>
+      <rc t="1" v="247"/>
+    </bk>
+    <bk>
+      <rc t="1" v="248"/>
+    </bk>
+    <bk>
+      <rc t="1" v="249"/>
+    </bk>
+    <bk>
+      <rc t="1" v="250"/>
+    </bk>
+    <bk>
+      <rc t="1" v="251"/>
+    </bk>
+    <bk>
+      <rc t="1" v="252"/>
+    </bk>
+    <bk>
+      <rc t="1" v="253"/>
+    </bk>
+    <bk>
+      <rc t="1" v="254"/>
+    </bk>
+    <bk>
+      <rc t="1" v="255"/>
+    </bk>
+    <bk>
+      <rc t="1" v="256"/>
+    </bk>
+    <bk>
+      <rc t="1" v="257"/>
+    </bk>
+    <bk>
+      <rc t="1" v="258"/>
+    </bk>
+    <bk>
+      <rc t="1" v="259"/>
+    </bk>
+    <bk>
+      <rc t="1" v="260"/>
+    </bk>
+    <bk>
+      <rc t="1" v="261"/>
+    </bk>
+    <bk>
+      <rc t="1" v="262"/>
+    </bk>
+    <bk>
+      <rc t="1" v="263"/>
+    </bk>
+    <bk>
+      <rc t="1" v="264"/>
+    </bk>
+    <bk>
+      <rc t="1" v="265"/>
+    </bk>
+    <bk>
+      <rc t="1" v="266"/>
+    </bk>
+    <bk>
+      <rc t="1" v="267"/>
+    </bk>
+    <bk>
+      <rc t="1" v="268"/>
+    </bk>
+    <bk>
+      <rc t="1" v="269"/>
+    </bk>
+    <bk>
+      <rc t="1" v="270"/>
+    </bk>
+    <bk>
+      <rc t="1" v="271"/>
+    </bk>
+    <bk>
+      <rc t="1" v="272"/>
+    </bk>
+    <bk>
+      <rc t="1" v="273"/>
+    </bk>
+    <bk>
+      <rc t="1" v="274"/>
+    </bk>
+    <bk>
+      <rc t="1" v="275"/>
+    </bk>
+    <bk>
+      <rc t="1" v="276"/>
+    </bk>
+    <bk>
+      <rc t="1" v="277"/>
+    </bk>
+    <bk>
+      <rc t="1" v="278"/>
+    </bk>
+    <bk>
+      <rc t="1" v="279"/>
+    </bk>
+    <bk>
+      <rc t="1" v="280"/>
+    </bk>
+    <bk>
+      <rc t="1" v="281"/>
+    </bk>
+    <bk>
+      <rc t="1" v="282"/>
+    </bk>
+    <bk>
+      <rc t="1" v="283"/>
+    </bk>
+    <bk>
+      <rc t="1" v="284"/>
+    </bk>
+    <bk>
+      <rc t="1" v="285"/>
+    </bk>
+    <bk>
+      <rc t="1" v="286"/>
+    </bk>
+    <bk>
+      <rc t="1" v="287"/>
+    </bk>
+    <bk>
+      <rc t="1" v="288"/>
+    </bk>
+    <bk>
+      <rc t="1" v="289"/>
+    </bk>
+    <bk>
+      <rc t="1" v="290"/>
+    </bk>
+    <bk>
+      <rc t="1" v="291"/>
+    </bk>
+    <bk>
+      <rc t="1" v="292"/>
+    </bk>
+    <bk>
+      <rc t="1" v="293"/>
+    </bk>
+    <bk>
+      <rc t="1" v="294"/>
+    </bk>
+    <bk>
+      <rc t="1" v="295"/>
+    </bk>
+    <bk>
+      <rc t="1" v="296"/>
+    </bk>
+    <bk>
+      <rc t="1" v="297"/>
+    </bk>
+    <bk>
+      <rc t="1" v="298"/>
+    </bk>
+    <bk>
+      <rc t="1" v="299"/>
+    </bk>
+    <bk>
+      <rc t="1" v="300"/>
+    </bk>
+    <bk>
+      <rc t="1" v="301"/>
+    </bk>
+    <bk>
+      <rc t="1" v="302"/>
+    </bk>
+    <bk>
+      <rc t="1" v="303"/>
+    </bk>
+    <bk>
+      <rc t="1" v="304"/>
+    </bk>
+    <bk>
+      <rc t="1" v="305"/>
+    </bk>
+    <bk>
+      <rc t="1" v="306"/>
+    </bk>
+    <bk>
+      <rc t="1" v="307"/>
+    </bk>
+    <bk>
+      <rc t="1" v="308"/>
+    </bk>
+    <bk>
+      <rc t="1" v="309"/>
+    </bk>
+    <bk>
+      <rc t="1" v="310"/>
+    </bk>
+    <bk>
+      <rc t="1" v="311"/>
+    </bk>
+    <bk>
+      <rc t="1" v="312"/>
+    </bk>
+    <bk>
+      <rc t="1" v="313"/>
+    </bk>
+    <bk>
+      <rc t="1" v="314"/>
+    </bk>
+    <bk>
+      <rc t="1" v="315"/>
+    </bk>
+    <bk>
+      <rc t="1" v="316"/>
+    </bk>
+    <bk>
+      <rc t="1" v="317"/>
+    </bk>
+    <bk>
+      <rc t="1" v="318"/>
+    </bk>
+    <bk>
+      <rc t="1" v="319"/>
+    </bk>
+    <bk>
+      <rc t="1" v="320"/>
+    </bk>
+    <bk>
+      <rc t="1" v="321"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization>
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+</python>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="215">
   <si>
     <t>Entidade</t>
   </si>
@@ -2565,6 +3835,105 @@
   <si>
     <t>Bruno</t>
   </si>
+  <si>
+    <t>João Paulo Silva Ribeiro Unip.,Lda</t>
+  </si>
+  <si>
+    <t>Contencioso</t>
+  </si>
+  <si>
+    <t>P. Castro &amp; Silva, Lda</t>
+  </si>
+  <si>
+    <t>José Agostinho Castro Martins</t>
+  </si>
+  <si>
+    <t>Joaquim Oliveira Mendes</t>
+  </si>
+  <si>
+    <t>Traditionpoint Unipessoal, Lda</t>
+  </si>
+  <si>
+    <t>Quilos Exóticos, Lda</t>
+  </si>
+  <si>
+    <t>Talho Estrela Do Norte Unip.,Lda</t>
+  </si>
+  <si>
+    <t>Servibarreiras-Comércio E Serviços</t>
+  </si>
+  <si>
+    <t>Barbosa Ferreira &amp; Moreira Samp Lda</t>
+  </si>
+  <si>
+    <t>Rui Manuel Sousa Unip.,Lda</t>
+  </si>
+  <si>
+    <t>Título Recheado - Talho, Lda</t>
+  </si>
+  <si>
+    <t>Joana Vanessa Teixeira Pereira</t>
+  </si>
+  <si>
+    <t>Carnes Maiatas, Lda</t>
+  </si>
+  <si>
+    <t>Carnes Gadira, Lda</t>
+  </si>
+  <si>
+    <t>Beira-Lamego, Lda</t>
+  </si>
+  <si>
+    <t>Sinonimovalor-Talhos E Supermercado</t>
+  </si>
+  <si>
+    <t>Gaveto Dos Paladares Unip.,Lda</t>
+  </si>
+  <si>
+    <t>Sabgal Foods, S.A.</t>
+  </si>
+  <si>
+    <t>Contraste D'Aromas, Unipessoal Lda</t>
+  </si>
+  <si>
+    <t>Quinta Da Azenha - Actividades</t>
+  </si>
+  <si>
+    <t>José Antunes - Estab. Hoteleiros Lda</t>
+  </si>
+  <si>
+    <t>Chef Vitor</t>
+  </si>
+  <si>
+    <t>O Forno do Leitão do Zé-Master, Lda</t>
+  </si>
+  <si>
+    <t>Mário Jorge Silva - Unipessoal, Lda.</t>
+  </si>
+  <si>
+    <t>Quinta do Forno - Restauração, Lda.</t>
+  </si>
+  <si>
+    <t>Gadelho De Castro, S.A.</t>
+  </si>
+  <si>
+    <t>Paula &amp; Manuel Oliveira - Restaurante Lda.</t>
+  </si>
+  <si>
+    <t>Luis Fonseca</t>
+  </si>
+  <si>
+    <t>Les Saveurs Du Portugal SARL</t>
+  </si>
+  <si>
+    <t>Agriberia SARL</t>
+  </si>
+  <si>
+    <t>Inportugalia SA</t>
+  </si>
+  <si>
+    <t>Igor Chemanitov</t>
+  </si>
 </sst>
 </file>
 
@@ -2659,7 +4028,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="197">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="322">
   <rv s="0">
     <fb>45854</fb>
     <v>0</v>
@@ -3446,6 +4815,506 @@
   </rv>
   <rv s="0">
     <fb>45739</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45294</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45296</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45299</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45300</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45301</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45306</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45307</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45308</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45313</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45314</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45315</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45317</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45320</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45321</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45323</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45327</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45328</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45329</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45334</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45336</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45338</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45341</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45343</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45345</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45347</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45350</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45352</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45356</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45357</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45358</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45359</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45361</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45364</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45365</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45371</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45372</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45373</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45378</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45380</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45385</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45387</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45392</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45402</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45407</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45408</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45409</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45410</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45414</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45415</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45416</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45417</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45422</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45424</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45428</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45429</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45436</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45442</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45445</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45448</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45449</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45450</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45451</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45452</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45455</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45459</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45462</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45463</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45464</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45469</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45470</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45476</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45477</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45483</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45484</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45485</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45486</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45490</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45491</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45493</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45498</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45500</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45504</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45505</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45507</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45508</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45511</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45512</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45514</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45515</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45518</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45519</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45520</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45524</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45525</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45526</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45532</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45533</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45536</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45539</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45540</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45542</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45546</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45547</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45550</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45569</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45598</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45617</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45621</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45622</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45630</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45635</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45640</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45643</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45644</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45647</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45648</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45652</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45654</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45661</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45662</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45669</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45675</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45685</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45666</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45655</fb>
     <v>0</v>
   </rv>
 </rvData>
@@ -3807,10 +5676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D11E89-AF2E-42BF-80E5-E5E20F3E6DF5}">
-  <dimension ref="A1:G670"/>
+  <dimension ref="A1:G903"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="O213" sqref="O213"/>
+    <sheetView tabSelected="1" topLeftCell="A880" workbookViewId="0">
+      <selection activeCell="G901" sqref="G901:G903"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19233,6 +21102,5365 @@
         <v>181</v>
       </c>
     </row>
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>1613</v>
+      </c>
+      <c r="B671" t="s">
+        <v>182</v>
+      </c>
+      <c r="C671" vm="31">
+        <v>45833</v>
+      </c>
+      <c r="D671" t="s">
+        <v>23</v>
+      </c>
+      <c r="E671">
+        <v>22</v>
+      </c>
+      <c r="F671">
+        <v>7.38</v>
+      </c>
+      <c r="G671" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>583</v>
+      </c>
+      <c r="B672" t="s">
+        <v>184</v>
+      </c>
+      <c r="C672" vm="198">
+        <v>45294</v>
+      </c>
+      <c r="D672" t="s">
+        <v>29</v>
+      </c>
+      <c r="E672">
+        <v>561</v>
+      </c>
+      <c r="F672">
+        <v>640.66999999999996</v>
+      </c>
+      <c r="G672" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>1527</v>
+      </c>
+      <c r="B673" t="s">
+        <v>185</v>
+      </c>
+      <c r="C673" vm="199">
+        <v>45296</v>
+      </c>
+      <c r="D673" t="s">
+        <v>29</v>
+      </c>
+      <c r="E673">
+        <v>559</v>
+      </c>
+      <c r="F673">
+        <v>249.67</v>
+      </c>
+      <c r="G673" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>584</v>
+      </c>
+      <c r="B674" t="s">
+        <v>184</v>
+      </c>
+      <c r="C674" vm="200">
+        <v>45299</v>
+      </c>
+      <c r="D674" t="s">
+        <v>29</v>
+      </c>
+      <c r="E674">
+        <v>556</v>
+      </c>
+      <c r="F674">
+        <v>415.94</v>
+      </c>
+      <c r="G674" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>1528</v>
+      </c>
+      <c r="B675" t="s">
+        <v>185</v>
+      </c>
+      <c r="C675" vm="201">
+        <v>45300</v>
+      </c>
+      <c r="D675" t="s">
+        <v>29</v>
+      </c>
+      <c r="E675">
+        <v>555</v>
+      </c>
+      <c r="F675">
+        <v>230.37</v>
+      </c>
+      <c r="G675" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>585</v>
+      </c>
+      <c r="B676" t="s">
+        <v>184</v>
+      </c>
+      <c r="C676" vm="202">
+        <v>45301</v>
+      </c>
+      <c r="D676" t="s">
+        <v>29</v>
+      </c>
+      <c r="E676">
+        <v>554</v>
+      </c>
+      <c r="F676">
+        <v>509.33</v>
+      </c>
+      <c r="G676" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>586</v>
+      </c>
+      <c r="B677" t="s">
+        <v>184</v>
+      </c>
+      <c r="C677" vm="203">
+        <v>45306</v>
+      </c>
+      <c r="D677" t="s">
+        <v>29</v>
+      </c>
+      <c r="E677">
+        <v>549</v>
+      </c>
+      <c r="F677">
+        <v>248.84</v>
+      </c>
+      <c r="G677" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>1529</v>
+      </c>
+      <c r="B678" t="s">
+        <v>185</v>
+      </c>
+      <c r="C678" vm="204">
+        <v>45307</v>
+      </c>
+      <c r="D678" t="s">
+        <v>29</v>
+      </c>
+      <c r="E678">
+        <v>548</v>
+      </c>
+      <c r="F678">
+        <v>262.27999999999997</v>
+      </c>
+      <c r="G678" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>587</v>
+      </c>
+      <c r="B679" t="s">
+        <v>184</v>
+      </c>
+      <c r="C679" vm="205">
+        <v>45308</v>
+      </c>
+      <c r="D679" t="s">
+        <v>29</v>
+      </c>
+      <c r="E679">
+        <v>547</v>
+      </c>
+      <c r="F679">
+        <v>529.79999999999995</v>
+      </c>
+      <c r="G679" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>588</v>
+      </c>
+      <c r="B680" t="s">
+        <v>184</v>
+      </c>
+      <c r="C680" vm="206">
+        <v>45313</v>
+      </c>
+      <c r="D680" t="s">
+        <v>29</v>
+      </c>
+      <c r="E680">
+        <v>542</v>
+      </c>
+      <c r="F680">
+        <v>326.14999999999998</v>
+      </c>
+      <c r="G680" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>1530</v>
+      </c>
+      <c r="B681" t="s">
+        <v>185</v>
+      </c>
+      <c r="C681" vm="207">
+        <v>45314</v>
+      </c>
+      <c r="D681" t="s">
+        <v>29</v>
+      </c>
+      <c r="E681">
+        <v>541</v>
+      </c>
+      <c r="F681">
+        <v>233.05</v>
+      </c>
+      <c r="G681" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>589</v>
+      </c>
+      <c r="B682" t="s">
+        <v>184</v>
+      </c>
+      <c r="C682" vm="208">
+        <v>45315</v>
+      </c>
+      <c r="D682" t="s">
+        <v>29</v>
+      </c>
+      <c r="E682">
+        <v>540</v>
+      </c>
+      <c r="F682">
+        <v>128.44999999999999</v>
+      </c>
+      <c r="G682" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>590</v>
+      </c>
+      <c r="B683" t="s">
+        <v>184</v>
+      </c>
+      <c r="C683" vm="208">
+        <v>45315</v>
+      </c>
+      <c r="D683" t="s">
+        <v>29</v>
+      </c>
+      <c r="E683">
+        <v>540</v>
+      </c>
+      <c r="F683">
+        <v>420.28</v>
+      </c>
+      <c r="G683" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>1536</v>
+      </c>
+      <c r="B684" t="s">
+        <v>186</v>
+      </c>
+      <c r="C684" vm="209">
+        <v>45317</v>
+      </c>
+      <c r="D684" t="s">
+        <v>29</v>
+      </c>
+      <c r="E684">
+        <v>538</v>
+      </c>
+      <c r="F684">
+        <v>393.57</v>
+      </c>
+      <c r="G684" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>592</v>
+      </c>
+      <c r="B685" t="s">
+        <v>184</v>
+      </c>
+      <c r="C685" vm="210">
+        <v>45320</v>
+      </c>
+      <c r="D685" t="s">
+        <v>29</v>
+      </c>
+      <c r="E685">
+        <v>535</v>
+      </c>
+      <c r="F685">
+        <v>360.85</v>
+      </c>
+      <c r="G685" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>1531</v>
+      </c>
+      <c r="B686" t="s">
+        <v>185</v>
+      </c>
+      <c r="C686" vm="211">
+        <v>45321</v>
+      </c>
+      <c r="D686" t="s">
+        <v>29</v>
+      </c>
+      <c r="E686">
+        <v>534</v>
+      </c>
+      <c r="F686">
+        <v>227.69</v>
+      </c>
+      <c r="G686" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>593</v>
+      </c>
+      <c r="B687" t="s">
+        <v>184</v>
+      </c>
+      <c r="C687" vm="212">
+        <v>45323</v>
+      </c>
+      <c r="D687" t="s">
+        <v>29</v>
+      </c>
+      <c r="E687">
+        <v>532</v>
+      </c>
+      <c r="F687">
+        <v>512.03</v>
+      </c>
+      <c r="G687" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>1537</v>
+      </c>
+      <c r="B688" t="s">
+        <v>186</v>
+      </c>
+      <c r="C688" vm="51">
+        <v>45324</v>
+      </c>
+      <c r="D688" t="s">
+        <v>29</v>
+      </c>
+      <c r="E688">
+        <v>531</v>
+      </c>
+      <c r="F688">
+        <v>462.03</v>
+      </c>
+      <c r="G688" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>594</v>
+      </c>
+      <c r="B689" t="s">
+        <v>184</v>
+      </c>
+      <c r="C689" vm="213">
+        <v>45327</v>
+      </c>
+      <c r="D689" t="s">
+        <v>29</v>
+      </c>
+      <c r="E689">
+        <v>528</v>
+      </c>
+      <c r="F689">
+        <v>818.3</v>
+      </c>
+      <c r="G689" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>1532</v>
+      </c>
+      <c r="B690" t="s">
+        <v>185</v>
+      </c>
+      <c r="C690" vm="214">
+        <v>45328</v>
+      </c>
+      <c r="D690" t="s">
+        <v>29</v>
+      </c>
+      <c r="E690">
+        <v>527</v>
+      </c>
+      <c r="F690">
+        <v>218.3</v>
+      </c>
+      <c r="G690" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>595</v>
+      </c>
+      <c r="B691" t="s">
+        <v>184</v>
+      </c>
+      <c r="C691" vm="215">
+        <v>45329</v>
+      </c>
+      <c r="D691" t="s">
+        <v>29</v>
+      </c>
+      <c r="E691">
+        <v>526</v>
+      </c>
+      <c r="F691">
+        <v>260.89</v>
+      </c>
+      <c r="G691" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>1538</v>
+      </c>
+      <c r="B692" t="s">
+        <v>186</v>
+      </c>
+      <c r="C692" vm="49">
+        <v>45331</v>
+      </c>
+      <c r="D692" t="s">
+        <v>29</v>
+      </c>
+      <c r="E692">
+        <v>524</v>
+      </c>
+      <c r="F692">
+        <v>420.86</v>
+      </c>
+      <c r="G692" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>1533</v>
+      </c>
+      <c r="B693" t="s">
+        <v>185</v>
+      </c>
+      <c r="C693" vm="216">
+        <v>45334</v>
+      </c>
+      <c r="D693" t="s">
+        <v>29</v>
+      </c>
+      <c r="E693">
+        <v>521</v>
+      </c>
+      <c r="F693">
+        <v>231.92</v>
+      </c>
+      <c r="G693" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>1722</v>
+      </c>
+      <c r="B694" t="s">
+        <v>187</v>
+      </c>
+      <c r="C694" vm="216">
+        <v>45334</v>
+      </c>
+      <c r="D694" t="s">
+        <v>29</v>
+      </c>
+      <c r="E694">
+        <v>521</v>
+      </c>
+      <c r="F694">
+        <v>327.08</v>
+      </c>
+      <c r="G694" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>596</v>
+      </c>
+      <c r="B695" t="s">
+        <v>184</v>
+      </c>
+      <c r="C695" vm="217">
+        <v>45336</v>
+      </c>
+      <c r="D695" t="s">
+        <v>29</v>
+      </c>
+      <c r="E695">
+        <v>519</v>
+      </c>
+      <c r="F695">
+        <v>688.37</v>
+      </c>
+      <c r="G695" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>1539</v>
+      </c>
+      <c r="B696" t="s">
+        <v>186</v>
+      </c>
+      <c r="C696" vm="218">
+        <v>45338</v>
+      </c>
+      <c r="D696" t="s">
+        <v>29</v>
+      </c>
+      <c r="E696">
+        <v>517</v>
+      </c>
+      <c r="F696">
+        <v>487.52</v>
+      </c>
+      <c r="G696" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>598</v>
+      </c>
+      <c r="B697" t="s">
+        <v>184</v>
+      </c>
+      <c r="C697" vm="219">
+        <v>45341</v>
+      </c>
+      <c r="D697" t="s">
+        <v>29</v>
+      </c>
+      <c r="E697">
+        <v>514</v>
+      </c>
+      <c r="F697">
+        <v>28.51</v>
+      </c>
+      <c r="G697" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>1540</v>
+      </c>
+      <c r="B698" t="s">
+        <v>186</v>
+      </c>
+      <c r="C698" vm="220">
+        <v>45343</v>
+      </c>
+      <c r="D698" t="s">
+        <v>29</v>
+      </c>
+      <c r="E698">
+        <v>512</v>
+      </c>
+      <c r="F698">
+        <v>370.23</v>
+      </c>
+      <c r="G698" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>1723</v>
+      </c>
+      <c r="B699" t="s">
+        <v>187</v>
+      </c>
+      <c r="C699" vm="220">
+        <v>45343</v>
+      </c>
+      <c r="D699" t="s">
+        <v>29</v>
+      </c>
+      <c r="E699">
+        <v>512</v>
+      </c>
+      <c r="F699">
+        <v>285.37</v>
+      </c>
+      <c r="G699" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>1615</v>
+      </c>
+      <c r="B700" t="s">
+        <v>188</v>
+      </c>
+      <c r="C700" vm="47">
+        <v>45344</v>
+      </c>
+      <c r="D700" t="s">
+        <v>29</v>
+      </c>
+      <c r="E700">
+        <v>511</v>
+      </c>
+      <c r="F700">
+        <v>329</v>
+      </c>
+      <c r="G700" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>1084</v>
+      </c>
+      <c r="B701" t="s">
+        <v>189</v>
+      </c>
+      <c r="C701" vm="221">
+        <v>45345</v>
+      </c>
+      <c r="D701" t="s">
+        <v>29</v>
+      </c>
+      <c r="E701">
+        <v>510</v>
+      </c>
+      <c r="F701">
+        <v>1518.74</v>
+      </c>
+      <c r="G701" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>1541</v>
+      </c>
+      <c r="B702" t="s">
+        <v>186</v>
+      </c>
+      <c r="C702" vm="221">
+        <v>45345</v>
+      </c>
+      <c r="D702" t="s">
+        <v>29</v>
+      </c>
+      <c r="E702">
+        <v>510</v>
+      </c>
+      <c r="F702">
+        <v>631.41999999999996</v>
+      </c>
+      <c r="G702" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>1085</v>
+      </c>
+      <c r="B703" t="s">
+        <v>189</v>
+      </c>
+      <c r="C703" vm="222">
+        <v>45347</v>
+      </c>
+      <c r="D703" t="s">
+        <v>29</v>
+      </c>
+      <c r="E703">
+        <v>508</v>
+      </c>
+      <c r="F703">
+        <v>221.94</v>
+      </c>
+      <c r="G703" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>1534</v>
+      </c>
+      <c r="B704" t="s">
+        <v>185</v>
+      </c>
+      <c r="C704" vm="223">
+        <v>45350</v>
+      </c>
+      <c r="D704" t="s">
+        <v>29</v>
+      </c>
+      <c r="E704">
+        <v>505</v>
+      </c>
+      <c r="F704">
+        <v>28.41</v>
+      </c>
+      <c r="G704" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>1724</v>
+      </c>
+      <c r="B705" t="s">
+        <v>187</v>
+      </c>
+      <c r="C705" vm="223">
+        <v>45350</v>
+      </c>
+      <c r="D705" t="s">
+        <v>29</v>
+      </c>
+      <c r="E705">
+        <v>505</v>
+      </c>
+      <c r="F705">
+        <v>617.12</v>
+      </c>
+      <c r="G705" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>1542</v>
+      </c>
+      <c r="B706" t="s">
+        <v>186</v>
+      </c>
+      <c r="C706" vm="224">
+        <v>45352</v>
+      </c>
+      <c r="D706" t="s">
+        <v>29</v>
+      </c>
+      <c r="E706">
+        <v>503</v>
+      </c>
+      <c r="F706">
+        <v>533.65</v>
+      </c>
+      <c r="G706" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>1535</v>
+      </c>
+      <c r="B707" t="s">
+        <v>185</v>
+      </c>
+      <c r="C707" vm="225">
+        <v>45356</v>
+      </c>
+      <c r="D707" t="s">
+        <v>29</v>
+      </c>
+      <c r="E707">
+        <v>499</v>
+      </c>
+      <c r="F707">
+        <v>262.77</v>
+      </c>
+      <c r="G707" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>1543</v>
+      </c>
+      <c r="B708" t="s">
+        <v>186</v>
+      </c>
+      <c r="C708" vm="226">
+        <v>45357</v>
+      </c>
+      <c r="D708" t="s">
+        <v>29</v>
+      </c>
+      <c r="E708">
+        <v>498</v>
+      </c>
+      <c r="F708">
+        <v>285.92</v>
+      </c>
+      <c r="G708" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>1725</v>
+      </c>
+      <c r="B709" t="s">
+        <v>187</v>
+      </c>
+      <c r="C709" vm="226">
+        <v>45357</v>
+      </c>
+      <c r="D709" t="s">
+        <v>29</v>
+      </c>
+      <c r="E709">
+        <v>498</v>
+      </c>
+      <c r="F709">
+        <v>386.84</v>
+      </c>
+      <c r="G709" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>1617</v>
+      </c>
+      <c r="B710" t="s">
+        <v>188</v>
+      </c>
+      <c r="C710" vm="227">
+        <v>45358</v>
+      </c>
+      <c r="D710" t="s">
+        <v>29</v>
+      </c>
+      <c r="E710">
+        <v>497</v>
+      </c>
+      <c r="F710">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="G710" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>1618</v>
+      </c>
+      <c r="B711" t="s">
+        <v>188</v>
+      </c>
+      <c r="C711" vm="227">
+        <v>45358</v>
+      </c>
+      <c r="D711" t="s">
+        <v>29</v>
+      </c>
+      <c r="E711">
+        <v>497</v>
+      </c>
+      <c r="F711">
+        <v>239.07</v>
+      </c>
+      <c r="G711" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>1086</v>
+      </c>
+      <c r="B712" t="s">
+        <v>189</v>
+      </c>
+      <c r="C712" vm="228">
+        <v>45359</v>
+      </c>
+      <c r="D712" t="s">
+        <v>29</v>
+      </c>
+      <c r="E712">
+        <v>496</v>
+      </c>
+      <c r="F712">
+        <v>2118.5300000000002</v>
+      </c>
+      <c r="G712" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>1545</v>
+      </c>
+      <c r="B713" t="s">
+        <v>186</v>
+      </c>
+      <c r="C713" vm="228">
+        <v>45359</v>
+      </c>
+      <c r="D713" t="s">
+        <v>29</v>
+      </c>
+      <c r="E713">
+        <v>496</v>
+      </c>
+      <c r="F713">
+        <v>260.5</v>
+      </c>
+      <c r="G713" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>1087</v>
+      </c>
+      <c r="B714" t="s">
+        <v>189</v>
+      </c>
+      <c r="C714" vm="229">
+        <v>45361</v>
+      </c>
+      <c r="D714" t="s">
+        <v>29</v>
+      </c>
+      <c r="E714">
+        <v>494</v>
+      </c>
+      <c r="F714">
+        <v>471.49</v>
+      </c>
+      <c r="G714" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>1221</v>
+      </c>
+      <c r="B715" t="s">
+        <v>190</v>
+      </c>
+      <c r="C715" vm="230">
+        <v>45364</v>
+      </c>
+      <c r="D715" t="s">
+        <v>29</v>
+      </c>
+      <c r="E715">
+        <v>491</v>
+      </c>
+      <c r="F715">
+        <v>76.72</v>
+      </c>
+      <c r="G715" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>1546</v>
+      </c>
+      <c r="B716" t="s">
+        <v>186</v>
+      </c>
+      <c r="C716" vm="230">
+        <v>45364</v>
+      </c>
+      <c r="D716" t="s">
+        <v>29</v>
+      </c>
+      <c r="E716">
+        <v>491</v>
+      </c>
+      <c r="F716">
+        <v>291.89999999999998</v>
+      </c>
+      <c r="G716" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>1619</v>
+      </c>
+      <c r="B717" t="s">
+        <v>188</v>
+      </c>
+      <c r="C717" vm="231">
+        <v>45365</v>
+      </c>
+      <c r="D717" t="s">
+        <v>29</v>
+      </c>
+      <c r="E717">
+        <v>490</v>
+      </c>
+      <c r="F717">
+        <v>251.27</v>
+      </c>
+      <c r="G717" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>1088</v>
+      </c>
+      <c r="B718" t="s">
+        <v>189</v>
+      </c>
+      <c r="C718" vm="45">
+        <v>45366</v>
+      </c>
+      <c r="D718" t="s">
+        <v>29</v>
+      </c>
+      <c r="E718">
+        <v>489</v>
+      </c>
+      <c r="F718">
+        <v>1312.27</v>
+      </c>
+      <c r="G718" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>1547</v>
+      </c>
+      <c r="B719" t="s">
+        <v>186</v>
+      </c>
+      <c r="C719" vm="45">
+        <v>45366</v>
+      </c>
+      <c r="D719" t="s">
+        <v>29</v>
+      </c>
+      <c r="E719">
+        <v>489</v>
+      </c>
+      <c r="F719">
+        <v>372.52</v>
+      </c>
+      <c r="G719" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>1548</v>
+      </c>
+      <c r="B720" t="s">
+        <v>186</v>
+      </c>
+      <c r="C720" vm="232">
+        <v>45371</v>
+      </c>
+      <c r="D720" t="s">
+        <v>29</v>
+      </c>
+      <c r="E720">
+        <v>484</v>
+      </c>
+      <c r="F720">
+        <v>174.71</v>
+      </c>
+      <c r="G720" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>1620</v>
+      </c>
+      <c r="B721" t="s">
+        <v>188</v>
+      </c>
+      <c r="C721" vm="233">
+        <v>45372</v>
+      </c>
+      <c r="D721" t="s">
+        <v>29</v>
+      </c>
+      <c r="E721">
+        <v>483</v>
+      </c>
+      <c r="F721">
+        <v>334</v>
+      </c>
+      <c r="G721" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>1089</v>
+      </c>
+      <c r="B722" t="s">
+        <v>189</v>
+      </c>
+      <c r="C722" vm="234">
+        <v>45373</v>
+      </c>
+      <c r="D722" t="s">
+        <v>29</v>
+      </c>
+      <c r="E722">
+        <v>482</v>
+      </c>
+      <c r="F722">
+        <v>1681.83</v>
+      </c>
+      <c r="G722" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>1549</v>
+      </c>
+      <c r="B723" t="s">
+        <v>186</v>
+      </c>
+      <c r="C723" vm="234">
+        <v>45373</v>
+      </c>
+      <c r="D723" t="s">
+        <v>29</v>
+      </c>
+      <c r="E723">
+        <v>482</v>
+      </c>
+      <c r="F723">
+        <v>458.5</v>
+      </c>
+      <c r="G723" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>1679</v>
+      </c>
+      <c r="B724" t="s">
+        <v>191</v>
+      </c>
+      <c r="C724" vm="234">
+        <v>45373</v>
+      </c>
+      <c r="D724" t="s">
+        <v>29</v>
+      </c>
+      <c r="E724">
+        <v>482</v>
+      </c>
+      <c r="F724">
+        <v>448.09</v>
+      </c>
+      <c r="G724" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>1680</v>
+      </c>
+      <c r="B725" t="s">
+        <v>191</v>
+      </c>
+      <c r="C725" vm="235">
+        <v>45378</v>
+      </c>
+      <c r="D725" t="s">
+        <v>29</v>
+      </c>
+      <c r="E725">
+        <v>477</v>
+      </c>
+      <c r="F725">
+        <v>1381.62</v>
+      </c>
+      <c r="G725" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>1090</v>
+      </c>
+      <c r="B726" t="s">
+        <v>189</v>
+      </c>
+      <c r="C726" vm="236">
+        <v>45380</v>
+      </c>
+      <c r="D726" t="s">
+        <v>29</v>
+      </c>
+      <c r="E726">
+        <v>475</v>
+      </c>
+      <c r="F726">
+        <v>2061.3200000000002</v>
+      </c>
+      <c r="G726" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>1682</v>
+      </c>
+      <c r="B727" t="s">
+        <v>191</v>
+      </c>
+      <c r="C727" vm="237">
+        <v>45385</v>
+      </c>
+      <c r="D727" t="s">
+        <v>29</v>
+      </c>
+      <c r="E727">
+        <v>470</v>
+      </c>
+      <c r="F727">
+        <v>975.49</v>
+      </c>
+      <c r="G727" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>1683</v>
+      </c>
+      <c r="B728" t="s">
+        <v>191</v>
+      </c>
+      <c r="C728" vm="237">
+        <v>45385</v>
+      </c>
+      <c r="D728" t="s">
+        <v>29</v>
+      </c>
+      <c r="E728">
+        <v>470</v>
+      </c>
+      <c r="F728">
+        <v>34.340000000000003</v>
+      </c>
+      <c r="G728" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>1091</v>
+      </c>
+      <c r="B729" t="s">
+        <v>189</v>
+      </c>
+      <c r="C729" vm="238">
+        <v>45387</v>
+      </c>
+      <c r="D729" t="s">
+        <v>29</v>
+      </c>
+      <c r="E729">
+        <v>468</v>
+      </c>
+      <c r="F729">
+        <v>1420.72</v>
+      </c>
+      <c r="G729" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>1684</v>
+      </c>
+      <c r="B730" t="s">
+        <v>191</v>
+      </c>
+      <c r="C730" vm="239">
+        <v>45392</v>
+      </c>
+      <c r="D730" t="s">
+        <v>29</v>
+      </c>
+      <c r="E730">
+        <v>463</v>
+      </c>
+      <c r="F730">
+        <v>1067.46</v>
+      </c>
+      <c r="G730" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>1686</v>
+      </c>
+      <c r="B731" t="s">
+        <v>191</v>
+      </c>
+      <c r="C731" vm="239">
+        <v>45392</v>
+      </c>
+      <c r="D731" t="s">
+        <v>29</v>
+      </c>
+      <c r="E731">
+        <v>463</v>
+      </c>
+      <c r="F731">
+        <v>23.32</v>
+      </c>
+      <c r="G731" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>1348</v>
+      </c>
+      <c r="B732" t="s">
+        <v>192</v>
+      </c>
+      <c r="C732" vm="240">
+        <v>45402</v>
+      </c>
+      <c r="D732" t="s">
+        <v>29</v>
+      </c>
+      <c r="E732">
+        <v>453</v>
+      </c>
+      <c r="F732">
+        <v>384.93</v>
+      </c>
+      <c r="G732" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>1349</v>
+      </c>
+      <c r="B733" t="s">
+        <v>192</v>
+      </c>
+      <c r="C733" vm="241">
+        <v>45407</v>
+      </c>
+      <c r="D733" t="s">
+        <v>29</v>
+      </c>
+      <c r="E733">
+        <v>448</v>
+      </c>
+      <c r="F733">
+        <v>1352.23</v>
+      </c>
+      <c r="G733" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>1687</v>
+      </c>
+      <c r="B734" t="s">
+        <v>191</v>
+      </c>
+      <c r="C734" vm="242">
+        <v>45408</v>
+      </c>
+      <c r="D734" t="s">
+        <v>29</v>
+      </c>
+      <c r="E734">
+        <v>447</v>
+      </c>
+      <c r="F734">
+        <v>244.22</v>
+      </c>
+      <c r="G734" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>1688</v>
+      </c>
+      <c r="B735" t="s">
+        <v>191</v>
+      </c>
+      <c r="C735" vm="242">
+        <v>45408</v>
+      </c>
+      <c r="D735" t="s">
+        <v>29</v>
+      </c>
+      <c r="E735">
+        <v>447</v>
+      </c>
+      <c r="F735">
+        <v>21.2</v>
+      </c>
+      <c r="G735" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>1351</v>
+      </c>
+      <c r="B736" t="s">
+        <v>192</v>
+      </c>
+      <c r="C736" vm="243">
+        <v>45409</v>
+      </c>
+      <c r="D736" t="s">
+        <v>29</v>
+      </c>
+      <c r="E736">
+        <v>446</v>
+      </c>
+      <c r="F736">
+        <v>320.7</v>
+      </c>
+      <c r="G736" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>1352</v>
+      </c>
+      <c r="B737" t="s">
+        <v>192</v>
+      </c>
+      <c r="C737" vm="244">
+        <v>45410</v>
+      </c>
+      <c r="D737" t="s">
+        <v>29</v>
+      </c>
+      <c r="E737">
+        <v>445</v>
+      </c>
+      <c r="F737">
+        <v>317.35000000000002</v>
+      </c>
+      <c r="G737" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>1689</v>
+      </c>
+      <c r="B738" t="s">
+        <v>191</v>
+      </c>
+      <c r="C738" vm="244">
+        <v>45410</v>
+      </c>
+      <c r="D738" t="s">
+        <v>29</v>
+      </c>
+      <c r="E738">
+        <v>445</v>
+      </c>
+      <c r="F738">
+        <v>579.98</v>
+      </c>
+      <c r="G738" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>1353</v>
+      </c>
+      <c r="B739" t="s">
+        <v>192</v>
+      </c>
+      <c r="C739" vm="245">
+        <v>45414</v>
+      </c>
+      <c r="D739" t="s">
+        <v>29</v>
+      </c>
+      <c r="E739">
+        <v>441</v>
+      </c>
+      <c r="F739">
+        <v>393.14</v>
+      </c>
+      <c r="G739" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>1354</v>
+      </c>
+      <c r="B740" t="s">
+        <v>192</v>
+      </c>
+      <c r="C740" vm="245">
+        <v>45414</v>
+      </c>
+      <c r="D740" t="s">
+        <v>29</v>
+      </c>
+      <c r="E740">
+        <v>441</v>
+      </c>
+      <c r="F740">
+        <v>987.06</v>
+      </c>
+      <c r="G740" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A741">
+        <v>1690</v>
+      </c>
+      <c r="B741" t="s">
+        <v>191</v>
+      </c>
+      <c r="C741" vm="246">
+        <v>45415</v>
+      </c>
+      <c r="D741" t="s">
+        <v>29</v>
+      </c>
+      <c r="E741">
+        <v>440</v>
+      </c>
+      <c r="F741">
+        <v>860.69</v>
+      </c>
+      <c r="G741" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>1692</v>
+      </c>
+      <c r="B742" t="s">
+        <v>191</v>
+      </c>
+      <c r="C742" vm="246">
+        <v>45415</v>
+      </c>
+      <c r="D742" t="s">
+        <v>29</v>
+      </c>
+      <c r="E742">
+        <v>440</v>
+      </c>
+      <c r="F742">
+        <v>8.9</v>
+      </c>
+      <c r="G742" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A743">
+        <v>1355</v>
+      </c>
+      <c r="B743" t="s">
+        <v>192</v>
+      </c>
+      <c r="C743" vm="247">
+        <v>45416</v>
+      </c>
+      <c r="D743" t="s">
+        <v>29</v>
+      </c>
+      <c r="E743">
+        <v>439</v>
+      </c>
+      <c r="F743">
+        <v>492.79</v>
+      </c>
+      <c r="G743" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A744">
+        <v>1357</v>
+      </c>
+      <c r="B744" t="s">
+        <v>192</v>
+      </c>
+      <c r="C744" vm="248">
+        <v>45417</v>
+      </c>
+      <c r="D744" t="s">
+        <v>29</v>
+      </c>
+      <c r="E744">
+        <v>438</v>
+      </c>
+      <c r="F744">
+        <v>369.55</v>
+      </c>
+      <c r="G744" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A745">
+        <v>1693</v>
+      </c>
+      <c r="B745" t="s">
+        <v>191</v>
+      </c>
+      <c r="C745" vm="248">
+        <v>45417</v>
+      </c>
+      <c r="D745" t="s">
+        <v>29</v>
+      </c>
+      <c r="E745">
+        <v>438</v>
+      </c>
+      <c r="F745">
+        <v>284.16000000000003</v>
+      </c>
+      <c r="G745" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A746">
+        <v>1358</v>
+      </c>
+      <c r="B746" t="s">
+        <v>192</v>
+      </c>
+      <c r="C746" vm="249">
+        <v>45422</v>
+      </c>
+      <c r="D746" t="s">
+        <v>29</v>
+      </c>
+      <c r="E746">
+        <v>433</v>
+      </c>
+      <c r="F746">
+        <v>416.22</v>
+      </c>
+      <c r="G746" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A747">
+        <v>1694</v>
+      </c>
+      <c r="B747" t="s">
+        <v>191</v>
+      </c>
+      <c r="C747" vm="249">
+        <v>45422</v>
+      </c>
+      <c r="D747" t="s">
+        <v>29</v>
+      </c>
+      <c r="E747">
+        <v>433</v>
+      </c>
+      <c r="F747">
+        <v>809.56</v>
+      </c>
+      <c r="G747" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A748">
+        <v>1359</v>
+      </c>
+      <c r="B748" t="s">
+        <v>192</v>
+      </c>
+      <c r="C748" vm="250">
+        <v>45424</v>
+      </c>
+      <c r="D748" t="s">
+        <v>29</v>
+      </c>
+      <c r="E748">
+        <v>431</v>
+      </c>
+      <c r="F748">
+        <v>732.56</v>
+      </c>
+      <c r="G748" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A749">
+        <v>1695</v>
+      </c>
+      <c r="B749" t="s">
+        <v>191</v>
+      </c>
+      <c r="C749" vm="250">
+        <v>45424</v>
+      </c>
+      <c r="D749" t="s">
+        <v>29</v>
+      </c>
+      <c r="E749">
+        <v>431</v>
+      </c>
+      <c r="F749">
+        <v>241.85</v>
+      </c>
+      <c r="G749" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A750">
+        <v>1424</v>
+      </c>
+      <c r="B750" t="s">
+        <v>193</v>
+      </c>
+      <c r="C750" vm="251">
+        <v>45428</v>
+      </c>
+      <c r="D750" t="s">
+        <v>29</v>
+      </c>
+      <c r="E750">
+        <v>427</v>
+      </c>
+      <c r="F750">
+        <v>652.66</v>
+      </c>
+      <c r="G750" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A751">
+        <v>1222</v>
+      </c>
+      <c r="B751" t="s">
+        <v>190</v>
+      </c>
+      <c r="C751" vm="252">
+        <v>45429</v>
+      </c>
+      <c r="D751" t="s">
+        <v>29</v>
+      </c>
+      <c r="E751">
+        <v>426</v>
+      </c>
+      <c r="F751">
+        <v>504.83</v>
+      </c>
+      <c r="G751" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A752">
+        <v>1360</v>
+      </c>
+      <c r="B752" t="s">
+        <v>192</v>
+      </c>
+      <c r="C752" vm="252">
+        <v>45429</v>
+      </c>
+      <c r="D752" t="s">
+        <v>29</v>
+      </c>
+      <c r="E752">
+        <v>426</v>
+      </c>
+      <c r="F752">
+        <v>339.5</v>
+      </c>
+      <c r="G752" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A753">
+        <v>1696</v>
+      </c>
+      <c r="B753" t="s">
+        <v>191</v>
+      </c>
+      <c r="C753" vm="252">
+        <v>45429</v>
+      </c>
+      <c r="D753" t="s">
+        <v>29</v>
+      </c>
+      <c r="E753">
+        <v>426</v>
+      </c>
+      <c r="F753">
+        <v>1198.26</v>
+      </c>
+      <c r="G753" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A754">
+        <v>1699</v>
+      </c>
+      <c r="B754" t="s">
+        <v>191</v>
+      </c>
+      <c r="C754" vm="252">
+        <v>45429</v>
+      </c>
+      <c r="D754" t="s">
+        <v>29</v>
+      </c>
+      <c r="E754">
+        <v>426</v>
+      </c>
+      <c r="F754">
+        <v>34.340000000000003</v>
+      </c>
+      <c r="G754" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A755">
+        <v>1361</v>
+      </c>
+      <c r="B755" t="s">
+        <v>192</v>
+      </c>
+      <c r="C755" vm="253">
+        <v>45436</v>
+      </c>
+      <c r="D755" t="s">
+        <v>29</v>
+      </c>
+      <c r="E755">
+        <v>419</v>
+      </c>
+      <c r="F755">
+        <v>148.75</v>
+      </c>
+      <c r="G755" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A756">
+        <v>1700</v>
+      </c>
+      <c r="B756" t="s">
+        <v>191</v>
+      </c>
+      <c r="C756" vm="253">
+        <v>45436</v>
+      </c>
+      <c r="D756" t="s">
+        <v>29</v>
+      </c>
+      <c r="E756">
+        <v>419</v>
+      </c>
+      <c r="F756">
+        <v>839.88</v>
+      </c>
+      <c r="G756" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A757">
+        <v>1701</v>
+      </c>
+      <c r="B757" t="s">
+        <v>191</v>
+      </c>
+      <c r="C757" vm="253">
+        <v>45436</v>
+      </c>
+      <c r="D757" t="s">
+        <v>29</v>
+      </c>
+      <c r="E757">
+        <v>419</v>
+      </c>
+      <c r="F757">
+        <v>29.68</v>
+      </c>
+      <c r="G757" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A758">
+        <v>1703</v>
+      </c>
+      <c r="B758" t="s">
+        <v>191</v>
+      </c>
+      <c r="C758" vm="254">
+        <v>45442</v>
+      </c>
+      <c r="D758" t="s">
+        <v>29</v>
+      </c>
+      <c r="E758">
+        <v>413</v>
+      </c>
+      <c r="F758">
+        <v>550.83000000000004</v>
+      </c>
+      <c r="G758" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A759">
+        <v>1704</v>
+      </c>
+      <c r="B759" t="s">
+        <v>191</v>
+      </c>
+      <c r="C759" vm="255">
+        <v>45445</v>
+      </c>
+      <c r="D759" t="s">
+        <v>29</v>
+      </c>
+      <c r="E759">
+        <v>410</v>
+      </c>
+      <c r="F759">
+        <v>258.37</v>
+      </c>
+      <c r="G759" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A760">
+        <v>1705</v>
+      </c>
+      <c r="B760" t="s">
+        <v>191</v>
+      </c>
+      <c r="C760" vm="255">
+        <v>45445</v>
+      </c>
+      <c r="D760" t="s">
+        <v>29</v>
+      </c>
+      <c r="E760">
+        <v>410</v>
+      </c>
+      <c r="F760">
+        <v>20.14</v>
+      </c>
+      <c r="G760" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A761">
+        <v>1223</v>
+      </c>
+      <c r="B761" t="s">
+        <v>190</v>
+      </c>
+      <c r="C761" vm="256">
+        <v>45448</v>
+      </c>
+      <c r="D761" t="s">
+        <v>29</v>
+      </c>
+      <c r="E761">
+        <v>407</v>
+      </c>
+      <c r="F761">
+        <v>1039.74</v>
+      </c>
+      <c r="G761" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A762">
+        <v>1877</v>
+      </c>
+      <c r="B762" t="s">
+        <v>194</v>
+      </c>
+      <c r="C762" vm="257">
+        <v>45449</v>
+      </c>
+      <c r="D762" t="s">
+        <v>29</v>
+      </c>
+      <c r="E762">
+        <v>406</v>
+      </c>
+      <c r="F762">
+        <v>840.65</v>
+      </c>
+      <c r="G762" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A763">
+        <v>1224</v>
+      </c>
+      <c r="B763" t="s">
+        <v>190</v>
+      </c>
+      <c r="C763" vm="258">
+        <v>45450</v>
+      </c>
+      <c r="D763" t="s">
+        <v>29</v>
+      </c>
+      <c r="E763">
+        <v>405</v>
+      </c>
+      <c r="F763">
+        <v>739.42</v>
+      </c>
+      <c r="G763" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A764">
+        <v>1706</v>
+      </c>
+      <c r="B764" t="s">
+        <v>191</v>
+      </c>
+      <c r="C764" vm="258">
+        <v>45450</v>
+      </c>
+      <c r="D764" t="s">
+        <v>29</v>
+      </c>
+      <c r="E764">
+        <v>405</v>
+      </c>
+      <c r="F764">
+        <v>846.12</v>
+      </c>
+      <c r="G764" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A765">
+        <v>1878</v>
+      </c>
+      <c r="B765" t="s">
+        <v>194</v>
+      </c>
+      <c r="C765" vm="259">
+        <v>45451</v>
+      </c>
+      <c r="D765" t="s">
+        <v>29</v>
+      </c>
+      <c r="E765">
+        <v>404</v>
+      </c>
+      <c r="F765">
+        <v>756.44</v>
+      </c>
+      <c r="G765" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A766">
+        <v>1707</v>
+      </c>
+      <c r="B766" t="s">
+        <v>191</v>
+      </c>
+      <c r="C766" vm="260">
+        <v>45452</v>
+      </c>
+      <c r="D766" t="s">
+        <v>29</v>
+      </c>
+      <c r="E766">
+        <v>403</v>
+      </c>
+      <c r="F766">
+        <v>246.34</v>
+      </c>
+      <c r="G766" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A767">
+        <v>1708</v>
+      </c>
+      <c r="B767" t="s">
+        <v>191</v>
+      </c>
+      <c r="C767" vm="260">
+        <v>45452</v>
+      </c>
+      <c r="D767" t="s">
+        <v>29</v>
+      </c>
+      <c r="E767">
+        <v>403</v>
+      </c>
+      <c r="F767">
+        <v>243.61</v>
+      </c>
+      <c r="G767" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A768">
+        <v>1225</v>
+      </c>
+      <c r="B768" t="s">
+        <v>190</v>
+      </c>
+      <c r="C768" vm="261">
+        <v>45455</v>
+      </c>
+      <c r="D768" t="s">
+        <v>29</v>
+      </c>
+      <c r="E768">
+        <v>400</v>
+      </c>
+      <c r="F768">
+        <v>810.6</v>
+      </c>
+      <c r="G768" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A769">
+        <v>1709</v>
+      </c>
+      <c r="B769" t="s">
+        <v>191</v>
+      </c>
+      <c r="C769" vm="262">
+        <v>45459</v>
+      </c>
+      <c r="D769" t="s">
+        <v>29</v>
+      </c>
+      <c r="E769">
+        <v>396</v>
+      </c>
+      <c r="F769">
+        <v>522.75</v>
+      </c>
+      <c r="G769" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A770">
+        <v>1226</v>
+      </c>
+      <c r="B770" t="s">
+        <v>190</v>
+      </c>
+      <c r="C770" vm="263">
+        <v>45462</v>
+      </c>
+      <c r="D770" t="s">
+        <v>29</v>
+      </c>
+      <c r="E770">
+        <v>393</v>
+      </c>
+      <c r="F770">
+        <v>858.71</v>
+      </c>
+      <c r="G770" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A771">
+        <v>1425</v>
+      </c>
+      <c r="B771" t="s">
+        <v>193</v>
+      </c>
+      <c r="C771" vm="264">
+        <v>45463</v>
+      </c>
+      <c r="D771" t="s">
+        <v>29</v>
+      </c>
+      <c r="E771">
+        <v>392</v>
+      </c>
+      <c r="F771">
+        <v>683.25</v>
+      </c>
+      <c r="G771" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A772">
+        <v>1227</v>
+      </c>
+      <c r="B772" t="s">
+        <v>190</v>
+      </c>
+      <c r="C772" vm="265">
+        <v>45464</v>
+      </c>
+      <c r="D772" t="s">
+        <v>29</v>
+      </c>
+      <c r="E772">
+        <v>391</v>
+      </c>
+      <c r="F772">
+        <v>727.32</v>
+      </c>
+      <c r="G772" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A773">
+        <v>1228</v>
+      </c>
+      <c r="B773" t="s">
+        <v>190</v>
+      </c>
+      <c r="C773" vm="266">
+        <v>45469</v>
+      </c>
+      <c r="D773" t="s">
+        <v>29</v>
+      </c>
+      <c r="E773">
+        <v>386</v>
+      </c>
+      <c r="F773">
+        <v>40.74</v>
+      </c>
+      <c r="G773" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A774">
+        <v>1229</v>
+      </c>
+      <c r="B774" t="s">
+        <v>190</v>
+      </c>
+      <c r="C774" vm="266">
+        <v>45469</v>
+      </c>
+      <c r="D774" t="s">
+        <v>29</v>
+      </c>
+      <c r="E774">
+        <v>386</v>
+      </c>
+      <c r="F774">
+        <v>700.72</v>
+      </c>
+      <c r="G774" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A775">
+        <v>1427</v>
+      </c>
+      <c r="B775" t="s">
+        <v>193</v>
+      </c>
+      <c r="C775" vm="266">
+        <v>45469</v>
+      </c>
+      <c r="D775" t="s">
+        <v>29</v>
+      </c>
+      <c r="E775">
+        <v>386</v>
+      </c>
+      <c r="F775">
+        <v>38.56</v>
+      </c>
+      <c r="G775" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>1428</v>
+      </c>
+      <c r="B776" t="s">
+        <v>193</v>
+      </c>
+      <c r="C776" vm="267">
+        <v>45470</v>
+      </c>
+      <c r="D776" t="s">
+        <v>29</v>
+      </c>
+      <c r="E776">
+        <v>385</v>
+      </c>
+      <c r="F776">
+        <v>810.86</v>
+      </c>
+      <c r="G776" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A777">
+        <v>1230</v>
+      </c>
+      <c r="B777" t="s">
+        <v>190</v>
+      </c>
+      <c r="C777" vm="268">
+        <v>45476</v>
+      </c>
+      <c r="D777" t="s">
+        <v>29</v>
+      </c>
+      <c r="E777">
+        <v>379</v>
+      </c>
+      <c r="F777">
+        <v>1101.82</v>
+      </c>
+      <c r="G777" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>1429</v>
+      </c>
+      <c r="B778" t="s">
+        <v>193</v>
+      </c>
+      <c r="C778" vm="269">
+        <v>45477</v>
+      </c>
+      <c r="D778" t="s">
+        <v>29</v>
+      </c>
+      <c r="E778">
+        <v>378</v>
+      </c>
+      <c r="F778">
+        <v>570.34</v>
+      </c>
+      <c r="G778" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>1231</v>
+      </c>
+      <c r="B779" t="s">
+        <v>190</v>
+      </c>
+      <c r="C779" vm="137">
+        <v>45478</v>
+      </c>
+      <c r="D779" t="s">
+        <v>29</v>
+      </c>
+      <c r="E779">
+        <v>377</v>
+      </c>
+      <c r="F779">
+        <v>406.74</v>
+      </c>
+      <c r="G779" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>1232</v>
+      </c>
+      <c r="B780" t="s">
+        <v>190</v>
+      </c>
+      <c r="C780" vm="270">
+        <v>45483</v>
+      </c>
+      <c r="D780" t="s">
+        <v>29</v>
+      </c>
+      <c r="E780">
+        <v>372</v>
+      </c>
+      <c r="F780">
+        <v>845.74</v>
+      </c>
+      <c r="G780" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A781">
+        <v>1430</v>
+      </c>
+      <c r="B781" t="s">
+        <v>193</v>
+      </c>
+      <c r="C781" vm="271">
+        <v>45484</v>
+      </c>
+      <c r="D781" t="s">
+        <v>29</v>
+      </c>
+      <c r="E781">
+        <v>371</v>
+      </c>
+      <c r="F781">
+        <v>534.62</v>
+      </c>
+      <c r="G781" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A782">
+        <v>1233</v>
+      </c>
+      <c r="B782" t="s">
+        <v>190</v>
+      </c>
+      <c r="C782" vm="272">
+        <v>45485</v>
+      </c>
+      <c r="D782" t="s">
+        <v>29</v>
+      </c>
+      <c r="E782">
+        <v>370</v>
+      </c>
+      <c r="F782">
+        <v>239.32</v>
+      </c>
+      <c r="G782" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A783">
+        <v>1579</v>
+      </c>
+      <c r="B783" t="s">
+        <v>182</v>
+      </c>
+      <c r="C783" vm="273">
+        <v>45486</v>
+      </c>
+      <c r="D783" t="s">
+        <v>29</v>
+      </c>
+      <c r="E783">
+        <v>369</v>
+      </c>
+      <c r="F783">
+        <v>1145.4000000000001</v>
+      </c>
+      <c r="G783" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A784">
+        <v>1580</v>
+      </c>
+      <c r="B784" t="s">
+        <v>182</v>
+      </c>
+      <c r="C784" vm="274">
+        <v>45490</v>
+      </c>
+      <c r="D784" t="s">
+        <v>29</v>
+      </c>
+      <c r="E784">
+        <v>365</v>
+      </c>
+      <c r="F784">
+        <v>533.66</v>
+      </c>
+      <c r="G784" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="785" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A785">
+        <v>1432</v>
+      </c>
+      <c r="B785" t="s">
+        <v>193</v>
+      </c>
+      <c r="C785" vm="275">
+        <v>45491</v>
+      </c>
+      <c r="D785" t="s">
+        <v>29</v>
+      </c>
+      <c r="E785">
+        <v>364</v>
+      </c>
+      <c r="F785">
+        <v>812.82</v>
+      </c>
+      <c r="G785" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A786">
+        <v>791</v>
+      </c>
+      <c r="B786" t="s">
+        <v>195</v>
+      </c>
+      <c r="C786" vm="276">
+        <v>45493</v>
+      </c>
+      <c r="D786" t="s">
+        <v>29</v>
+      </c>
+      <c r="E786">
+        <v>362</v>
+      </c>
+      <c r="F786">
+        <v>325.42</v>
+      </c>
+      <c r="G786" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A787">
+        <v>1405</v>
+      </c>
+      <c r="B787" t="s">
+        <v>196</v>
+      </c>
+      <c r="C787" vm="276">
+        <v>45493</v>
+      </c>
+      <c r="D787" t="s">
+        <v>29</v>
+      </c>
+      <c r="E787">
+        <v>362</v>
+      </c>
+      <c r="F787">
+        <v>557.08000000000004</v>
+      </c>
+      <c r="G787" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A788">
+        <v>1581</v>
+      </c>
+      <c r="B788" t="s">
+        <v>182</v>
+      </c>
+      <c r="C788" vm="276">
+        <v>45493</v>
+      </c>
+      <c r="D788" t="s">
+        <v>29</v>
+      </c>
+      <c r="E788">
+        <v>362</v>
+      </c>
+      <c r="F788">
+        <v>1478.5</v>
+      </c>
+      <c r="G788" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A789">
+        <v>1434</v>
+      </c>
+      <c r="B789" t="s">
+        <v>193</v>
+      </c>
+      <c r="C789" vm="277">
+        <v>45498</v>
+      </c>
+      <c r="D789" t="s">
+        <v>29</v>
+      </c>
+      <c r="E789">
+        <v>357</v>
+      </c>
+      <c r="F789">
+        <v>738.3</v>
+      </c>
+      <c r="G789" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="790" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A790">
+        <v>1435</v>
+      </c>
+      <c r="B790" t="s">
+        <v>193</v>
+      </c>
+      <c r="C790" vm="277">
+        <v>45498</v>
+      </c>
+      <c r="D790" t="s">
+        <v>29</v>
+      </c>
+      <c r="E790">
+        <v>357</v>
+      </c>
+      <c r="F790">
+        <v>742.86</v>
+      </c>
+      <c r="G790" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="791" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A791">
+        <v>1583</v>
+      </c>
+      <c r="B791" t="s">
+        <v>182</v>
+      </c>
+      <c r="C791" vm="278">
+        <v>45500</v>
+      </c>
+      <c r="D791" t="s">
+        <v>29</v>
+      </c>
+      <c r="E791">
+        <v>355</v>
+      </c>
+      <c r="F791">
+        <v>1458.09</v>
+      </c>
+      <c r="G791" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="792" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A792">
+        <v>1584</v>
+      </c>
+      <c r="B792" t="s">
+        <v>182</v>
+      </c>
+      <c r="C792" vm="279">
+        <v>45504</v>
+      </c>
+      <c r="D792" t="s">
+        <v>29</v>
+      </c>
+      <c r="E792">
+        <v>351</v>
+      </c>
+      <c r="F792">
+        <v>446.09</v>
+      </c>
+      <c r="G792" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="793" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A793">
+        <v>1436</v>
+      </c>
+      <c r="B793" t="s">
+        <v>193</v>
+      </c>
+      <c r="C793" vm="280">
+        <v>45505</v>
+      </c>
+      <c r="D793" t="s">
+        <v>29</v>
+      </c>
+      <c r="E793">
+        <v>350</v>
+      </c>
+      <c r="F793">
+        <v>522.28</v>
+      </c>
+      <c r="G793" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="794" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A794">
+        <v>1585</v>
+      </c>
+      <c r="B794" t="s">
+        <v>182</v>
+      </c>
+      <c r="C794" vm="281">
+        <v>45507</v>
+      </c>
+      <c r="D794" t="s">
+        <v>29</v>
+      </c>
+      <c r="E794">
+        <v>348</v>
+      </c>
+      <c r="F794">
+        <v>339.47</v>
+      </c>
+      <c r="G794" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="795" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A795">
+        <v>1586</v>
+      </c>
+      <c r="B795" t="s">
+        <v>182</v>
+      </c>
+      <c r="C795" vm="282">
+        <v>45508</v>
+      </c>
+      <c r="D795" t="s">
+        <v>29</v>
+      </c>
+      <c r="E795">
+        <v>347</v>
+      </c>
+      <c r="F795">
+        <v>663.58</v>
+      </c>
+      <c r="G795" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="796" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A796">
+        <v>1587</v>
+      </c>
+      <c r="B796" t="s">
+        <v>182</v>
+      </c>
+      <c r="C796" vm="283">
+        <v>45511</v>
+      </c>
+      <c r="D796" t="s">
+        <v>29</v>
+      </c>
+      <c r="E796">
+        <v>344</v>
+      </c>
+      <c r="F796">
+        <v>369.26</v>
+      </c>
+      <c r="G796" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="797" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>1588</v>
+      </c>
+      <c r="B797" t="s">
+        <v>182</v>
+      </c>
+      <c r="C797" vm="283">
+        <v>45511</v>
+      </c>
+      <c r="D797" t="s">
+        <v>29</v>
+      </c>
+      <c r="E797">
+        <v>344</v>
+      </c>
+      <c r="F797">
+        <v>23.85</v>
+      </c>
+      <c r="G797" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="798" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A798">
+        <v>1437</v>
+      </c>
+      <c r="B798" t="s">
+        <v>193</v>
+      </c>
+      <c r="C798" vm="284">
+        <v>45512</v>
+      </c>
+      <c r="D798" t="s">
+        <v>29</v>
+      </c>
+      <c r="E798">
+        <v>343</v>
+      </c>
+      <c r="F798">
+        <v>600.01</v>
+      </c>
+      <c r="G798" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="799" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A799">
+        <v>1589</v>
+      </c>
+      <c r="B799" t="s">
+        <v>182</v>
+      </c>
+      <c r="C799" vm="285">
+        <v>45514</v>
+      </c>
+      <c r="D799" t="s">
+        <v>29</v>
+      </c>
+      <c r="E799">
+        <v>341</v>
+      </c>
+      <c r="F799">
+        <v>1234.1099999999999</v>
+      </c>
+      <c r="G799" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="800" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A800">
+        <v>1590</v>
+      </c>
+      <c r="B800" t="s">
+        <v>182</v>
+      </c>
+      <c r="C800" vm="286">
+        <v>45515</v>
+      </c>
+      <c r="D800" t="s">
+        <v>29</v>
+      </c>
+      <c r="E800">
+        <v>340</v>
+      </c>
+      <c r="F800">
+        <v>151.81</v>
+      </c>
+      <c r="G800" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A801">
+        <v>1591</v>
+      </c>
+      <c r="B801" t="s">
+        <v>182</v>
+      </c>
+      <c r="C801" vm="287">
+        <v>45518</v>
+      </c>
+      <c r="D801" t="s">
+        <v>29</v>
+      </c>
+      <c r="E801">
+        <v>337</v>
+      </c>
+      <c r="F801">
+        <v>642.67999999999995</v>
+      </c>
+      <c r="G801" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A802">
+        <v>1438</v>
+      </c>
+      <c r="B802" t="s">
+        <v>193</v>
+      </c>
+      <c r="C802" vm="288">
+        <v>45519</v>
+      </c>
+      <c r="D802" t="s">
+        <v>29</v>
+      </c>
+      <c r="E802">
+        <v>336</v>
+      </c>
+      <c r="F802">
+        <v>542.08000000000004</v>
+      </c>
+      <c r="G802" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A803">
+        <v>1234</v>
+      </c>
+      <c r="B803" t="s">
+        <v>190</v>
+      </c>
+      <c r="C803" vm="289">
+        <v>45520</v>
+      </c>
+      <c r="D803" t="s">
+        <v>29</v>
+      </c>
+      <c r="E803">
+        <v>335</v>
+      </c>
+      <c r="F803">
+        <v>999.6</v>
+      </c>
+      <c r="G803" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A804">
+        <v>1592</v>
+      </c>
+      <c r="B804" t="s">
+        <v>182</v>
+      </c>
+      <c r="C804" vm="139">
+        <v>45521</v>
+      </c>
+      <c r="D804" t="s">
+        <v>29</v>
+      </c>
+      <c r="E804">
+        <v>334</v>
+      </c>
+      <c r="F804">
+        <v>863.11</v>
+      </c>
+      <c r="G804" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A805">
+        <v>1593</v>
+      </c>
+      <c r="B805" t="s">
+        <v>182</v>
+      </c>
+      <c r="C805" vm="290">
+        <v>45524</v>
+      </c>
+      <c r="D805" t="s">
+        <v>29</v>
+      </c>
+      <c r="E805">
+        <v>331</v>
+      </c>
+      <c r="F805">
+        <v>25.86</v>
+      </c>
+      <c r="G805" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A806">
+        <v>1594</v>
+      </c>
+      <c r="B806" t="s">
+        <v>182</v>
+      </c>
+      <c r="C806" vm="291">
+        <v>45525</v>
+      </c>
+      <c r="D806" t="s">
+        <v>29</v>
+      </c>
+      <c r="E806">
+        <v>330</v>
+      </c>
+      <c r="F806">
+        <v>720.95</v>
+      </c>
+      <c r="G806" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A807">
+        <v>1439</v>
+      </c>
+      <c r="B807" t="s">
+        <v>193</v>
+      </c>
+      <c r="C807" vm="292">
+        <v>45526</v>
+      </c>
+      <c r="D807" t="s">
+        <v>29</v>
+      </c>
+      <c r="E807">
+        <v>329</v>
+      </c>
+      <c r="F807">
+        <v>501.46</v>
+      </c>
+      <c r="G807" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A808">
+        <v>1406</v>
+      </c>
+      <c r="B808" t="s">
+        <v>196</v>
+      </c>
+      <c r="C808" vm="141">
+        <v>45528</v>
+      </c>
+      <c r="D808" t="s">
+        <v>29</v>
+      </c>
+      <c r="E808">
+        <v>327</v>
+      </c>
+      <c r="F808">
+        <v>368.73</v>
+      </c>
+      <c r="G808" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="809" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A809">
+        <v>1595</v>
+      </c>
+      <c r="B809" t="s">
+        <v>182</v>
+      </c>
+      <c r="C809" vm="141">
+        <v>45528</v>
+      </c>
+      <c r="D809" t="s">
+        <v>29</v>
+      </c>
+      <c r="E809">
+        <v>327</v>
+      </c>
+      <c r="F809">
+        <v>1124.29</v>
+      </c>
+      <c r="G809" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="810" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A810">
+        <v>1596</v>
+      </c>
+      <c r="B810" t="s">
+        <v>182</v>
+      </c>
+      <c r="C810" vm="141">
+        <v>45528</v>
+      </c>
+      <c r="D810" t="s">
+        <v>29</v>
+      </c>
+      <c r="E810">
+        <v>327</v>
+      </c>
+      <c r="F810">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="G810" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A811">
+        <v>1597</v>
+      </c>
+      <c r="B811" t="s">
+        <v>182</v>
+      </c>
+      <c r="C811" vm="293">
+        <v>45532</v>
+      </c>
+      <c r="D811" t="s">
+        <v>29</v>
+      </c>
+      <c r="E811">
+        <v>323</v>
+      </c>
+      <c r="F811">
+        <v>528.11</v>
+      </c>
+      <c r="G811" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="812" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A812">
+        <v>1440</v>
+      </c>
+      <c r="B812" t="s">
+        <v>193</v>
+      </c>
+      <c r="C812" vm="294">
+        <v>45533</v>
+      </c>
+      <c r="D812" t="s">
+        <v>29</v>
+      </c>
+      <c r="E812">
+        <v>322</v>
+      </c>
+      <c r="F812">
+        <v>349.04</v>
+      </c>
+      <c r="G812" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A813">
+        <v>1442</v>
+      </c>
+      <c r="B813" t="s">
+        <v>193</v>
+      </c>
+      <c r="C813" vm="142">
+        <v>45535</v>
+      </c>
+      <c r="D813" t="s">
+        <v>29</v>
+      </c>
+      <c r="E813">
+        <v>320</v>
+      </c>
+      <c r="F813">
+        <v>293.86</v>
+      </c>
+      <c r="G813" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A814">
+        <v>1599</v>
+      </c>
+      <c r="B814" t="s">
+        <v>182</v>
+      </c>
+      <c r="C814" vm="142">
+        <v>45535</v>
+      </c>
+      <c r="D814" t="s">
+        <v>29</v>
+      </c>
+      <c r="E814">
+        <v>320</v>
+      </c>
+      <c r="F814">
+        <v>194.88</v>
+      </c>
+      <c r="G814" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A815">
+        <v>1600</v>
+      </c>
+      <c r="B815" t="s">
+        <v>182</v>
+      </c>
+      <c r="C815" vm="142">
+        <v>45535</v>
+      </c>
+      <c r="D815" t="s">
+        <v>29</v>
+      </c>
+      <c r="E815">
+        <v>320</v>
+      </c>
+      <c r="F815">
+        <v>734.02</v>
+      </c>
+      <c r="G815" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A816">
+        <v>1602</v>
+      </c>
+      <c r="B816" t="s">
+        <v>182</v>
+      </c>
+      <c r="C816" vm="295">
+        <v>45536</v>
+      </c>
+      <c r="D816" t="s">
+        <v>29</v>
+      </c>
+      <c r="E816">
+        <v>319</v>
+      </c>
+      <c r="F816">
+        <v>47.61</v>
+      </c>
+      <c r="G816" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A817">
+        <v>1604</v>
+      </c>
+      <c r="B817" t="s">
+        <v>182</v>
+      </c>
+      <c r="C817" vm="296">
+        <v>45539</v>
+      </c>
+      <c r="D817" t="s">
+        <v>29</v>
+      </c>
+      <c r="E817">
+        <v>316</v>
+      </c>
+      <c r="F817">
+        <v>436.53</v>
+      </c>
+      <c r="G817" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A818">
+        <v>1443</v>
+      </c>
+      <c r="B818" t="s">
+        <v>193</v>
+      </c>
+      <c r="C818" vm="297">
+        <v>45540</v>
+      </c>
+      <c r="D818" t="s">
+        <v>29</v>
+      </c>
+      <c r="E818">
+        <v>315</v>
+      </c>
+      <c r="F818">
+        <v>641.37</v>
+      </c>
+      <c r="G818" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A819">
+        <v>1407</v>
+      </c>
+      <c r="B819" t="s">
+        <v>196</v>
+      </c>
+      <c r="C819" vm="298">
+        <v>45542</v>
+      </c>
+      <c r="D819" t="s">
+        <v>29</v>
+      </c>
+      <c r="E819">
+        <v>313</v>
+      </c>
+      <c r="F819">
+        <v>325.08999999999997</v>
+      </c>
+      <c r="G819" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A820">
+        <v>1606</v>
+      </c>
+      <c r="B820" t="s">
+        <v>182</v>
+      </c>
+      <c r="C820" vm="298">
+        <v>45542</v>
+      </c>
+      <c r="D820" t="s">
+        <v>29</v>
+      </c>
+      <c r="E820">
+        <v>313</v>
+      </c>
+      <c r="F820">
+        <v>1260.6400000000001</v>
+      </c>
+      <c r="G820" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A821">
+        <v>1607</v>
+      </c>
+      <c r="B821" t="s">
+        <v>182</v>
+      </c>
+      <c r="C821" vm="298">
+        <v>45542</v>
+      </c>
+      <c r="D821" t="s">
+        <v>29</v>
+      </c>
+      <c r="E821">
+        <v>313</v>
+      </c>
+      <c r="F821">
+        <v>15.58</v>
+      </c>
+      <c r="G821" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A822">
+        <v>1608</v>
+      </c>
+      <c r="B822" t="s">
+        <v>182</v>
+      </c>
+      <c r="C822" vm="299">
+        <v>45546</v>
+      </c>
+      <c r="D822" t="s">
+        <v>29</v>
+      </c>
+      <c r="E822">
+        <v>309</v>
+      </c>
+      <c r="F822">
+        <v>508.56</v>
+      </c>
+      <c r="G822" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A823">
+        <v>1444</v>
+      </c>
+      <c r="B823" t="s">
+        <v>193</v>
+      </c>
+      <c r="C823" vm="300">
+        <v>45547</v>
+      </c>
+      <c r="D823" t="s">
+        <v>29</v>
+      </c>
+      <c r="E823">
+        <v>308</v>
+      </c>
+      <c r="F823">
+        <v>704.85</v>
+      </c>
+      <c r="G823" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A824">
+        <v>1609</v>
+      </c>
+      <c r="B824" t="s">
+        <v>182</v>
+      </c>
+      <c r="C824" vm="300">
+        <v>45547</v>
+      </c>
+      <c r="D824" t="s">
+        <v>29</v>
+      </c>
+      <c r="E824">
+        <v>308</v>
+      </c>
+      <c r="F824">
+        <v>394.33</v>
+      </c>
+      <c r="G824" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A825">
+        <v>1611</v>
+      </c>
+      <c r="B825" t="s">
+        <v>182</v>
+      </c>
+      <c r="C825" vm="301">
+        <v>45550</v>
+      </c>
+      <c r="D825" t="s">
+        <v>29</v>
+      </c>
+      <c r="E825">
+        <v>305</v>
+      </c>
+      <c r="F825">
+        <v>1322.84</v>
+      </c>
+      <c r="G825" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A826">
+        <v>1891</v>
+      </c>
+      <c r="B826" t="s">
+        <v>197</v>
+      </c>
+      <c r="C826" vm="302">
+        <v>45569</v>
+      </c>
+      <c r="D826" t="s">
+        <v>29</v>
+      </c>
+      <c r="E826">
+        <v>286</v>
+      </c>
+      <c r="F826">
+        <v>5909.71</v>
+      </c>
+      <c r="G826" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A827">
+        <v>1892</v>
+      </c>
+      <c r="B827" t="s">
+        <v>198</v>
+      </c>
+      <c r="C827" vm="169">
+        <v>45583</v>
+      </c>
+      <c r="D827" t="s">
+        <v>29</v>
+      </c>
+      <c r="E827">
+        <v>272</v>
+      </c>
+      <c r="F827">
+        <v>292.51</v>
+      </c>
+      <c r="G827" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A828">
+        <v>855</v>
+      </c>
+      <c r="B828" t="s">
+        <v>198</v>
+      </c>
+      <c r="C828" vm="171">
+        <v>45590</v>
+      </c>
+      <c r="D828" t="s">
+        <v>29</v>
+      </c>
+      <c r="E828">
+        <v>265</v>
+      </c>
+      <c r="F828">
+        <v>501.57</v>
+      </c>
+      <c r="G828" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A829">
+        <v>856</v>
+      </c>
+      <c r="B829" t="s">
+        <v>198</v>
+      </c>
+      <c r="C829" vm="82">
+        <v>45591</v>
+      </c>
+      <c r="D829" t="s">
+        <v>29</v>
+      </c>
+      <c r="E829">
+        <v>264</v>
+      </c>
+      <c r="F829">
+        <v>282.33</v>
+      </c>
+      <c r="G829" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A830">
+        <v>858</v>
+      </c>
+      <c r="B830" t="s">
+        <v>198</v>
+      </c>
+      <c r="C830" vm="303">
+        <v>45598</v>
+      </c>
+      <c r="D830" t="s">
+        <v>29</v>
+      </c>
+      <c r="E830">
+        <v>257</v>
+      </c>
+      <c r="F830">
+        <v>1120.28</v>
+      </c>
+      <c r="G830" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A831">
+        <v>859</v>
+      </c>
+      <c r="B831" t="s">
+        <v>198</v>
+      </c>
+      <c r="C831" vm="303">
+        <v>45598</v>
+      </c>
+      <c r="D831" t="s">
+        <v>29</v>
+      </c>
+      <c r="E831">
+        <v>257</v>
+      </c>
+      <c r="F831">
+        <v>57.67</v>
+      </c>
+      <c r="G831" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A832">
+        <v>860</v>
+      </c>
+      <c r="B832" t="s">
+        <v>198</v>
+      </c>
+      <c r="C832" vm="173">
+        <v>45599</v>
+      </c>
+      <c r="D832" t="s">
+        <v>29</v>
+      </c>
+      <c r="E832">
+        <v>256</v>
+      </c>
+      <c r="F832">
+        <v>301.74</v>
+      </c>
+      <c r="G832" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A833">
+        <v>861</v>
+      </c>
+      <c r="B833" t="s">
+        <v>198</v>
+      </c>
+      <c r="C833" vm="86">
+        <v>45604</v>
+      </c>
+      <c r="D833" t="s">
+        <v>29</v>
+      </c>
+      <c r="E833">
+        <v>251</v>
+      </c>
+      <c r="F833">
+        <v>758.25</v>
+      </c>
+      <c r="G833" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A834">
+        <v>862</v>
+      </c>
+      <c r="B834" t="s">
+        <v>198</v>
+      </c>
+      <c r="C834" vm="86">
+        <v>45604</v>
+      </c>
+      <c r="D834" t="s">
+        <v>29</v>
+      </c>
+      <c r="E834">
+        <v>251</v>
+      </c>
+      <c r="F834">
+        <v>29.15</v>
+      </c>
+      <c r="G834" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A835">
+        <v>1893</v>
+      </c>
+      <c r="B835" t="s">
+        <v>198</v>
+      </c>
+      <c r="C835" vm="86">
+        <v>45604</v>
+      </c>
+      <c r="D835" t="s">
+        <v>29</v>
+      </c>
+      <c r="E835">
+        <v>251</v>
+      </c>
+      <c r="F835">
+        <v>507.96</v>
+      </c>
+      <c r="G835" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="836" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A836">
+        <v>1894</v>
+      </c>
+      <c r="B836" t="s">
+        <v>198</v>
+      </c>
+      <c r="C836" vm="42">
+        <v>45605</v>
+      </c>
+      <c r="D836" t="s">
+        <v>29</v>
+      </c>
+      <c r="E836">
+        <v>250</v>
+      </c>
+      <c r="F836">
+        <v>201.07</v>
+      </c>
+      <c r="G836" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="837" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A837">
+        <v>863</v>
+      </c>
+      <c r="B837" t="s">
+        <v>198</v>
+      </c>
+      <c r="C837" vm="174">
+        <v>45606</v>
+      </c>
+      <c r="D837" t="s">
+        <v>29</v>
+      </c>
+      <c r="E837">
+        <v>249</v>
+      </c>
+      <c r="F837">
+        <v>328.79</v>
+      </c>
+      <c r="G837" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="838" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A838">
+        <v>864</v>
+      </c>
+      <c r="B838" t="s">
+        <v>198</v>
+      </c>
+      <c r="C838" vm="89">
+        <v>45612</v>
+      </c>
+      <c r="D838" t="s">
+        <v>29</v>
+      </c>
+      <c r="E838">
+        <v>243</v>
+      </c>
+      <c r="F838">
+        <v>858.25</v>
+      </c>
+      <c r="G838" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="839" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A839">
+        <v>865</v>
+      </c>
+      <c r="B839" t="s">
+        <v>198</v>
+      </c>
+      <c r="C839" vm="175">
+        <v>45613</v>
+      </c>
+      <c r="D839" t="s">
+        <v>29</v>
+      </c>
+      <c r="E839">
+        <v>242</v>
+      </c>
+      <c r="F839">
+        <v>266.19</v>
+      </c>
+      <c r="G839" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="840" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A840">
+        <v>1849</v>
+      </c>
+      <c r="B840" t="s">
+        <v>199</v>
+      </c>
+      <c r="C840" vm="304">
+        <v>45617</v>
+      </c>
+      <c r="D840" t="s">
+        <v>29</v>
+      </c>
+      <c r="E840">
+        <v>238</v>
+      </c>
+      <c r="F840">
+        <v>980.96</v>
+      </c>
+      <c r="G840" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="841" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A841">
+        <v>1850</v>
+      </c>
+      <c r="B841" t="s">
+        <v>199</v>
+      </c>
+      <c r="C841" vm="91">
+        <v>45618</v>
+      </c>
+      <c r="D841" t="s">
+        <v>29</v>
+      </c>
+      <c r="E841">
+        <v>237</v>
+      </c>
+      <c r="F841">
+        <v>350.46</v>
+      </c>
+      <c r="G841" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="842" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A842">
+        <v>866</v>
+      </c>
+      <c r="B842" t="s">
+        <v>198</v>
+      </c>
+      <c r="C842" vm="92">
+        <v>45619</v>
+      </c>
+      <c r="D842" t="s">
+        <v>29</v>
+      </c>
+      <c r="E842">
+        <v>236</v>
+      </c>
+      <c r="F842">
+        <v>1118.7</v>
+      </c>
+      <c r="G842" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="843" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A843">
+        <v>867</v>
+      </c>
+      <c r="B843" t="s">
+        <v>198</v>
+      </c>
+      <c r="C843" vm="176">
+        <v>45620</v>
+      </c>
+      <c r="D843" t="s">
+        <v>29</v>
+      </c>
+      <c r="E843">
+        <v>235</v>
+      </c>
+      <c r="F843">
+        <v>365.37</v>
+      </c>
+      <c r="G843" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="844" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A844">
+        <v>1851</v>
+      </c>
+      <c r="B844" t="s">
+        <v>199</v>
+      </c>
+      <c r="C844" vm="305">
+        <v>45621</v>
+      </c>
+      <c r="D844" t="s">
+        <v>29</v>
+      </c>
+      <c r="E844">
+        <v>234</v>
+      </c>
+      <c r="F844">
+        <v>364.92</v>
+      </c>
+      <c r="G844" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="845" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A845">
+        <v>1852</v>
+      </c>
+      <c r="B845" t="s">
+        <v>199</v>
+      </c>
+      <c r="C845" vm="306">
+        <v>45622</v>
+      </c>
+      <c r="D845" t="s">
+        <v>29</v>
+      </c>
+      <c r="E845">
+        <v>233</v>
+      </c>
+      <c r="F845">
+        <v>522.33000000000004</v>
+      </c>
+      <c r="G845" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="846" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A846">
+        <v>1853</v>
+      </c>
+      <c r="B846" t="s">
+        <v>199</v>
+      </c>
+      <c r="C846" vm="145">
+        <v>45624</v>
+      </c>
+      <c r="D846" t="s">
+        <v>29</v>
+      </c>
+      <c r="E846">
+        <v>231</v>
+      </c>
+      <c r="F846">
+        <v>714.91</v>
+      </c>
+      <c r="G846" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="847" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A847">
+        <v>868</v>
+      </c>
+      <c r="B847" t="s">
+        <v>198</v>
+      </c>
+      <c r="C847" vm="177">
+        <v>45625</v>
+      </c>
+      <c r="D847" t="s">
+        <v>29</v>
+      </c>
+      <c r="E847">
+        <v>230</v>
+      </c>
+      <c r="F847">
+        <v>1035.3599999999999</v>
+      </c>
+      <c r="G847" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="848" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A848">
+        <v>1854</v>
+      </c>
+      <c r="B848" t="s">
+        <v>199</v>
+      </c>
+      <c r="C848" vm="177">
+        <v>45625</v>
+      </c>
+      <c r="D848" t="s">
+        <v>29</v>
+      </c>
+      <c r="E848">
+        <v>230</v>
+      </c>
+      <c r="F848">
+        <v>377.9</v>
+      </c>
+      <c r="G848" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="849" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A849">
+        <v>869</v>
+      </c>
+      <c r="B849" t="s">
+        <v>198</v>
+      </c>
+      <c r="C849" vm="94">
+        <v>45626</v>
+      </c>
+      <c r="D849" t="s">
+        <v>29</v>
+      </c>
+      <c r="E849">
+        <v>229</v>
+      </c>
+      <c r="F849">
+        <v>47.81</v>
+      </c>
+      <c r="G849" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="850" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A850">
+        <v>1855</v>
+      </c>
+      <c r="B850" t="s">
+        <v>199</v>
+      </c>
+      <c r="C850" vm="307">
+        <v>45630</v>
+      </c>
+      <c r="D850" t="s">
+        <v>29</v>
+      </c>
+      <c r="E850">
+        <v>225</v>
+      </c>
+      <c r="F850">
+        <v>1266.22</v>
+      </c>
+      <c r="G850" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="851" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A851">
+        <v>1856</v>
+      </c>
+      <c r="B851" t="s">
+        <v>199</v>
+      </c>
+      <c r="C851" vm="147">
+        <v>45631</v>
+      </c>
+      <c r="D851" t="s">
+        <v>29</v>
+      </c>
+      <c r="E851">
+        <v>224</v>
+      </c>
+      <c r="F851">
+        <v>506.5</v>
+      </c>
+      <c r="G851" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="852" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A852">
+        <v>870</v>
+      </c>
+      <c r="B852" t="s">
+        <v>198</v>
+      </c>
+      <c r="C852" vm="96">
+        <v>45633</v>
+      </c>
+      <c r="D852" t="s">
+        <v>29</v>
+      </c>
+      <c r="E852">
+        <v>222</v>
+      </c>
+      <c r="F852">
+        <v>1274.8399999999999</v>
+      </c>
+      <c r="G852" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="853" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A853">
+        <v>1857</v>
+      </c>
+      <c r="B853" t="s">
+        <v>199</v>
+      </c>
+      <c r="C853" vm="308">
+        <v>45635</v>
+      </c>
+      <c r="D853" t="s">
+        <v>29</v>
+      </c>
+      <c r="E853">
+        <v>220</v>
+      </c>
+      <c r="F853">
+        <v>646.92999999999995</v>
+      </c>
+      <c r="G853" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="854" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A854">
+        <v>1858</v>
+      </c>
+      <c r="B854" t="s">
+        <v>199</v>
+      </c>
+      <c r="C854" vm="148">
+        <v>45638</v>
+      </c>
+      <c r="D854" t="s">
+        <v>29</v>
+      </c>
+      <c r="E854">
+        <v>217</v>
+      </c>
+      <c r="F854">
+        <v>1042.23</v>
+      </c>
+      <c r="G854" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="855" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A855">
+        <v>871</v>
+      </c>
+      <c r="B855" t="s">
+        <v>198</v>
+      </c>
+      <c r="C855" vm="180">
+        <v>45639</v>
+      </c>
+      <c r="D855" t="s">
+        <v>29</v>
+      </c>
+      <c r="E855">
+        <v>216</v>
+      </c>
+      <c r="F855">
+        <v>191.2</v>
+      </c>
+      <c r="G855" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="856" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A856">
+        <v>1859</v>
+      </c>
+      <c r="B856" t="s">
+        <v>199</v>
+      </c>
+      <c r="C856" vm="180">
+        <v>45639</v>
+      </c>
+      <c r="D856" t="s">
+        <v>29</v>
+      </c>
+      <c r="E856">
+        <v>216</v>
+      </c>
+      <c r="F856">
+        <v>128.13999999999999</v>
+      </c>
+      <c r="G856" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="857" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A857">
+        <v>1895</v>
+      </c>
+      <c r="B857" t="s">
+        <v>198</v>
+      </c>
+      <c r="C857" vm="180">
+        <v>45639</v>
+      </c>
+      <c r="D857" t="s">
+        <v>29</v>
+      </c>
+      <c r="E857">
+        <v>216</v>
+      </c>
+      <c r="F857">
+        <v>1146.93</v>
+      </c>
+      <c r="G857" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="858" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A858">
+        <v>872</v>
+      </c>
+      <c r="B858" t="s">
+        <v>198</v>
+      </c>
+      <c r="C858" vm="309">
+        <v>45640</v>
+      </c>
+      <c r="D858" t="s">
+        <v>29</v>
+      </c>
+      <c r="E858">
+        <v>215</v>
+      </c>
+      <c r="F858">
+        <v>924.54</v>
+      </c>
+      <c r="G858" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="859" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A859">
+        <v>873</v>
+      </c>
+      <c r="B859" t="s">
+        <v>198</v>
+      </c>
+      <c r="C859" vm="181">
+        <v>45641</v>
+      </c>
+      <c r="D859" t="s">
+        <v>29</v>
+      </c>
+      <c r="E859">
+        <v>214</v>
+      </c>
+      <c r="F859">
+        <v>78.19</v>
+      </c>
+      <c r="G859" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="860" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A860">
+        <v>874</v>
+      </c>
+      <c r="B860" t="s">
+        <v>198</v>
+      </c>
+      <c r="C860" vm="181">
+        <v>45641</v>
+      </c>
+      <c r="D860" t="s">
+        <v>29</v>
+      </c>
+      <c r="E860">
+        <v>214</v>
+      </c>
+      <c r="F860">
+        <v>23.85</v>
+      </c>
+      <c r="G860" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="861" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A861">
+        <v>1860</v>
+      </c>
+      <c r="B861" t="s">
+        <v>199</v>
+      </c>
+      <c r="C861" vm="310">
+        <v>45643</v>
+      </c>
+      <c r="D861" t="s">
+        <v>29</v>
+      </c>
+      <c r="E861">
+        <v>212</v>
+      </c>
+      <c r="F861">
+        <v>371.94</v>
+      </c>
+      <c r="G861" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="862" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A862">
+        <v>1861</v>
+      </c>
+      <c r="B862" t="s">
+        <v>199</v>
+      </c>
+      <c r="C862" vm="311">
+        <v>45644</v>
+      </c>
+      <c r="D862" t="s">
+        <v>29</v>
+      </c>
+      <c r="E862">
+        <v>211</v>
+      </c>
+      <c r="F862">
+        <v>810.19</v>
+      </c>
+      <c r="G862" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="863" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A863">
+        <v>1862</v>
+      </c>
+      <c r="B863" t="s">
+        <v>199</v>
+      </c>
+      <c r="C863" vm="182">
+        <v>45646</v>
+      </c>
+      <c r="D863" t="s">
+        <v>29</v>
+      </c>
+      <c r="E863">
+        <v>209</v>
+      </c>
+      <c r="F863">
+        <v>421.74</v>
+      </c>
+      <c r="G863" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="864" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A864">
+        <v>875</v>
+      </c>
+      <c r="B864" t="s">
+        <v>198</v>
+      </c>
+      <c r="C864" vm="312">
+        <v>45647</v>
+      </c>
+      <c r="D864" t="s">
+        <v>29</v>
+      </c>
+      <c r="E864">
+        <v>208</v>
+      </c>
+      <c r="F864">
+        <v>1002.2</v>
+      </c>
+      <c r="G864" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="865" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A865">
+        <v>876</v>
+      </c>
+      <c r="B865" t="s">
+        <v>198</v>
+      </c>
+      <c r="C865" vm="313">
+        <v>45648</v>
+      </c>
+      <c r="D865" t="s">
+        <v>29</v>
+      </c>
+      <c r="E865">
+        <v>207</v>
+      </c>
+      <c r="F865">
+        <v>74.41</v>
+      </c>
+      <c r="G865" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A866">
+        <v>1864</v>
+      </c>
+      <c r="B866" t="s">
+        <v>199</v>
+      </c>
+      <c r="C866" vm="129">
+        <v>45651</v>
+      </c>
+      <c r="D866" t="s">
+        <v>29</v>
+      </c>
+      <c r="E866">
+        <v>204</v>
+      </c>
+      <c r="F866">
+        <v>1476.63</v>
+      </c>
+      <c r="G866" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A867">
+        <v>1865</v>
+      </c>
+      <c r="B867" t="s">
+        <v>199</v>
+      </c>
+      <c r="C867" vm="314">
+        <v>45652</v>
+      </c>
+      <c r="D867" t="s">
+        <v>29</v>
+      </c>
+      <c r="E867">
+        <v>203</v>
+      </c>
+      <c r="F867">
+        <v>850.56</v>
+      </c>
+      <c r="G867" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="868" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A868">
+        <v>877</v>
+      </c>
+      <c r="B868" t="s">
+        <v>198</v>
+      </c>
+      <c r="C868" vm="315">
+        <v>45654</v>
+      </c>
+      <c r="D868" t="s">
+        <v>29</v>
+      </c>
+      <c r="E868">
+        <v>201</v>
+      </c>
+      <c r="F868">
+        <v>661.97</v>
+      </c>
+      <c r="G868" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="869" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A869">
+        <v>878</v>
+      </c>
+      <c r="B869" t="s">
+        <v>198</v>
+      </c>
+      <c r="C869" vm="316">
+        <v>45661</v>
+      </c>
+      <c r="D869" t="s">
+        <v>29</v>
+      </c>
+      <c r="E869">
+        <v>194</v>
+      </c>
+      <c r="F869">
+        <v>970.66</v>
+      </c>
+      <c r="G869" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="870" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A870">
+        <v>879</v>
+      </c>
+      <c r="B870" t="s">
+        <v>198</v>
+      </c>
+      <c r="C870" vm="317">
+        <v>45662</v>
+      </c>
+      <c r="D870" t="s">
+        <v>29</v>
+      </c>
+      <c r="E870">
+        <v>193</v>
+      </c>
+      <c r="F870">
+        <v>173.89</v>
+      </c>
+      <c r="G870" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A871">
+        <v>880</v>
+      </c>
+      <c r="B871" t="s">
+        <v>198</v>
+      </c>
+      <c r="C871" vm="98">
+        <v>45667</v>
+      </c>
+      <c r="D871" t="s">
+        <v>29</v>
+      </c>
+      <c r="E871">
+        <v>188</v>
+      </c>
+      <c r="F871">
+        <v>476.07</v>
+      </c>
+      <c r="G871" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="872" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A872">
+        <v>881</v>
+      </c>
+      <c r="B872" t="s">
+        <v>198</v>
+      </c>
+      <c r="C872" vm="318">
+        <v>45669</v>
+      </c>
+      <c r="D872" t="s">
+        <v>29</v>
+      </c>
+      <c r="E872">
+        <v>186</v>
+      </c>
+      <c r="F872">
+        <v>751.33</v>
+      </c>
+      <c r="G872" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A873">
+        <v>1942</v>
+      </c>
+      <c r="B873" t="s">
+        <v>200</v>
+      </c>
+      <c r="C873" vm="319">
+        <v>45675</v>
+      </c>
+      <c r="D873" t="s">
+        <v>29</v>
+      </c>
+      <c r="E873">
+        <v>180</v>
+      </c>
+      <c r="F873">
+        <v>466.29</v>
+      </c>
+      <c r="G873" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="874" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A874">
+        <v>1866</v>
+      </c>
+      <c r="B874" t="s">
+        <v>199</v>
+      </c>
+      <c r="C874" vm="184">
+        <v>45680</v>
+      </c>
+      <c r="D874" t="s">
+        <v>29</v>
+      </c>
+      <c r="E874">
+        <v>175</v>
+      </c>
+      <c r="F874">
+        <v>232.31</v>
+      </c>
+      <c r="G874" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="875" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A875">
+        <v>1867</v>
+      </c>
+      <c r="B875" t="s">
+        <v>199</v>
+      </c>
+      <c r="C875" vm="320">
+        <v>45685</v>
+      </c>
+      <c r="D875" t="s">
+        <v>29</v>
+      </c>
+      <c r="E875">
+        <v>170</v>
+      </c>
+      <c r="F875">
+        <v>331.78</v>
+      </c>
+      <c r="G875" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="876" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A876">
+        <v>1868</v>
+      </c>
+      <c r="B876" t="s">
+        <v>199</v>
+      </c>
+      <c r="C876" vm="320">
+        <v>45685</v>
+      </c>
+      <c r="D876" t="s">
+        <v>29</v>
+      </c>
+      <c r="E876">
+        <v>170</v>
+      </c>
+      <c r="F876">
+        <v>51.99</v>
+      </c>
+      <c r="G876" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="877" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A877">
+        <v>1869</v>
+      </c>
+      <c r="B877" t="s">
+        <v>199</v>
+      </c>
+      <c r="C877" vm="126">
+        <v>45686</v>
+      </c>
+      <c r="D877" t="s">
+        <v>29</v>
+      </c>
+      <c r="E877">
+        <v>169</v>
+      </c>
+      <c r="F877">
+        <v>388.08</v>
+      </c>
+      <c r="G877" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="878" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A878">
+        <v>1943</v>
+      </c>
+      <c r="B878" t="s">
+        <v>200</v>
+      </c>
+      <c r="C878" vm="186">
+        <v>45690</v>
+      </c>
+      <c r="D878" t="s">
+        <v>29</v>
+      </c>
+      <c r="E878">
+        <v>165</v>
+      </c>
+      <c r="F878">
+        <v>367.21</v>
+      </c>
+      <c r="G878" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="879" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A879">
+        <v>1944</v>
+      </c>
+      <c r="B879" t="s">
+        <v>200</v>
+      </c>
+      <c r="C879" vm="187">
+        <v>45697</v>
+      </c>
+      <c r="D879" t="s">
+        <v>29</v>
+      </c>
+      <c r="E879">
+        <v>158</v>
+      </c>
+      <c r="F879">
+        <v>222.6</v>
+      </c>
+      <c r="G879" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="880" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A880">
+        <v>1797</v>
+      </c>
+      <c r="B880" t="s">
+        <v>201</v>
+      </c>
+      <c r="C880" vm="107">
+        <v>45714</v>
+      </c>
+      <c r="D880" t="s">
+        <v>29</v>
+      </c>
+      <c r="E880">
+        <v>141</v>
+      </c>
+      <c r="F880">
+        <v>2293.62</v>
+      </c>
+      <c r="G880" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="881" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A881">
+        <v>1798</v>
+      </c>
+      <c r="B881" t="s">
+        <v>201</v>
+      </c>
+      <c r="C881" vm="107">
+        <v>45714</v>
+      </c>
+      <c r="D881" t="s">
+        <v>29</v>
+      </c>
+      <c r="E881">
+        <v>141</v>
+      </c>
+      <c r="F881">
+        <v>3913.94</v>
+      </c>
+      <c r="G881" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="882" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A882">
+        <v>1794</v>
+      </c>
+      <c r="B882" t="s">
+        <v>201</v>
+      </c>
+      <c r="C882" vm="122">
+        <v>45674</v>
+      </c>
+      <c r="D882" t="s">
+        <v>29</v>
+      </c>
+      <c r="E882">
+        <v>181</v>
+      </c>
+      <c r="F882">
+        <v>8836.16</v>
+      </c>
+      <c r="G882" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="883" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A883">
+        <v>1795</v>
+      </c>
+      <c r="B883" t="s">
+        <v>201</v>
+      </c>
+      <c r="C883" vm="122">
+        <v>45674</v>
+      </c>
+      <c r="D883" t="s">
+        <v>29</v>
+      </c>
+      <c r="E883">
+        <v>181</v>
+      </c>
+      <c r="F883">
+        <v>3653.82</v>
+      </c>
+      <c r="G883" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="884" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A884">
+        <v>1796</v>
+      </c>
+      <c r="B884" t="s">
+        <v>201</v>
+      </c>
+      <c r="C884" vm="122">
+        <v>45674</v>
+      </c>
+      <c r="D884" t="s">
+        <v>29</v>
+      </c>
+      <c r="E884">
+        <v>181</v>
+      </c>
+      <c r="F884">
+        <v>2285.5700000000002</v>
+      </c>
+      <c r="G884" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="885" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A885">
+        <v>1792</v>
+      </c>
+      <c r="B885" t="s">
+        <v>201</v>
+      </c>
+      <c r="C885" vm="318">
+        <v>45669</v>
+      </c>
+      <c r="D885" t="s">
+        <v>29</v>
+      </c>
+      <c r="E885">
+        <v>186</v>
+      </c>
+      <c r="F885">
+        <v>5072.16</v>
+      </c>
+      <c r="G885" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="886" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A886">
+        <v>1793</v>
+      </c>
+      <c r="B886" t="s">
+        <v>201</v>
+      </c>
+      <c r="C886" vm="318">
+        <v>45669</v>
+      </c>
+      <c r="D886" t="s">
+        <v>29</v>
+      </c>
+      <c r="E886">
+        <v>186</v>
+      </c>
+      <c r="F886">
+        <v>2543.98</v>
+      </c>
+      <c r="G886" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="887" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A887">
+        <v>1790</v>
+      </c>
+      <c r="B887" t="s">
+        <v>201</v>
+      </c>
+      <c r="C887" vm="321">
+        <v>45666</v>
+      </c>
+      <c r="D887" t="s">
+        <v>29</v>
+      </c>
+      <c r="E887">
+        <v>189</v>
+      </c>
+      <c r="F887">
+        <v>1423.62</v>
+      </c>
+      <c r="G887" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="888" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A888">
+        <v>1791</v>
+      </c>
+      <c r="B888" t="s">
+        <v>201</v>
+      </c>
+      <c r="C888" vm="321">
+        <v>45666</v>
+      </c>
+      <c r="D888" t="s">
+        <v>29</v>
+      </c>
+      <c r="E888">
+        <v>189</v>
+      </c>
+      <c r="F888">
+        <v>1780.01</v>
+      </c>
+      <c r="G888" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="889" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A889">
+        <v>1789</v>
+      </c>
+      <c r="B889" t="s">
+        <v>201</v>
+      </c>
+      <c r="C889" vm="322">
+        <v>45655</v>
+      </c>
+      <c r="D889" t="s">
+        <v>29</v>
+      </c>
+      <c r="E889">
+        <v>200</v>
+      </c>
+      <c r="F889">
+        <v>822.42</v>
+      </c>
+      <c r="G889" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="890" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A890">
+        <v>1788</v>
+      </c>
+      <c r="B890" t="s">
+        <v>201</v>
+      </c>
+      <c r="C890" vm="313">
+        <v>45648</v>
+      </c>
+      <c r="D890" t="s">
+        <v>29</v>
+      </c>
+      <c r="E890">
+        <v>207</v>
+      </c>
+      <c r="F890">
+        <v>1332.82</v>
+      </c>
+      <c r="G890" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="891" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A891">
+        <v>1871</v>
+      </c>
+      <c r="B891" t="s">
+        <v>202</v>
+      </c>
+      <c r="C891" vm="23">
+        <v>45849</v>
+      </c>
+      <c r="D891" t="s">
+        <v>23</v>
+      </c>
+      <c r="E891">
+        <v>6</v>
+      </c>
+      <c r="F891">
+        <v>135.85</v>
+      </c>
+      <c r="G891" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="892" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A892">
+        <v>1929</v>
+      </c>
+      <c r="B892" t="s">
+        <v>203</v>
+      </c>
+      <c r="C892" vm="63">
+        <v>45851</v>
+      </c>
+      <c r="D892" t="s">
+        <v>6</v>
+      </c>
+      <c r="E892">
+        <v>4</v>
+      </c>
+      <c r="F892">
+        <v>1135.6400000000001</v>
+      </c>
+      <c r="G892" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="893" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A893">
+        <v>1907</v>
+      </c>
+      <c r="B893" t="s">
+        <v>205</v>
+      </c>
+      <c r="C893" vm="63">
+        <v>45851</v>
+      </c>
+      <c r="D893" t="s">
+        <v>6</v>
+      </c>
+      <c r="E893">
+        <v>4</v>
+      </c>
+      <c r="F893">
+        <v>5088</v>
+      </c>
+      <c r="G893" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="894" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A894">
+        <v>1908</v>
+      </c>
+      <c r="B894" t="s">
+        <v>205</v>
+      </c>
+      <c r="C894" vm="1">
+        <v>45854</v>
+      </c>
+      <c r="D894" t="s">
+        <v>6</v>
+      </c>
+      <c r="E894">
+        <v>1</v>
+      </c>
+      <c r="F894">
+        <v>3577.5</v>
+      </c>
+      <c r="G894" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="895" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A895">
+        <v>1905</v>
+      </c>
+      <c r="B895" t="s">
+        <v>205</v>
+      </c>
+      <c r="C895" vm="29">
+        <v>45836</v>
+      </c>
+      <c r="D895" t="s">
+        <v>23</v>
+      </c>
+      <c r="E895">
+        <v>19</v>
+      </c>
+      <c r="F895">
+        <v>4</v>
+      </c>
+      <c r="G895" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="896" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A896">
+        <v>2047</v>
+      </c>
+      <c r="B896" t="s">
+        <v>206</v>
+      </c>
+      <c r="C896" vm="71">
+        <v>45841</v>
+      </c>
+      <c r="D896" t="s">
+        <v>23</v>
+      </c>
+      <c r="E896">
+        <v>14</v>
+      </c>
+      <c r="F896">
+        <v>84.8</v>
+      </c>
+      <c r="G896" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="897" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A897">
+        <v>1906</v>
+      </c>
+      <c r="B897" t="s">
+        <v>205</v>
+      </c>
+      <c r="C897" vm="25">
+        <v>45843</v>
+      </c>
+      <c r="D897" t="s">
+        <v>23</v>
+      </c>
+      <c r="E897">
+        <v>12</v>
+      </c>
+      <c r="F897">
+        <v>6519</v>
+      </c>
+      <c r="G897" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="898" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A898">
+        <v>2037</v>
+      </c>
+      <c r="B898" t="s">
+        <v>207</v>
+      </c>
+      <c r="C898" vm="72">
+        <v>45844</v>
+      </c>
+      <c r="D898" t="s">
+        <v>23</v>
+      </c>
+      <c r="E898">
+        <v>11</v>
+      </c>
+      <c r="F898">
+        <v>113.04</v>
+      </c>
+      <c r="G898" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="899" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A899">
+        <v>755</v>
+      </c>
+      <c r="B899" t="s">
+        <v>208</v>
+      </c>
+      <c r="C899" vm="23">
+        <v>45849</v>
+      </c>
+      <c r="D899" t="s">
+        <v>23</v>
+      </c>
+      <c r="E899">
+        <v>6</v>
+      </c>
+      <c r="F899">
+        <v>3975</v>
+      </c>
+      <c r="G899" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="900" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A900">
+        <v>1990</v>
+      </c>
+      <c r="B900" t="s">
+        <v>209</v>
+      </c>
+      <c r="C900" vm="23">
+        <v>45849</v>
+      </c>
+      <c r="D900" t="s">
+        <v>23</v>
+      </c>
+      <c r="E900">
+        <v>6</v>
+      </c>
+      <c r="F900">
+        <v>496.08</v>
+      </c>
+      <c r="G900" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="901" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A901">
+        <v>2096</v>
+      </c>
+      <c r="B901" t="s">
+        <v>211</v>
+      </c>
+      <c r="C901" vm="3">
+        <v>45822</v>
+      </c>
+      <c r="D901" t="s">
+        <v>9</v>
+      </c>
+      <c r="E901">
+        <v>33</v>
+      </c>
+      <c r="F901">
+        <v>706.09</v>
+      </c>
+      <c r="G901" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="902" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A902">
+        <v>2100</v>
+      </c>
+      <c r="B902" t="s">
+        <v>212</v>
+      </c>
+      <c r="C902" vm="73">
+        <v>45846</v>
+      </c>
+      <c r="D902" t="s">
+        <v>23</v>
+      </c>
+      <c r="E902">
+        <v>9</v>
+      </c>
+      <c r="F902">
+        <v>832</v>
+      </c>
+      <c r="G902" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="903" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A903">
+        <v>2101</v>
+      </c>
+      <c r="B903" t="s">
+        <v>213</v>
+      </c>
+      <c r="C903" vm="53">
+        <v>45799</v>
+      </c>
+      <c r="D903" t="s">
+        <v>9</v>
+      </c>
+      <c r="E903">
+        <v>56</v>
+      </c>
+      <c r="F903">
+        <v>6120</v>
+      </c>
+      <c r="G903" t="s">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VVencidos.xlsx
+++ b/VVencidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C179BD61-CDFD-4DCB-93EB-DAE3E9F8A808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623C5B17-D546-41A0-8E63-862F31549970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{269BE8FF-AC33-4B8A-A7D2-D9ACD2484502}"/>
   </bookViews>
@@ -1485,15 +1485,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D11E89-AF2E-42BF-80E5-E5E20F3E6DF5}">
   <dimension ref="A1:G1039"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1030" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A1039"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
@@ -1506,7 +1506,7 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">

--- a/VVencidos.xlsx
+++ b/VVencidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623C5B17-D546-41A0-8E63-862F31549970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE3311B-14A9-4D42-871F-7A6AA1A5D828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{269BE8FF-AC33-4B8A-A7D2-D9ACD2484502}"/>
   </bookViews>
@@ -1486,7 +1486,7 @@
   <dimension ref="A1:G1039"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="A5" sqref="A5:A1039"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>161</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>161</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>161</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>161</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>161</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>161</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>161</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>162</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>162</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>163</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>164</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>164</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>164</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>164</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>164</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>165</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>166</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>167</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>168</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>168</v>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>168</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>168</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>168</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>62</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>62</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>62</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>143</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>71</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>71</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>42</v>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>42</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>169</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>63</v>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>63</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>63</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>63</v>
@@ -2398,7 +2398,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>63</v>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>63</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>63</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>63</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>63</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>63</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>33</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>33</v>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>33</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>33</v>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>33</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>33</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>33</v>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>33</v>
@@ -2720,7 +2720,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>33</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>33</v>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>33</v>
@@ -2789,7 +2789,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>33</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>33</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>33</v>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>33</v>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>33</v>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>170</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>171</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>64</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>64</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>64</v>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>64</v>
@@ -3042,7 +3042,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>64</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>64</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>64</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>64</v>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>64</v>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>140</v>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>60</v>
@@ -3203,7 +3203,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>60</v>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>60</v>
@@ -3249,7 +3249,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>60</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>60</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>60</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>60</v>
@@ -3341,7 +3341,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>172</v>
@@ -3364,7 +3364,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>172</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>172</v>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>172</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>68</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>68</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>68</v>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>68</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>92</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>92</v>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
@@ -3594,7 +3594,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>92</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>92</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>92</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>82</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>82</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>82</v>
@@ -3732,7 +3732,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>82</v>
@@ -3755,7 +3755,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>82</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
         <v>173</v>
@@ -3801,7 +3801,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>174</v>
@@ -3824,7 +3824,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
         <v>174</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>75</v>
@@ -3870,7 +3870,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
         <v>75</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
         <v>40</v>
@@ -3916,7 +3916,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>40</v>
@@ -3939,7 +3939,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>40</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
         <v>40</v>
@@ -3985,7 +3985,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
         <v>36</v>
@@ -4008,7 +4008,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
         <v>36</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
         <v>175</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
         <v>35</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
         <v>35</v>
@@ -4100,7 +4100,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
         <v>35</v>
@@ -4123,7 +4123,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
         <v>35</v>
@@ -4146,7 +4146,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
         <v>35</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
         <v>35</v>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
         <v>35</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
         <v>35</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
         <v>35</v>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
         <v>35</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
         <v>35</v>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
         <v>35</v>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
         <v>35</v>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
         <v>35</v>
@@ -4376,7 +4376,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
         <v>35</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
         <v>35</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
         <v>35</v>
@@ -4445,7 +4445,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
         <v>35</v>
@@ -4468,7 +4468,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
         <v>35</v>
@@ -4491,7 +4491,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" t="s">
         <v>35</v>
@@ -4514,7 +4514,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" t="s">
         <v>35</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
         <v>35</v>
@@ -4560,7 +4560,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
         <v>35</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
         <v>35</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
         <v>35</v>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" t="s">
         <v>35</v>
@@ -4652,7 +4652,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
         <v>35</v>
@@ -4675,7 +4675,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
         <v>35</v>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
         <v>35</v>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
         <v>145</v>
@@ -4744,7 +4744,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
         <v>145</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
         <v>145</v>
@@ -4790,7 +4790,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
         <v>145</v>
@@ -4836,7 +4836,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" t="s">
         <v>145</v>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" t="s">
         <v>145</v>
@@ -4882,7 +4882,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" t="s">
         <v>86</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" t="s">
         <v>86</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" t="s">
         <v>86</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" t="s">
         <v>86</v>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" t="s">
         <v>86</v>
@@ -4997,7 +4997,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" t="s">
         <v>86</v>
@@ -5020,7 +5020,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" t="s">
         <v>86</v>
@@ -5043,7 +5043,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" t="s">
         <v>86</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" t="s">
         <v>176</v>
@@ -5089,7 +5089,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" t="s">
         <v>176</v>
@@ -5112,7 +5112,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" t="s">
         <v>176</v>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" t="s">
         <v>176</v>
@@ -5158,7 +5158,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" t="s">
         <v>176</v>
@@ -5181,7 +5181,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" t="s">
         <v>72</v>
@@ -5204,7 +5204,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" t="s">
         <v>72</v>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" t="s">
         <v>38</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" t="s">
         <v>38</v>
@@ -5273,7 +5273,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" t="s">
         <v>38</v>
@@ -5296,7 +5296,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" t="s">
         <v>38</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" t="s">
         <v>177</v>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" t="s">
         <v>178</v>
@@ -5365,7 +5365,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" t="s">
         <v>30</v>
@@ -5388,7 +5388,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" t="s">
         <v>30</v>
@@ -5411,7 +5411,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" t="s">
         <v>179</v>
@@ -5434,7 +5434,7 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" t="s">
         <v>180</v>
@@ -5457,7 +5457,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" t="s">
         <v>181</v>
@@ -5480,7 +5480,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" t="s">
         <v>182</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" t="s">
         <v>23</v>
@@ -5526,7 +5526,7 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" t="s">
         <v>23</v>
@@ -5549,7 +5549,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" t="s">
         <v>23</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" t="s">
         <v>23</v>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" t="s">
         <v>183</v>
@@ -5618,7 +5618,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" t="s">
         <v>184</v>
@@ -5641,7 +5641,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" t="s">
         <v>76</v>
@@ -5664,7 +5664,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" t="s">
         <v>76</v>
@@ -5687,7 +5687,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" t="s">
         <v>76</v>
@@ -5710,7 +5710,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" t="s">
         <v>76</v>
@@ -5733,7 +5733,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" t="s">
         <v>185</v>
@@ -5756,7 +5756,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" t="s">
         <v>185</v>
@@ -5779,7 +5779,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" t="s">
         <v>185</v>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" t="s">
         <v>185</v>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" t="s">
         <v>185</v>
@@ -5848,7 +5848,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" t="s">
         <v>185</v>
@@ -5871,7 +5871,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" t="s">
         <v>185</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" t="s">
         <v>185</v>
@@ -5917,7 +5917,7 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" t="s">
         <v>185</v>
@@ -5940,7 +5940,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" t="s">
         <v>185</v>
@@ -5963,7 +5963,7 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" t="s">
         <v>185</v>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" t="s">
         <v>185</v>
@@ -6009,7 +6009,7 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" t="s">
         <v>185</v>
@@ -6032,7 +6032,7 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" t="s">
         <v>185</v>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" t="s">
         <v>185</v>
@@ -6078,7 +6078,7 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" t="s">
         <v>185</v>
@@ -6101,7 +6101,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" t="s">
         <v>185</v>
@@ -6124,7 +6124,7 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" t="s">
         <v>185</v>
@@ -6147,7 +6147,7 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" t="s">
         <v>185</v>
@@ -6170,7 +6170,7 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" t="s">
         <v>185</v>
@@ -6193,7 +6193,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" t="s">
         <v>185</v>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" t="s">
         <v>185</v>
@@ -6239,7 +6239,7 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" t="s">
         <v>185</v>
@@ -6262,7 +6262,7 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" t="s">
         <v>185</v>
@@ -6285,7 +6285,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" t="s">
         <v>185</v>
@@ -6308,7 +6308,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" t="s">
         <v>185</v>
@@ -6331,7 +6331,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" t="s">
         <v>186</v>
@@ -6354,7 +6354,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" t="s">
         <v>48</v>
@@ -6377,7 +6377,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" t="s">
         <v>48</v>
@@ -6400,7 +6400,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" t="s">
         <v>187</v>
@@ -6423,7 +6423,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" t="s">
         <v>187</v>
@@ -6446,7 +6446,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" t="s">
         <v>188</v>
@@ -6469,7 +6469,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" t="s">
         <v>77</v>
@@ -6492,7 +6492,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" t="s">
         <v>78</v>
@@ -6515,7 +6515,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" t="s">
         <v>78</v>
@@ -6538,7 +6538,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" t="s">
         <v>78</v>
@@ -6561,7 +6561,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" t="s">
         <v>78</v>
@@ -6584,7 +6584,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" t="s">
         <v>78</v>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" t="s">
         <v>78</v>
@@ -6630,7 +6630,7 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" t="s">
         <v>78</v>
@@ -6653,7 +6653,7 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" t="s">
         <v>78</v>
@@ -6676,7 +6676,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" t="s">
         <v>34</v>
@@ -6699,7 +6699,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" t="s">
         <v>34</v>
@@ -6722,7 +6722,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" t="s">
         <v>34</v>
@@ -6745,7 +6745,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" t="s">
         <v>147</v>
@@ -6768,7 +6768,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230" t="s">
         <v>147</v>
@@ -6791,7 +6791,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" t="s">
         <v>99</v>
@@ -6814,7 +6814,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" t="s">
         <v>99</v>
@@ -6837,7 +6837,7 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" t="s">
         <v>99</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" t="s">
         <v>99</v>
@@ -6883,7 +6883,7 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" t="s">
         <v>99</v>
@@ -6906,7 +6906,7 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" t="s">
         <v>115</v>
@@ -6929,7 +6929,7 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" t="s">
         <v>115</v>
@@ -6952,7 +6952,7 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" t="s">
         <v>115</v>
@@ -6975,7 +6975,7 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" t="s">
         <v>115</v>
@@ -6998,7 +6998,7 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" t="s">
         <v>115</v>
@@ -7021,7 +7021,7 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" t="s">
         <v>115</v>
@@ -7044,7 +7044,7 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" t="s">
         <v>115</v>
@@ -7067,7 +7067,7 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" t="s">
         <v>115</v>
@@ -7090,7 +7090,7 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" t="s">
         <v>115</v>
@@ -7113,7 +7113,7 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" t="s">
         <v>115</v>
@@ -7136,7 +7136,7 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" t="s">
         <v>115</v>
@@ -7159,7 +7159,7 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" t="s">
         <v>115</v>
@@ -7182,7 +7182,7 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" t="s">
         <v>115</v>
@@ -7205,7 +7205,7 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" t="s">
         <v>115</v>
@@ -7228,7 +7228,7 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" t="s">
         <v>115</v>
@@ -7251,7 +7251,7 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" t="s">
         <v>115</v>
@@ -7274,7 +7274,7 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" t="s">
         <v>189</v>
@@ -7297,7 +7297,7 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" t="s">
         <v>189</v>
@@ -7320,7 +7320,7 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" t="s">
         <v>189</v>
@@ -7343,7 +7343,7 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" t="s">
         <v>31</v>
@@ -7366,7 +7366,7 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" t="s">
         <v>31</v>
@@ -7389,7 +7389,7 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" t="s">
         <v>190</v>
@@ -7412,7 +7412,7 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" t="s">
         <v>93</v>
@@ -7435,7 +7435,7 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" t="s">
         <v>93</v>
@@ -7458,7 +7458,7 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" t="s">
         <v>93</v>
@@ -7481,7 +7481,7 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" t="s">
         <v>191</v>
@@ -7504,7 +7504,7 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" t="s">
         <v>10</v>
@@ -7527,7 +7527,7 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" t="s">
         <v>10</v>
@@ -7550,7 +7550,7 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" t="s">
         <v>192</v>
@@ -7573,7 +7573,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
@@ -7596,7 +7596,7 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
@@ -7619,7 +7619,7 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" t="s">
         <v>5</v>
@@ -7642,7 +7642,7 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" t="s">
         <v>5</v>
@@ -7665,7 +7665,7 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" t="s">
         <v>5</v>
@@ -7688,7 +7688,7 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" t="s">
         <v>5</v>
@@ -7711,7 +7711,7 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" t="s">
         <v>32</v>
@@ -7734,7 +7734,7 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" t="s">
         <v>32</v>
@@ -7757,7 +7757,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" t="s">
         <v>32</v>
@@ -7780,7 +7780,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" t="s">
         <v>32</v>
@@ -7803,7 +7803,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" t="s">
         <v>32</v>
@@ -7826,7 +7826,7 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" t="s">
         <v>32</v>
@@ -7849,7 +7849,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" t="s">
         <v>32</v>
@@ -7872,7 +7872,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" t="s">
         <v>32</v>
@@ -7895,7 +7895,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" t="s">
         <v>32</v>
@@ -7918,7 +7918,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" t="s">
         <v>53</v>
@@ -7941,7 +7941,7 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" t="s">
         <v>53</v>
@@ -7964,7 +7964,7 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" t="s">
         <v>53</v>
@@ -7987,7 +7987,7 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" t="s">
         <v>53</v>
@@ -8010,7 +8010,7 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" t="s">
         <v>53</v>
@@ -8033,7 +8033,7 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" t="s">
         <v>41</v>
@@ -8056,7 +8056,7 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" t="s">
         <v>69</v>
@@ -8079,7 +8079,7 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" t="s">
         <v>69</v>
@@ -8102,7 +8102,7 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" t="s">
         <v>69</v>
@@ -8125,7 +8125,7 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" t="s">
         <v>69</v>
@@ -8148,7 +8148,7 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" t="s">
         <v>79</v>
@@ -8171,7 +8171,7 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291" t="s">
         <v>79</v>
@@ -8194,7 +8194,7 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" t="s">
         <v>158</v>
@@ -8217,7 +8217,7 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293" t="s">
         <v>37</v>
@@ -8240,7 +8240,7 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294" t="s">
         <v>37</v>
@@ -8263,7 +8263,7 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" t="s">
         <v>37</v>
@@ -8286,7 +8286,7 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296" t="s">
         <v>193</v>
@@ -8309,7 +8309,7 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" t="s">
         <v>193</v>
@@ -8332,7 +8332,7 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" t="s">
         <v>194</v>
@@ -8355,7 +8355,7 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B299" t="s">
         <v>49</v>
@@ -8378,7 +8378,7 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B300" t="s">
         <v>195</v>
@@ -8401,7 +8401,7 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B301" t="s">
         <v>195</v>
@@ -8424,7 +8424,7 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B302" t="s">
         <v>196</v>
@@ -8447,7 +8447,7 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B303" t="s">
         <v>105</v>
@@ -8470,7 +8470,7 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B304" t="s">
         <v>105</v>
@@ -8493,7 +8493,7 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B305" t="s">
         <v>197</v>
@@ -8516,7 +8516,7 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B306" t="s">
         <v>198</v>
@@ -8539,7 +8539,7 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B307" t="s">
         <v>199</v>
@@ -8562,7 +8562,7 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B308" t="s">
         <v>200</v>
@@ -8585,7 +8585,7 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B309" t="s">
         <v>201</v>
@@ -8608,7 +8608,7 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B310" t="s">
         <v>9</v>
@@ -8631,7 +8631,7 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B311" t="s">
         <v>9</v>
@@ -8654,7 +8654,7 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B312" t="s">
         <v>9</v>
@@ -8677,7 +8677,7 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B313" t="s">
         <v>9</v>
@@ -8700,7 +8700,7 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B314" t="s">
         <v>9</v>
@@ -8723,7 +8723,7 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B315" t="s">
         <v>9</v>
@@ -8746,7 +8746,7 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B316" t="s">
         <v>9</v>
@@ -8769,7 +8769,7 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B317" t="s">
         <v>9</v>
@@ -8792,7 +8792,7 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B318" t="s">
         <v>9</v>
@@ -8815,7 +8815,7 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B319" t="s">
         <v>202</v>
@@ -8838,7 +8838,7 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B320" t="s">
         <v>202</v>
@@ -8861,7 +8861,7 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B321" t="s">
         <v>202</v>
@@ -8884,7 +8884,7 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B322" t="s">
         <v>202</v>
@@ -8907,7 +8907,7 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B323" t="s">
         <v>128</v>
@@ -8930,7 +8930,7 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B324" t="s">
         <v>128</v>
@@ -8953,7 +8953,7 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B325" t="s">
         <v>128</v>
@@ -8976,7 +8976,7 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B326" t="s">
         <v>128</v>
@@ -8999,7 +8999,7 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B327" t="s">
         <v>128</v>
@@ -9022,7 +9022,7 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B328" t="s">
         <v>128</v>
@@ -9045,7 +9045,7 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B329" t="s">
         <v>128</v>
@@ -9068,7 +9068,7 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B330" t="s">
         <v>128</v>
@@ -9091,7 +9091,7 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B331" t="s">
         <v>128</v>
@@ -9114,7 +9114,7 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B332" t="s">
         <v>128</v>
@@ -9137,7 +9137,7 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B333" t="s">
         <v>128</v>
@@ -9160,7 +9160,7 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B334" t="s">
         <v>128</v>
@@ -9183,7 +9183,7 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B335" t="s">
         <v>128</v>
@@ -9206,7 +9206,7 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B336" t="s">
         <v>128</v>
@@ -9229,7 +9229,7 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B337" t="s">
         <v>128</v>
@@ -9252,7 +9252,7 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B338" t="s">
         <v>128</v>
@@ -9275,7 +9275,7 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B339" t="s">
         <v>128</v>
@@ -9298,7 +9298,7 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B340" t="s">
         <v>128</v>
@@ -9321,7 +9321,7 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B341" t="s">
         <v>128</v>
@@ -9344,7 +9344,7 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B342" t="s">
         <v>128</v>
@@ -9367,7 +9367,7 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B343" t="s">
         <v>128</v>
@@ -9390,7 +9390,7 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B344" t="s">
         <v>128</v>
@@ -9413,7 +9413,7 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B345" t="s">
         <v>128</v>
@@ -9436,7 +9436,7 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B346" t="s">
         <v>128</v>
@@ -9459,7 +9459,7 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B347" t="s">
         <v>128</v>
@@ -9482,7 +9482,7 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B348" t="s">
         <v>128</v>
@@ -9505,7 +9505,7 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B349" t="s">
         <v>128</v>
@@ -9528,7 +9528,7 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B350" t="s">
         <v>203</v>
@@ -9551,7 +9551,7 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B351" t="s">
         <v>204</v>
@@ -9574,7 +9574,7 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B352" t="s">
         <v>24</v>
@@ -9597,7 +9597,7 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B353" t="s">
         <v>24</v>
@@ -9620,7 +9620,7 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B354" t="s">
         <v>24</v>
@@ -9643,7 +9643,7 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B355" t="s">
         <v>24</v>
@@ -9666,7 +9666,7 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B356" t="s">
         <v>24</v>
@@ -9689,7 +9689,7 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B357" t="s">
         <v>24</v>
@@ -9712,7 +9712,7 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B358" t="s">
         <v>205</v>
@@ -9735,7 +9735,7 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B359" t="s">
         <v>205</v>
@@ -9758,7 +9758,7 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B360" t="s">
         <v>205</v>
@@ -9781,7 +9781,7 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B361" t="s">
         <v>205</v>
@@ -9804,7 +9804,7 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B362" t="s">
         <v>205</v>
@@ -9827,7 +9827,7 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B363" t="s">
         <v>205</v>
@@ -9850,7 +9850,7 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B364" t="s">
         <v>94</v>
@@ -9873,7 +9873,7 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B365" t="s">
         <v>94</v>
@@ -9896,7 +9896,7 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B366" t="s">
         <v>94</v>
@@ -9919,7 +9919,7 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B367" t="s">
         <v>94</v>
@@ -9942,7 +9942,7 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B368" t="s">
         <v>67</v>
@@ -9965,7 +9965,7 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B369" t="s">
         <v>67</v>
@@ -9988,7 +9988,7 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B370" t="s">
         <v>67</v>
@@ -10011,7 +10011,7 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B371" t="s">
         <v>67</v>
@@ -10034,7 +10034,7 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B372" t="s">
         <v>67</v>
@@ -10057,7 +10057,7 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B373" t="s">
         <v>67</v>
@@ -10080,7 +10080,7 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B374" t="s">
         <v>67</v>
@@ -10103,7 +10103,7 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B375" t="s">
         <v>67</v>
@@ -10126,7 +10126,7 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B376" t="s">
         <v>67</v>
@@ -10149,7 +10149,7 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B377" t="s">
         <v>206</v>
@@ -10172,7 +10172,7 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B378" t="s">
         <v>206</v>
@@ -10195,7 +10195,7 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B379" t="s">
         <v>206</v>
@@ -10218,7 +10218,7 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B380" t="s">
         <v>90</v>
@@ -10241,7 +10241,7 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B381" t="s">
         <v>11</v>
@@ -10264,7 +10264,7 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B382" t="s">
         <v>11</v>
@@ -10287,7 +10287,7 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B383" t="s">
         <v>207</v>
@@ -10310,7 +10310,7 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B384" t="s">
         <v>207</v>
@@ -10333,7 +10333,7 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B385" t="s">
         <v>85</v>
@@ -10356,7 +10356,7 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B386" t="s">
         <v>85</v>
@@ -10379,7 +10379,7 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B387" t="s">
         <v>85</v>
@@ -10402,7 +10402,7 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B388" t="s">
         <v>85</v>
@@ -10425,7 +10425,7 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B389" t="s">
         <v>85</v>
@@ -10448,7 +10448,7 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B390" t="s">
         <v>102</v>
@@ -10471,7 +10471,7 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B391" t="s">
         <v>208</v>
@@ -10494,7 +10494,7 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B392" t="s">
         <v>43</v>
@@ -10517,7 +10517,7 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B393" t="s">
         <v>209</v>
@@ -10540,7 +10540,7 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B394" t="s">
         <v>120</v>
@@ -10563,7 +10563,7 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B395" t="s">
         <v>120</v>
@@ -10586,7 +10586,7 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B396" t="s">
         <v>120</v>
@@ -10609,7 +10609,7 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B397" t="s">
         <v>120</v>
@@ -10632,7 +10632,7 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B398" t="s">
         <v>120</v>
@@ -10655,7 +10655,7 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B399" t="s">
         <v>120</v>
@@ -10678,7 +10678,7 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B400" t="s">
         <v>120</v>
@@ -10701,7 +10701,7 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B401" t="s">
         <v>120</v>
@@ -10724,7 +10724,7 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B402" t="s">
         <v>120</v>
@@ -10747,7 +10747,7 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B403" t="s">
         <v>210</v>
@@ -10770,7 +10770,7 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B404" t="s">
         <v>210</v>
@@ -10793,7 +10793,7 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B405" t="s">
         <v>211</v>
@@ -10816,7 +10816,7 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B406" t="s">
         <v>211</v>
@@ -10839,7 +10839,7 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B407" t="s">
         <v>80</v>
@@ -10862,7 +10862,7 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B408" t="s">
         <v>80</v>
@@ -10885,7 +10885,7 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B409" t="s">
         <v>80</v>
@@ -10908,7 +10908,7 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B410" t="s">
         <v>212</v>
@@ -10931,7 +10931,7 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B411" t="s">
         <v>70</v>
@@ -10954,7 +10954,7 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B412" t="s">
         <v>70</v>
@@ -10977,7 +10977,7 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B413" t="s">
         <v>151</v>
@@ -11000,7 +11000,7 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B414" t="s">
         <v>151</v>
@@ -11023,7 +11023,7 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B415" t="s">
         <v>151</v>
@@ -11046,7 +11046,7 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B416" t="s">
         <v>213</v>
@@ -11069,7 +11069,7 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B417" t="s">
         <v>213</v>
@@ -11092,7 +11092,7 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B418" t="s">
         <v>213</v>
@@ -11115,7 +11115,7 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B419" t="s">
         <v>214</v>
@@ -11138,7 +11138,7 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B420" t="s">
         <v>215</v>
@@ -11161,7 +11161,7 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B421" t="s">
         <v>215</v>
@@ -11184,7 +11184,7 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B422" t="s">
         <v>215</v>
@@ -11207,7 +11207,7 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B423" t="s">
         <v>141</v>
@@ -11230,7 +11230,7 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B424" t="s">
         <v>141</v>
@@ -11253,7 +11253,7 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B425" t="s">
         <v>141</v>
@@ -11276,7 +11276,7 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B426" t="s">
         <v>141</v>
@@ -11299,7 +11299,7 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B427" t="s">
         <v>154</v>
@@ -11322,7 +11322,7 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B428" t="s">
         <v>149</v>
@@ -11345,7 +11345,7 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B429" t="s">
         <v>149</v>
@@ -11368,7 +11368,7 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B430" t="s">
         <v>149</v>
@@ -11391,7 +11391,7 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B431" t="s">
         <v>149</v>
@@ -11414,7 +11414,7 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B432" t="s">
         <v>25</v>
@@ -11437,7 +11437,7 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B433" t="s">
         <v>25</v>
@@ -11460,7 +11460,7 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B434" t="s">
         <v>25</v>
@@ -11483,7 +11483,7 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B435" t="s">
         <v>25</v>
@@ -11506,7 +11506,7 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B436" t="s">
         <v>25</v>
@@ -11529,7 +11529,7 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B437" t="s">
         <v>25</v>
@@ -11552,7 +11552,7 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B438" t="s">
         <v>25</v>
@@ -11575,7 +11575,7 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B439" t="s">
         <v>25</v>
@@ -11598,7 +11598,7 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B440" t="s">
         <v>25</v>
@@ -11621,7 +11621,7 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B441" t="s">
         <v>25</v>
@@ -11644,7 +11644,7 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B442" t="s">
         <v>25</v>
@@ -11667,7 +11667,7 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B443" t="s">
         <v>25</v>
@@ -11690,7 +11690,7 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B444" t="s">
         <v>25</v>
@@ -11713,7 +11713,7 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B445" t="s">
         <v>25</v>
@@ -11736,7 +11736,7 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B446" t="s">
         <v>25</v>
@@ -11759,7 +11759,7 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B447" t="s">
         <v>25</v>
@@ -11782,7 +11782,7 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B448" t="s">
         <v>216</v>
@@ -11805,7 +11805,7 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B449" t="s">
         <v>89</v>
@@ -11828,7 +11828,7 @@
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B450" t="s">
         <v>89</v>
@@ -11851,7 +11851,7 @@
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B451" t="s">
         <v>89</v>
@@ -11874,7 +11874,7 @@
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B452" t="s">
         <v>121</v>
@@ -11897,7 +11897,7 @@
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B453" t="s">
         <v>121</v>
@@ -11920,7 +11920,7 @@
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B454" t="s">
         <v>121</v>
@@ -11943,7 +11943,7 @@
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B455" t="s">
         <v>121</v>
@@ -11966,7 +11966,7 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B456" t="s">
         <v>121</v>
@@ -11989,7 +11989,7 @@
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B457" t="s">
         <v>121</v>
@@ -12012,7 +12012,7 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B458" t="s">
         <v>121</v>
@@ -12035,7 +12035,7 @@
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B459" t="s">
         <v>121</v>
@@ -12058,7 +12058,7 @@
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B460" t="s">
         <v>121</v>
@@ -12081,7 +12081,7 @@
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B461" t="s">
         <v>121</v>
@@ -12104,7 +12104,7 @@
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B462" t="s">
         <v>121</v>
@@ -12127,7 +12127,7 @@
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B463" t="s">
         <v>121</v>
@@ -12150,7 +12150,7 @@
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B464" t="s">
         <v>121</v>
@@ -12173,7 +12173,7 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B465" t="s">
         <v>121</v>
@@ -12196,7 +12196,7 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B466" t="s">
         <v>217</v>
@@ -12219,7 +12219,7 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B467" t="s">
         <v>218</v>
@@ -12242,7 +12242,7 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B468" t="s">
         <v>218</v>
@@ -12265,7 +12265,7 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B469" t="s">
         <v>219</v>
@@ -12288,7 +12288,7 @@
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B470" t="s">
         <v>73</v>
@@ -12311,7 +12311,7 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B471" t="s">
         <v>73</v>
@@ -12334,7 +12334,7 @@
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B472" t="s">
         <v>73</v>
@@ -12357,7 +12357,7 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B473" t="s">
         <v>73</v>
@@ -12380,7 +12380,7 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B474" t="s">
         <v>73</v>
@@ -12403,7 +12403,7 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B475" t="s">
         <v>73</v>
@@ -12426,7 +12426,7 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B476" t="s">
         <v>73</v>
@@ -12449,7 +12449,7 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B477" t="s">
         <v>44</v>
@@ -12472,7 +12472,7 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B478" t="s">
         <v>44</v>
@@ -12495,7 +12495,7 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B479" t="s">
         <v>26</v>
@@ -12518,7 +12518,7 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B480" t="s">
         <v>26</v>
@@ -12541,7 +12541,7 @@
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B481" t="s">
         <v>26</v>
@@ -12564,7 +12564,7 @@
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B482" t="s">
         <v>26</v>
@@ -12587,7 +12587,7 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B483" t="s">
         <v>26</v>
@@ -12610,7 +12610,7 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B484" t="s">
         <v>26</v>
@@ -12633,7 +12633,7 @@
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B485" t="s">
         <v>26</v>
@@ -12656,7 +12656,7 @@
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B486" t="s">
         <v>26</v>
@@ -12679,7 +12679,7 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B487" t="s">
         <v>26</v>
@@ -12702,7 +12702,7 @@
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B488" t="s">
         <v>26</v>
@@ -12725,7 +12725,7 @@
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B489" t="s">
         <v>220</v>
@@ -12748,7 +12748,7 @@
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B490" t="s">
         <v>221</v>
@@ -12771,7 +12771,7 @@
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B491" t="s">
         <v>221</v>
@@ -12794,7 +12794,7 @@
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B492" t="s">
         <v>81</v>
@@ -12817,7 +12817,7 @@
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B493" t="s">
         <v>81</v>
@@ -12840,7 +12840,7 @@
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B494" t="s">
         <v>81</v>
@@ -12863,7 +12863,7 @@
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B495" t="s">
         <v>81</v>
@@ -12886,7 +12886,7 @@
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B496" t="s">
         <v>81</v>
@@ -12909,7 +12909,7 @@
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B497" t="s">
         <v>81</v>
@@ -12932,7 +12932,7 @@
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B498" t="s">
         <v>81</v>
@@ -12955,7 +12955,7 @@
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B499" t="s">
         <v>81</v>
@@ -12978,7 +12978,7 @@
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B500" t="s">
         <v>222</v>
@@ -13001,7 +13001,7 @@
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B501" t="s">
         <v>222</v>
@@ -13024,7 +13024,7 @@
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B502" t="s">
         <v>222</v>
@@ -13047,7 +13047,7 @@
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B503" t="s">
         <v>222</v>
@@ -13070,7 +13070,7 @@
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B504" t="s">
         <v>222</v>
@@ -13093,7 +13093,7 @@
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B505" t="s">
         <v>222</v>
@@ -13116,7 +13116,7 @@
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B506" t="s">
         <v>223</v>
@@ -13139,7 +13139,7 @@
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B507" t="s">
         <v>50</v>
@@ -13162,7 +13162,7 @@
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B508" t="s">
         <v>50</v>
@@ -13185,7 +13185,7 @@
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B509" t="s">
         <v>123</v>
@@ -13208,7 +13208,7 @@
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B510" t="s">
         <v>123</v>
@@ -13231,7 +13231,7 @@
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B511" t="s">
         <v>123</v>
@@ -13254,7 +13254,7 @@
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B512" t="s">
         <v>123</v>
@@ -13277,7 +13277,7 @@
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B513" t="s">
         <v>123</v>
@@ -13300,7 +13300,7 @@
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B514" t="s">
         <v>123</v>
@@ -13323,7 +13323,7 @@
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B515" t="s">
         <v>123</v>
@@ -13346,7 +13346,7 @@
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B516" t="s">
         <v>123</v>
@@ -13369,7 +13369,7 @@
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B517" t="s">
         <v>123</v>
@@ -13392,7 +13392,7 @@
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B518" t="s">
         <v>123</v>
@@ -13415,7 +13415,7 @@
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B519" t="s">
         <v>123</v>
@@ -13438,7 +13438,7 @@
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B520" t="s">
         <v>123</v>
@@ -13461,7 +13461,7 @@
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B521" t="s">
         <v>123</v>
@@ -13484,7 +13484,7 @@
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B522" t="s">
         <v>123</v>
@@ -13507,7 +13507,7 @@
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B523" t="s">
         <v>224</v>
@@ -13530,7 +13530,7 @@
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B524" t="s">
         <v>225</v>
@@ -13553,7 +13553,7 @@
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B525" t="s">
         <v>225</v>
@@ -13576,7 +13576,7 @@
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B526" t="s">
         <v>225</v>
@@ -13599,7 +13599,7 @@
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B527" t="s">
         <v>226</v>
@@ -13622,7 +13622,7 @@
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B528" t="s">
         <v>27</v>
@@ -13645,7 +13645,7 @@
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B529" t="s">
         <v>27</v>
@@ -13668,7 +13668,7 @@
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B530" t="s">
         <v>27</v>
@@ -13691,7 +13691,7 @@
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B531" t="s">
         <v>27</v>
@@ -13714,7 +13714,7 @@
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B532" t="s">
         <v>27</v>
@@ -13737,7 +13737,7 @@
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B533" t="s">
         <v>27</v>
@@ -13760,7 +13760,7 @@
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B534" t="s">
         <v>227</v>
@@ -13783,7 +13783,7 @@
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B535" t="s">
         <v>228</v>
@@ -13806,7 +13806,7 @@
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B536" t="s">
         <v>228</v>
@@ -13829,7 +13829,7 @@
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B537" t="s">
         <v>228</v>
@@ -13852,7 +13852,7 @@
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B538" t="s">
         <v>55</v>
@@ -13875,7 +13875,7 @@
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B539" t="s">
         <v>55</v>
@@ -13898,7 +13898,7 @@
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B540" t="s">
         <v>55</v>
@@ -13921,7 +13921,7 @@
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B541" t="s">
         <v>229</v>
@@ -13944,7 +13944,7 @@
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B542" t="s">
         <v>153</v>
@@ -13967,7 +13967,7 @@
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B543" t="s">
         <v>153</v>
@@ -13990,7 +13990,7 @@
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B544" t="s">
         <v>153</v>
@@ -14013,7 +14013,7 @@
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B545" t="s">
         <v>126</v>
@@ -14036,7 +14036,7 @@
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B546" t="s">
         <v>126</v>
@@ -14059,7 +14059,7 @@
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B547" t="s">
         <v>126</v>
@@ -14082,7 +14082,7 @@
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B548" t="s">
         <v>230</v>
@@ -14105,7 +14105,7 @@
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B549" t="s">
         <v>74</v>
@@ -14128,7 +14128,7 @@
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B550" t="s">
         <v>74</v>
@@ -14151,7 +14151,7 @@
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B551" t="s">
         <v>88</v>
@@ -14174,7 +14174,7 @@
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B552" t="s">
         <v>88</v>
@@ -14197,7 +14197,7 @@
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B553" t="s">
         <v>88</v>
@@ -14220,7 +14220,7 @@
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B554" t="s">
         <v>88</v>
@@ -14243,7 +14243,7 @@
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B555" t="s">
         <v>88</v>
@@ -14266,7 +14266,7 @@
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B556" t="s">
         <v>88</v>
@@ -14289,7 +14289,7 @@
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B557" t="s">
         <v>88</v>
@@ -14312,7 +14312,7 @@
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B558" t="s">
         <v>124</v>
@@ -14335,7 +14335,7 @@
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B559" t="s">
         <v>124</v>
@@ -14358,7 +14358,7 @@
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B560" t="s">
         <v>124</v>
@@ -14381,7 +14381,7 @@
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B561" t="s">
         <v>124</v>
@@ -14404,7 +14404,7 @@
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B562" t="s">
         <v>124</v>
@@ -14427,7 +14427,7 @@
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B563" t="s">
         <v>124</v>
@@ -14450,7 +14450,7 @@
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B564" t="s">
         <v>124</v>
@@ -14473,7 +14473,7 @@
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B565" t="s">
         <v>124</v>
@@ -14496,7 +14496,7 @@
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B566" t="s">
         <v>124</v>
@@ -14519,7 +14519,7 @@
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B567" t="s">
         <v>124</v>
@@ -14542,7 +14542,7 @@
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B568" t="s">
         <v>124</v>
@@ -14565,7 +14565,7 @@
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B569" t="s">
         <v>124</v>
@@ -14588,7 +14588,7 @@
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B570" t="s">
         <v>124</v>
@@ -14611,7 +14611,7 @@
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B571" t="s">
         <v>124</v>
@@ -14634,7 +14634,7 @@
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B572" t="s">
         <v>124</v>
@@ -14657,7 +14657,7 @@
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B573" t="s">
         <v>124</v>
@@ -14680,7 +14680,7 @@
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B574" t="s">
         <v>124</v>
@@ -14703,7 +14703,7 @@
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B575" t="s">
         <v>124</v>
@@ -14726,7 +14726,7 @@
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B576" t="s">
         <v>124</v>
@@ -14749,7 +14749,7 @@
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B577" t="s">
         <v>124</v>
@@ -14772,7 +14772,7 @@
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B578" t="s">
         <v>124</v>
@@ -14795,7 +14795,7 @@
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B579" t="s">
         <v>106</v>
@@ -14818,7 +14818,7 @@
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B580" t="s">
         <v>106</v>
@@ -14841,7 +14841,7 @@
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B581" t="s">
         <v>106</v>
@@ -14864,7 +14864,7 @@
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B582" t="s">
         <v>106</v>
@@ -14887,7 +14887,7 @@
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B583" t="s">
         <v>106</v>
@@ -14910,7 +14910,7 @@
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B584" t="s">
         <v>106</v>
@@ -14933,7 +14933,7 @@
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B585" t="s">
         <v>106</v>
@@ -14956,7 +14956,7 @@
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B586" t="s">
         <v>106</v>
@@ -14979,7 +14979,7 @@
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B587" t="s">
         <v>106</v>
@@ -15002,7 +15002,7 @@
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B588" t="s">
         <v>106</v>
@@ -15025,7 +15025,7 @@
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B589" t="s">
         <v>106</v>
@@ -15048,7 +15048,7 @@
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B590" t="s">
         <v>106</v>
@@ -15071,7 +15071,7 @@
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B591" t="s">
         <v>106</v>
@@ -15094,7 +15094,7 @@
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B592" t="s">
         <v>106</v>
@@ -15117,7 +15117,7 @@
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B593" t="s">
         <v>106</v>
@@ -15140,7 +15140,7 @@
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B594" t="s">
         <v>106</v>
@@ -15163,7 +15163,7 @@
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B595" t="s">
         <v>106</v>
@@ -15186,7 +15186,7 @@
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B596" t="s">
         <v>106</v>
@@ -15209,7 +15209,7 @@
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B597" t="s">
         <v>106</v>
@@ -15232,7 +15232,7 @@
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B598" t="s">
         <v>106</v>
@@ -15255,7 +15255,7 @@
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B599" t="s">
         <v>106</v>
@@ -15278,7 +15278,7 @@
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B600" t="s">
         <v>106</v>
@@ -15301,7 +15301,7 @@
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B601" t="s">
         <v>106</v>
@@ -15324,7 +15324,7 @@
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B602" t="s">
         <v>106</v>
@@ -15347,7 +15347,7 @@
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B603" t="s">
         <v>106</v>
@@ -15370,7 +15370,7 @@
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B604" t="s">
         <v>106</v>
@@ -15393,7 +15393,7 @@
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B605" t="s">
         <v>106</v>
@@ -15416,7 +15416,7 @@
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B606" t="s">
         <v>106</v>
@@ -15439,7 +15439,7 @@
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B607" t="s">
         <v>106</v>
@@ -15462,7 +15462,7 @@
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B608" t="s">
         <v>106</v>
@@ -15485,7 +15485,7 @@
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B609" t="s">
         <v>106</v>
@@ -15508,7 +15508,7 @@
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B610" t="s">
         <v>106</v>
@@ -15531,7 +15531,7 @@
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B611" t="s">
         <v>106</v>
@@ -15554,7 +15554,7 @@
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B612" t="s">
         <v>106</v>
@@ -15577,7 +15577,7 @@
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B613" t="s">
         <v>106</v>
@@ -15600,7 +15600,7 @@
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B614" t="s">
         <v>97</v>
@@ -15623,7 +15623,7 @@
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B615" t="s">
         <v>97</v>
@@ -15646,7 +15646,7 @@
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B616" t="s">
         <v>97</v>
@@ -15669,7 +15669,7 @@
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B617" t="s">
         <v>97</v>
@@ -15692,7 +15692,7 @@
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B618" t="s">
         <v>97</v>
@@ -15715,7 +15715,7 @@
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B619" t="s">
         <v>97</v>
@@ -15738,7 +15738,7 @@
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B620" t="s">
         <v>97</v>
@@ -15761,7 +15761,7 @@
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B621" t="s">
         <v>97</v>
@@ -15784,7 +15784,7 @@
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B622" t="s">
         <v>97</v>
@@ -15807,7 +15807,7 @@
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B623" t="s">
         <v>97</v>
@@ -15830,7 +15830,7 @@
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B624" t="s">
         <v>97</v>
@@ -15853,7 +15853,7 @@
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B625" t="s">
         <v>97</v>
@@ -15876,7 +15876,7 @@
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B626" t="s">
         <v>97</v>
@@ -15899,7 +15899,7 @@
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B627" t="s">
         <v>97</v>
@@ -15922,7 +15922,7 @@
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B628" t="s">
         <v>97</v>
@@ -15945,7 +15945,7 @@
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B629" t="s">
         <v>97</v>
@@ -15968,7 +15968,7 @@
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B630" t="s">
         <v>97</v>
@@ -15991,7 +15991,7 @@
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B631" t="s">
         <v>97</v>
@@ -16014,7 +16014,7 @@
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B632" t="s">
         <v>97</v>
@@ -16037,7 +16037,7 @@
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B633" t="s">
         <v>97</v>
@@ -16060,7 +16060,7 @@
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B634" t="s">
         <v>97</v>
@@ -16083,7 +16083,7 @@
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B635" t="s">
         <v>97</v>
@@ -16106,7 +16106,7 @@
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B636" t="s">
         <v>97</v>
@@ -16129,7 +16129,7 @@
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B637" t="s">
         <v>231</v>
@@ -16152,7 +16152,7 @@
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B638" t="s">
         <v>231</v>
@@ -16175,7 +16175,7 @@
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B639" t="s">
         <v>231</v>
@@ -16198,7 +16198,7 @@
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B640" t="s">
         <v>95</v>
@@ -16221,7 +16221,7 @@
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B641" t="s">
         <v>95</v>
@@ -16244,7 +16244,7 @@
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B642" t="s">
         <v>95</v>
@@ -16267,7 +16267,7 @@
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B643" t="s">
         <v>116</v>
@@ -16290,7 +16290,7 @@
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B644" t="s">
         <v>116</v>
@@ -16313,7 +16313,7 @@
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B645" t="s">
         <v>116</v>
@@ -16336,7 +16336,7 @@
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B646" t="s">
         <v>116</v>
@@ -16359,7 +16359,7 @@
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B647" t="s">
         <v>116</v>
@@ -16382,7 +16382,7 @@
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B648" t="s">
         <v>116</v>
@@ -16405,7 +16405,7 @@
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B649" t="s">
         <v>116</v>
@@ -16428,7 +16428,7 @@
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B650" t="s">
         <v>116</v>
@@ -16451,7 +16451,7 @@
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B651" t="s">
         <v>116</v>
@@ -16474,7 +16474,7 @@
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B652" t="s">
         <v>117</v>
@@ -16497,7 +16497,7 @@
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B653" t="s">
         <v>117</v>
@@ -16520,7 +16520,7 @@
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B654" t="s">
         <v>117</v>
@@ -16543,7 +16543,7 @@
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B655" t="s">
         <v>117</v>
@@ -16566,7 +16566,7 @@
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B656" t="s">
         <v>117</v>
@@ -16589,7 +16589,7 @@
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B657" t="s">
         <v>117</v>
@@ -16612,7 +16612,7 @@
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B658" t="s">
         <v>117</v>
@@ -16635,7 +16635,7 @@
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B659" t="s">
         <v>117</v>
@@ -16658,7 +16658,7 @@
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B660" t="s">
         <v>117</v>
@@ -16681,7 +16681,7 @@
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B661" t="s">
         <v>117</v>
@@ -16704,7 +16704,7 @@
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B662" t="s">
         <v>117</v>
@@ -16727,7 +16727,7 @@
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B663" t="s">
         <v>117</v>
@@ -16750,7 +16750,7 @@
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B664" t="s">
         <v>117</v>
@@ -16773,7 +16773,7 @@
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B665" t="s">
         <v>117</v>
@@ -16796,7 +16796,7 @@
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B666" t="s">
         <v>28</v>
@@ -16819,7 +16819,7 @@
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B667" t="s">
         <v>28</v>
@@ -16842,7 +16842,7 @@
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B668" t="s">
         <v>28</v>
@@ -16865,7 +16865,7 @@
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B669" t="s">
         <v>28</v>
@@ -16888,7 +16888,7 @@
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B670" t="s">
         <v>28</v>
@@ -16911,7 +16911,7 @@
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B671" t="s">
         <v>28</v>
@@ -16934,7 +16934,7 @@
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B672" t="s">
         <v>28</v>
@@ -16957,7 +16957,7 @@
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B673" t="s">
         <v>28</v>
@@ -16980,7 +16980,7 @@
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B674" t="s">
         <v>28</v>
@@ -17003,7 +17003,7 @@
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B675" t="s">
         <v>28</v>
@@ -17026,7 +17026,7 @@
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B676" t="s">
         <v>28</v>
@@ -17049,7 +17049,7 @@
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B677" t="s">
         <v>28</v>
@@ -17072,7 +17072,7 @@
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B678" t="s">
         <v>83</v>
@@ -17095,7 +17095,7 @@
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B679" t="s">
         <v>83</v>
@@ -17118,7 +17118,7 @@
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B680" t="s">
         <v>83</v>
@@ -17141,7 +17141,7 @@
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B681" t="s">
         <v>83</v>
@@ -17164,7 +17164,7 @@
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B682" t="s">
         <v>83</v>
@@ -17187,7 +17187,7 @@
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B683" t="s">
         <v>83</v>
@@ -17210,7 +17210,7 @@
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B684" t="s">
         <v>83</v>
@@ -17233,7 +17233,7 @@
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B685" t="s">
         <v>83</v>
@@ -17256,7 +17256,7 @@
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B686" t="s">
         <v>104</v>
@@ -17279,7 +17279,7 @@
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B687" t="s">
         <v>113</v>
@@ -17302,7 +17302,7 @@
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B688" t="s">
         <v>113</v>
@@ -17325,7 +17325,7 @@
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B689" t="s">
         <v>113</v>
@@ -17348,7 +17348,7 @@
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B690" t="s">
         <v>113</v>
@@ -17371,7 +17371,7 @@
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B691" t="s">
         <v>113</v>
@@ -17394,7 +17394,7 @@
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B692" t="s">
         <v>113</v>
@@ -17417,7 +17417,7 @@
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B693" t="s">
         <v>113</v>
@@ -17440,7 +17440,7 @@
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B694" t="s">
         <v>113</v>
@@ -17463,7 +17463,7 @@
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B695" t="s">
         <v>113</v>
@@ -17486,7 +17486,7 @@
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B696" t="s">
         <v>113</v>
@@ -17509,7 +17509,7 @@
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B697" t="s">
         <v>113</v>
@@ -17532,7 +17532,7 @@
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B698" t="s">
         <v>113</v>
@@ -17555,7 +17555,7 @@
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B699" t="s">
         <v>113</v>
@@ -17578,7 +17578,7 @@
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B700" t="s">
         <v>113</v>
@@ -17601,7 +17601,7 @@
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B701" t="s">
         <v>113</v>
@@ -17624,7 +17624,7 @@
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B702" t="s">
         <v>113</v>
@@ -17647,7 +17647,7 @@
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B703" t="s">
         <v>113</v>
@@ -17670,7 +17670,7 @@
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B704" t="s">
         <v>113</v>
@@ -17693,7 +17693,7 @@
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B705" t="s">
         <v>113</v>
@@ -17716,7 +17716,7 @@
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B706" t="s">
         <v>113</v>
@@ -17739,7 +17739,7 @@
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B707" t="s">
         <v>113</v>
@@ -17762,7 +17762,7 @@
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B708" t="s">
         <v>113</v>
@@ -17785,7 +17785,7 @@
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B709" t="s">
         <v>113</v>
@@ -17808,7 +17808,7 @@
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B710" t="s">
         <v>113</v>
@@ -17831,7 +17831,7 @@
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B711" t="s">
         <v>113</v>
@@ -17854,7 +17854,7 @@
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B712" t="s">
         <v>113</v>
@@ -17877,7 +17877,7 @@
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B713" t="s">
         <v>113</v>
@@ -17900,7 +17900,7 @@
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B714" t="s">
         <v>113</v>
@@ -17923,7 +17923,7 @@
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B715" t="s">
         <v>113</v>
@@ -17946,7 +17946,7 @@
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B716" t="s">
         <v>113</v>
@@ -17969,7 +17969,7 @@
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B717" t="s">
         <v>113</v>
@@ -17992,7 +17992,7 @@
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B718" t="s">
         <v>113</v>
@@ -18015,7 +18015,7 @@
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A719">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B719" t="s">
         <v>113</v>
@@ -18038,7 +18038,7 @@
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B720" t="s">
         <v>113</v>
@@ -18061,7 +18061,7 @@
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A721">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B721" t="s">
         <v>113</v>
@@ -18084,7 +18084,7 @@
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B722" t="s">
         <v>113</v>
@@ -18107,7 +18107,7 @@
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A723">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B723" t="s">
         <v>113</v>
@@ -18130,7 +18130,7 @@
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A724">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B724" t="s">
         <v>119</v>
@@ -18153,7 +18153,7 @@
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A725">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B725" t="s">
         <v>119</v>
@@ -18176,7 +18176,7 @@
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B726" t="s">
         <v>119</v>
@@ -18199,7 +18199,7 @@
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B727" t="s">
         <v>119</v>
@@ -18222,7 +18222,7 @@
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B728" t="s">
         <v>119</v>
@@ -18245,7 +18245,7 @@
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B729" t="s">
         <v>119</v>
@@ -18268,7 +18268,7 @@
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B730" t="s">
         <v>29</v>
@@ -18291,7 +18291,7 @@
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A731">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B731" t="s">
         <v>29</v>
@@ -18314,7 +18314,7 @@
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A732">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B732" t="s">
         <v>29</v>
@@ -18337,7 +18337,7 @@
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B733" t="s">
         <v>29</v>
@@ -18360,7 +18360,7 @@
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B734" t="s">
         <v>29</v>
@@ -18383,7 +18383,7 @@
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B735" t="s">
         <v>29</v>
@@ -18406,7 +18406,7 @@
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B736" t="s">
         <v>29</v>
@@ -18429,7 +18429,7 @@
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B737" t="s">
         <v>29</v>
@@ -18452,7 +18452,7 @@
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B738" t="s">
         <v>29</v>
@@ -18475,7 +18475,7 @@
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A739">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B739" t="s">
         <v>29</v>
@@ -18498,7 +18498,7 @@
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A740">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B740" t="s">
         <v>29</v>
@@ -18521,7 +18521,7 @@
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A741">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B741" t="s">
         <v>29</v>
@@ -18544,7 +18544,7 @@
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A742">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B742" t="s">
         <v>29</v>
@@ -18567,7 +18567,7 @@
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A743">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B743" t="s">
         <v>29</v>
@@ -18590,7 +18590,7 @@
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A744">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B744" t="s">
         <v>29</v>
@@ -18613,7 +18613,7 @@
     </row>
     <row r="745" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A745">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B745" t="s">
         <v>29</v>
@@ -18636,7 +18636,7 @@
     </row>
     <row r="746" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A746">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B746" t="s">
         <v>29</v>
@@ -18659,7 +18659,7 @@
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A747">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B747" t="s">
         <v>110</v>
@@ -18682,7 +18682,7 @@
     </row>
     <row r="748" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A748">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B748" t="s">
         <v>110</v>
@@ -18705,7 +18705,7 @@
     </row>
     <row r="749" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A749">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B749" t="s">
         <v>110</v>
@@ -18728,7 +18728,7 @@
     </row>
     <row r="750" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A750">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B750" t="s">
         <v>110</v>
@@ -18751,7 +18751,7 @@
     </row>
     <row r="751" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A751">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B751" t="s">
         <v>110</v>
@@ -18774,7 +18774,7 @@
     </row>
     <row r="752" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A752">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B752" t="s">
         <v>110</v>
@@ -18797,7 +18797,7 @@
     </row>
     <row r="753" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A753">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B753" t="s">
         <v>110</v>
@@ -18820,7 +18820,7 @@
     </row>
     <row r="754" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A754">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B754" t="s">
         <v>110</v>
@@ -18843,7 +18843,7 @@
     </row>
     <row r="755" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A755">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B755" t="s">
         <v>110</v>
@@ -18866,7 +18866,7 @@
     </row>
     <row r="756" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A756">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B756" t="s">
         <v>110</v>
@@ -18889,7 +18889,7 @@
     </row>
     <row r="757" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A757">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B757" t="s">
         <v>110</v>
@@ -18912,7 +18912,7 @@
     </row>
     <row r="758" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A758">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B758" t="s">
         <v>110</v>
@@ -18935,7 +18935,7 @@
     </row>
     <row r="759" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A759">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B759" t="s">
         <v>110</v>
@@ -18958,7 +18958,7 @@
     </row>
     <row r="760" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A760">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B760" t="s">
         <v>110</v>
@@ -18981,7 +18981,7 @@
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A761">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B761" t="s">
         <v>110</v>
@@ -19004,7 +19004,7 @@
     </row>
     <row r="762" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A762">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B762" t="s">
         <v>110</v>
@@ -19027,7 +19027,7 @@
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A763">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B763" t="s">
         <v>110</v>
@@ -19050,7 +19050,7 @@
     </row>
     <row r="764" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A764">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B764" t="s">
         <v>110</v>
@@ -19073,7 +19073,7 @@
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A765">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B765" t="s">
         <v>110</v>
@@ -19096,7 +19096,7 @@
     </row>
     <row r="766" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A766">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B766" t="s">
         <v>110</v>
@@ -19119,7 +19119,7 @@
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A767">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B767" t="s">
         <v>110</v>
@@ -19142,7 +19142,7 @@
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A768">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B768" t="s">
         <v>110</v>
@@ -19165,7 +19165,7 @@
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A769">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B769" t="s">
         <v>110</v>
@@ -19188,7 +19188,7 @@
     </row>
     <row r="770" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A770">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B770" t="s">
         <v>122</v>
@@ -19211,7 +19211,7 @@
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A771">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B771" t="s">
         <v>122</v>
@@ -19234,7 +19234,7 @@
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A772">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B772" t="s">
         <v>122</v>
@@ -19257,7 +19257,7 @@
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A773">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B773" t="s">
         <v>122</v>
@@ -19280,7 +19280,7 @@
     </row>
     <row r="774" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A774">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B774" t="s">
         <v>122</v>
@@ -19303,7 +19303,7 @@
     </row>
     <row r="775" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A775">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B775" t="s">
         <v>122</v>
@@ -19326,7 +19326,7 @@
     </row>
     <row r="776" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A776">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B776" t="s">
         <v>122</v>
@@ -19349,7 +19349,7 @@
     </row>
     <row r="777" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A777">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B777" t="s">
         <v>122</v>
@@ -19372,7 +19372,7 @@
     </row>
     <row r="778" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A778">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B778" t="s">
         <v>122</v>
@@ -19395,7 +19395,7 @@
     </row>
     <row r="779" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A779">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B779" t="s">
         <v>122</v>
@@ -19418,7 +19418,7 @@
     </row>
     <row r="780" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A780">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B780" t="s">
         <v>122</v>
@@ -19441,7 +19441,7 @@
     </row>
     <row r="781" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A781">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B781" t="s">
         <v>122</v>
@@ -19464,7 +19464,7 @@
     </row>
     <row r="782" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A782">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B782" t="s">
         <v>122</v>
@@ -19487,7 +19487,7 @@
     </row>
     <row r="783" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A783">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B783" t="s">
         <v>122</v>
@@ -19510,7 +19510,7 @@
     </row>
     <row r="784" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A784">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B784" t="s">
         <v>122</v>
@@ -19533,7 +19533,7 @@
     </row>
     <row r="785" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A785">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B785" t="s">
         <v>122</v>
@@ -19556,7 +19556,7 @@
     </row>
     <row r="786" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A786">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B786" t="s">
         <v>122</v>
@@ -19579,7 +19579,7 @@
     </row>
     <row r="787" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A787">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B787" t="s">
         <v>122</v>
@@ -19602,7 +19602,7 @@
     </row>
     <row r="788" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A788">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B788" t="s">
         <v>122</v>
@@ -19625,7 +19625,7 @@
     </row>
     <row r="789" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A789">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B789" t="s">
         <v>122</v>
@@ -19648,7 +19648,7 @@
     </row>
     <row r="790" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A790">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B790" t="s">
         <v>122</v>
@@ -19671,7 +19671,7 @@
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A791">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B791" t="s">
         <v>122</v>
@@ -19694,7 +19694,7 @@
     </row>
     <row r="792" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A792">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B792" t="s">
         <v>122</v>
@@ -19717,7 +19717,7 @@
     </row>
     <row r="793" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A793">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B793" t="s">
         <v>122</v>
@@ -19740,7 +19740,7 @@
     </row>
     <row r="794" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A794">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B794" t="s">
         <v>122</v>
@@ -19763,7 +19763,7 @@
     </row>
     <row r="795" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A795">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B795" t="s">
         <v>122</v>
@@ -19786,7 +19786,7 @@
     </row>
     <row r="796" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A796">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B796" t="s">
         <v>122</v>
@@ -19809,7 +19809,7 @@
     </row>
     <row r="797" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A797">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B797" t="s">
         <v>122</v>
@@ -19832,7 +19832,7 @@
     </row>
     <row r="798" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A798">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B798" t="s">
         <v>122</v>
@@ -19855,7 +19855,7 @@
     </row>
     <row r="799" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A799">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B799" t="s">
         <v>122</v>
@@ -19878,7 +19878,7 @@
     </row>
     <row r="800" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A800">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B800" t="s">
         <v>122</v>
@@ -19901,7 +19901,7 @@
     </row>
     <row r="801" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A801">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B801" t="s">
         <v>20</v>
@@ -19924,7 +19924,7 @@
     </row>
     <row r="802" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A802">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B802" t="s">
         <v>20</v>
@@ -19947,7 +19947,7 @@
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A803">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B803" t="s">
         <v>20</v>
@@ -19970,7 +19970,7 @@
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A804">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B804" t="s">
         <v>20</v>
@@ -19993,7 +19993,7 @@
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A805">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B805" t="s">
         <v>20</v>
@@ -20016,7 +20016,7 @@
     </row>
     <row r="806" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A806">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B806" t="s">
         <v>20</v>
@@ -20039,7 +20039,7 @@
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A807">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B807" t="s">
         <v>232</v>
@@ -20062,7 +20062,7 @@
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A808">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B808" t="s">
         <v>232</v>
@@ -20085,7 +20085,7 @@
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A809">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B809" t="s">
         <v>233</v>
@@ -20108,7 +20108,7 @@
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A810">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B810" t="s">
         <v>39</v>
@@ -20131,7 +20131,7 @@
     </row>
     <row r="811" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A811">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B811" t="s">
         <v>39</v>
@@ -20154,7 +20154,7 @@
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A812">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B812" t="s">
         <v>39</v>
@@ -20177,7 +20177,7 @@
     </row>
     <row r="813" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A813">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B813" t="s">
         <v>118</v>
@@ -20200,7 +20200,7 @@
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A814">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B814" t="s">
         <v>118</v>
@@ -20223,7 +20223,7 @@
     </row>
     <row r="815" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A815">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B815" t="s">
         <v>118</v>
@@ -20246,7 +20246,7 @@
     </row>
     <row r="816" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A816">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B816" t="s">
         <v>118</v>
@@ -20269,7 +20269,7 @@
     </row>
     <row r="817" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A817">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B817" t="s">
         <v>118</v>
@@ -20292,7 +20292,7 @@
     </row>
     <row r="818" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A818">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B818" t="s">
         <v>118</v>
@@ -20315,7 +20315,7 @@
     </row>
     <row r="819" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A819">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B819" t="s">
         <v>118</v>
@@ -20338,7 +20338,7 @@
     </row>
     <row r="820" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A820">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B820" t="s">
         <v>118</v>
@@ -20361,7 +20361,7 @@
     </row>
     <row r="821" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A821">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B821" t="s">
         <v>118</v>
@@ -20384,7 +20384,7 @@
     </row>
     <row r="822" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A822">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B822" t="s">
         <v>118</v>
@@ -20407,7 +20407,7 @@
     </row>
     <row r="823" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A823">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B823" t="s">
         <v>46</v>
@@ -20430,7 +20430,7 @@
     </row>
     <row r="824" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A824">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B824" t="s">
         <v>46</v>
@@ -20453,7 +20453,7 @@
     </row>
     <row r="825" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A825">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B825" t="s">
         <v>46</v>
@@ -20476,7 +20476,7 @@
     </row>
     <row r="826" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A826">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B826" t="s">
         <v>7</v>
@@ -20499,7 +20499,7 @@
     </row>
     <row r="827" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A827">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B827" t="s">
         <v>7</v>
@@ -20522,7 +20522,7 @@
     </row>
     <row r="828" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A828">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B828" t="s">
         <v>7</v>
@@ -20545,7 +20545,7 @@
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A829">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B829" t="s">
         <v>7</v>
@@ -20568,7 +20568,7 @@
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A830">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B830" t="s">
         <v>7</v>
@@ -20591,7 +20591,7 @@
     </row>
     <row r="831" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A831">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B831" t="s">
         <v>234</v>
@@ -20614,7 +20614,7 @@
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A832">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B832" t="s">
         <v>149</v>
@@ -20637,7 +20637,7 @@
     </row>
     <row r="833" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A833">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B833" t="s">
         <v>19</v>
@@ -20660,7 +20660,7 @@
     </row>
     <row r="834" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A834">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B834" t="s">
         <v>19</v>
@@ -20683,7 +20683,7 @@
     </row>
     <row r="835" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A835">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B835" t="s">
         <v>58</v>
@@ -20706,7 +20706,7 @@
     </row>
     <row r="836" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A836">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B836" t="s">
         <v>58</v>
@@ -20729,7 +20729,7 @@
     </row>
     <row r="837" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A837">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B837" t="s">
         <v>58</v>
@@ -20752,7 +20752,7 @@
     </row>
     <row r="838" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A838">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B838" t="s">
         <v>235</v>
@@ -20775,7 +20775,7 @@
     </row>
     <row r="839" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A839">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B839" t="s">
         <v>235</v>
@@ -20798,7 +20798,7 @@
     </row>
     <row r="840" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A840">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B840" t="s">
         <v>235</v>
@@ -20821,7 +20821,7 @@
     </row>
     <row r="841" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A841">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B841" t="s">
         <v>235</v>
@@ -20844,7 +20844,7 @@
     </row>
     <row r="842" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A842">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B842" t="s">
         <v>235</v>
@@ -20867,7 +20867,7 @@
     </row>
     <row r="843" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A843">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B843" t="s">
         <v>235</v>
@@ -20890,7 +20890,7 @@
     </row>
     <row r="844" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A844">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B844" t="s">
         <v>235</v>
@@ -20913,7 +20913,7 @@
     </row>
     <row r="845" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A845">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B845" t="s">
         <v>235</v>
@@ -20936,7 +20936,7 @@
     </row>
     <row r="846" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A846">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B846" t="s">
         <v>235</v>
@@ -20959,7 +20959,7 @@
     </row>
     <row r="847" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A847">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B847" t="s">
         <v>236</v>
@@ -20982,7 +20982,7 @@
     </row>
     <row r="848" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A848">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B848" t="s">
         <v>98</v>
@@ -21005,7 +21005,7 @@
     </row>
     <row r="849" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A849">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B849" t="s">
         <v>98</v>
@@ -21028,7 +21028,7 @@
     </row>
     <row r="850" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A850">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B850" t="s">
         <v>98</v>
@@ -21051,7 +21051,7 @@
     </row>
     <row r="851" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A851">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B851" t="s">
         <v>98</v>
@@ -21074,7 +21074,7 @@
     </row>
     <row r="852" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A852">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B852" t="s">
         <v>98</v>
@@ -21097,7 +21097,7 @@
     </row>
     <row r="853" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A853">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B853" t="s">
         <v>131</v>
@@ -21120,7 +21120,7 @@
     </row>
     <row r="854" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A854">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B854" t="s">
         <v>131</v>
@@ -21143,7 +21143,7 @@
     </row>
     <row r="855" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A855">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B855" t="s">
         <v>131</v>
@@ -21166,7 +21166,7 @@
     </row>
     <row r="856" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A856">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B856" t="s">
         <v>131</v>
@@ -21189,7 +21189,7 @@
     </row>
     <row r="857" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A857">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B857" t="s">
         <v>131</v>
@@ -21212,7 +21212,7 @@
     </row>
     <row r="858" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A858">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B858" t="s">
         <v>131</v>
@@ -21235,7 +21235,7 @@
     </row>
     <row r="859" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A859">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B859" t="s">
         <v>131</v>
@@ -21258,7 +21258,7 @@
     </row>
     <row r="860" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A860">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B860" t="s">
         <v>131</v>
@@ -21281,7 +21281,7 @@
     </row>
     <row r="861" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A861">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B861" t="s">
         <v>51</v>
@@ -21304,7 +21304,7 @@
     </row>
     <row r="862" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A862">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B862" t="s">
         <v>51</v>
@@ -21327,7 +21327,7 @@
     </row>
     <row r="863" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A863">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B863" t="s">
         <v>51</v>
@@ -21350,7 +21350,7 @@
     </row>
     <row r="864" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A864">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B864" t="s">
         <v>51</v>
@@ -21373,7 +21373,7 @@
     </row>
     <row r="865" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A865">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B865" t="s">
         <v>51</v>
@@ -21396,7 +21396,7 @@
     </row>
     <row r="866" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A866">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B866" t="s">
         <v>51</v>
@@ -21419,7 +21419,7 @@
     </row>
     <row r="867" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A867">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B867" t="s">
         <v>51</v>
@@ -21442,7 +21442,7 @@
     </row>
     <row r="868" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A868">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B868" t="s">
         <v>237</v>
@@ -21465,7 +21465,7 @@
     </row>
     <row r="869" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A869">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B869" t="s">
         <v>96</v>
@@ -21488,7 +21488,7 @@
     </row>
     <row r="870" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A870">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B870" t="s">
         <v>96</v>
@@ -21511,7 +21511,7 @@
     </row>
     <row r="871" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A871">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B871" t="s">
         <v>96</v>
@@ -21534,7 +21534,7 @@
     </row>
     <row r="872" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A872">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B872" t="s">
         <v>96</v>
@@ -21557,7 +21557,7 @@
     </row>
     <row r="873" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A873">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B873" t="s">
         <v>96</v>
@@ -21580,7 +21580,7 @@
     </row>
     <row r="874" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A874">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B874" t="s">
         <v>96</v>
@@ -21603,7 +21603,7 @@
     </row>
     <row r="875" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A875">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B875" t="s">
         <v>96</v>
@@ -21626,7 +21626,7 @@
     </row>
     <row r="876" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A876">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B876" t="s">
         <v>96</v>
@@ -21649,7 +21649,7 @@
     </row>
     <row r="877" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A877">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B877" t="s">
         <v>96</v>
@@ -21672,7 +21672,7 @@
     </row>
     <row r="878" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A878">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B878" t="s">
         <v>96</v>
@@ -21695,7 +21695,7 @@
     </row>
     <row r="879" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A879">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B879" t="s">
         <v>96</v>
@@ -21718,7 +21718,7 @@
     </row>
     <row r="880" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A880">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B880" t="s">
         <v>96</v>
@@ -21741,7 +21741,7 @@
     </row>
     <row r="881" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A881">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B881" t="s">
         <v>96</v>
@@ -21764,7 +21764,7 @@
     </row>
     <row r="882" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A882">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B882" t="s">
         <v>96</v>
@@ -21787,7 +21787,7 @@
     </row>
     <row r="883" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A883">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B883" t="s">
         <v>96</v>
@@ -21810,7 +21810,7 @@
     </row>
     <row r="884" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A884">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B884" t="s">
         <v>238</v>
@@ -21833,7 +21833,7 @@
     </row>
     <row r="885" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A885">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B885" t="s">
         <v>47</v>
@@ -21856,7 +21856,7 @@
     </row>
     <row r="886" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A886">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B886" t="s">
         <v>47</v>
@@ -21879,7 +21879,7 @@
     </row>
     <row r="887" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A887">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B887" t="s">
         <v>47</v>
@@ -21902,7 +21902,7 @@
     </row>
     <row r="888" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A888">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B888" t="s">
         <v>129</v>
@@ -21925,7 +21925,7 @@
     </row>
     <row r="889" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A889">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B889" t="s">
         <v>129</v>
@@ -21948,7 +21948,7 @@
     </row>
     <row r="890" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A890">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B890" t="s">
         <v>129</v>
@@ -21971,7 +21971,7 @@
     </row>
     <row r="891" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A891">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B891" t="s">
         <v>129</v>
@@ -21994,7 +21994,7 @@
     </row>
     <row r="892" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A892">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B892" t="s">
         <v>129</v>
@@ -22017,7 +22017,7 @@
     </row>
     <row r="893" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A893">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B893" t="s">
         <v>129</v>
@@ -22040,7 +22040,7 @@
     </row>
     <row r="894" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A894">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B894" t="s">
         <v>129</v>
@@ -22063,7 +22063,7 @@
     </row>
     <row r="895" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A895">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B895" t="s">
         <v>129</v>
@@ -22086,7 +22086,7 @@
     </row>
     <row r="896" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A896">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B896" t="s">
         <v>129</v>
@@ -22109,7 +22109,7 @@
     </row>
     <row r="897" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A897">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B897" t="s">
         <v>129</v>
@@ -22132,7 +22132,7 @@
     </row>
     <row r="898" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A898">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B898" t="s">
         <v>129</v>
@@ -22155,7 +22155,7 @@
     </row>
     <row r="899" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A899">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B899" t="s">
         <v>129</v>
@@ -22178,7 +22178,7 @@
     </row>
     <row r="900" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A900">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B900" t="s">
         <v>129</v>
@@ -22201,7 +22201,7 @@
     </row>
     <row r="901" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A901">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B901" t="s">
         <v>129</v>
@@ -22224,7 +22224,7 @@
     </row>
     <row r="902" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A902">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B902" t="s">
         <v>129</v>
@@ -22247,7 +22247,7 @@
     </row>
     <row r="903" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A903">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B903" t="s">
         <v>129</v>
@@ -22270,7 +22270,7 @@
     </row>
     <row r="904" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A904">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B904" t="s">
         <v>129</v>
@@ -22293,7 +22293,7 @@
     </row>
     <row r="905" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A905">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B905" t="s">
         <v>129</v>
@@ -22316,7 +22316,7 @@
     </row>
     <row r="906" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A906">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B906" t="s">
         <v>129</v>
@@ -22339,7 +22339,7 @@
     </row>
     <row r="907" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A907">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B907" t="s">
         <v>129</v>
@@ -22362,7 +22362,7 @@
     </row>
     <row r="908" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A908">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B908" t="s">
         <v>129</v>
@@ -22385,7 +22385,7 @@
     </row>
     <row r="909" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A909">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B909" t="s">
         <v>239</v>
@@ -22408,7 +22408,7 @@
     </row>
     <row r="910" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A910">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B910" t="s">
         <v>132</v>
@@ -22431,7 +22431,7 @@
     </row>
     <row r="911" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A911">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B911" t="s">
         <v>240</v>
@@ -22454,7 +22454,7 @@
     </row>
     <row r="912" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A912">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B912" t="s">
         <v>240</v>
@@ -22477,7 +22477,7 @@
     </row>
     <row r="913" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A913">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B913" t="s">
         <v>240</v>
@@ -22500,7 +22500,7 @@
     </row>
     <row r="914" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A914">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B914" t="s">
         <v>240</v>
@@ -22523,7 +22523,7 @@
     </row>
     <row r="915" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A915">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B915" t="s">
         <v>240</v>
@@ -22546,7 +22546,7 @@
     </row>
     <row r="916" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A916">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B916" t="s">
         <v>125</v>
@@ -22569,7 +22569,7 @@
     </row>
     <row r="917" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A917">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B917" t="s">
         <v>125</v>
@@ -22592,7 +22592,7 @@
     </row>
     <row r="918" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A918">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B918" t="s">
         <v>109</v>
@@ -22615,7 +22615,7 @@
     </row>
     <row r="919" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A919">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B919" t="s">
         <v>109</v>
@@ -22638,7 +22638,7 @@
     </row>
     <row r="920" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A920">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B920" t="s">
         <v>109</v>
@@ -22661,7 +22661,7 @@
     </row>
     <row r="921" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A921">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B921" t="s">
         <v>109</v>
@@ -22684,7 +22684,7 @@
     </row>
     <row r="922" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A922">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B922" t="s">
         <v>109</v>
@@ -22707,7 +22707,7 @@
     </row>
     <row r="923" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A923">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B923" t="s">
         <v>109</v>
@@ -22730,7 +22730,7 @@
     </row>
     <row r="924" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A924">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B924" t="s">
         <v>155</v>
@@ -22753,7 +22753,7 @@
     </row>
     <row r="925" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A925">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B925" t="s">
         <v>241</v>
@@ -22776,7 +22776,7 @@
     </row>
     <row r="926" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A926">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B926" t="s">
         <v>17</v>
@@ -22799,7 +22799,7 @@
     </row>
     <row r="927" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A927">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B927" t="s">
         <v>127</v>
@@ -22822,7 +22822,7 @@
     </row>
     <row r="928" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A928">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B928" t="s">
         <v>128</v>
@@ -22845,7 +22845,7 @@
     </row>
     <row r="929" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A929">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B929" t="s">
         <v>128</v>
@@ -22868,7 +22868,7 @@
     </row>
     <row r="930" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A930">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B930" t="s">
         <v>128</v>
@@ -22891,7 +22891,7 @@
     </row>
     <row r="931" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A931">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B931" t="s">
         <v>128</v>
@@ -22914,7 +22914,7 @@
     </row>
     <row r="932" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A932">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B932" t="s">
         <v>128</v>
@@ -22937,7 +22937,7 @@
     </row>
     <row r="933" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A933">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B933" t="s">
         <v>242</v>
@@ -22960,7 +22960,7 @@
     </row>
     <row r="934" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A934">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B934" t="s">
         <v>47</v>
@@ -22983,7 +22983,7 @@
     </row>
     <row r="935" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A935">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B935" t="s">
         <v>152</v>
@@ -23006,7 +23006,7 @@
     </row>
     <row r="936" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A936">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B936" t="s">
         <v>152</v>
@@ -23029,7 +23029,7 @@
     </row>
     <row r="937" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A937">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B937" t="s">
         <v>133</v>
@@ -23052,7 +23052,7 @@
     </row>
     <row r="938" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A938">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B938" t="s">
         <v>91</v>
@@ -23075,7 +23075,7 @@
     </row>
     <row r="939" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A939">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B939" t="s">
         <v>91</v>
@@ -23098,7 +23098,7 @@
     </row>
     <row r="940" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A940">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B940" t="s">
         <v>91</v>
@@ -23121,7 +23121,7 @@
     </row>
     <row r="941" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A941">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B941" t="s">
         <v>91</v>
@@ -23144,7 +23144,7 @@
     </row>
     <row r="942" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A942">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B942" t="s">
         <v>65</v>
@@ -23167,7 +23167,7 @@
     </row>
     <row r="943" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A943">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B943" t="s">
         <v>65</v>
@@ -23190,7 +23190,7 @@
     </row>
     <row r="944" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A944">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B944" t="s">
         <v>243</v>
@@ -23213,7 +23213,7 @@
     </row>
     <row r="945" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A945">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B945" t="s">
         <v>57</v>
@@ -23236,7 +23236,7 @@
     </row>
     <row r="946" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A946">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B946" t="s">
         <v>157</v>
@@ -23259,7 +23259,7 @@
     </row>
     <row r="947" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A947">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B947" t="s">
         <v>59</v>
@@ -23282,7 +23282,7 @@
     </row>
     <row r="948" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A948">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B948" t="s">
         <v>59</v>
@@ -23305,7 +23305,7 @@
     </row>
     <row r="949" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A949">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B949" t="s">
         <v>59</v>
@@ -23328,7 +23328,7 @@
     </row>
     <row r="950" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A950">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B950" t="s">
         <v>100</v>
@@ -23351,7 +23351,7 @@
     </row>
     <row r="951" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A951">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B951" t="s">
         <v>244</v>
@@ -23374,7 +23374,7 @@
     </row>
     <row r="952" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A952">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B952" t="s">
         <v>244</v>
@@ -23397,7 +23397,7 @@
     </row>
     <row r="953" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A953">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B953" t="s">
         <v>244</v>
@@ -23420,7 +23420,7 @@
     </row>
     <row r="954" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A954">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B954" t="s">
         <v>130</v>
@@ -23443,7 +23443,7 @@
     </row>
     <row r="955" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A955">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B955" t="s">
         <v>130</v>
@@ -23466,7 +23466,7 @@
     </row>
     <row r="956" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A956">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B956" t="s">
         <v>130</v>
@@ -23489,7 +23489,7 @@
     </row>
     <row r="957" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A957">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B957" t="s">
         <v>54</v>
@@ -23512,7 +23512,7 @@
     </row>
     <row r="958" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A958">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B958" t="s">
         <v>54</v>
@@ -23535,7 +23535,7 @@
     </row>
     <row r="959" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A959">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B959" t="s">
         <v>103</v>
@@ -23558,7 +23558,7 @@
     </row>
     <row r="960" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A960">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B960" t="s">
         <v>103</v>
@@ -23581,7 +23581,7 @@
     </row>
     <row r="961" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A961">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B961" t="s">
         <v>103</v>
@@ -23604,7 +23604,7 @@
     </row>
     <row r="962" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A962">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B962" t="s">
         <v>103</v>
@@ -23627,7 +23627,7 @@
     </row>
     <row r="963" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A963">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B963" t="s">
         <v>144</v>
@@ -23650,7 +23650,7 @@
     </row>
     <row r="964" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A964">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B964" t="s">
         <v>144</v>
@@ -23673,7 +23673,7 @@
     </row>
     <row r="965" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A965">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B965" t="s">
         <v>148</v>
@@ -23696,7 +23696,7 @@
     </row>
     <row r="966" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A966">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B966" t="s">
         <v>148</v>
@@ -23719,7 +23719,7 @@
     </row>
     <row r="967" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A967">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B967" t="s">
         <v>112</v>
@@ -23742,7 +23742,7 @@
     </row>
     <row r="968" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A968">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B968" t="s">
         <v>111</v>
@@ -23765,7 +23765,7 @@
     </row>
     <row r="969" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A969">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B969" t="s">
         <v>111</v>
@@ -23788,7 +23788,7 @@
     </row>
     <row r="970" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A970">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B970" t="s">
         <v>101</v>
@@ -23811,7 +23811,7 @@
     </row>
     <row r="971" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A971">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B971" t="s">
         <v>101</v>
@@ -23834,7 +23834,7 @@
     </row>
     <row r="972" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A972">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B972" t="s">
         <v>101</v>
@@ -23857,7 +23857,7 @@
     </row>
     <row r="973" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A973">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B973" t="s">
         <v>101</v>
@@ -23880,7 +23880,7 @@
     </row>
     <row r="974" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A974">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B974" t="s">
         <v>156</v>
@@ -23903,7 +23903,7 @@
     </row>
     <row r="975" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A975">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B975" t="s">
         <v>156</v>
@@ -23926,7 +23926,7 @@
     </row>
     <row r="976" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A976">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B976" t="s">
         <v>107</v>
@@ -23949,7 +23949,7 @@
     </row>
     <row r="977" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A977">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B977" t="s">
         <v>107</v>
@@ -23972,7 +23972,7 @@
     </row>
     <row r="978" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A978">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B978" t="s">
         <v>245</v>
@@ -23995,7 +23995,7 @@
     </row>
     <row r="979" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A979">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B979" t="s">
         <v>246</v>
@@ -24018,7 +24018,7 @@
     </row>
     <row r="980" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A980">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B980" t="s">
         <v>150</v>
@@ -24041,7 +24041,7 @@
     </row>
     <row r="981" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A981">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B981" t="s">
         <v>150</v>
@@ -24064,7 +24064,7 @@
     </row>
     <row r="982" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A982">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B982" t="s">
         <v>56</v>
@@ -24087,7 +24087,7 @@
     </row>
     <row r="983" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A983">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B983" t="s">
         <v>56</v>
@@ -24110,7 +24110,7 @@
     </row>
     <row r="984" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A984">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B984" t="s">
         <v>56</v>
@@ -24133,7 +24133,7 @@
     </row>
     <row r="985" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A985">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B985" t="s">
         <v>142</v>
@@ -24156,7 +24156,7 @@
     </row>
     <row r="986" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A986">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B986" t="s">
         <v>247</v>
@@ -24179,7 +24179,7 @@
     </row>
     <row r="987" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A987">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B987" t="s">
         <v>45</v>
@@ -24202,7 +24202,7 @@
     </row>
     <row r="988" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A988">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B988" t="s">
         <v>45</v>
@@ -24225,7 +24225,7 @@
     </row>
     <row r="989" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A989">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B989" t="s">
         <v>84</v>
@@ -24248,7 +24248,7 @@
     </row>
     <row r="990" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A990">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B990" t="s">
         <v>84</v>
@@ -24271,7 +24271,7 @@
     </row>
     <row r="991" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A991">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B991" t="s">
         <v>84</v>
@@ -24294,7 +24294,7 @@
     </row>
     <row r="992" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A992">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B992" t="s">
         <v>84</v>
@@ -24317,7 +24317,7 @@
     </row>
     <row r="993" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A993">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B993" t="s">
         <v>84</v>
@@ -24340,7 +24340,7 @@
     </row>
     <row r="994" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A994">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B994" t="s">
         <v>84</v>
@@ -24363,7 +24363,7 @@
     </row>
     <row r="995" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A995">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B995" t="s">
         <v>84</v>
@@ -24386,7 +24386,7 @@
     </row>
     <row r="996" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A996">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B996" t="s">
         <v>84</v>
@@ -24409,7 +24409,7 @@
     </row>
     <row r="997" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A997">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B997" t="s">
         <v>52</v>
@@ -24432,7 +24432,7 @@
     </row>
     <row r="998" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A998">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B998" t="s">
         <v>52</v>
@@ -24455,7 +24455,7 @@
     </row>
     <row r="999" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A999">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B999" t="s">
         <v>108</v>
@@ -24478,7 +24478,7 @@
     </row>
     <row r="1000" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1000">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B1000" t="s">
         <v>108</v>
@@ -24501,7 +24501,7 @@
     </row>
     <row r="1001" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1001">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B1001" t="s">
         <v>248</v>
@@ -24524,7 +24524,7 @@
     </row>
     <row r="1002" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1002">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B1002" t="s">
         <v>134</v>
@@ -24547,7 +24547,7 @@
     </row>
     <row r="1003" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1003">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B1003" t="s">
         <v>12</v>
@@ -24570,7 +24570,7 @@
     </row>
     <row r="1004" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1004">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B1004" t="s">
         <v>249</v>
@@ -24593,7 +24593,7 @@
     </row>
     <row r="1005" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1005">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B1005" t="s">
         <v>249</v>
@@ -24616,7 +24616,7 @@
     </row>
     <row r="1006" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1006">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B1006" t="s">
         <v>250</v>
@@ -24639,7 +24639,7 @@
     </row>
     <row r="1007" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1007">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B1007" t="s">
         <v>14</v>
@@ -24662,7 +24662,7 @@
     </row>
     <row r="1008" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1008">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B1008" t="s">
         <v>159</v>
@@ -24685,7 +24685,7 @@
     </row>
     <row r="1009" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1009">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B1009" t="s">
         <v>159</v>
@@ -24708,7 +24708,7 @@
     </row>
     <row r="1010" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1010">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B1010" t="s">
         <v>160</v>
@@ -24731,7 +24731,7 @@
     </row>
     <row r="1011" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1011">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B1011" t="s">
         <v>160</v>
@@ -24754,7 +24754,7 @@
     </row>
     <row r="1012" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1012">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B1012" t="s">
         <v>251</v>
@@ -24777,7 +24777,7 @@
     </row>
     <row r="1013" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1013">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B1013" t="s">
         <v>252</v>
@@ -24800,7 +24800,7 @@
     </row>
     <row r="1014" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1014">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B1014" t="s">
         <v>146</v>
@@ -24823,7 +24823,7 @@
     </row>
     <row r="1015" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1015">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B1015" t="s">
         <v>146</v>
@@ -24846,7 +24846,7 @@
     </row>
     <row r="1016" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1016">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B1016" t="s">
         <v>61</v>
@@ -24869,7 +24869,7 @@
     </row>
     <row r="1017" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1017">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B1017" t="s">
         <v>61</v>
@@ -24892,7 +24892,7 @@
     </row>
     <row r="1018" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1018">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B1018" t="s">
         <v>61</v>
@@ -24915,7 +24915,7 @@
     </row>
     <row r="1019" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1019">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B1019" t="s">
         <v>61</v>
@@ -24938,7 +24938,7 @@
     </row>
     <row r="1020" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1020">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B1020" t="s">
         <v>253</v>
@@ -24961,7 +24961,7 @@
     </row>
     <row r="1021" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1021">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B1021" t="s">
         <v>66</v>
@@ -24984,7 +24984,7 @@
     </row>
     <row r="1022" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1022">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B1022" t="s">
         <v>66</v>
@@ -25007,7 +25007,7 @@
     </row>
     <row r="1023" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1023">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B1023" t="s">
         <v>66</v>
@@ -25030,7 +25030,7 @@
     </row>
     <row r="1024" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1024">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B1024" t="s">
         <v>66</v>
@@ -25053,7 +25053,7 @@
     </row>
     <row r="1025" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1025">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B1025" t="s">
         <v>66</v>
@@ -25076,7 +25076,7 @@
     </row>
     <row r="1026" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1026">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B1026" t="s">
         <v>254</v>
@@ -25099,7 +25099,7 @@
     </row>
     <row r="1027" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1027">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B1027" t="s">
         <v>255</v>
@@ -25122,7 +25122,7 @@
     </row>
     <row r="1028" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1028">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B1028" t="s">
         <v>255</v>
@@ -25145,7 +25145,7 @@
     </row>
     <row r="1029" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1029">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B1029" t="s">
         <v>255</v>
@@ -25168,7 +25168,7 @@
     </row>
     <row r="1030" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1030">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B1030" t="s">
         <v>87</v>
@@ -25191,7 +25191,7 @@
     </row>
     <row r="1031" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1031">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B1031" t="s">
         <v>87</v>
@@ -25214,7 +25214,7 @@
     </row>
     <row r="1032" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1032">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B1032" t="s">
         <v>87</v>
@@ -25237,7 +25237,7 @@
     </row>
     <row r="1033" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1033">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B1033" t="s">
         <v>256</v>
@@ -25260,7 +25260,7 @@
     </row>
     <row r="1034" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1034">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B1034" t="s">
         <v>136</v>
@@ -25283,7 +25283,7 @@
     </row>
     <row r="1035" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1035">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B1035" t="s">
         <v>136</v>
@@ -25306,7 +25306,7 @@
     </row>
     <row r="1036" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1036">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B1036" t="s">
         <v>257</v>
@@ -25329,7 +25329,7 @@
     </row>
     <row r="1037" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1037">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B1037" t="s">
         <v>137</v>
@@ -25352,7 +25352,7 @@
     </row>
     <row r="1038" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1038">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B1038" t="s">
         <v>138</v>
@@ -25375,7 +25375,7 @@
     </row>
     <row r="1039" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1039">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B1039" t="s">
         <v>258</v>

--- a/VVencidos.xlsx
+++ b/VVencidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE3311B-14A9-4D42-871F-7A6AA1A5D828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB5F9BC-4E1B-4272-A542-F3184F591F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{269BE8FF-AC33-4B8A-A7D2-D9ACD2484502}"/>
   </bookViews>
@@ -898,6 +898,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -927,11 +930,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1486,14 +1490,14 @@
   <dimension ref="A1:G1039"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A1039"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
@@ -1506,7 +1510,7 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -1529,7 +1533,7 @@
       <c r="B2" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>45854</v>
       </c>
       <c r="D2" t="s">
@@ -1552,7 +1556,7 @@
       <c r="B3" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>45861</v>
       </c>
       <c r="D3" t="s">
@@ -1575,7 +1579,7 @@
       <c r="B4" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>45865</v>
       </c>
       <c r="D4" t="s">
@@ -1598,7 +1602,7 @@
       <c r="B5" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>45870.446192129624</v>
       </c>
       <c r="D5" t="s">
@@ -1621,7 +1625,7 @@
       <c r="B6" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>45872.522743055553</v>
       </c>
       <c r="D6" t="s">
@@ -1644,7 +1648,7 @@
       <c r="B7" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>45872.53460648148</v>
       </c>
       <c r="D7" t="s">
@@ -1667,7 +1671,7 @@
       <c r="B8" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>45875.481979166667</v>
       </c>
       <c r="D8" t="s">
@@ -1690,7 +1694,7 @@
       <c r="B9" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>45872</v>
       </c>
       <c r="D9" t="s">
@@ -1713,7 +1717,7 @@
       <c r="B10" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>45872.493842592594</v>
       </c>
       <c r="D10" t="s">
@@ -1736,7 +1740,7 @@
       <c r="B11" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>45875.491770833331</v>
       </c>
       <c r="D11" t="s">
@@ -1759,7 +1763,7 @@
       <c r="B12" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>45505.533796296295</v>
       </c>
       <c r="D12" t="s">
@@ -1782,7 +1786,7 @@
       <c r="B13" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>45568</v>
       </c>
       <c r="D13" t="s">
@@ -1805,7 +1809,7 @@
       <c r="B14" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <v>45854.605543981481</v>
       </c>
       <c r="D14" t="s">
@@ -1828,7 +1832,7 @@
       <c r="B15" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <v>45862.498310185183</v>
       </c>
       <c r="D15" t="s">
@@ -1851,7 +1855,7 @@
       <c r="B16" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <v>45869.506076388891</v>
       </c>
       <c r="D16" t="s">
@@ -1874,7 +1878,7 @@
       <c r="B17" t="s">
         <v>165</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>45508.399467592593</v>
       </c>
       <c r="D17" t="s">
@@ -1897,7 +1901,7 @@
       <c r="B18" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="4">
         <v>45876.54274305555</v>
       </c>
       <c r="D18" t="s">
@@ -1920,7 +1924,7 @@
       <c r="B19" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="4">
         <v>45292</v>
       </c>
       <c r="D19" t="s">
@@ -1943,7 +1947,7 @@
       <c r="B20" t="s">
         <v>168</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <v>45870</v>
       </c>
       <c r="D20" t="s">
@@ -1966,7 +1970,7 @@
       <c r="B21" t="s">
         <v>168</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="4">
         <v>45870.400960648149</v>
       </c>
       <c r="D21" t="s">
@@ -1989,7 +1993,7 @@
       <c r="B22" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <v>45871</v>
       </c>
       <c r="D22" t="s">
@@ -2012,7 +2016,7 @@
       <c r="B23" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <v>45871.459814814814</v>
       </c>
       <c r="D23" t="s">
@@ -2035,7 +2039,7 @@
       <c r="B24" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="4">
         <v>45874.472893518519</v>
       </c>
       <c r="D24" t="s">
@@ -2058,7 +2062,7 @@
       <c r="B25" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <v>45869.375613425924</v>
       </c>
       <c r="D25" t="s">
@@ -2081,7 +2085,7 @@
       <c r="B26" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="4">
         <v>45871</v>
       </c>
       <c r="D26" t="s">
@@ -2104,7 +2108,7 @@
       <c r="B27" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="4">
         <v>45871.497974537036</v>
       </c>
       <c r="D27" t="s">
@@ -2127,7 +2131,7 @@
       <c r="B28" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="4">
         <v>45872.603391203702</v>
       </c>
       <c r="D28" t="s">
@@ -2150,7 +2154,7 @@
       <c r="B29" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="4">
         <v>45864.506898148145</v>
       </c>
       <c r="D29" t="s">
@@ -2173,7 +2177,7 @@
       <c r="B30" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="4">
         <v>45800.598414351851</v>
       </c>
       <c r="D30" t="s">
@@ -2196,7 +2200,7 @@
       <c r="B31" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="4">
         <v>45837.66951388889</v>
       </c>
       <c r="D31" t="s">
@@ -2219,7 +2223,7 @@
       <c r="B32" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="4">
         <v>45843.535636574074</v>
       </c>
       <c r="D32" t="s">
@@ -2242,7 +2246,7 @@
       <c r="B33" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="4">
         <v>45863.517685185187</v>
       </c>
       <c r="D33" t="s">
@@ -2265,7 +2269,7 @@
       <c r="B34" t="s">
         <v>169</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="4">
         <v>45556.621678240735</v>
       </c>
       <c r="D34" t="s">
@@ -2288,7 +2292,7 @@
       <c r="B35" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="4">
         <v>45842</v>
       </c>
       <c r="D35" t="s">
@@ -2311,7 +2315,7 @@
       <c r="B36" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="4">
         <v>45863.40216435185</v>
       </c>
       <c r="D36" t="s">
@@ -2334,7 +2338,7 @@
       <c r="B37" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="4">
         <v>45863.495011574072</v>
       </c>
       <c r="D37" t="s">
@@ -2357,7 +2361,7 @@
       <c r="B38" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="4">
         <v>45865.470057870371</v>
       </c>
       <c r="D38" t="s">
@@ -2380,7 +2384,7 @@
       <c r="B39" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="4">
         <v>45868</v>
       </c>
       <c r="D39" t="s">
@@ -2403,7 +2407,7 @@
       <c r="B40" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="4">
         <v>45868.412268518514</v>
       </c>
       <c r="D40" t="s">
@@ -2426,7 +2430,7 @@
       <c r="B41" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="4">
         <v>45870.436192129629</v>
       </c>
       <c r="D41" t="s">
@@ -2449,7 +2453,7 @@
       <c r="B42" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="4">
         <v>45870.684710648144</v>
       </c>
       <c r="D42" t="s">
@@ -2472,7 +2476,7 @@
       <c r="B43" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="4">
         <v>45872.453900462962</v>
       </c>
       <c r="D43" t="s">
@@ -2495,7 +2499,7 @@
       <c r="B44" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="4">
         <v>45872.493888888886</v>
       </c>
       <c r="D44" t="s">
@@ -2518,7 +2522,7 @@
       <c r="B45" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="4">
         <v>45875.468877314815</v>
       </c>
       <c r="D45" t="s">
@@ -2541,7 +2545,7 @@
       <c r="B46" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="4">
         <v>45788.604525462964</v>
       </c>
       <c r="D46" t="s">
@@ -2564,7 +2568,7 @@
       <c r="B47" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="4">
         <v>45800</v>
       </c>
       <c r="D47" t="s">
@@ -2587,7 +2591,7 @@
       <c r="B48" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="4">
         <v>45800.47252314815</v>
       </c>
       <c r="D48" t="s">
@@ -2610,7 +2614,7 @@
       <c r="B49" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="4">
         <v>45809.516157407408</v>
       </c>
       <c r="D49" t="s">
@@ -2633,7 +2637,7 @@
       <c r="B50" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="4">
         <v>45809.621215277773</v>
       </c>
       <c r="D50" t="s">
@@ -2656,7 +2660,7 @@
       <c r="B51" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="4">
         <v>45815.432812499996</v>
       </c>
       <c r="D51" t="s">
@@ -2679,7 +2683,7 @@
       <c r="B52" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="4">
         <v>45822</v>
       </c>
       <c r="D52" t="s">
@@ -2702,7 +2706,7 @@
       <c r="B53" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="4">
         <v>45822.502152777779</v>
       </c>
       <c r="D53" t="s">
@@ -2725,7 +2729,7 @@
       <c r="B54" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="4">
         <v>45823</v>
       </c>
       <c r="D54" t="s">
@@ -2748,7 +2752,7 @@
       <c r="B55" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="4">
         <v>45823.526585648149</v>
       </c>
       <c r="D55" t="s">
@@ -2771,7 +2775,7 @@
       <c r="B56" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="4">
         <v>45828.378009259257</v>
       </c>
       <c r="D56" t="s">
@@ -2794,7 +2798,7 @@
       <c r="B57" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="4">
         <v>45842.503622685181</v>
       </c>
       <c r="D57" t="s">
@@ -2817,7 +2821,7 @@
       <c r="B58" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="4">
         <v>45843</v>
       </c>
       <c r="D58" t="s">
@@ -2840,7 +2844,7 @@
       <c r="B59" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="4">
         <v>45843.551041666666</v>
       </c>
       <c r="D59" t="s">
@@ -2863,7 +2867,7 @@
       <c r="B60" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="4">
         <v>45849</v>
       </c>
       <c r="D60" t="s">
@@ -2886,7 +2890,7 @@
       <c r="B61" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="4">
         <v>45849.547268518516</v>
       </c>
       <c r="D61" t="s">
@@ -2909,7 +2913,7 @@
       <c r="B62" t="s">
         <v>170</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="4">
         <v>45876.3825</v>
       </c>
       <c r="D62" t="s">
@@ -2932,7 +2936,7 @@
       <c r="B63" t="s">
         <v>171</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="4">
         <v>45813</v>
       </c>
       <c r="D63" t="s">
@@ -2955,7 +2959,7 @@
       <c r="B64" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="4">
         <v>45760</v>
       </c>
       <c r="D64" t="s">
@@ -2978,7 +2982,7 @@
       <c r="B65" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="4">
         <v>45840.400567129625</v>
       </c>
       <c r="D65" t="s">
@@ -3001,7 +3005,7 @@
       <c r="B66" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="4">
         <v>45843.470856481479</v>
       </c>
       <c r="D66" t="s">
@@ -3024,7 +3028,7 @@
       <c r="B67" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="4">
         <v>45847</v>
       </c>
       <c r="D67" t="s">
@@ -3047,7 +3051,7 @@
       <c r="B68" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="4">
         <v>45847.441782407404</v>
       </c>
       <c r="D68" t="s">
@@ -3070,7 +3074,7 @@
       <c r="B69" t="s">
         <v>64</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="4">
         <v>45849.62940972222</v>
       </c>
       <c r="D69" t="s">
@@ -3093,7 +3097,7 @@
       <c r="B70" t="s">
         <v>64</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="4">
         <v>45854.443333333329</v>
       </c>
       <c r="D70" t="s">
@@ -3116,7 +3120,7 @@
       <c r="B71" t="s">
         <v>64</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="4">
         <v>45861.535300925927</v>
       </c>
       <c r="D71" t="s">
@@ -3139,7 +3143,7 @@
       <c r="B72" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="4">
         <v>45875.481921296298</v>
       </c>
       <c r="D72" t="s">
@@ -3162,7 +3166,7 @@
       <c r="B73" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="4">
         <v>45855.558912037035</v>
       </c>
       <c r="D73" t="s">
@@ -3185,7 +3189,7 @@
       <c r="B74" t="s">
         <v>60</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="4">
         <v>45651.491620370369</v>
       </c>
       <c r="D74" t="s">
@@ -3208,7 +3212,7 @@
       <c r="B75" t="s">
         <v>60</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="4">
         <v>45665.451354166667</v>
       </c>
       <c r="D75" t="s">
@@ -3231,7 +3235,7 @@
       <c r="B76" t="s">
         <v>60</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="4">
         <v>45667</v>
       </c>
       <c r="D76" t="s">
@@ -3254,7 +3258,7 @@
       <c r="B77" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="4">
         <v>45667.501388888886</v>
       </c>
       <c r="D77" t="s">
@@ -3277,7 +3281,7 @@
       <c r="B78" t="s">
         <v>60</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="4">
         <v>45668.484467592592</v>
       </c>
       <c r="D78" t="s">
@@ -3300,7 +3304,7 @@
       <c r="B79" t="s">
         <v>60</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="4">
         <v>45686.677708333329</v>
       </c>
       <c r="D79" t="s">
@@ -3323,7 +3327,7 @@
       <c r="B80" t="s">
         <v>60</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="4">
         <v>45724.450960648144</v>
       </c>
       <c r="D80" t="s">
@@ -3346,7 +3350,7 @@
       <c r="B81" t="s">
         <v>172</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="4">
         <v>45872</v>
       </c>
       <c r="D81" t="s">
@@ -3369,7 +3373,7 @@
       <c r="B82" t="s">
         <v>172</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="4">
         <v>45872.49386574074</v>
       </c>
       <c r="D82" t="s">
@@ -3392,7 +3396,7 @@
       <c r="B83" t="s">
         <v>172</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="4">
         <v>45876</v>
       </c>
       <c r="D83" t="s">
@@ -3415,7 +3419,7 @@
       <c r="B84" t="s">
         <v>172</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="4">
         <v>45876.376550925925</v>
       </c>
       <c r="D84" t="s">
@@ -3438,7 +3442,7 @@
       <c r="B85" t="s">
         <v>68</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="4">
         <v>45845.556817129625</v>
       </c>
       <c r="D85" t="s">
@@ -3461,7 +3465,7 @@
       <c r="B86" t="s">
         <v>68</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="4">
         <v>45859.486087962963</v>
       </c>
       <c r="D86" t="s">
@@ -3484,7 +3488,7 @@
       <c r="B87" t="s">
         <v>68</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="4">
         <v>45874.611296296294</v>
       </c>
       <c r="D87" t="s">
@@ -3507,7 +3511,7 @@
       <c r="B88" t="s">
         <v>68</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="4">
         <v>45874.685046296298</v>
       </c>
       <c r="D88" t="s">
@@ -3530,7 +3534,7 @@
       <c r="B89" t="s">
         <v>92</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="4">
         <v>45849.393425925926</v>
       </c>
       <c r="D89" t="s">
@@ -3553,7 +3557,7 @@
       <c r="B90" t="s">
         <v>92</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="4">
         <v>45850.401585648149</v>
       </c>
       <c r="D90" t="s">
@@ -3576,7 +3580,7 @@
       <c r="B91" t="s">
         <v>92</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="4">
         <v>45863.468935185185</v>
       </c>
       <c r="D91" t="s">
@@ -3599,7 +3603,7 @@
       <c r="B92" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="4">
         <v>45870</v>
       </c>
       <c r="D92" t="s">
@@ -3622,7 +3626,7 @@
       <c r="B93" t="s">
         <v>92</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="4">
         <v>45870.407083333332</v>
       </c>
       <c r="D93" t="s">
@@ -3645,7 +3649,7 @@
       <c r="B94" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="4">
         <v>45871.525902777779</v>
       </c>
       <c r="D94" t="s">
@@ -3668,7 +3672,7 @@
       <c r="B95" t="s">
         <v>82</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="4">
         <v>45868.435219907406</v>
       </c>
       <c r="D95" t="s">
@@ -3691,7 +3695,7 @@
       <c r="B96" t="s">
         <v>82</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="4">
         <v>45868.521053240736</v>
       </c>
       <c r="D96" t="s">
@@ -3714,7 +3718,7 @@
       <c r="B97" t="s">
         <v>82</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="4">
         <v>45872.371018518519</v>
       </c>
       <c r="D97" t="s">
@@ -3737,7 +3741,7 @@
       <c r="B98" t="s">
         <v>82</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="4">
         <v>45875.472812499997</v>
       </c>
       <c r="D98" t="s">
@@ -3760,7 +3764,7 @@
       <c r="B99" t="s">
         <v>82</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="4">
         <v>45876</v>
       </c>
       <c r="D99" t="s">
@@ -3783,7 +3787,7 @@
       <c r="B100" t="s">
         <v>173</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="4">
         <v>45792</v>
       </c>
       <c r="D100" t="s">
@@ -3806,7 +3810,7 @@
       <c r="B101" t="s">
         <v>174</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="4">
         <v>45872.40079861111</v>
       </c>
       <c r="D101" t="s">
@@ -3829,7 +3833,7 @@
       <c r="B102" t="s">
         <v>174</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="4">
         <v>45872.453877314816</v>
       </c>
       <c r="D102" t="s">
@@ -3852,7 +3856,7 @@
       <c r="B103" t="s">
         <v>75</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="4">
         <v>45868.44390046296</v>
       </c>
       <c r="D103" t="s">
@@ -3875,7 +3879,7 @@
       <c r="B104" t="s">
         <v>75</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="4">
         <v>45875.46125</v>
       </c>
       <c r="D104" t="s">
@@ -3898,7 +3902,7 @@
       <c r="B105" t="s">
         <v>40</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="4">
         <v>45814</v>
       </c>
       <c r="D105" t="s">
@@ -3921,7 +3925,7 @@
       <c r="B106" t="s">
         <v>40</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="4">
         <v>45842.647800925923</v>
       </c>
       <c r="D106" t="s">
@@ -3944,7 +3948,7 @@
       <c r="B107" t="s">
         <v>40</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="4">
         <v>45870.436377314814</v>
       </c>
       <c r="D107" t="s">
@@ -3967,7 +3971,7 @@
       <c r="B108" t="s">
         <v>40</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="4">
         <v>45875.490381944444</v>
       </c>
       <c r="D108" t="s">
@@ -3990,7 +3994,7 @@
       <c r="B109" t="s">
         <v>36</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="4">
         <v>45827.64157407407</v>
       </c>
       <c r="D109" t="s">
@@ -4013,7 +4017,7 @@
       <c r="B110" t="s">
         <v>36</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="4">
         <v>45855</v>
       </c>
       <c r="D110" t="s">
@@ -4036,7 +4040,7 @@
       <c r="B111" t="s">
         <v>175</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="4">
         <v>45857</v>
       </c>
       <c r="D111" t="s">
@@ -4059,7 +4063,7 @@
       <c r="B112" t="s">
         <v>35</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112" s="4">
         <v>45584.397222222222</v>
       </c>
       <c r="D112" t="s">
@@ -4082,7 +4086,7 @@
       <c r="B113" t="s">
         <v>35</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="4">
         <v>45585.350335648145</v>
       </c>
       <c r="D113" t="s">
@@ -4105,7 +4109,7 @@
       <c r="B114" t="s">
         <v>35</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="4">
         <v>45595.339166666665</v>
       </c>
       <c r="D114" t="s">
@@ -4128,7 +4132,7 @@
       <c r="B115" t="s">
         <v>35</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115" s="4">
         <v>45595.394710648143</v>
       </c>
       <c r="D115" t="s">
@@ -4151,7 +4155,7 @@
       <c r="B116" t="s">
         <v>35</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116" s="4">
         <v>45595.730069444442</v>
       </c>
       <c r="D116" t="s">
@@ -4174,7 +4178,7 @@
       <c r="B117" t="s">
         <v>35</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="4">
         <v>45596.339988425927</v>
       </c>
       <c r="D117" t="s">
@@ -4197,7 +4201,7 @@
       <c r="B118" t="s">
         <v>35</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118" s="4">
         <v>45612.314884259256</v>
       </c>
       <c r="D118" t="s">
@@ -4220,7 +4224,7 @@
       <c r="B119" t="s">
         <v>35</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119" s="4">
         <v>45619.318761574075</v>
       </c>
       <c r="D119" t="s">
@@ -4243,7 +4247,7 @@
       <c r="B120" t="s">
         <v>35</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120" s="4">
         <v>45626.353796296295</v>
       </c>
       <c r="D120" t="s">
@@ -4266,7 +4270,7 @@
       <c r="B121" t="s">
         <v>35</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="4">
         <v>45633.366701388884</v>
       </c>
       <c r="D121" t="s">
@@ -4289,7 +4293,7 @@
       <c r="B122" t="s">
         <v>35</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122" s="4">
         <v>45637.489861111106</v>
       </c>
       <c r="D122" t="s">
@@ -4312,7 +4316,7 @@
       <c r="B123" t="s">
         <v>35</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123" s="4">
         <v>45670.347268518519</v>
       </c>
       <c r="D123" t="s">
@@ -4335,7 +4339,7 @@
       <c r="B124" t="s">
         <v>35</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124" s="4">
         <v>45670.592476851853</v>
       </c>
       <c r="D124" t="s">
@@ -4358,7 +4362,7 @@
       <c r="B125" t="s">
         <v>35</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125" s="4">
         <v>45677.319016203699</v>
       </c>
       <c r="D125" t="s">
@@ -4381,7 +4385,7 @@
       <c r="B126" t="s">
         <v>35</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126" s="4">
         <v>45682.362812499996</v>
       </c>
       <c r="D126" t="s">
@@ -4404,7 +4408,7 @@
       <c r="B127" t="s">
         <v>35</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127" s="4">
         <v>45684</v>
       </c>
       <c r="D127" t="s">
@@ -4427,7 +4431,7 @@
       <c r="B128" t="s">
         <v>35</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128" s="4">
         <v>45684.298101851848</v>
       </c>
       <c r="D128" t="s">
@@ -4450,7 +4454,7 @@
       <c r="B129" t="s">
         <v>35</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="4">
         <v>45698.394953703704</v>
       </c>
       <c r="D129" t="s">
@@ -4473,7 +4477,7 @@
       <c r="B130" t="s">
         <v>35</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130" s="4">
         <v>45699</v>
       </c>
       <c r="D130" t="s">
@@ -4496,7 +4500,7 @@
       <c r="B131" t="s">
         <v>35</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131" s="4">
         <v>45699.351365740738</v>
       </c>
       <c r="D131" t="s">
@@ -4519,7 +4523,7 @@
       <c r="B132" t="s">
         <v>35</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="4">
         <v>45705.381493055553</v>
       </c>
       <c r="D132" t="s">
@@ -4542,7 +4546,7 @@
       <c r="B133" t="s">
         <v>35</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="4">
         <v>45705.762094907404</v>
       </c>
       <c r="D133" t="s">
@@ -4565,7 +4569,7 @@
       <c r="B134" t="s">
         <v>35</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134" s="4">
         <v>45710</v>
       </c>
       <c r="D134" t="s">
@@ -4588,7 +4592,7 @@
       <c r="B135" t="s">
         <v>35</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135" s="4">
         <v>45731.293275462958</v>
       </c>
       <c r="D135" t="s">
@@ -4611,7 +4615,7 @@
       <c r="B136" t="s">
         <v>35</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136" s="4">
         <v>45754.335162037038</v>
       </c>
       <c r="D136" t="s">
@@ -4634,7 +4638,7 @@
       <c r="B137" t="s">
         <v>35</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137" s="4">
         <v>45775.429756944446</v>
       </c>
       <c r="D137" t="s">
@@ -4657,7 +4661,7 @@
       <c r="B138" t="s">
         <v>35</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138" s="4">
         <v>45776.383645833332</v>
       </c>
       <c r="D138" t="s">
@@ -4680,7 +4684,7 @@
       <c r="B139" t="s">
         <v>35</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139" s="4">
         <v>45825</v>
       </c>
       <c r="D139" t="s">
@@ -4703,7 +4707,7 @@
       <c r="B140" t="s">
         <v>35</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140" s="4">
         <v>45846</v>
       </c>
       <c r="D140" t="s">
@@ -4726,7 +4730,7 @@
       <c r="B141" t="s">
         <v>145</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141" s="4">
         <v>45847</v>
       </c>
       <c r="D141" t="s">
@@ -4749,7 +4753,7 @@
       <c r="B142" t="s">
         <v>145</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142" s="4">
         <v>45856</v>
       </c>
       <c r="D142" t="s">
@@ -4772,7 +4776,7 @@
       <c r="B143" t="s">
         <v>145</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143" s="4">
         <v>45860</v>
       </c>
       <c r="D143" t="s">
@@ -4795,7 +4799,7 @@
       <c r="B144" t="s">
         <v>145</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144" s="4">
         <v>45863.428020833329</v>
       </c>
       <c r="D144" t="s">
@@ -4818,7 +4822,7 @@
       <c r="B145" t="s">
         <v>145</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145" s="4">
         <v>45873</v>
       </c>
       <c r="D145" t="s">
@@ -4841,7 +4845,7 @@
       <c r="B146" t="s">
         <v>145</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146" s="4">
         <v>45873</v>
       </c>
       <c r="D146" t="s">
@@ -4864,7 +4868,7 @@
       <c r="B147" t="s">
         <v>145</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C147" s="4">
         <v>45875</v>
       </c>
       <c r="D147" t="s">
@@ -4887,7 +4891,7 @@
       <c r="B148" t="s">
         <v>86</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148" s="4">
         <v>45696.353703703702</v>
       </c>
       <c r="D148" t="s">
@@ -4910,7 +4914,7 @@
       <c r="B149" t="s">
         <v>86</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149" s="4">
         <v>45703.640914351847</v>
       </c>
       <c r="D149" t="s">
@@ -4933,7 +4937,7 @@
       <c r="B150" t="s">
         <v>86</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150" s="4">
         <v>45717.394328703704</v>
       </c>
       <c r="D150" t="s">
@@ -4956,7 +4960,7 @@
       <c r="B151" t="s">
         <v>86</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151" s="4">
         <v>45724.423668981479</v>
       </c>
       <c r="D151" t="s">
@@ -4979,7 +4983,7 @@
       <c r="B152" t="s">
         <v>86</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152" s="4">
         <v>45738.40662037037</v>
       </c>
       <c r="D152" t="s">
@@ -5002,7 +5006,7 @@
       <c r="B153" t="s">
         <v>86</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153" s="4">
         <v>45766.385011574072</v>
       </c>
       <c r="D153" t="s">
@@ -5025,7 +5029,7 @@
       <c r="B154" t="s">
         <v>86</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154" s="4">
         <v>45773.437951388885</v>
       </c>
       <c r="D154" t="s">
@@ -5048,7 +5052,7 @@
       <c r="B155" t="s">
         <v>86</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155" s="4">
         <v>45780.406041666662</v>
       </c>
       <c r="D155" t="s">
@@ -5071,7 +5075,7 @@
       <c r="B156" t="s">
         <v>176</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156" s="4">
         <v>45870.36881944444</v>
       </c>
       <c r="D156" t="s">
@@ -5094,7 +5098,7 @@
       <c r="B157" t="s">
         <v>176</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C157" s="4">
         <v>45870.431550925925</v>
       </c>
       <c r="D157" t="s">
@@ -5117,7 +5121,7 @@
       <c r="B158" t="s">
         <v>176</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158" s="4">
         <v>45870.502337962964</v>
       </c>
       <c r="D158" t="s">
@@ -5140,7 +5144,7 @@
       <c r="B159" t="s">
         <v>176</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C159" s="4">
         <v>45870.50403935185</v>
       </c>
       <c r="D159" t="s">
@@ -5163,7 +5167,7 @@
       <c r="B160" t="s">
         <v>176</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160" s="4">
         <v>45870.525474537033</v>
       </c>
       <c r="D160" t="s">
@@ -5186,7 +5190,7 @@
       <c r="B161" t="s">
         <v>72</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161" s="4">
         <v>45719</v>
       </c>
       <c r="D161" t="s">
@@ -5209,7 +5213,7 @@
       <c r="B162" t="s">
         <v>72</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C162" s="4">
         <v>45793.585856481477</v>
       </c>
       <c r="D162" t="s">
@@ -5232,7 +5236,7 @@
       <c r="B163" t="s">
         <v>38</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C163" s="4">
         <v>45834.609872685185</v>
       </c>
       <c r="D163" t="s">
@@ -5255,7 +5259,7 @@
       <c r="B164" t="s">
         <v>38</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C164" s="4">
         <v>45836</v>
       </c>
       <c r="D164" t="s">
@@ -5278,7 +5282,7 @@
       <c r="B165" t="s">
         <v>38</v>
       </c>
-      <c r="C165" s="2">
+      <c r="C165" s="4">
         <v>45836.394120370365</v>
       </c>
       <c r="D165" t="s">
@@ -5301,7 +5305,7 @@
       <c r="B166" t="s">
         <v>38</v>
       </c>
-      <c r="C166" s="2">
+      <c r="C166" s="4">
         <v>45872.400578703702</v>
       </c>
       <c r="D166" t="s">
@@ -5324,7 +5328,7 @@
       <c r="B167" t="s">
         <v>177</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C167" s="4">
         <v>45872.534675925926</v>
       </c>
       <c r="D167" t="s">
@@ -5347,7 +5351,7 @@
       <c r="B168" t="s">
         <v>178</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C168" s="4">
         <v>45727</v>
       </c>
       <c r="D168" t="s">
@@ -5370,7 +5374,7 @@
       <c r="B169" t="s">
         <v>30</v>
       </c>
-      <c r="C169" s="2">
+      <c r="C169" s="4">
         <v>45870.691979166666</v>
       </c>
       <c r="D169" t="s">
@@ -5393,7 +5397,7 @@
       <c r="B170" t="s">
         <v>30</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170" s="4">
         <v>45874.680810185186</v>
       </c>
       <c r="D170" t="s">
@@ -5416,7 +5420,7 @@
       <c r="B171" t="s">
         <v>179</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171" s="4">
         <v>45875.534050925926</v>
       </c>
       <c r="D171" t="s">
@@ -5439,7 +5443,7 @@
       <c r="B172" t="s">
         <v>180</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C172" s="4">
         <v>45449</v>
       </c>
       <c r="D172" t="s">
@@ -5462,7 +5466,7 @@
       <c r="B173" t="s">
         <v>181</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C173" s="4">
         <v>45876.442349537036</v>
       </c>
       <c r="D173" t="s">
@@ -5485,7 +5489,7 @@
       <c r="B174" t="s">
         <v>182</v>
       </c>
-      <c r="C174" s="2">
+      <c r="C174" s="4">
         <v>45871.468460648146</v>
       </c>
       <c r="D174" t="s">
@@ -5508,7 +5512,7 @@
       <c r="B175" t="s">
         <v>23</v>
       </c>
-      <c r="C175" s="2">
+      <c r="C175" s="4">
         <v>45843.53502314815</v>
       </c>
       <c r="D175" t="s">
@@ -5531,7 +5535,7 @@
       <c r="B176" t="s">
         <v>23</v>
       </c>
-      <c r="C176" s="2">
+      <c r="C176" s="4">
         <v>45850.525601851848</v>
       </c>
       <c r="D176" t="s">
@@ -5554,7 +5558,7 @@
       <c r="B177" t="s">
         <v>23</v>
       </c>
-      <c r="C177" s="2">
+      <c r="C177" s="4">
         <v>45858.310891203699</v>
       </c>
       <c r="D177" t="s">
@@ -5577,7 +5581,7 @@
       <c r="B178" t="s">
         <v>23</v>
       </c>
-      <c r="C178" s="2">
+      <c r="C178" s="4">
         <v>45865.49255787037</v>
       </c>
       <c r="D178" t="s">
@@ -5600,7 +5604,7 @@
       <c r="B179" t="s">
         <v>183</v>
       </c>
-      <c r="C179" s="2">
+      <c r="C179" s="4">
         <v>45876.453530092593</v>
       </c>
       <c r="D179" t="s">
@@ -5623,7 +5627,7 @@
       <c r="B180" t="s">
         <v>184</v>
       </c>
-      <c r="C180" s="2">
+      <c r="C180" s="4">
         <v>45871.490543981483</v>
       </c>
       <c r="D180" t="s">
@@ -5646,7 +5650,7 @@
       <c r="B181" t="s">
         <v>76</v>
       </c>
-      <c r="C181" s="2">
+      <c r="C181" s="4">
         <v>45869.372673611106</v>
       </c>
       <c r="D181" t="s">
@@ -5669,7 +5673,7 @@
       <c r="B182" t="s">
         <v>76</v>
       </c>
-      <c r="C182" s="2">
+      <c r="C182" s="4">
         <v>45872.493912037033</v>
       </c>
       <c r="D182" t="s">
@@ -5692,7 +5696,7 @@
       <c r="B183" t="s">
         <v>76</v>
       </c>
-      <c r="C183" s="2">
+      <c r="C183" s="4">
         <v>45876.382511574069</v>
       </c>
       <c r="D183" t="s">
@@ -5715,7 +5719,7 @@
       <c r="B184" t="s">
         <v>76</v>
       </c>
-      <c r="C184" s="2">
+      <c r="C184" s="4">
         <v>45876.401666666665</v>
       </c>
       <c r="D184" t="s">
@@ -5738,7 +5742,7 @@
       <c r="B185" t="s">
         <v>185</v>
       </c>
-      <c r="C185" s="2">
+      <c r="C185" s="4">
         <v>45295</v>
       </c>
       <c r="D185" t="s">
@@ -5761,7 +5765,7 @@
       <c r="B186" t="s">
         <v>185</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C186" s="4">
         <v>45387</v>
       </c>
       <c r="D186" t="s">
@@ -5784,7 +5788,7 @@
       <c r="B187" t="s">
         <v>185</v>
       </c>
-      <c r="C187" s="2">
+      <c r="C187" s="4">
         <v>45387</v>
       </c>
       <c r="D187" t="s">
@@ -5807,7 +5811,7 @@
       <c r="B188" t="s">
         <v>185</v>
       </c>
-      <c r="C188" s="2">
+      <c r="C188" s="4">
         <v>45390</v>
       </c>
       <c r="D188" t="s">
@@ -5830,7 +5834,7 @@
       <c r="B189" t="s">
         <v>185</v>
       </c>
-      <c r="C189" s="2">
+      <c r="C189" s="4">
         <v>45393</v>
       </c>
       <c r="D189" t="s">
@@ -5853,7 +5857,7 @@
       <c r="B190" t="s">
         <v>185</v>
       </c>
-      <c r="C190" s="2">
+      <c r="C190" s="4">
         <v>45439</v>
       </c>
       <c r="D190" t="s">
@@ -5876,7 +5880,7 @@
       <c r="B191" t="s">
         <v>185</v>
       </c>
-      <c r="C191" s="2">
+      <c r="C191" s="4">
         <v>45461</v>
       </c>
       <c r="D191" t="s">
@@ -5899,7 +5903,7 @@
       <c r="B192" t="s">
         <v>185</v>
       </c>
-      <c r="C192" s="2">
+      <c r="C192" s="4">
         <v>45510.475972222222</v>
       </c>
       <c r="D192" t="s">
@@ -5922,7 +5926,7 @@
       <c r="B193" t="s">
         <v>185</v>
       </c>
-      <c r="C193" s="2">
+      <c r="C193" s="4">
         <v>45527.628923611112</v>
       </c>
       <c r="D193" t="s">
@@ -5945,7 +5949,7 @@
       <c r="B194" t="s">
         <v>185</v>
       </c>
-      <c r="C194" s="2">
+      <c r="C194" s="4">
         <v>45574.477025462962</v>
       </c>
       <c r="D194" t="s">
@@ -5968,7 +5972,7 @@
       <c r="B195" t="s">
         <v>185</v>
       </c>
-      <c r="C195" s="2">
+      <c r="C195" s="4">
         <v>45575.517118055555</v>
       </c>
       <c r="D195" t="s">
@@ -5991,7 +5995,7 @@
       <c r="B196" t="s">
         <v>185</v>
       </c>
-      <c r="C196" s="2">
+      <c r="C196" s="4">
         <v>45580.658865740741</v>
       </c>
       <c r="D196" t="s">
@@ -6014,7 +6018,7 @@
       <c r="B197" t="s">
         <v>185</v>
       </c>
-      <c r="C197" s="2">
+      <c r="C197" s="4">
         <v>45580.660324074073</v>
       </c>
       <c r="D197" t="s">
@@ -6037,7 +6041,7 @@
       <c r="B198" t="s">
         <v>185</v>
       </c>
-      <c r="C198" s="2">
+      <c r="C198" s="4">
         <v>45586.380949074075</v>
       </c>
       <c r="D198" t="s">
@@ -6060,7 +6064,7 @@
       <c r="B199" t="s">
         <v>185</v>
       </c>
-      <c r="C199" s="2">
+      <c r="C199" s="4">
         <v>45595.384791666664</v>
       </c>
       <c r="D199" t="s">
@@ -6083,7 +6087,7 @@
       <c r="B200" t="s">
         <v>185</v>
       </c>
-      <c r="C200" s="2">
+      <c r="C200" s="4">
         <v>45611.489953703705</v>
       </c>
       <c r="D200" t="s">
@@ -6106,7 +6110,7 @@
       <c r="B201" t="s">
         <v>185</v>
       </c>
-      <c r="C201" s="2">
+      <c r="C201" s="4">
         <v>45649.76898148148</v>
       </c>
       <c r="D201" t="s">
@@ -6129,7 +6133,7 @@
       <c r="B202" t="s">
         <v>185</v>
       </c>
-      <c r="C202" s="2">
+      <c r="C202" s="4">
         <v>45656.783356481479</v>
       </c>
       <c r="D202" t="s">
@@ -6152,7 +6156,7 @@
       <c r="B203" t="s">
         <v>185</v>
       </c>
-      <c r="C203" s="2">
+      <c r="C203" s="4">
         <v>45674.443298611106</v>
       </c>
       <c r="D203" t="s">
@@ -6175,7 +6179,7 @@
       <c r="B204" t="s">
         <v>185</v>
       </c>
-      <c r="C204" s="2">
+      <c r="C204" s="4">
         <v>45694.749293981477</v>
       </c>
       <c r="D204" t="s">
@@ -6198,7 +6202,7 @@
       <c r="B205" t="s">
         <v>185</v>
       </c>
-      <c r="C205" s="2">
+      <c r="C205" s="4">
         <v>45699.530844907407</v>
       </c>
       <c r="D205" t="s">
@@ -6221,7 +6225,7 @@
       <c r="B206" t="s">
         <v>185</v>
       </c>
-      <c r="C206" s="2">
+      <c r="C206" s="4">
         <v>45701</v>
       </c>
       <c r="D206" t="s">
@@ -6244,7 +6248,7 @@
       <c r="B207" t="s">
         <v>185</v>
       </c>
-      <c r="C207" s="2">
+      <c r="C207" s="4">
         <v>45716.759317129625</v>
       </c>
       <c r="D207" t="s">
@@ -6267,7 +6271,7 @@
       <c r="B208" t="s">
         <v>185</v>
       </c>
-      <c r="C208" s="2">
+      <c r="C208" s="4">
         <v>45876.452962962961</v>
       </c>
       <c r="D208" t="s">
@@ -6290,7 +6294,7 @@
       <c r="B209" t="s">
         <v>185</v>
       </c>
-      <c r="C209" s="2">
+      <c r="C209" s="4">
         <v>45548.625520833331</v>
       </c>
       <c r="D209" t="s">
@@ -6313,7 +6317,7 @@
       <c r="B210" t="s">
         <v>185</v>
       </c>
-      <c r="C210" s="2">
+      <c r="C210" s="4">
         <v>45587.499664351853</v>
       </c>
       <c r="D210" t="s">
@@ -6336,7 +6340,7 @@
       <c r="B211" t="s">
         <v>186</v>
       </c>
-      <c r="C211" s="2">
+      <c r="C211" s="4">
         <v>45876.546064814815</v>
       </c>
       <c r="D211" t="s">
@@ -6359,7 +6363,7 @@
       <c r="B212" t="s">
         <v>48</v>
       </c>
-      <c r="C212" s="2">
+      <c r="C212" s="4">
         <v>45627.515162037038</v>
       </c>
       <c r="D212" t="s">
@@ -6382,7 +6386,7 @@
       <c r="B213" t="s">
         <v>48</v>
       </c>
-      <c r="C213" s="2">
+      <c r="C213" s="4">
         <v>45861.618356481478</v>
       </c>
       <c r="D213" t="s">
@@ -6405,7 +6409,7 @@
       <c r="B214" t="s">
         <v>187</v>
       </c>
-      <c r="C214" s="2">
+      <c r="C214" s="4">
         <v>45566.518842592588</v>
       </c>
       <c r="D214" t="s">
@@ -6428,7 +6432,7 @@
       <c r="B215" t="s">
         <v>187</v>
       </c>
-      <c r="C215" s="2">
+      <c r="C215" s="4">
         <v>45617.511747685181</v>
       </c>
       <c r="D215" t="s">
@@ -6451,7 +6455,7 @@
       <c r="B216" t="s">
         <v>188</v>
       </c>
-      <c r="C216" s="2">
+      <c r="C216" s="4">
         <v>45871.506631944445</v>
       </c>
       <c r="D216" t="s">
@@ -6474,7 +6478,7 @@
       <c r="B217" t="s">
         <v>77</v>
       </c>
-      <c r="C217" s="2">
+      <c r="C217" s="4">
         <v>45876.382476851853</v>
       </c>
       <c r="D217" t="s">
@@ -6497,7 +6501,7 @@
       <c r="B218" t="s">
         <v>78</v>
       </c>
-      <c r="C218" s="2">
+      <c r="C218" s="4">
         <v>45757</v>
       </c>
       <c r="D218" t="s">
@@ -6520,7 +6524,7 @@
       <c r="B219" t="s">
         <v>78</v>
       </c>
-      <c r="C219" s="2">
+      <c r="C219" s="4">
         <v>45757</v>
       </c>
       <c r="D219" t="s">
@@ -6543,7 +6547,7 @@
       <c r="B220" t="s">
         <v>78</v>
       </c>
-      <c r="C220" s="2">
+      <c r="C220" s="4">
         <v>45799</v>
       </c>
       <c r="D220" t="s">
@@ -6566,7 +6570,7 @@
       <c r="B221" t="s">
         <v>78</v>
       </c>
-      <c r="C221" s="2">
+      <c r="C221" s="4">
         <v>45799</v>
       </c>
       <c r="D221" t="s">
@@ -6589,7 +6593,7 @@
       <c r="B222" t="s">
         <v>78</v>
       </c>
-      <c r="C222" s="2">
+      <c r="C222" s="4">
         <v>45834</v>
       </c>
       <c r="D222" t="s">
@@ -6612,7 +6616,7 @@
       <c r="B223" t="s">
         <v>78</v>
       </c>
-      <c r="C223" s="2">
+      <c r="C223" s="4">
         <v>45869.37400462963</v>
       </c>
       <c r="D223" t="s">
@@ -6635,7 +6639,7 @@
       <c r="B224" t="s">
         <v>78</v>
       </c>
-      <c r="C224" s="2">
+      <c r="C224" s="4">
         <v>45872.494050925925</v>
       </c>
       <c r="D224" t="s">
@@ -6658,7 +6662,7 @@
       <c r="B225" t="s">
         <v>78</v>
       </c>
-      <c r="C225" s="2">
+      <c r="C225" s="4">
         <v>45876.393553240741</v>
       </c>
       <c r="D225" t="s">
@@ -6681,7 +6685,7 @@
       <c r="B226" t="s">
         <v>34</v>
       </c>
-      <c r="C226" s="2">
+      <c r="C226" s="4">
         <v>45809.747835648144</v>
       </c>
       <c r="D226" t="s">
@@ -6704,7 +6708,7 @@
       <c r="B227" t="s">
         <v>34</v>
       </c>
-      <c r="C227" s="2">
+      <c r="C227" s="4">
         <v>45865</v>
       </c>
       <c r="D227" t="s">
@@ -6727,7 +6731,7 @@
       <c r="B228" t="s">
         <v>34</v>
       </c>
-      <c r="C228" s="2">
+      <c r="C228" s="4">
         <v>45875.490439814814</v>
       </c>
       <c r="D228" t="s">
@@ -6750,7 +6754,7 @@
       <c r="B229" t="s">
         <v>147</v>
       </c>
-      <c r="C229" s="2">
+      <c r="C229" s="4">
         <v>45861.47320601852</v>
       </c>
       <c r="D229" t="s">
@@ -6773,7 +6777,7 @@
       <c r="B230" t="s">
         <v>147</v>
       </c>
-      <c r="C230" s="2">
+      <c r="C230" s="4">
         <v>45865.460914351846</v>
       </c>
       <c r="D230" t="s">
@@ -6796,7 +6800,7 @@
       <c r="B231" t="s">
         <v>99</v>
       </c>
-      <c r="C231" s="2">
+      <c r="C231" s="4">
         <v>45863</v>
       </c>
       <c r="D231" t="s">
@@ -6819,7 +6823,7 @@
       <c r="B232" t="s">
         <v>99</v>
       </c>
-      <c r="C232" s="2">
+      <c r="C232" s="4">
         <v>45863.510405092587</v>
       </c>
       <c r="D232" t="s">
@@ -6842,7 +6846,7 @@
       <c r="B233" t="s">
         <v>99</v>
       </c>
-      <c r="C233" s="2">
+      <c r="C233" s="4">
         <v>45864.339907407404</v>
       </c>
       <c r="D233" t="s">
@@ -6865,7 +6869,7 @@
       <c r="B234" t="s">
         <v>99</v>
       </c>
-      <c r="C234" s="2">
+      <c r="C234" s="4">
         <v>45864.463043981479</v>
       </c>
       <c r="D234" t="s">
@@ -6888,7 +6892,7 @@
       <c r="B235" t="s">
         <v>99</v>
       </c>
-      <c r="C235" s="2">
+      <c r="C235" s="4">
         <v>45865.527499999997</v>
       </c>
       <c r="D235" t="s">
@@ -6911,7 +6915,7 @@
       <c r="B236" t="s">
         <v>115</v>
       </c>
-      <c r="C236" s="2">
+      <c r="C236" s="4">
         <v>45294</v>
       </c>
       <c r="D236" t="s">
@@ -6934,7 +6938,7 @@
       <c r="B237" t="s">
         <v>115</v>
       </c>
-      <c r="C237" s="2">
+      <c r="C237" s="4">
         <v>45299</v>
       </c>
       <c r="D237" t="s">
@@ -6957,7 +6961,7 @@
       <c r="B238" t="s">
         <v>115</v>
       </c>
-      <c r="C238" s="2">
+      <c r="C238" s="4">
         <v>45301</v>
       </c>
       <c r="D238" t="s">
@@ -6980,7 +6984,7 @@
       <c r="B239" t="s">
         <v>115</v>
       </c>
-      <c r="C239" s="2">
+      <c r="C239" s="4">
         <v>45306</v>
       </c>
       <c r="D239" t="s">
@@ -7003,7 +7007,7 @@
       <c r="B240" t="s">
         <v>115</v>
       </c>
-      <c r="C240" s="2">
+      <c r="C240" s="4">
         <v>45308</v>
       </c>
       <c r="D240" t="s">
@@ -7026,7 +7030,7 @@
       <c r="B241" t="s">
         <v>115</v>
       </c>
-      <c r="C241" s="2">
+      <c r="C241" s="4">
         <v>45313</v>
       </c>
       <c r="D241" t="s">
@@ -7049,7 +7053,7 @@
       <c r="B242" t="s">
         <v>115</v>
       </c>
-      <c r="C242" s="2">
+      <c r="C242" s="4">
         <v>45315</v>
       </c>
       <c r="D242" t="s">
@@ -7072,7 +7076,7 @@
       <c r="B243" t="s">
         <v>115</v>
       </c>
-      <c r="C243" s="2">
+      <c r="C243" s="4">
         <v>45315</v>
       </c>
       <c r="D243" t="s">
@@ -7095,7 +7099,7 @@
       <c r="B244" t="s">
         <v>115</v>
       </c>
-      <c r="C244" s="2">
+      <c r="C244" s="4">
         <v>45315</v>
       </c>
       <c r="D244" t="s">
@@ -7118,7 +7122,7 @@
       <c r="B245" t="s">
         <v>115</v>
       </c>
-      <c r="C245" s="2">
+      <c r="C245" s="4">
         <v>45320</v>
       </c>
       <c r="D245" t="s">
@@ -7141,7 +7145,7 @@
       <c r="B246" t="s">
         <v>115</v>
       </c>
-      <c r="C246" s="2">
+      <c r="C246" s="4">
         <v>45323</v>
       </c>
       <c r="D246" t="s">
@@ -7164,7 +7168,7 @@
       <c r="B247" t="s">
         <v>115</v>
       </c>
-      <c r="C247" s="2">
+      <c r="C247" s="4">
         <v>45327</v>
       </c>
       <c r="D247" t="s">
@@ -7187,7 +7191,7 @@
       <c r="B248" t="s">
         <v>115</v>
       </c>
-      <c r="C248" s="2">
+      <c r="C248" s="4">
         <v>45329</v>
       </c>
       <c r="D248" t="s">
@@ -7210,7 +7214,7 @@
       <c r="B249" t="s">
         <v>115</v>
       </c>
-      <c r="C249" s="2">
+      <c r="C249" s="4">
         <v>45336</v>
       </c>
       <c r="D249" t="s">
@@ -7233,7 +7237,7 @@
       <c r="B250" t="s">
         <v>115</v>
       </c>
-      <c r="C250" s="2">
+      <c r="C250" s="4">
         <v>45336</v>
       </c>
       <c r="D250" t="s">
@@ -7256,7 +7260,7 @@
       <c r="B251" t="s">
         <v>115</v>
       </c>
-      <c r="C251" s="2">
+      <c r="C251" s="4">
         <v>45341</v>
       </c>
       <c r="D251" t="s">
@@ -7279,7 +7283,7 @@
       <c r="B252" t="s">
         <v>189</v>
       </c>
-      <c r="C252" s="2">
+      <c r="C252" s="4">
         <v>45870.400196759256</v>
       </c>
       <c r="D252" t="s">
@@ -7302,7 +7306,7 @@
       <c r="B253" t="s">
         <v>189</v>
       </c>
-      <c r="C253" s="2">
+      <c r="C253" s="4">
         <v>45875.488275462958</v>
       </c>
       <c r="D253" t="s">
@@ -7325,7 +7329,7 @@
       <c r="B254" t="s">
         <v>189</v>
       </c>
-      <c r="C254" s="2">
+      <c r="C254" s="4">
         <v>45876.543657407405</v>
       </c>
       <c r="D254" t="s">
@@ -7348,7 +7352,7 @@
       <c r="B255" t="s">
         <v>31</v>
       </c>
-      <c r="C255" s="2">
+      <c r="C255" s="4">
         <v>45847</v>
       </c>
       <c r="D255" t="s">
@@ -7371,7 +7375,7 @@
       <c r="B256" t="s">
         <v>31</v>
       </c>
-      <c r="C256" s="2">
+      <c r="C256" s="4">
         <v>45870.521493055552</v>
       </c>
       <c r="D256" t="s">
@@ -7394,7 +7398,7 @@
       <c r="B257" t="s">
         <v>190</v>
       </c>
-      <c r="C257" s="2">
+      <c r="C257" s="4">
         <v>45871.548518518517</v>
       </c>
       <c r="D257" t="s">
@@ -7417,7 +7421,7 @@
       <c r="B258" t="s">
         <v>93</v>
       </c>
-      <c r="C258" s="2">
+      <c r="C258" s="4">
         <v>45869.356435185182</v>
       </c>
       <c r="D258" t="s">
@@ -7440,7 +7444,7 @@
       <c r="B259" t="s">
         <v>93</v>
       </c>
-      <c r="C259" s="2">
+      <c r="C259" s="4">
         <v>45871.490636574075</v>
       </c>
       <c r="D259" t="s">
@@ -7463,7 +7467,7 @@
       <c r="B260" t="s">
         <v>93</v>
       </c>
-      <c r="C260" s="2">
+      <c r="C260" s="4">
         <v>45871.519259259258</v>
       </c>
       <c r="D260" t="s">
@@ -7486,7 +7490,7 @@
       <c r="B261" t="s">
         <v>191</v>
       </c>
-      <c r="C261" s="2">
+      <c r="C261" s="4">
         <v>45870.436041666668</v>
       </c>
       <c r="D261" t="s">
@@ -7509,7 +7513,7 @@
       <c r="B262" t="s">
         <v>10</v>
       </c>
-      <c r="C262" s="2">
+      <c r="C262" s="4">
         <v>45816</v>
       </c>
       <c r="D262" t="s">
@@ -7532,7 +7536,7 @@
       <c r="B263" t="s">
         <v>10</v>
       </c>
-      <c r="C263" s="2">
+      <c r="C263" s="4">
         <v>45871.468414351853</v>
       </c>
       <c r="D263" t="s">
@@ -7555,7 +7559,7 @@
       <c r="B264" t="s">
         <v>192</v>
       </c>
-      <c r="C264" s="2">
+      <c r="C264" s="4">
         <v>45875</v>
       </c>
       <c r="D264" t="s">
@@ -7578,7 +7582,7 @@
       <c r="B265" t="s">
         <v>5</v>
       </c>
-      <c r="C265" s="2">
+      <c r="C265" s="4">
         <v>45840.431840277779</v>
       </c>
       <c r="D265" t="s">
@@ -7601,7 +7605,7 @@
       <c r="B266" t="s">
         <v>5</v>
       </c>
-      <c r="C266" s="2">
+      <c r="C266" s="4">
         <v>45843.55400462963</v>
       </c>
       <c r="D266" t="s">
@@ -7624,7 +7628,7 @@
       <c r="B267" t="s">
         <v>5</v>
       </c>
-      <c r="C267" s="2">
+      <c r="C267" s="4">
         <v>45854.444444444445</v>
       </c>
       <c r="D267" t="s">
@@ -7647,7 +7651,7 @@
       <c r="B268" t="s">
         <v>5</v>
       </c>
-      <c r="C268" s="2">
+      <c r="C268" s="4">
         <v>45858.51866898148</v>
       </c>
       <c r="D268" t="s">
@@ -7670,7 +7674,7 @@
       <c r="B269" t="s">
         <v>5</v>
       </c>
-      <c r="C269" s="2">
+      <c r="C269" s="4">
         <v>45864.419548611106</v>
       </c>
       <c r="D269" t="s">
@@ -7693,7 +7697,7 @@
       <c r="B270" t="s">
         <v>5</v>
       </c>
-      <c r="C270" s="2">
+      <c r="C270" s="4">
         <v>45875.482060185182</v>
       </c>
       <c r="D270" t="s">
@@ -7716,7 +7720,7 @@
       <c r="B271" t="s">
         <v>32</v>
       </c>
-      <c r="C271" s="2">
+      <c r="C271" s="4">
         <v>45861</v>
       </c>
       <c r="D271" t="s">
@@ -7739,7 +7743,7 @@
       <c r="B272" t="s">
         <v>32</v>
       </c>
-      <c r="C272" s="2">
+      <c r="C272" s="4">
         <v>45864.374293981477</v>
       </c>
       <c r="D272" t="s">
@@ -7762,7 +7766,7 @@
       <c r="B273" t="s">
         <v>32</v>
       </c>
-      <c r="C273" s="2">
+      <c r="C273" s="4">
         <v>45869.371354166666</v>
       </c>
       <c r="D273" t="s">
@@ -7785,7 +7789,7 @@
       <c r="B274" t="s">
         <v>32</v>
       </c>
-      <c r="C274" s="2">
+      <c r="C274" s="4">
         <v>45870.643136574072</v>
       </c>
       <c r="D274" t="s">
@@ -7808,7 +7812,7 @@
       <c r="B275" t="s">
         <v>32</v>
       </c>
-      <c r="C275" s="2">
+      <c r="C275" s="4">
         <v>45871.521828703699</v>
       </c>
       <c r="D275" t="s">
@@ -7831,7 +7835,7 @@
       <c r="B276" t="s">
         <v>32</v>
       </c>
-      <c r="C276" s="2">
+      <c r="C276" s="4">
         <v>45871.528807870367</v>
       </c>
       <c r="D276" t="s">
@@ -7854,7 +7858,7 @@
       <c r="B277" t="s">
         <v>32</v>
       </c>
-      <c r="C277" s="2">
+      <c r="C277" s="4">
         <v>45871.548472222217</v>
       </c>
       <c r="D277" t="s">
@@ -7877,7 +7881,7 @@
       <c r="B278" t="s">
         <v>32</v>
       </c>
-      <c r="C278" s="2">
+      <c r="C278" s="4">
         <v>45876</v>
       </c>
       <c r="D278" t="s">
@@ -7900,7 +7904,7 @@
       <c r="B279" t="s">
         <v>32</v>
       </c>
-      <c r="C279" s="2">
+      <c r="C279" s="4">
         <v>45876.423645833333</v>
       </c>
       <c r="D279" t="s">
@@ -7923,7 +7927,7 @@
       <c r="B280" t="s">
         <v>53</v>
       </c>
-      <c r="C280" s="2">
+      <c r="C280" s="4">
         <v>45763</v>
       </c>
       <c r="D280" t="s">
@@ -7946,7 +7950,7 @@
       <c r="B281" t="s">
         <v>53</v>
       </c>
-      <c r="C281" s="2">
+      <c r="C281" s="4">
         <v>45834.347986111112</v>
       </c>
       <c r="D281" t="s">
@@ -7969,7 +7973,7 @@
       <c r="B282" t="s">
         <v>53</v>
       </c>
-      <c r="C282" s="2">
+      <c r="C282" s="4">
         <v>45860.416597222218</v>
       </c>
       <c r="D282" t="s">
@@ -7992,7 +7996,7 @@
       <c r="B283" t="s">
         <v>53</v>
       </c>
-      <c r="C283" s="2">
+      <c r="C283" s="4">
         <v>45863.713865740741</v>
       </c>
       <c r="D283" t="s">
@@ -8015,7 +8019,7 @@
       <c r="B284" t="s">
         <v>53</v>
       </c>
-      <c r="C284" s="2">
+      <c r="C284" s="4">
         <v>45869.337118055555</v>
       </c>
       <c r="D284" t="s">
@@ -8038,7 +8042,7 @@
       <c r="B285" t="s">
         <v>41</v>
       </c>
-      <c r="C285" s="2">
+      <c r="C285" s="4">
         <v>45870.436249999999</v>
       </c>
       <c r="D285" t="s">
@@ -8061,7 +8065,7 @@
       <c r="B286" t="s">
         <v>69</v>
       </c>
-      <c r="C286" s="2">
+      <c r="C286" s="4">
         <v>45769</v>
       </c>
       <c r="D286" t="s">
@@ -8084,7 +8088,7 @@
       <c r="B287" t="s">
         <v>69</v>
       </c>
-      <c r="C287" s="2">
+      <c r="C287" s="4">
         <v>45869</v>
       </c>
       <c r="D287" t="s">
@@ -8107,7 +8111,7 @@
       <c r="B288" t="s">
         <v>69</v>
       </c>
-      <c r="C288" s="2">
+      <c r="C288" s="4">
         <v>45869.406018518515</v>
       </c>
       <c r="D288" t="s">
@@ -8130,7 +8134,7 @@
       <c r="B289" t="s">
         <v>69</v>
       </c>
-      <c r="C289" s="2">
+      <c r="C289" s="4">
         <v>45876.326597222222</v>
       </c>
       <c r="D289" t="s">
@@ -8153,7 +8157,7 @@
       <c r="B290" t="s">
         <v>79</v>
       </c>
-      <c r="C290" s="2">
+      <c r="C290" s="4">
         <v>45872.371331018519</v>
       </c>
       <c r="D290" t="s">
@@ -8176,7 +8180,7 @@
       <c r="B291" t="s">
         <v>79</v>
       </c>
-      <c r="C291" s="2">
+      <c r="C291" s="4">
         <v>45876.410578703704</v>
       </c>
       <c r="D291" t="s">
@@ -8199,7 +8203,7 @@
       <c r="B292" t="s">
         <v>158</v>
       </c>
-      <c r="C292" s="2">
+      <c r="C292" s="4">
         <v>45869.377256944441</v>
       </c>
       <c r="D292" t="s">
@@ -8222,7 +8226,7 @@
       <c r="B293" t="s">
         <v>37</v>
       </c>
-      <c r="C293" s="2">
+      <c r="C293" s="4">
         <v>45856.303495370368</v>
       </c>
       <c r="D293" t="s">
@@ -8245,7 +8249,7 @@
       <c r="B294" t="s">
         <v>37</v>
       </c>
-      <c r="C294" s="2">
+      <c r="C294" s="4">
         <v>45863.613425925927</v>
       </c>
       <c r="D294" t="s">
@@ -8268,7 +8272,7 @@
       <c r="B295" t="s">
         <v>37</v>
       </c>
-      <c r="C295" s="2">
+      <c r="C295" s="4">
         <v>45870.636203703703</v>
       </c>
       <c r="D295" t="s">
@@ -8291,7 +8295,7 @@
       <c r="B296" t="s">
         <v>193</v>
       </c>
-      <c r="C296" s="2">
+      <c r="C296" s="4">
         <v>45843.479803240742</v>
       </c>
       <c r="D296" t="s">
@@ -8314,7 +8318,7 @@
       <c r="B297" t="s">
         <v>193</v>
       </c>
-      <c r="C297" s="2">
+      <c r="C297" s="4">
         <v>45873.624224537038</v>
       </c>
       <c r="D297" t="s">
@@ -8337,7 +8341,7 @@
       <c r="B298" t="s">
         <v>194</v>
       </c>
-      <c r="C298" s="2">
+      <c r="C298" s="4">
         <v>45876.393587962964</v>
       </c>
       <c r="D298" t="s">
@@ -8360,7 +8364,7 @@
       <c r="B299" t="s">
         <v>49</v>
       </c>
-      <c r="C299" s="2">
+      <c r="C299" s="4">
         <v>45667.429583333331</v>
       </c>
       <c r="D299" t="s">
@@ -8383,7 +8387,7 @@
       <c r="B300" t="s">
         <v>195</v>
       </c>
-      <c r="C300" s="2">
+      <c r="C300" s="4">
         <v>45854</v>
       </c>
       <c r="D300" t="s">
@@ -8406,7 +8410,7 @@
       <c r="B301" t="s">
         <v>195</v>
       </c>
-      <c r="C301" s="2">
+      <c r="C301" s="4">
         <v>45876</v>
       </c>
       <c r="D301" t="s">
@@ -8429,7 +8433,7 @@
       <c r="B302" t="s">
         <v>196</v>
       </c>
-      <c r="C302" s="2">
+      <c r="C302" s="4">
         <v>45833</v>
       </c>
       <c r="D302" t="s">
@@ -8452,7 +8456,7 @@
       <c r="B303" t="s">
         <v>105</v>
       </c>
-      <c r="C303" s="2">
+      <c r="C303" s="4">
         <v>45843</v>
       </c>
       <c r="D303" t="s">
@@ -8475,7 +8479,7 @@
       <c r="B304" t="s">
         <v>105</v>
       </c>
-      <c r="C304" s="2">
+      <c r="C304" s="4">
         <v>45843.545810185184</v>
       </c>
       <c r="D304" t="s">
@@ -8498,7 +8502,7 @@
       <c r="B305" t="s">
         <v>197</v>
       </c>
-      <c r="C305" s="2">
+      <c r="C305" s="4">
         <v>45873.667986111112</v>
       </c>
       <c r="D305" t="s">
@@ -8521,7 +8525,7 @@
       <c r="B306" t="s">
         <v>198</v>
       </c>
-      <c r="C306" s="2">
+      <c r="C306" s="4">
         <v>45619</v>
       </c>
       <c r="D306" t="s">
@@ -8544,7 +8548,7 @@
       <c r="B307" t="s">
         <v>199</v>
       </c>
-      <c r="C307" s="2">
+      <c r="C307" s="4">
         <v>45876.393472222218</v>
       </c>
       <c r="D307" t="s">
@@ -8567,7 +8571,7 @@
       <c r="B308" t="s">
         <v>200</v>
       </c>
-      <c r="C308" s="2">
+      <c r="C308" s="4">
         <v>45788</v>
       </c>
       <c r="D308" t="s">
@@ -8590,7 +8594,7 @@
       <c r="B309" t="s">
         <v>201</v>
       </c>
-      <c r="C309" s="2">
+      <c r="C309" s="4">
         <v>45819</v>
       </c>
       <c r="D309" t="s">
@@ -8613,7 +8617,7 @@
       <c r="B310" t="s">
         <v>9</v>
       </c>
-      <c r="C310" s="2">
+      <c r="C310" s="4">
         <v>45840.417569444442</v>
       </c>
       <c r="D310" t="s">
@@ -8636,7 +8640,7 @@
       <c r="B311" t="s">
         <v>9</v>
       </c>
-      <c r="C311" s="2">
+      <c r="C311" s="4">
         <v>45843.550532407404</v>
       </c>
       <c r="D311" t="s">
@@ -8659,7 +8663,7 @@
       <c r="B312" t="s">
         <v>9</v>
       </c>
-      <c r="C312" s="2">
+      <c r="C312" s="4">
         <v>45847.378715277773</v>
       </c>
       <c r="D312" t="s">
@@ -8682,7 +8686,7 @@
       <c r="B313" t="s">
         <v>9</v>
       </c>
-      <c r="C313" s="2">
+      <c r="C313" s="4">
         <v>45850.450706018513</v>
       </c>
       <c r="D313" t="s">
@@ -8705,7 +8709,7 @@
       <c r="B314" t="s">
         <v>9</v>
       </c>
-      <c r="C314" s="2">
+      <c r="C314" s="4">
         <v>45858.516712962963</v>
       </c>
       <c r="D314" t="s">
@@ -8728,7 +8732,7 @@
       <c r="B315" t="s">
         <v>9</v>
       </c>
-      <c r="C315" s="2">
+      <c r="C315" s="4">
         <v>45864.422581018516</v>
       </c>
       <c r="D315" t="s">
@@ -8751,7 +8755,7 @@
       <c r="B316" t="s">
         <v>9</v>
       </c>
-      <c r="C316" s="2">
+      <c r="C316" s="4">
         <v>45870.643773148149</v>
       </c>
       <c r="D316" t="s">
@@ -8774,7 +8778,7 @@
       <c r="B317" t="s">
         <v>9</v>
       </c>
-      <c r="C317" s="2">
+      <c r="C317" s="4">
         <v>45871.54855324074</v>
       </c>
       <c r="D317" t="s">
@@ -8797,7 +8801,7 @@
       <c r="B318" t="s">
         <v>9</v>
       </c>
-      <c r="C318" s="2">
+      <c r="C318" s="4">
         <v>45875.481840277775</v>
       </c>
       <c r="D318" t="s">
@@ -8820,7 +8824,7 @@
       <c r="B319" t="s">
         <v>202</v>
       </c>
-      <c r="C319" s="2">
+      <c r="C319" s="4">
         <v>45869</v>
       </c>
       <c r="D319" t="s">
@@ -8843,7 +8847,7 @@
       <c r="B320" t="s">
         <v>202</v>
       </c>
-      <c r="C320" s="2">
+      <c r="C320" s="4">
         <v>45870.436354166668</v>
       </c>
       <c r="D320" t="s">
@@ -8866,7 +8870,7 @@
       <c r="B321" t="s">
         <v>202</v>
       </c>
-      <c r="C321" s="2">
+      <c r="C321" s="4">
         <v>45872.400775462964</v>
       </c>
       <c r="D321" t="s">
@@ -8889,7 +8893,7 @@
       <c r="B322" t="s">
         <v>202</v>
       </c>
-      <c r="C322" s="2">
+      <c r="C322" s="4">
         <v>45875.461122685185</v>
       </c>
       <c r="D322" t="s">
@@ -8912,7 +8916,7 @@
       <c r="B323" t="s">
         <v>128</v>
       </c>
-      <c r="C323" s="2">
+      <c r="C323" s="4">
         <v>45590.396145833329</v>
       </c>
       <c r="D323" t="s">
@@ -8935,7 +8939,7 @@
       <c r="B324" t="s">
         <v>128</v>
       </c>
-      <c r="C324" s="2">
+      <c r="C324" s="4">
         <v>45591.43</v>
       </c>
       <c r="D324" t="s">
@@ -8958,7 +8962,7 @@
       <c r="B325" t="s">
         <v>128</v>
       </c>
-      <c r="C325" s="2">
+      <c r="C325" s="4">
         <v>45598</v>
       </c>
       <c r="D325" t="s">
@@ -8981,7 +8985,7 @@
       <c r="B326" t="s">
         <v>128</v>
       </c>
-      <c r="C326" s="2">
+      <c r="C326" s="4">
         <v>45598.354421296295</v>
       </c>
       <c r="D326" t="s">
@@ -9004,7 +9008,7 @@
       <c r="B327" t="s">
         <v>128</v>
       </c>
-      <c r="C327" s="2">
+      <c r="C327" s="4">
         <v>45598.598460648143</v>
       </c>
       <c r="D327" t="s">
@@ -9027,7 +9031,7 @@
       <c r="B328" t="s">
         <v>128</v>
       </c>
-      <c r="C328" s="2">
+      <c r="C328" s="4">
         <v>45599.414398148147</v>
       </c>
       <c r="D328" t="s">
@@ -9050,7 +9054,7 @@
       <c r="B329" t="s">
         <v>128</v>
       </c>
-      <c r="C329" s="2">
+      <c r="C329" s="4">
         <v>45604.59474537037</v>
       </c>
       <c r="D329" t="s">
@@ -9073,7 +9077,7 @@
       <c r="B330" t="s">
         <v>128</v>
       </c>
-      <c r="C330" s="2">
+      <c r="C330" s="4">
         <v>45604.638645833329</v>
       </c>
       <c r="D330" t="s">
@@ -9096,7 +9100,7 @@
       <c r="B331" t="s">
         <v>128</v>
       </c>
-      <c r="C331" s="2">
+      <c r="C331" s="4">
         <v>45606.347870370366</v>
       </c>
       <c r="D331" t="s">
@@ -9119,7 +9123,7 @@
       <c r="B332" t="s">
         <v>128</v>
       </c>
-      <c r="C332" s="2">
+      <c r="C332" s="4">
         <v>45612.424490740741</v>
       </c>
       <c r="D332" t="s">
@@ -9142,7 +9146,7 @@
       <c r="B333" t="s">
         <v>128</v>
       </c>
-      <c r="C333" s="2">
+      <c r="C333" s="4">
         <v>45613.414942129624</v>
       </c>
       <c r="D333" t="s">
@@ -9165,7 +9169,7 @@
       <c r="B334" t="s">
         <v>128</v>
       </c>
-      <c r="C334" s="2">
+      <c r="C334" s="4">
         <v>45619.424722222218</v>
       </c>
       <c r="D334" t="s">
@@ -9188,7 +9192,7 @@
       <c r="B335" t="s">
         <v>128</v>
       </c>
-      <c r="C335" s="2">
+      <c r="C335" s="4">
         <v>45620.432569444441</v>
       </c>
       <c r="D335" t="s">
@@ -9211,7 +9215,7 @@
       <c r="B336" t="s">
         <v>128</v>
       </c>
-      <c r="C336" s="2">
+      <c r="C336" s="4">
         <v>45625.593923611108</v>
       </c>
       <c r="D336" t="s">
@@ -9234,7 +9238,7 @@
       <c r="B337" t="s">
         <v>128</v>
       </c>
-      <c r="C337" s="2">
+      <c r="C337" s="4">
         <v>45626.402233796296</v>
       </c>
       <c r="D337" t="s">
@@ -9257,7 +9261,7 @@
       <c r="B338" t="s">
         <v>128</v>
       </c>
-      <c r="C338" s="2">
+      <c r="C338" s="4">
         <v>45633.458796296298</v>
       </c>
       <c r="D338" t="s">
@@ -9280,7 +9284,7 @@
       <c r="B339" t="s">
         <v>128</v>
       </c>
-      <c r="C339" s="2">
+      <c r="C339" s="4">
         <v>45639.310555555552</v>
       </c>
       <c r="D339" t="s">
@@ -9303,7 +9307,7 @@
       <c r="B340" t="s">
         <v>128</v>
       </c>
-      <c r="C340" s="2">
+      <c r="C340" s="4">
         <v>45640.426238425927</v>
       </c>
       <c r="D340" t="s">
@@ -9326,7 +9330,7 @@
       <c r="B341" t="s">
         <v>128</v>
       </c>
-      <c r="C341" s="2">
+      <c r="C341" s="4">
         <v>45641.367245370369</v>
       </c>
       <c r="D341" t="s">
@@ -9349,7 +9353,7 @@
       <c r="B342" t="s">
         <v>128</v>
       </c>
-      <c r="C342" s="2">
+      <c r="C342" s="4">
         <v>45641.611261574071</v>
       </c>
       <c r="D342" t="s">
@@ -9372,7 +9376,7 @@
       <c r="B343" t="s">
         <v>128</v>
       </c>
-      <c r="C343" s="2">
+      <c r="C343" s="4">
         <v>45647.420925925922</v>
       </c>
       <c r="D343" t="s">
@@ -9395,7 +9399,7 @@
       <c r="B344" t="s">
         <v>128</v>
       </c>
-      <c r="C344" s="2">
+      <c r="C344" s="4">
         <v>45648.655381944445</v>
       </c>
       <c r="D344" t="s">
@@ -9418,7 +9422,7 @@
       <c r="B345" t="s">
         <v>128</v>
       </c>
-      <c r="C345" s="2">
+      <c r="C345" s="4">
         <v>45654.412777777776</v>
       </c>
       <c r="D345" t="s">
@@ -9441,7 +9445,7 @@
       <c r="B346" t="s">
         <v>128</v>
       </c>
-      <c r="C346" s="2">
+      <c r="C346" s="4">
         <v>45661.427986111106</v>
       </c>
       <c r="D346" t="s">
@@ -9464,7 +9468,7 @@
       <c r="B347" t="s">
         <v>128</v>
       </c>
-      <c r="C347" s="2">
+      <c r="C347" s="4">
         <v>45662.484270833331</v>
       </c>
       <c r="D347" t="s">
@@ -9487,7 +9491,7 @@
       <c r="B348" t="s">
         <v>128</v>
       </c>
-      <c r="C348" s="2">
+      <c r="C348" s="4">
         <v>45667.476041666661</v>
       </c>
       <c r="D348" t="s">
@@ -9510,7 +9514,7 @@
       <c r="B349" t="s">
         <v>128</v>
       </c>
-      <c r="C349" s="2">
+      <c r="C349" s="4">
         <v>45669.41170138889</v>
       </c>
       <c r="D349" t="s">
@@ -9533,7 +9537,7 @@
       <c r="B350" t="s">
         <v>203</v>
       </c>
-      <c r="C350" s="2">
+      <c r="C350" s="4">
         <v>45764</v>
       </c>
       <c r="D350" t="s">
@@ -9556,7 +9560,7 @@
       <c r="B351" t="s">
         <v>204</v>
       </c>
-      <c r="C351" s="2">
+      <c r="C351" s="4">
         <v>45872.494004629625</v>
       </c>
       <c r="D351" t="s">
@@ -9579,7 +9583,7 @@
       <c r="B352" t="s">
         <v>24</v>
       </c>
-      <c r="C352" s="2">
+      <c r="C352" s="4">
         <v>45815</v>
       </c>
       <c r="D352" t="s">
@@ -9602,7 +9606,7 @@
       <c r="B353" t="s">
         <v>24</v>
       </c>
-      <c r="C353" s="2">
+      <c r="C353" s="4">
         <v>45843.622499999998</v>
       </c>
       <c r="D353" t="s">
@@ -9625,7 +9629,7 @@
       <c r="B354" t="s">
         <v>24</v>
       </c>
-      <c r="C354" s="2">
+      <c r="C354" s="4">
         <v>45850.538414351853</v>
       </c>
       <c r="D354" t="s">
@@ -9648,7 +9652,7 @@
       <c r="B355" t="s">
         <v>24</v>
       </c>
-      <c r="C355" s="2">
+      <c r="C355" s="4">
         <v>45864.504583333328</v>
       </c>
       <c r="D355" t="s">
@@ -9671,7 +9675,7 @@
       <c r="B356" t="s">
         <v>24</v>
       </c>
-      <c r="C356" s="2">
+      <c r="C356" s="4">
         <v>45872</v>
       </c>
       <c r="D356" t="s">
@@ -9694,7 +9698,7 @@
       <c r="B357" t="s">
         <v>24</v>
       </c>
-      <c r="C357" s="2">
+      <c r="C357" s="4">
         <v>45872.521458333329</v>
       </c>
       <c r="D357" t="s">
@@ -9717,7 +9721,7 @@
       <c r="B358" t="s">
         <v>205</v>
       </c>
-      <c r="C358" s="2">
+      <c r="C358" s="4">
         <v>45871</v>
       </c>
       <c r="D358" t="s">
@@ -9740,7 +9744,7 @@
       <c r="B359" t="s">
         <v>205</v>
       </c>
-      <c r="C359" s="2">
+      <c r="C359" s="4">
         <v>45871</v>
       </c>
       <c r="D359" t="s">
@@ -9763,7 +9767,7 @@
       <c r="B360" t="s">
         <v>205</v>
       </c>
-      <c r="C360" s="2">
+      <c r="C360" s="4">
         <v>45871.469687500001</v>
       </c>
       <c r="D360" t="s">
@@ -9786,7 +9790,7 @@
       <c r="B361" t="s">
         <v>205</v>
       </c>
-      <c r="C361" s="2">
+      <c r="C361" s="4">
         <v>45871.471655092588</v>
       </c>
       <c r="D361" t="s">
@@ -9809,7 +9813,7 @@
       <c r="B362" t="s">
         <v>205</v>
       </c>
-      <c r="C362" s="2">
+      <c r="C362" s="4">
         <v>45874.455740740741</v>
       </c>
       <c r="D362" t="s">
@@ -9832,7 +9836,7 @@
       <c r="B363" t="s">
         <v>205</v>
       </c>
-      <c r="C363" s="2">
+      <c r="C363" s="4">
         <v>45874.612268518518</v>
       </c>
       <c r="D363" t="s">
@@ -9855,7 +9859,7 @@
       <c r="B364" t="s">
         <v>94</v>
       </c>
-      <c r="C364" s="2">
+      <c r="C364" s="4">
         <v>45841.415787037033</v>
       </c>
       <c r="D364" t="s">
@@ -9878,7 +9882,7 @@
       <c r="B365" t="s">
         <v>94</v>
       </c>
-      <c r="C365" s="2">
+      <c r="C365" s="4">
         <v>45850.403749999998</v>
       </c>
       <c r="D365" t="s">
@@ -9901,7 +9905,7 @@
       <c r="B366" t="s">
         <v>94</v>
       </c>
-      <c r="C366" s="2">
+      <c r="C366" s="4">
         <v>45855.433009259257</v>
       </c>
       <c r="D366" t="s">
@@ -9924,7 +9928,7 @@
       <c r="B367" t="s">
         <v>94</v>
       </c>
-      <c r="C367" s="2">
+      <c r="C367" s="4">
         <v>45864.453773148147</v>
       </c>
       <c r="D367" t="s">
@@ -9947,7 +9951,7 @@
       <c r="B368" t="s">
         <v>67</v>
       </c>
-      <c r="C368" s="2">
+      <c r="C368" s="4">
         <v>45856.451006944444</v>
       </c>
       <c r="D368" t="s">
@@ -9970,7 +9974,7 @@
       <c r="B369" t="s">
         <v>67</v>
       </c>
-      <c r="C369" s="2">
+      <c r="C369" s="4">
         <v>45858.588043981479</v>
       </c>
       <c r="D369" t="s">
@@ -9993,7 +9997,7 @@
       <c r="B370" t="s">
         <v>67</v>
       </c>
-      <c r="C370" s="2">
+      <c r="C370" s="4">
         <v>45858.603680555556</v>
       </c>
       <c r="D370" t="s">
@@ -10016,7 +10020,7 @@
       <c r="B371" t="s">
         <v>67</v>
       </c>
-      <c r="C371" s="2">
+      <c r="C371" s="4">
         <v>45861.483668981477</v>
       </c>
       <c r="D371" t="s">
@@ -10039,7 +10043,7 @@
       <c r="B372" t="s">
         <v>67</v>
       </c>
-      <c r="C372" s="2">
+      <c r="C372" s="4">
         <v>45863.515474537038</v>
       </c>
       <c r="D372" t="s">
@@ -10062,7 +10066,7 @@
       <c r="B373" t="s">
         <v>67</v>
       </c>
-      <c r="C373" s="2">
+      <c r="C373" s="4">
         <v>45869.385451388887</v>
       </c>
       <c r="D373" t="s">
@@ -10085,7 +10089,7 @@
       <c r="B374" t="s">
         <v>67</v>
       </c>
-      <c r="C374" s="2">
+      <c r="C374" s="4">
         <v>45871.521666666667</v>
       </c>
       <c r="D374" t="s">
@@ -10108,7 +10112,7 @@
       <c r="B375" t="s">
         <v>67</v>
       </c>
-      <c r="C375" s="2">
+      <c r="C375" s="4">
         <v>45872.453831018516</v>
       </c>
       <c r="D375" t="s">
@@ -10131,7 +10135,7 @@
       <c r="B376" t="s">
         <v>67</v>
       </c>
-      <c r="C376" s="2">
+      <c r="C376" s="4">
         <v>45876.441319444442</v>
       </c>
       <c r="D376" t="s">
@@ -10154,7 +10158,7 @@
       <c r="B377" t="s">
         <v>206</v>
       </c>
-      <c r="C377" s="2">
+      <c r="C377" s="4">
         <v>45870.409421296295</v>
       </c>
       <c r="D377" t="s">
@@ -10177,7 +10181,7 @@
       <c r="B378" t="s">
         <v>206</v>
       </c>
-      <c r="C378" s="2">
+      <c r="C378" s="4">
         <v>45872.315787037034</v>
       </c>
       <c r="D378" t="s">
@@ -10200,7 +10204,7 @@
       <c r="B379" t="s">
         <v>206</v>
       </c>
-      <c r="C379" s="2">
+      <c r="C379" s="4">
         <v>45872.31581018518</v>
       </c>
       <c r="D379" t="s">
@@ -10223,7 +10227,7 @@
       <c r="B380" t="s">
         <v>90</v>
       </c>
-      <c r="C380" s="2">
+      <c r="C380" s="4">
         <v>45582.679189814815</v>
       </c>
       <c r="D380" t="s">
@@ -10246,7 +10250,7 @@
       <c r="B381" t="s">
         <v>11</v>
       </c>
-      <c r="C381" s="2">
+      <c r="C381" s="4">
         <v>45806.316099537034</v>
       </c>
       <c r="D381" t="s">
@@ -10269,7 +10273,7 @@
       <c r="B382" t="s">
         <v>11</v>
       </c>
-      <c r="C382" s="2">
+      <c r="C382" s="4">
         <v>45809.600486111107</v>
       </c>
       <c r="D382" t="s">
@@ -10292,7 +10296,7 @@
       <c r="B383" t="s">
         <v>207</v>
       </c>
-      <c r="C383" s="2">
+      <c r="C383" s="4">
         <v>45869</v>
       </c>
       <c r="D383" t="s">
@@ -10315,7 +10319,7 @@
       <c r="B384" t="s">
         <v>207</v>
       </c>
-      <c r="C384" s="2">
+      <c r="C384" s="4">
         <v>45872.453703703701</v>
       </c>
       <c r="D384" t="s">
@@ -10338,7 +10342,7 @@
       <c r="B385" t="s">
         <v>85</v>
       </c>
-      <c r="C385" s="2">
+      <c r="C385" s="4">
         <v>45841.427442129629</v>
       </c>
       <c r="D385" t="s">
@@ -10361,7 +10365,7 @@
       <c r="B386" t="s">
         <v>85</v>
       </c>
-      <c r="C386" s="2">
+      <c r="C386" s="4">
         <v>45847.465775462959</v>
       </c>
       <c r="D386" t="s">
@@ -10384,7 +10388,7 @@
       <c r="B387" t="s">
         <v>85</v>
       </c>
-      <c r="C387" s="2">
+      <c r="C387" s="4">
         <v>45855.443298611106</v>
       </c>
       <c r="D387" t="s">
@@ -10407,7 +10411,7 @@
       <c r="B388" t="s">
         <v>85</v>
       </c>
-      <c r="C388" s="2">
+      <c r="C388" s="4">
         <v>45869.362534722219</v>
       </c>
       <c r="D388" t="s">
@@ -10430,7 +10434,7 @@
       <c r="B389" t="s">
         <v>85</v>
       </c>
-      <c r="C389" s="2">
+      <c r="C389" s="4">
         <v>45876.344942129625</v>
       </c>
       <c r="D389" t="s">
@@ -10453,7 +10457,7 @@
       <c r="B390" t="s">
         <v>102</v>
       </c>
-      <c r="C390" s="2">
+      <c r="C390" s="4">
         <v>45822.413194444445</v>
       </c>
       <c r="D390" t="s">
@@ -10476,7 +10480,7 @@
       <c r="B391" t="s">
         <v>208</v>
       </c>
-      <c r="C391" s="2">
+      <c r="C391" s="4">
         <v>45872.453680555554</v>
       </c>
       <c r="D391" t="s">
@@ -10499,7 +10503,7 @@
       <c r="B392" t="s">
         <v>43</v>
       </c>
-      <c r="C392" s="2">
+      <c r="C392" s="4">
         <v>45844.302546296298</v>
       </c>
       <c r="D392" t="s">
@@ -10522,7 +10526,7 @@
       <c r="B393" t="s">
         <v>209</v>
       </c>
-      <c r="C393" s="2">
+      <c r="C393" s="4">
         <v>45870.44363425926</v>
       </c>
       <c r="D393" t="s">
@@ -10545,7 +10549,7 @@
       <c r="B394" t="s">
         <v>120</v>
       </c>
-      <c r="C394" s="2">
+      <c r="C394" s="4">
         <v>45345</v>
       </c>
       <c r="D394" t="s">
@@ -10568,7 +10572,7 @@
       <c r="B395" t="s">
         <v>120</v>
       </c>
-      <c r="C395" s="2">
+      <c r="C395" s="4">
         <v>45347</v>
       </c>
       <c r="D395" t="s">
@@ -10591,7 +10595,7 @@
       <c r="B396" t="s">
         <v>120</v>
       </c>
-      <c r="C396" s="2">
+      <c r="C396" s="4">
         <v>45359</v>
       </c>
       <c r="D396" t="s">
@@ -10614,7 +10618,7 @@
       <c r="B397" t="s">
         <v>120</v>
       </c>
-      <c r="C397" s="2">
+      <c r="C397" s="4">
         <v>45361</v>
       </c>
       <c r="D397" t="s">
@@ -10637,7 +10641,7 @@
       <c r="B398" t="s">
         <v>120</v>
       </c>
-      <c r="C398" s="2">
+      <c r="C398" s="4">
         <v>45366</v>
       </c>
       <c r="D398" t="s">
@@ -10660,7 +10664,7 @@
       <c r="B399" t="s">
         <v>120</v>
       </c>
-      <c r="C399" s="2">
+      <c r="C399" s="4">
         <v>45373</v>
       </c>
       <c r="D399" t="s">
@@ -10683,7 +10687,7 @@
       <c r="B400" t="s">
         <v>120</v>
       </c>
-      <c r="C400" s="2">
+      <c r="C400" s="4">
         <v>45380</v>
       </c>
       <c r="D400" t="s">
@@ -10706,7 +10710,7 @@
       <c r="B401" t="s">
         <v>120</v>
       </c>
-      <c r="C401" s="2">
+      <c r="C401" s="4">
         <v>45387</v>
       </c>
       <c r="D401" t="s">
@@ -10729,7 +10733,7 @@
       <c r="B402" t="s">
         <v>120</v>
       </c>
-      <c r="C402" s="2">
+      <c r="C402" s="4">
         <v>45637</v>
       </c>
       <c r="D402" t="s">
@@ -10752,7 +10756,7 @@
       <c r="B403" t="s">
         <v>210</v>
       </c>
-      <c r="C403" s="2">
+      <c r="C403" s="4">
         <v>45870.432037037033</v>
       </c>
       <c r="D403" t="s">
@@ -10775,7 +10779,7 @@
       <c r="B404" t="s">
         <v>210</v>
       </c>
-      <c r="C404" s="2">
+      <c r="C404" s="4">
         <v>45876</v>
       </c>
       <c r="D404" t="s">
@@ -10798,7 +10802,7 @@
       <c r="B405" t="s">
         <v>211</v>
       </c>
-      <c r="C405" s="2">
+      <c r="C405" s="4">
         <v>45876</v>
       </c>
       <c r="D405" t="s">
@@ -10821,7 +10825,7 @@
       <c r="B406" t="s">
         <v>211</v>
       </c>
-      <c r="C406" s="2">
+      <c r="C406" s="4">
         <v>45876.526770833334</v>
       </c>
       <c r="D406" t="s">
@@ -10844,7 +10848,7 @@
       <c r="B407" t="s">
         <v>80</v>
       </c>
-      <c r="C407" s="2">
+      <c r="C407" s="4">
         <v>45855.470335648148</v>
       </c>
       <c r="D407" t="s">
@@ -10867,7 +10871,7 @@
       <c r="B408" t="s">
         <v>80</v>
       </c>
-      <c r="C408" s="2">
+      <c r="C408" s="4">
         <v>45865.426111111112</v>
       </c>
       <c r="D408" t="s">
@@ -10890,7 +10894,7 @@
       <c r="B409" t="s">
         <v>80</v>
       </c>
-      <c r="C409" s="2">
+      <c r="C409" s="4">
         <v>45872.493958333333</v>
       </c>
       <c r="D409" t="s">
@@ -10913,7 +10917,7 @@
       <c r="B410" t="s">
         <v>212</v>
       </c>
-      <c r="C410" s="2">
+      <c r="C410" s="4">
         <v>45870</v>
       </c>
       <c r="D410" t="s">
@@ -10936,7 +10940,7 @@
       <c r="B411" t="s">
         <v>70</v>
       </c>
-      <c r="C411" s="2">
+      <c r="C411" s="4">
         <v>45840.446226851847</v>
       </c>
       <c r="D411" t="s">
@@ -10959,7 +10963,7 @@
       <c r="B412" t="s">
         <v>70</v>
       </c>
-      <c r="C412" s="2">
+      <c r="C412" s="4">
         <v>45855.563877314809</v>
       </c>
       <c r="D412" t="s">
@@ -10982,7 +10986,7 @@
       <c r="B413" t="s">
         <v>151</v>
       </c>
-      <c r="C413" s="2">
+      <c r="C413" s="4">
         <v>45869</v>
       </c>
       <c r="D413" t="s">
@@ -11005,7 +11009,7 @@
       <c r="B414" t="s">
         <v>151</v>
       </c>
-      <c r="C414" s="2">
+      <c r="C414" s="4">
         <v>45869.409953703704</v>
       </c>
       <c r="D414" t="s">
@@ -11028,7 +11032,7 @@
       <c r="B415" t="s">
         <v>151</v>
       </c>
-      <c r="C415" s="2">
+      <c r="C415" s="4">
         <v>45876.485601851848</v>
       </c>
       <c r="D415" t="s">
@@ -11051,7 +11055,7 @@
       <c r="B416" t="s">
         <v>213</v>
       </c>
-      <c r="C416" s="2">
+      <c r="C416" s="4">
         <v>45870.501469907409</v>
       </c>
       <c r="D416" t="s">
@@ -11074,7 +11078,7 @@
       <c r="B417" t="s">
         <v>213</v>
       </c>
-      <c r="C417" s="2">
+      <c r="C417" s="4">
         <v>45871.520023148143</v>
       </c>
       <c r="D417" t="s">
@@ -11097,7 +11101,7 @@
       <c r="B418" t="s">
         <v>213</v>
       </c>
-      <c r="C418" s="2">
+      <c r="C418" s="4">
         <v>45876.48737268518</v>
       </c>
       <c r="D418" t="s">
@@ -11120,7 +11124,7 @@
       <c r="B419" t="s">
         <v>214</v>
       </c>
-      <c r="C419" s="2">
+      <c r="C419" s="4">
         <v>45870.406539351847</v>
       </c>
       <c r="D419" t="s">
@@ -11143,7 +11147,7 @@
       <c r="B420" t="s">
         <v>215</v>
       </c>
-      <c r="C420" s="2">
+      <c r="C420" s="4">
         <v>45777</v>
       </c>
       <c r="D420" t="s">
@@ -11166,7 +11170,7 @@
       <c r="B421" t="s">
         <v>215</v>
       </c>
-      <c r="C421" s="2">
+      <c r="C421" s="4">
         <v>45777</v>
       </c>
       <c r="D421" t="s">
@@ -11189,7 +11193,7 @@
       <c r="B422" t="s">
         <v>215</v>
       </c>
-      <c r="C422" s="2">
+      <c r="C422" s="4">
         <v>45777</v>
       </c>
       <c r="D422" t="s">
@@ -11212,7 +11216,7 @@
       <c r="B423" t="s">
         <v>141</v>
       </c>
-      <c r="C423" s="2">
+      <c r="C423" s="4">
         <v>45855.387013888889</v>
       </c>
       <c r="D423" t="s">
@@ -11235,7 +11239,7 @@
       <c r="B424" t="s">
         <v>141</v>
       </c>
-      <c r="C424" s="2">
+      <c r="C424" s="4">
         <v>45869.311006944445</v>
       </c>
       <c r="D424" t="s">
@@ -11258,7 +11262,7 @@
       <c r="B425" t="s">
         <v>141</v>
       </c>
-      <c r="C425" s="2">
+      <c r="C425" s="4">
         <v>45876</v>
       </c>
       <c r="D425" t="s">
@@ -11281,7 +11285,7 @@
       <c r="B426" t="s">
         <v>141</v>
       </c>
-      <c r="C426" s="2">
+      <c r="C426" s="4">
         <v>45876.358148148145</v>
       </c>
       <c r="D426" t="s">
@@ -11304,7 +11308,7 @@
       <c r="B427" t="s">
         <v>154</v>
       </c>
-      <c r="C427" s="2">
+      <c r="C427" s="4">
         <v>45869.722210648149</v>
       </c>
       <c r="D427" t="s">
@@ -11327,7 +11331,7 @@
       <c r="B428" t="s">
         <v>149</v>
       </c>
-      <c r="C428" s="2">
+      <c r="C428" s="4">
         <v>45861</v>
       </c>
       <c r="D428" t="s">
@@ -11350,7 +11354,7 @@
       <c r="B429" t="s">
         <v>149</v>
       </c>
-      <c r="C429" s="2">
+      <c r="C429" s="4">
         <v>45863.453576388885</v>
       </c>
       <c r="D429" t="s">
@@ -11373,7 +11377,7 @@
       <c r="B430" t="s">
         <v>149</v>
       </c>
-      <c r="C430" s="2">
+      <c r="C430" s="4">
         <v>45868.380567129629</v>
       </c>
       <c r="D430" t="s">
@@ -11396,7 +11400,7 @@
       <c r="B431" t="s">
         <v>149</v>
       </c>
-      <c r="C431" s="2">
+      <c r="C431" s="4">
         <v>45870.370682870365</v>
       </c>
       <c r="D431" t="s">
@@ -11419,7 +11423,7 @@
       <c r="B432" t="s">
         <v>25</v>
       </c>
-      <c r="C432" s="2">
+      <c r="C432" s="4">
         <v>45795.373506944445</v>
       </c>
       <c r="D432" t="s">
@@ -11442,7 +11446,7 @@
       <c r="B433" t="s">
         <v>25</v>
       </c>
-      <c r="C433" s="2">
+      <c r="C433" s="4">
         <v>45819.457905092589</v>
       </c>
       <c r="D433" t="s">
@@ -11465,7 +11469,7 @@
       <c r="B434" t="s">
         <v>25</v>
       </c>
-      <c r="C434" s="2">
+      <c r="C434" s="4">
         <v>45826</v>
       </c>
       <c r="D434" t="s">
@@ -11488,7 +11492,7 @@
       <c r="B435" t="s">
         <v>25</v>
       </c>
-      <c r="C435" s="2">
+      <c r="C435" s="4">
         <v>45847</v>
       </c>
       <c r="D435" t="s">
@@ -11511,7 +11515,7 @@
       <c r="B436" t="s">
         <v>25</v>
       </c>
-      <c r="C436" s="2">
+      <c r="C436" s="4">
         <v>45847.432789351849</v>
       </c>
       <c r="D436" t="s">
@@ -11534,7 +11538,7 @@
       <c r="B437" t="s">
         <v>25</v>
       </c>
-      <c r="C437" s="2">
+      <c r="C437" s="4">
         <v>45849.533553240741</v>
       </c>
       <c r="D437" t="s">
@@ -11557,7 +11561,7 @@
       <c r="B438" t="s">
         <v>25</v>
       </c>
-      <c r="C438" s="2">
+      <c r="C438" s="4">
         <v>45851.507997685185</v>
       </c>
       <c r="D438" t="s">
@@ -11580,7 +11584,7 @@
       <c r="B439" t="s">
         <v>25</v>
       </c>
-      <c r="C439" s="2">
+      <c r="C439" s="4">
         <v>45856.400532407402</v>
       </c>
       <c r="D439" t="s">
@@ -11603,7 +11607,7 @@
       <c r="B440" t="s">
         <v>25</v>
       </c>
-      <c r="C440" s="2">
+      <c r="C440" s="4">
         <v>45858.551516203705</v>
       </c>
       <c r="D440" t="s">
@@ -11626,7 +11630,7 @@
       <c r="B441" t="s">
         <v>25</v>
       </c>
-      <c r="C441" s="2">
+      <c r="C441" s="4">
         <v>45861.451932870368</v>
       </c>
       <c r="D441" t="s">
@@ -11649,7 +11653,7 @@
       <c r="B442" t="s">
         <v>25</v>
       </c>
-      <c r="C442" s="2">
+      <c r="C442" s="4">
         <v>45863</v>
       </c>
       <c r="D442" t="s">
@@ -11672,7 +11676,7 @@
       <c r="B443" t="s">
         <v>25</v>
       </c>
-      <c r="C443" s="2">
+      <c r="C443" s="4">
         <v>45863.480046296296</v>
       </c>
       <c r="D443" t="s">
@@ -11695,7 +11699,7 @@
       <c r="B444" t="s">
         <v>25</v>
       </c>
-      <c r="C444" s="2">
+      <c r="C444" s="4">
         <v>45870.436064814814</v>
       </c>
       <c r="D444" t="s">
@@ -11718,7 +11722,7 @@
       <c r="B445" t="s">
         <v>25</v>
       </c>
-      <c r="C445" s="2">
+      <c r="C445" s="4">
         <v>45872.416956018518</v>
       </c>
       <c r="D445" t="s">
@@ -11741,7 +11745,7 @@
       <c r="B446" t="s">
         <v>25</v>
       </c>
-      <c r="C446" s="2">
+      <c r="C446" s="4">
         <v>45875</v>
       </c>
       <c r="D446" t="s">
@@ -11764,7 +11768,7 @@
       <c r="B447" t="s">
         <v>25</v>
       </c>
-      <c r="C447" s="2">
+      <c r="C447" s="4">
         <v>45875.482083333329</v>
       </c>
       <c r="D447" t="s">
@@ -11787,7 +11791,7 @@
       <c r="B448" t="s">
         <v>216</v>
       </c>
-      <c r="C448" s="2">
+      <c r="C448" s="4">
         <v>45870.456608796296</v>
       </c>
       <c r="D448" t="s">
@@ -11810,7 +11814,7 @@
       <c r="B449" t="s">
         <v>89</v>
       </c>
-      <c r="C449" s="2">
+      <c r="C449" s="4">
         <v>45522.370335648149</v>
       </c>
       <c r="D449" t="s">
@@ -11833,7 +11837,7 @@
       <c r="B450" t="s">
         <v>89</v>
       </c>
-      <c r="C450" s="2">
+      <c r="C450" s="4">
         <v>45575.36918981481</v>
       </c>
       <c r="D450" t="s">
@@ -11856,7 +11860,7 @@
       <c r="B451" t="s">
         <v>89</v>
       </c>
-      <c r="C451" s="2">
+      <c r="C451" s="4">
         <v>45631.433854166666</v>
       </c>
       <c r="D451" t="s">
@@ -11879,7 +11883,7 @@
       <c r="B452" t="s">
         <v>121</v>
       </c>
-      <c r="C452" s="2">
+      <c r="C452" s="4">
         <v>45364</v>
       </c>
       <c r="D452" t="s">
@@ -11902,7 +11906,7 @@
       <c r="B453" t="s">
         <v>121</v>
       </c>
-      <c r="C453" s="2">
+      <c r="C453" s="4">
         <v>45429</v>
       </c>
       <c r="D453" t="s">
@@ -11925,7 +11929,7 @@
       <c r="B454" t="s">
         <v>121</v>
       </c>
-      <c r="C454" s="2">
+      <c r="C454" s="4">
         <v>45448</v>
       </c>
       <c r="D454" t="s">
@@ -11948,7 +11952,7 @@
       <c r="B455" t="s">
         <v>121</v>
       </c>
-      <c r="C455" s="2">
+      <c r="C455" s="4">
         <v>45450</v>
       </c>
       <c r="D455" t="s">
@@ -11971,7 +11975,7 @@
       <c r="B456" t="s">
         <v>121</v>
       </c>
-      <c r="C456" s="2">
+      <c r="C456" s="4">
         <v>45455</v>
       </c>
       <c r="D456" t="s">
@@ -11994,7 +11998,7 @@
       <c r="B457" t="s">
         <v>121</v>
       </c>
-      <c r="C457" s="2">
+      <c r="C457" s="4">
         <v>45462</v>
       </c>
       <c r="D457" t="s">
@@ -12017,7 +12021,7 @@
       <c r="B458" t="s">
         <v>121</v>
       </c>
-      <c r="C458" s="2">
+      <c r="C458" s="4">
         <v>45464</v>
       </c>
       <c r="D458" t="s">
@@ -12040,7 +12044,7 @@
       <c r="B459" t="s">
         <v>121</v>
       </c>
-      <c r="C459" s="2">
+      <c r="C459" s="4">
         <v>45469</v>
       </c>
       <c r="D459" t="s">
@@ -12063,7 +12067,7 @@
       <c r="B460" t="s">
         <v>121</v>
       </c>
-      <c r="C460" s="2">
+      <c r="C460" s="4">
         <v>45469</v>
       </c>
       <c r="D460" t="s">
@@ -12086,7 +12090,7 @@
       <c r="B461" t="s">
         <v>121</v>
       </c>
-      <c r="C461" s="2">
+      <c r="C461" s="4">
         <v>45476.403877314813</v>
       </c>
       <c r="D461" t="s">
@@ -12109,7 +12113,7 @@
       <c r="B462" t="s">
         <v>121</v>
       </c>
-      <c r="C462" s="2">
+      <c r="C462" s="4">
         <v>45478.399293981478</v>
       </c>
       <c r="D462" t="s">
@@ -12132,7 +12136,7 @@
       <c r="B463" t="s">
         <v>121</v>
       </c>
-      <c r="C463" s="2">
+      <c r="C463" s="4">
         <v>45483.41574074074</v>
       </c>
       <c r="D463" t="s">
@@ -12155,7 +12159,7 @@
       <c r="B464" t="s">
         <v>121</v>
       </c>
-      <c r="C464" s="2">
+      <c r="C464" s="4">
         <v>45485.404733796291</v>
       </c>
       <c r="D464" t="s">
@@ -12178,7 +12182,7 @@
       <c r="B465" t="s">
         <v>121</v>
       </c>
-      <c r="C465" s="2">
+      <c r="C465" s="4">
         <v>45520.387407407405</v>
       </c>
       <c r="D465" t="s">
@@ -12201,7 +12205,7 @@
       <c r="B466" t="s">
         <v>217</v>
       </c>
-      <c r="C466" s="2">
+      <c r="C466" s="4">
         <v>45871.525914351849</v>
       </c>
       <c r="D466" t="s">
@@ -12224,7 +12228,7 @@
       <c r="B467" t="s">
         <v>218</v>
       </c>
-      <c r="C467" s="2">
+      <c r="C467" s="4">
         <v>45852</v>
       </c>
       <c r="D467" t="s">
@@ -12247,7 +12251,7 @@
       <c r="B468" t="s">
         <v>218</v>
       </c>
-      <c r="C468" s="2">
+      <c r="C468" s="4">
         <v>45872.474456018514</v>
       </c>
       <c r="D468" t="s">
@@ -12270,7 +12274,7 @@
       <c r="B469" t="s">
         <v>219</v>
       </c>
-      <c r="C469" s="2">
+      <c r="C469" s="4">
         <v>45871.497939814813</v>
       </c>
       <c r="D469" t="s">
@@ -12293,7 +12297,7 @@
       <c r="B470" t="s">
         <v>73</v>
       </c>
-      <c r="C470" s="2">
+      <c r="C470" s="4">
         <v>45822.427083333328</v>
       </c>
       <c r="D470" t="s">
@@ -12316,7 +12320,7 @@
       <c r="B471" t="s">
         <v>73</v>
       </c>
-      <c r="C471" s="2">
+      <c r="C471" s="4">
         <v>45829.388969907406</v>
       </c>
       <c r="D471" t="s">
@@ -12339,7 +12343,7 @@
       <c r="B472" t="s">
         <v>73</v>
       </c>
-      <c r="C472" s="2">
+      <c r="C472" s="4">
         <v>45835.421319444446</v>
       </c>
       <c r="D472" t="s">
@@ -12362,7 +12366,7 @@
       <c r="B473" t="s">
         <v>73</v>
       </c>
-      <c r="C473" s="2">
+      <c r="C473" s="4">
         <v>45842.482858796291</v>
       </c>
       <c r="D473" t="s">
@@ -12385,7 +12389,7 @@
       <c r="B474" t="s">
         <v>73</v>
       </c>
-      <c r="C474" s="2">
+      <c r="C474" s="4">
         <v>45850.564652777779</v>
       </c>
       <c r="D474" t="s">
@@ -12408,7 +12412,7 @@
       <c r="B475" t="s">
         <v>73</v>
       </c>
-      <c r="C475" s="2">
+      <c r="C475" s="4">
         <v>45863.501620370371</v>
       </c>
       <c r="D475" t="s">
@@ -12431,7 +12435,7 @@
       <c r="B476" t="s">
         <v>73</v>
       </c>
-      <c r="C476" s="2">
+      <c r="C476" s="4">
         <v>45872.603368055556</v>
       </c>
       <c r="D476" t="s">
@@ -12454,7 +12458,7 @@
       <c r="B477" t="s">
         <v>44</v>
       </c>
-      <c r="C477" s="2">
+      <c r="C477" s="4">
         <v>45847.47043981481</v>
       </c>
       <c r="D477" t="s">
@@ -12477,7 +12481,7 @@
       <c r="B478" t="s">
         <v>44</v>
       </c>
-      <c r="C478" s="2">
+      <c r="C478" s="4">
         <v>45870.446238425924</v>
       </c>
       <c r="D478" t="s">
@@ -12500,7 +12504,7 @@
       <c r="B479" t="s">
         <v>26</v>
       </c>
-      <c r="C479" s="2">
+      <c r="C479" s="4">
         <v>45843.469675925924</v>
       </c>
       <c r="D479" t="s">
@@ -12523,7 +12527,7 @@
       <c r="B480" t="s">
         <v>26</v>
       </c>
-      <c r="C480" s="2">
+      <c r="C480" s="4">
         <v>45844.403599537036</v>
       </c>
       <c r="D480" t="s">
@@ -12546,7 +12550,7 @@
       <c r="B481" t="s">
         <v>26</v>
       </c>
-      <c r="C481" s="2">
+      <c r="C481" s="4">
         <v>45849.394814814812</v>
       </c>
       <c r="D481" t="s">
@@ -12569,7 +12573,7 @@
       <c r="B482" t="s">
         <v>26</v>
       </c>
-      <c r="C482" s="2">
+      <c r="C482" s="4">
         <v>45851.437685185185</v>
       </c>
       <c r="D482" t="s">
@@ -12592,7 +12596,7 @@
       <c r="B483" t="s">
         <v>26</v>
       </c>
-      <c r="C483" s="2">
+      <c r="C483" s="4">
         <v>45851.508703703701</v>
       </c>
       <c r="D483" t="s">
@@ -12615,7 +12619,7 @@
       <c r="B484" t="s">
         <v>26</v>
       </c>
-      <c r="C484" s="2">
+      <c r="C484" s="4">
         <v>45854.447488425925</v>
       </c>
       <c r="D484" t="s">
@@ -12638,7 +12642,7 @@
       <c r="B485" t="s">
         <v>26</v>
       </c>
-      <c r="C485" s="2">
+      <c r="C485" s="4">
         <v>45856.743738425925</v>
       </c>
       <c r="D485" t="s">
@@ -12661,7 +12665,7 @@
       <c r="B486" t="s">
         <v>26</v>
       </c>
-      <c r="C486" s="2">
+      <c r="C486" s="4">
         <v>45858.592835648145</v>
       </c>
       <c r="D486" t="s">
@@ -12684,7 +12688,7 @@
       <c r="B487" t="s">
         <v>26</v>
       </c>
-      <c r="C487" s="2">
+      <c r="C487" s="4">
         <v>45869.604004629626</v>
       </c>
       <c r="D487" t="s">
@@ -12707,7 +12711,7 @@
       <c r="B488" t="s">
         <v>26</v>
       </c>
-      <c r="C488" s="2">
+      <c r="C488" s="4">
         <v>45872.400729166664</v>
       </c>
       <c r="D488" t="s">
@@ -12730,7 +12734,7 @@
       <c r="B489" t="s">
         <v>220</v>
       </c>
-      <c r="C489" s="2">
+      <c r="C489" s="4">
         <v>45773</v>
       </c>
       <c r="D489" t="s">
@@ -12753,7 +12757,7 @@
       <c r="B490" t="s">
         <v>221</v>
       </c>
-      <c r="C490" s="2">
+      <c r="C490" s="4">
         <v>45872.400613425925</v>
       </c>
       <c r="D490" t="s">
@@ -12776,7 +12780,7 @@
       <c r="B491" t="s">
         <v>221</v>
       </c>
-      <c r="C491" s="2">
+      <c r="C491" s="4">
         <v>45872.417013888888</v>
       </c>
       <c r="D491" t="s">
@@ -12799,7 +12803,7 @@
       <c r="B492" t="s">
         <v>81</v>
       </c>
-      <c r="C492" s="2">
+      <c r="C492" s="4">
         <v>45858.602407407408</v>
       </c>
       <c r="D492" t="s">
@@ -12822,7 +12826,7 @@
       <c r="B493" t="s">
         <v>81</v>
       </c>
-      <c r="C493" s="2">
+      <c r="C493" s="4">
         <v>45861.457986111112</v>
       </c>
       <c r="D493" t="s">
@@ -12845,7 +12849,7 @@
       <c r="B494" t="s">
         <v>81</v>
       </c>
-      <c r="C494" s="2">
+      <c r="C494" s="4">
         <v>45863.498495370368</v>
       </c>
       <c r="D494" t="s">
@@ -12868,7 +12872,7 @@
       <c r="B495" t="s">
         <v>81</v>
       </c>
-      <c r="C495" s="2">
+      <c r="C495" s="4">
         <v>45865.359097222223</v>
       </c>
       <c r="D495" t="s">
@@ -12891,7 +12895,7 @@
       <c r="B496" t="s">
         <v>81</v>
       </c>
-      <c r="C496" s="2">
+      <c r="C496" s="4">
         <v>45865.475717592592</v>
       </c>
       <c r="D496" t="s">
@@ -12914,7 +12918,7 @@
       <c r="B497" t="s">
         <v>81</v>
       </c>
-      <c r="C497" s="2">
+      <c r="C497" s="4">
         <v>45870.444861111107</v>
       </c>
       <c r="D497" t="s">
@@ -12937,7 +12941,7 @@
       <c r="B498" t="s">
         <v>81</v>
       </c>
-      <c r="C498" s="2">
+      <c r="C498" s="4">
         <v>45872.522650462961</v>
       </c>
       <c r="D498" t="s">
@@ -12960,7 +12964,7 @@
       <c r="B499" t="s">
         <v>81</v>
       </c>
-      <c r="C499" s="2">
+      <c r="C499" s="4">
         <v>45872.534652777773</v>
       </c>
       <c r="D499" t="s">
@@ -12983,7 +12987,7 @@
       <c r="B500" t="s">
         <v>222</v>
       </c>
-      <c r="C500" s="2">
+      <c r="C500" s="4">
         <v>45627</v>
       </c>
       <c r="D500" t="s">
@@ -13006,7 +13010,7 @@
       <c r="B501" t="s">
         <v>222</v>
       </c>
-      <c r="C501" s="2">
+      <c r="C501" s="4">
         <v>45629</v>
       </c>
       <c r="D501" t="s">
@@ -13029,7 +13033,7 @@
       <c r="B502" t="s">
         <v>222</v>
       </c>
-      <c r="C502" s="2">
+      <c r="C502" s="4">
         <v>45816</v>
       </c>
       <c r="D502" t="s">
@@ -13052,7 +13056,7 @@
       <c r="B503" t="s">
         <v>222</v>
       </c>
-      <c r="C503" s="2">
+      <c r="C503" s="4">
         <v>45816</v>
       </c>
       <c r="D503" t="s">
@@ -13075,7 +13079,7 @@
       <c r="B504" t="s">
         <v>222</v>
       </c>
-      <c r="C504" s="2">
+      <c r="C504" s="4">
         <v>45873.43032407407</v>
       </c>
       <c r="D504" t="s">
@@ -13098,7 +13102,7 @@
       <c r="B505" t="s">
         <v>222</v>
       </c>
-      <c r="C505" s="2">
+      <c r="C505" s="4">
         <v>45873.431076388886</v>
       </c>
       <c r="D505" t="s">
@@ -13121,7 +13125,7 @@
       <c r="B506" t="s">
         <v>223</v>
       </c>
-      <c r="C506" s="2">
+      <c r="C506" s="4">
         <v>45875.490474537037</v>
       </c>
       <c r="D506" t="s">
@@ -13144,7 +13148,7 @@
       <c r="B507" t="s">
         <v>50</v>
       </c>
-      <c r="C507" s="2">
+      <c r="C507" s="4">
         <v>45715.554560185185</v>
       </c>
       <c r="D507" t="s">
@@ -13167,7 +13171,7 @@
       <c r="B508" t="s">
         <v>50</v>
       </c>
-      <c r="C508" s="2">
+      <c r="C508" s="4">
         <v>45716.524247685185</v>
       </c>
       <c r="D508" t="s">
@@ -13190,7 +13194,7 @@
       <c r="B509" t="s">
         <v>123</v>
       </c>
-      <c r="C509" s="2">
+      <c r="C509" s="4">
         <v>45402</v>
       </c>
       <c r="D509" t="s">
@@ -13213,7 +13217,7 @@
       <c r="B510" t="s">
         <v>123</v>
       </c>
-      <c r="C510" s="2">
+      <c r="C510" s="4">
         <v>45407</v>
       </c>
       <c r="D510" t="s">
@@ -13236,7 +13240,7 @@
       <c r="B511" t="s">
         <v>123</v>
       </c>
-      <c r="C511" s="2">
+      <c r="C511" s="4">
         <v>45407</v>
       </c>
       <c r="D511" t="s">
@@ -13259,7 +13263,7 @@
       <c r="B512" t="s">
         <v>123</v>
       </c>
-      <c r="C512" s="2">
+      <c r="C512" s="4">
         <v>45409</v>
       </c>
       <c r="D512" t="s">
@@ -13282,7 +13286,7 @@
       <c r="B513" t="s">
         <v>123</v>
       </c>
-      <c r="C513" s="2">
+      <c r="C513" s="4">
         <v>45410</v>
       </c>
       <c r="D513" t="s">
@@ -13305,7 +13309,7 @@
       <c r="B514" t="s">
         <v>123</v>
       </c>
-      <c r="C514" s="2">
+      <c r="C514" s="4">
         <v>45414</v>
       </c>
       <c r="D514" t="s">
@@ -13328,7 +13332,7 @@
       <c r="B515" t="s">
         <v>123</v>
       </c>
-      <c r="C515" s="2">
+      <c r="C515" s="4">
         <v>45414</v>
       </c>
       <c r="D515" t="s">
@@ -13351,7 +13355,7 @@
       <c r="B516" t="s">
         <v>123</v>
       </c>
-      <c r="C516" s="2">
+      <c r="C516" s="4">
         <v>45416</v>
       </c>
       <c r="D516" t="s">
@@ -13374,7 +13378,7 @@
       <c r="B517" t="s">
         <v>123</v>
       </c>
-      <c r="C517" s="2">
+      <c r="C517" s="4">
         <v>45416</v>
       </c>
       <c r="D517" t="s">
@@ -13397,7 +13401,7 @@
       <c r="B518" t="s">
         <v>123</v>
       </c>
-      <c r="C518" s="2">
+      <c r="C518" s="4">
         <v>45417</v>
       </c>
       <c r="D518" t="s">
@@ -13420,7 +13424,7 @@
       <c r="B519" t="s">
         <v>123</v>
       </c>
-      <c r="C519" s="2">
+      <c r="C519" s="4">
         <v>45422</v>
       </c>
       <c r="D519" t="s">
@@ -13443,7 +13447,7 @@
       <c r="B520" t="s">
         <v>123</v>
       </c>
-      <c r="C520" s="2">
+      <c r="C520" s="4">
         <v>45424</v>
       </c>
       <c r="D520" t="s">
@@ -13466,7 +13470,7 @@
       <c r="B521" t="s">
         <v>123</v>
       </c>
-      <c r="C521" s="2">
+      <c r="C521" s="4">
         <v>45429</v>
       </c>
       <c r="D521" t="s">
@@ -13489,7 +13493,7 @@
       <c r="B522" t="s">
         <v>123</v>
       </c>
-      <c r="C522" s="2">
+      <c r="C522" s="4">
         <v>45436</v>
       </c>
       <c r="D522" t="s">
@@ -13512,7 +13516,7 @@
       <c r="B523" t="s">
         <v>224</v>
       </c>
-      <c r="C523" s="2">
+      <c r="C523" s="4">
         <v>45693</v>
       </c>
       <c r="D523" t="s">
@@ -13535,7 +13539,7 @@
       <c r="B524" t="s">
         <v>225</v>
       </c>
-      <c r="C524" s="2">
+      <c r="C524" s="4">
         <v>45871.534467592588</v>
       </c>
       <c r="D524" t="s">
@@ -13558,7 +13562,7 @@
       <c r="B525" t="s">
         <v>225</v>
       </c>
-      <c r="C525" s="2">
+      <c r="C525" s="4">
         <v>45876.39362268518</v>
       </c>
       <c r="D525" t="s">
@@ -13581,7 +13585,7 @@
       <c r="B526" t="s">
         <v>225</v>
       </c>
-      <c r="C526" s="2">
+      <c r="C526" s="4">
         <v>45876.423217592594</v>
       </c>
       <c r="D526" t="s">
@@ -13604,7 +13608,7 @@
       <c r="B527" t="s">
         <v>226</v>
       </c>
-      <c r="C527" s="2">
+      <c r="C527" s="4">
         <v>45875.490740740737</v>
       </c>
       <c r="D527" t="s">
@@ -13627,7 +13631,7 @@
       <c r="B528" t="s">
         <v>27</v>
       </c>
-      <c r="C528" s="2">
+      <c r="C528" s="4">
         <v>45856.570509259254</v>
       </c>
       <c r="D528" t="s">
@@ -13650,7 +13654,7 @@
       <c r="B529" t="s">
         <v>27</v>
       </c>
-      <c r="C529" s="2">
+      <c r="C529" s="4">
         <v>45858.609317129631</v>
       </c>
       <c r="D529" t="s">
@@ -13673,7 +13677,7 @@
       <c r="B530" t="s">
         <v>27</v>
       </c>
-      <c r="C530" s="2">
+      <c r="C530" s="4">
         <v>45863.603032407409</v>
       </c>
       <c r="D530" t="s">
@@ -13696,7 +13700,7 @@
       <c r="B531" t="s">
         <v>27</v>
       </c>
-      <c r="C531" s="2">
+      <c r="C531" s="4">
         <v>45871.613078703704</v>
       </c>
       <c r="D531" t="s">
@@ -13719,7 +13723,7 @@
       <c r="B532" t="s">
         <v>27</v>
       </c>
-      <c r="C532" s="2">
+      <c r="C532" s="4">
         <v>45875</v>
       </c>
       <c r="D532" t="s">
@@ -13742,7 +13746,7 @@
       <c r="B533" t="s">
         <v>27</v>
       </c>
-      <c r="C533" s="2">
+      <c r="C533" s="4">
         <v>45875.605995370366</v>
       </c>
       <c r="D533" t="s">
@@ -13765,7 +13769,7 @@
       <c r="B534" t="s">
         <v>227</v>
       </c>
-      <c r="C534" s="2">
+      <c r="C534" s="4">
         <v>45875.486840277779</v>
       </c>
       <c r="D534" t="s">
@@ -13788,7 +13792,7 @@
       <c r="B535" t="s">
         <v>228</v>
       </c>
-      <c r="C535" s="2">
+      <c r="C535" s="4">
         <v>45498.602037037032</v>
       </c>
       <c r="D535" t="s">
@@ -13811,7 +13815,7 @@
       <c r="B536" t="s">
         <v>228</v>
       </c>
-      <c r="C536" s="2">
+      <c r="C536" s="4">
         <v>45575.372974537036</v>
       </c>
       <c r="D536" t="s">
@@ -13834,7 +13838,7 @@
       <c r="B537" t="s">
         <v>228</v>
       </c>
-      <c r="C537" s="2">
+      <c r="C537" s="4">
         <v>45653.467037037037</v>
       </c>
       <c r="D537" t="s">
@@ -13857,7 +13861,7 @@
       <c r="B538" t="s">
         <v>55</v>
       </c>
-      <c r="C538" s="2">
+      <c r="C538" s="4">
         <v>45841.406585648147</v>
       </c>
       <c r="D538" t="s">
@@ -13880,7 +13884,7 @@
       <c r="B539" t="s">
         <v>55</v>
       </c>
-      <c r="C539" s="2">
+      <c r="C539" s="4">
         <v>45858.629687499997</v>
       </c>
       <c r="D539" t="s">
@@ -13903,7 +13907,7 @@
       <c r="B540" t="s">
         <v>55</v>
       </c>
-      <c r="C540" s="2">
+      <c r="C540" s="4">
         <v>45869.354363425926</v>
       </c>
       <c r="D540" t="s">
@@ -13926,7 +13930,7 @@
       <c r="B541" t="s">
         <v>229</v>
       </c>
-      <c r="C541" s="2">
+      <c r="C541" s="4">
         <v>45876.520289351851</v>
       </c>
       <c r="D541" t="s">
@@ -13949,7 +13953,7 @@
       <c r="B542" t="s">
         <v>153</v>
       </c>
-      <c r="C542" s="2">
+      <c r="C542" s="4">
         <v>45722</v>
       </c>
       <c r="D542" t="s">
@@ -13972,7 +13976,7 @@
       <c r="B543" t="s">
         <v>153</v>
       </c>
-      <c r="C543" s="2">
+      <c r="C543" s="4">
         <v>45863</v>
       </c>
       <c r="D543" t="s">
@@ -13995,7 +13999,7 @@
       <c r="B544" t="s">
         <v>153</v>
       </c>
-      <c r="C544" s="2">
+      <c r="C544" s="4">
         <v>45876</v>
       </c>
       <c r="D544" t="s">
@@ -14018,7 +14022,7 @@
       <c r="B545" t="s">
         <v>126</v>
       </c>
-      <c r="C545" s="2">
+      <c r="C545" s="4">
         <v>45493</v>
       </c>
       <c r="D545" t="s">
@@ -14041,7 +14045,7 @@
       <c r="B546" t="s">
         <v>126</v>
       </c>
-      <c r="C546" s="2">
+      <c r="C546" s="4">
         <v>45528.350104166668</v>
       </c>
       <c r="D546" t="s">
@@ -14064,7 +14068,7 @@
       <c r="B547" t="s">
         <v>126</v>
       </c>
-      <c r="C547" s="2">
+      <c r="C547" s="4">
         <v>45542.353668981479</v>
       </c>
       <c r="D547" t="s">
@@ -14087,7 +14091,7 @@
       <c r="B548" t="s">
         <v>230</v>
       </c>
-      <c r="C548" s="2">
+      <c r="C548" s="4">
         <v>45545</v>
       </c>
       <c r="D548" t="s">
@@ -14110,7 +14114,7 @@
       <c r="B549" t="s">
         <v>74</v>
       </c>
-      <c r="C549" s="2">
+      <c r="C549" s="4">
         <v>45858.531087962961</v>
       </c>
       <c r="D549" t="s">
@@ -14133,7 +14137,7 @@
       <c r="B550" t="s">
         <v>74</v>
       </c>
-      <c r="C550" s="2">
+      <c r="C550" s="4">
         <v>45864.415821759256</v>
       </c>
       <c r="D550" t="s">
@@ -14156,7 +14160,7 @@
       <c r="B551" t="s">
         <v>88</v>
       </c>
-      <c r="C551" s="2">
+      <c r="C551" s="4">
         <v>45478</v>
       </c>
       <c r="D551" t="s">
@@ -14179,7 +14183,7 @@
       <c r="B552" t="s">
         <v>88</v>
       </c>
-      <c r="C552" s="2">
+      <c r="C552" s="4">
         <v>45492.34134259259</v>
       </c>
       <c r="D552" t="s">
@@ -14202,7 +14206,7 @@
       <c r="B553" t="s">
         <v>88</v>
       </c>
-      <c r="C553" s="2">
+      <c r="C553" s="4">
         <v>45521.362025462964</v>
       </c>
       <c r="D553" t="s">
@@ -14225,7 +14229,7 @@
       <c r="B554" t="s">
         <v>88</v>
       </c>
-      <c r="C554" s="2">
+      <c r="C554" s="4">
         <v>45528.386550925927</v>
       </c>
       <c r="D554" t="s">
@@ -14248,7 +14252,7 @@
       <c r="B555" t="s">
         <v>88</v>
       </c>
-      <c r="C555" s="2">
+      <c r="C555" s="4">
         <v>45535.387824074074</v>
       </c>
       <c r="D555" t="s">
@@ -14271,7 +14275,7 @@
       <c r="B556" t="s">
         <v>88</v>
       </c>
-      <c r="C556" s="2">
+      <c r="C556" s="4">
         <v>45584.359652777777</v>
       </c>
       <c r="D556" t="s">
@@ -14294,7 +14298,7 @@
       <c r="B557" t="s">
         <v>88</v>
       </c>
-      <c r="C557" s="2">
+      <c r="C557" s="4">
         <v>45591.376168981478</v>
       </c>
       <c r="D557" t="s">
@@ -14317,7 +14321,7 @@
       <c r="B558" t="s">
         <v>124</v>
       </c>
-      <c r="C558" s="2">
+      <c r="C558" s="4">
         <v>45428</v>
       </c>
       <c r="D558" t="s">
@@ -14340,7 +14344,7 @@
       <c r="B559" t="s">
         <v>124</v>
       </c>
-      <c r="C559" s="2">
+      <c r="C559" s="4">
         <v>45463</v>
       </c>
       <c r="D559" t="s">
@@ -14363,7 +14367,7 @@
       <c r="B560" t="s">
         <v>124</v>
       </c>
-      <c r="C560" s="2">
+      <c r="C560" s="4">
         <v>45463</v>
       </c>
       <c r="D560" t="s">
@@ -14386,7 +14390,7 @@
       <c r="B561" t="s">
         <v>124</v>
       </c>
-      <c r="C561" s="2">
+      <c r="C561" s="4">
         <v>45469</v>
       </c>
       <c r="D561" t="s">
@@ -14409,7 +14413,7 @@
       <c r="B562" t="s">
         <v>124</v>
       </c>
-      <c r="C562" s="2">
+      <c r="C562" s="4">
         <v>45470</v>
       </c>
       <c r="D562" t="s">
@@ -14432,7 +14436,7 @@
       <c r="B563" t="s">
         <v>124</v>
       </c>
-      <c r="C563" s="2">
+      <c r="C563" s="4">
         <v>45477</v>
       </c>
       <c r="D563" t="s">
@@ -14455,7 +14459,7 @@
       <c r="B564" t="s">
         <v>124</v>
       </c>
-      <c r="C564" s="2">
+      <c r="C564" s="4">
         <v>45484</v>
       </c>
       <c r="D564" t="s">
@@ -14478,7 +14482,7 @@
       <c r="B565" t="s">
         <v>124</v>
       </c>
-      <c r="C565" s="2">
+      <c r="C565" s="4">
         <v>45484</v>
       </c>
       <c r="D565" t="s">
@@ -14501,7 +14505,7 @@
       <c r="B566" t="s">
         <v>124</v>
       </c>
-      <c r="C566" s="2">
+      <c r="C566" s="4">
         <v>45491</v>
       </c>
       <c r="D566" t="s">
@@ -14524,7 +14528,7 @@
       <c r="B567" t="s">
         <v>124</v>
       </c>
-      <c r="C567" s="2">
+      <c r="C567" s="4">
         <v>45492</v>
       </c>
       <c r="D567" t="s">
@@ -14547,7 +14551,7 @@
       <c r="B568" t="s">
         <v>124</v>
       </c>
-      <c r="C568" s="2">
+      <c r="C568" s="4">
         <v>45498</v>
       </c>
       <c r="D568" t="s">
@@ -14570,7 +14574,7 @@
       <c r="B569" t="s">
         <v>124</v>
       </c>
-      <c r="C569" s="2">
+      <c r="C569" s="4">
         <v>45498</v>
       </c>
       <c r="D569" t="s">
@@ -14593,7 +14597,7 @@
       <c r="B570" t="s">
         <v>124</v>
       </c>
-      <c r="C570" s="2">
+      <c r="C570" s="4">
         <v>45505.348726851851</v>
       </c>
       <c r="D570" t="s">
@@ -14616,7 +14620,7 @@
       <c r="B571" t="s">
         <v>124</v>
       </c>
-      <c r="C571" s="2">
+      <c r="C571" s="4">
         <v>45512.372986111106</v>
       </c>
       <c r="D571" t="s">
@@ -14639,7 +14643,7 @@
       <c r="B572" t="s">
         <v>124</v>
       </c>
-      <c r="C572" s="2">
+      <c r="C572" s="4">
         <v>45519.381990740738</v>
       </c>
       <c r="D572" t="s">
@@ -14662,7 +14666,7 @@
       <c r="B573" t="s">
         <v>124</v>
       </c>
-      <c r="C573" s="2">
+      <c r="C573" s="4">
         <v>45526.340416666666</v>
       </c>
       <c r="D573" t="s">
@@ -14685,7 +14689,7 @@
       <c r="B574" t="s">
         <v>124</v>
       </c>
-      <c r="C574" s="2">
+      <c r="C574" s="4">
         <v>45533.349062499998</v>
       </c>
       <c r="D574" t="s">
@@ -14708,7 +14712,7 @@
       <c r="B575" t="s">
         <v>124</v>
       </c>
-      <c r="C575" s="2">
+      <c r="C575" s="4">
         <v>45535</v>
       </c>
       <c r="D575" t="s">
@@ -14731,7 +14735,7 @@
       <c r="B576" t="s">
         <v>124</v>
       </c>
-      <c r="C576" s="2">
+      <c r="C576" s="4">
         <v>45535.373437499999</v>
       </c>
       <c r="D576" t="s">
@@ -14754,7 +14758,7 @@
       <c r="B577" t="s">
         <v>124</v>
       </c>
-      <c r="C577" s="2">
+      <c r="C577" s="4">
         <v>45540.368784722217</v>
       </c>
       <c r="D577" t="s">
@@ -14777,7 +14781,7 @@
       <c r="B578" t="s">
         <v>124</v>
       </c>
-      <c r="C578" s="2">
+      <c r="C578" s="4">
         <v>45547.375914351847</v>
       </c>
       <c r="D578" t="s">
@@ -14800,7 +14804,7 @@
       <c r="B579" t="s">
         <v>106</v>
       </c>
-      <c r="C579" s="2">
+      <c r="C579" s="4">
         <v>45674.448495370365</v>
       </c>
       <c r="D579" t="s">
@@ -14823,7 +14827,7 @@
       <c r="B580" t="s">
         <v>106</v>
       </c>
-      <c r="C580" s="2">
+      <c r="C580" s="4">
         <v>45676.37259259259</v>
       </c>
       <c r="D580" t="s">
@@ -14846,7 +14850,7 @@
       <c r="B581" t="s">
         <v>106</v>
       </c>
-      <c r="C581" s="2">
+      <c r="C581" s="4">
         <v>45676.373912037037</v>
       </c>
       <c r="D581" t="s">
@@ -14869,7 +14873,7 @@
       <c r="B582" t="s">
         <v>106</v>
       </c>
-      <c r="C582" s="2">
+      <c r="C582" s="4">
         <v>45676.379942129628</v>
       </c>
       <c r="D582" t="s">
@@ -14892,7 +14896,7 @@
       <c r="B583" t="s">
         <v>106</v>
       </c>
-      <c r="C583" s="2">
+      <c r="C583" s="4">
         <v>45680.260694444441</v>
       </c>
       <c r="D583" t="s">
@@ -14915,7 +14919,7 @@
       <c r="B584" t="s">
         <v>106</v>
       </c>
-      <c r="C584" s="2">
+      <c r="C584" s="4">
         <v>45680.330057870371</v>
       </c>
       <c r="D584" t="s">
@@ -14938,7 +14942,7 @@
       <c r="B585" t="s">
         <v>106</v>
       </c>
-      <c r="C585" s="2">
+      <c r="C585" s="4">
         <v>45683</v>
       </c>
       <c r="D585" t="s">
@@ -14961,7 +14965,7 @@
       <c r="B586" t="s">
         <v>106</v>
       </c>
-      <c r="C586" s="2">
+      <c r="C586" s="4">
         <v>45683.394768518519</v>
       </c>
       <c r="D586" t="s">
@@ -14984,7 +14988,7 @@
       <c r="B587" t="s">
         <v>106</v>
       </c>
-      <c r="C587" s="2">
+      <c r="C587" s="4">
         <v>45683.705358796295</v>
       </c>
       <c r="D587" t="s">
@@ -15007,7 +15011,7 @@
       <c r="B588" t="s">
         <v>106</v>
       </c>
-      <c r="C588" s="2">
+      <c r="C588" s="4">
         <v>45690.415335648147</v>
       </c>
       <c r="D588" t="s">
@@ -15030,7 +15034,7 @@
       <c r="B589" t="s">
         <v>106</v>
       </c>
-      <c r="C589" s="2">
+      <c r="C589" s="4">
         <v>45695.430150462962</v>
       </c>
       <c r="D589" t="s">
@@ -15053,7 +15057,7 @@
       <c r="B590" t="s">
         <v>106</v>
       </c>
-      <c r="C590" s="2">
+      <c r="C590" s="4">
         <v>45695.686018518514</v>
       </c>
       <c r="D590" t="s">
@@ -15076,7 +15080,7 @@
       <c r="B591" t="s">
         <v>106</v>
       </c>
-      <c r="C591" s="2">
+      <c r="C591" s="4">
         <v>45697.384050925924</v>
       </c>
       <c r="D591" t="s">
@@ -15099,7 +15103,7 @@
       <c r="B592" t="s">
         <v>106</v>
       </c>
-      <c r="C592" s="2">
+      <c r="C592" s="4">
         <v>45697.386284722219</v>
       </c>
       <c r="D592" t="s">
@@ -15122,7 +15126,7 @@
       <c r="B593" t="s">
         <v>106</v>
       </c>
-      <c r="C593" s="2">
+      <c r="C593" s="4">
         <v>45702.353796296295</v>
       </c>
       <c r="D593" t="s">
@@ -15145,7 +15149,7 @@
       <c r="B594" t="s">
         <v>106</v>
       </c>
-      <c r="C594" s="2">
+      <c r="C594" s="4">
         <v>45702.403252314813</v>
       </c>
       <c r="D594" t="s">
@@ -15168,7 +15172,7 @@
       <c r="B595" t="s">
         <v>106</v>
       </c>
-      <c r="C595" s="2">
+      <c r="C595" s="4">
         <v>45704.36918981481</v>
       </c>
       <c r="D595" t="s">
@@ -15191,7 +15195,7 @@
       <c r="B596" t="s">
         <v>106</v>
       </c>
-      <c r="C596" s="2">
+      <c r="C596" s="4">
         <v>45709.391342592593</v>
       </c>
       <c r="D596" t="s">
@@ -15214,7 +15218,7 @@
       <c r="B597" t="s">
         <v>106</v>
       </c>
-      <c r="C597" s="2">
+      <c r="C597" s="4">
         <v>45711.366550925923</v>
       </c>
       <c r="D597" t="s">
@@ -15237,7 +15241,7 @@
       <c r="B598" t="s">
         <v>106</v>
       </c>
-      <c r="C598" s="2">
+      <c r="C598" s="4">
         <v>45711.385289351849</v>
       </c>
       <c r="D598" t="s">
@@ -15260,7 +15264,7 @@
       <c r="B599" t="s">
         <v>106</v>
       </c>
-      <c r="C599" s="2">
+      <c r="C599" s="4">
         <v>45711.38690972222</v>
       </c>
       <c r="D599" t="s">
@@ -15283,7 +15287,7 @@
       <c r="B600" t="s">
         <v>106</v>
       </c>
-      <c r="C600" s="2">
+      <c r="C600" s="4">
         <v>45716.386527777773</v>
       </c>
       <c r="D600" t="s">
@@ -15306,7 +15310,7 @@
       <c r="B601" t="s">
         <v>106</v>
       </c>
-      <c r="C601" s="2">
+      <c r="C601" s="4">
         <v>45718.347928240742</v>
       </c>
       <c r="D601" t="s">
@@ -15329,7 +15333,7 @@
       <c r="B602" t="s">
         <v>106</v>
       </c>
-      <c r="C602" s="2">
+      <c r="C602" s="4">
         <v>45723.381145833329</v>
       </c>
       <c r="D602" t="s">
@@ -15352,7 +15356,7 @@
       <c r="B603" t="s">
         <v>106</v>
       </c>
-      <c r="C603" s="2">
+      <c r="C603" s="4">
         <v>45725.32167824074</v>
       </c>
       <c r="D603" t="s">
@@ -15375,7 +15379,7 @@
       <c r="B604" t="s">
         <v>106</v>
       </c>
-      <c r="C604" s="2">
+      <c r="C604" s="4">
         <v>45730.384328703702</v>
       </c>
       <c r="D604" t="s">
@@ -15398,7 +15402,7 @@
       <c r="B605" t="s">
         <v>106</v>
       </c>
-      <c r="C605" s="2">
+      <c r="C605" s="4">
         <v>45730.388425925921</v>
       </c>
       <c r="D605" t="s">
@@ -15421,7 +15425,7 @@
       <c r="B606" t="s">
         <v>106</v>
       </c>
-      <c r="C606" s="2">
+      <c r="C606" s="4">
         <v>45732.423680555556</v>
       </c>
       <c r="D606" t="s">
@@ -15444,7 +15448,7 @@
       <c r="B607" t="s">
         <v>106</v>
       </c>
-      <c r="C607" s="2">
+      <c r="C607" s="4">
         <v>45737.406111111108</v>
       </c>
       <c r="D607" t="s">
@@ -15467,7 +15471,7 @@
       <c r="B608" t="s">
         <v>106</v>
       </c>
-      <c r="C608" s="2">
+      <c r="C608" s="4">
         <v>45739.459930555553</v>
       </c>
       <c r="D608" t="s">
@@ -15490,7 +15494,7 @@
       <c r="B609" t="s">
         <v>106</v>
       </c>
-      <c r="C609" s="2">
+      <c r="C609" s="4">
         <v>45746.464502314811</v>
       </c>
       <c r="D609" t="s">
@@ -15513,7 +15517,7 @@
       <c r="B610" t="s">
         <v>106</v>
       </c>
-      <c r="C610" s="2">
+      <c r="C610" s="4">
         <v>45753.430891203701</v>
       </c>
       <c r="D610" t="s">
@@ -15536,7 +15540,7 @@
       <c r="B611" t="s">
         <v>106</v>
       </c>
-      <c r="C611" s="2">
+      <c r="C611" s="4">
         <v>45758.375347222223</v>
       </c>
       <c r="D611" t="s">
@@ -15559,7 +15563,7 @@
       <c r="B612" t="s">
         <v>106</v>
       </c>
-      <c r="C612" s="2">
+      <c r="C612" s="4">
         <v>45760.432465277772</v>
       </c>
       <c r="D612" t="s">
@@ -15582,7 +15586,7 @@
       <c r="B613" t="s">
         <v>106</v>
       </c>
-      <c r="C613" s="2">
+      <c r="C613" s="4">
         <v>45848</v>
       </c>
       <c r="D613" t="s">
@@ -15605,7 +15609,7 @@
       <c r="B614" t="s">
         <v>97</v>
       </c>
-      <c r="C614" s="2">
+      <c r="C614" s="4">
         <v>45753.405486111107</v>
       </c>
       <c r="D614" t="s">
@@ -15628,7 +15632,7 @@
       <c r="B615" t="s">
         <v>97</v>
       </c>
-      <c r="C615" s="2">
+      <c r="C615" s="4">
         <v>45760.434571759259</v>
       </c>
       <c r="D615" t="s">
@@ -15651,7 +15655,7 @@
       <c r="B616" t="s">
         <v>97</v>
       </c>
-      <c r="C616" s="2">
+      <c r="C616" s="4">
         <v>45765.409363425926</v>
       </c>
       <c r="D616" t="s">
@@ -15674,7 +15678,7 @@
       <c r="B617" t="s">
         <v>97</v>
       </c>
-      <c r="C617" s="2">
+      <c r="C617" s="4">
         <v>45767.334374999999</v>
       </c>
       <c r="D617" t="s">
@@ -15697,7 +15701,7 @@
       <c r="B618" t="s">
         <v>97</v>
       </c>
-      <c r="C618" s="2">
+      <c r="C618" s="4">
         <v>45774.391180555554</v>
       </c>
       <c r="D618" t="s">
@@ -15720,7 +15724,7 @@
       <c r="B619" t="s">
         <v>97</v>
       </c>
-      <c r="C619" s="2">
+      <c r="C619" s="4">
         <v>45781.442291666666</v>
       </c>
       <c r="D619" t="s">
@@ -15743,7 +15747,7 @@
       <c r="B620" t="s">
         <v>97</v>
       </c>
-      <c r="C620" s="2">
+      <c r="C620" s="4">
         <v>45785</v>
       </c>
       <c r="D620" t="s">
@@ -15766,7 +15770,7 @@
       <c r="B621" t="s">
         <v>97</v>
       </c>
-      <c r="C621" s="2">
+      <c r="C621" s="4">
         <v>45786.460960648146</v>
       </c>
       <c r="D621" t="s">
@@ -15789,7 +15793,7 @@
       <c r="B622" t="s">
         <v>97</v>
       </c>
-      <c r="C622" s="2">
+      <c r="C622" s="4">
         <v>45786.667129629626</v>
       </c>
       <c r="D622" t="s">
@@ -15812,7 +15816,7 @@
       <c r="B623" t="s">
         <v>97</v>
       </c>
-      <c r="C623" s="2">
+      <c r="C623" s="4">
         <v>45793</v>
       </c>
       <c r="D623" t="s">
@@ -15835,7 +15839,7 @@
       <c r="B624" t="s">
         <v>97</v>
       </c>
-      <c r="C624" s="2">
+      <c r="C624" s="4">
         <v>45793.514664351853</v>
       </c>
       <c r="D624" t="s">
@@ -15858,7 +15862,7 @@
       <c r="B625" t="s">
         <v>97</v>
       </c>
-      <c r="C625" s="2">
+      <c r="C625" s="4">
         <v>45800.395335648143</v>
       </c>
       <c r="D625" t="s">
@@ -15881,7 +15885,7 @@
       <c r="B626" t="s">
         <v>97</v>
       </c>
-      <c r="C626" s="2">
+      <c r="C626" s="4">
         <v>45801.441759259258</v>
       </c>
       <c r="D626" t="s">
@@ -15904,7 +15908,7 @@
       <c r="B627" t="s">
         <v>97</v>
       </c>
-      <c r="C627" s="2">
+      <c r="C627" s="4">
         <v>45807.56925925926</v>
       </c>
       <c r="D627" t="s">
@@ -15927,7 +15931,7 @@
       <c r="B628" t="s">
         <v>97</v>
       </c>
-      <c r="C628" s="2">
+      <c r="C628" s="4">
         <v>45814.449664351851</v>
       </c>
       <c r="D628" t="s">
@@ -15950,7 +15954,7 @@
       <c r="B629" t="s">
         <v>97</v>
       </c>
-      <c r="C629" s="2">
+      <c r="C629" s="4">
         <v>45816.453692129631</v>
       </c>
       <c r="D629" t="s">
@@ -15973,7 +15977,7 @@
       <c r="B630" t="s">
         <v>97</v>
       </c>
-      <c r="C630" s="2">
+      <c r="C630" s="4">
         <v>45823.474143518513</v>
       </c>
       <c r="D630" t="s">
@@ -15996,7 +16000,7 @@
       <c r="B631" t="s">
         <v>97</v>
       </c>
-      <c r="C631" s="2">
+      <c r="C631" s="4">
         <v>45828.463171296295</v>
       </c>
       <c r="D631" t="s">
@@ -16019,7 +16023,7 @@
       <c r="B632" t="s">
         <v>97</v>
       </c>
-      <c r="C632" s="2">
+      <c r="C632" s="4">
         <v>45830.511828703704</v>
       </c>
       <c r="D632" t="s">
@@ -16042,7 +16046,7 @@
       <c r="B633" t="s">
         <v>97</v>
       </c>
-      <c r="C633" s="2">
+      <c r="C633" s="4">
         <v>45837.485810185186</v>
       </c>
       <c r="D633" t="s">
@@ -16065,7 +16069,7 @@
       <c r="B634" t="s">
         <v>97</v>
       </c>
-      <c r="C634" s="2">
+      <c r="C634" s="4">
         <v>45844.452881944446</v>
       </c>
       <c r="D634" t="s">
@@ -16088,7 +16092,7 @@
       <c r="B635" t="s">
         <v>97</v>
       </c>
-      <c r="C635" s="2">
+      <c r="C635" s="4">
         <v>45849.534050925926</v>
       </c>
       <c r="D635" t="s">
@@ -16111,7 +16115,7 @@
       <c r="B636" t="s">
         <v>97</v>
       </c>
-      <c r="C636" s="2">
+      <c r="C636" s="4">
         <v>45858.556944444441</v>
       </c>
       <c r="D636" t="s">
@@ -16134,7 +16138,7 @@
       <c r="B637" t="s">
         <v>231</v>
       </c>
-      <c r="C637" s="2">
+      <c r="C637" s="4">
         <v>45870.436481481476</v>
       </c>
       <c r="D637" t="s">
@@ -16157,7 +16161,7 @@
       <c r="B638" t="s">
         <v>231</v>
       </c>
-      <c r="C638" s="2">
+      <c r="C638" s="4">
         <v>45872.41741898148</v>
       </c>
       <c r="D638" t="s">
@@ -16180,7 +16184,7 @@
       <c r="B639" t="s">
         <v>231</v>
       </c>
-      <c r="C639" s="2">
+      <c r="C639" s="4">
         <v>45875.481898148144</v>
       </c>
       <c r="D639" t="s">
@@ -16203,7 +16207,7 @@
       <c r="B640" t="s">
         <v>95</v>
       </c>
-      <c r="C640" s="2">
+      <c r="C640" s="4">
         <v>45828.532326388886</v>
       </c>
       <c r="D640" t="s">
@@ -16226,7 +16230,7 @@
       <c r="B641" t="s">
         <v>95</v>
       </c>
-      <c r="C641" s="2">
+      <c r="C641" s="4">
         <v>45837</v>
       </c>
       <c r="D641" t="s">
@@ -16249,7 +16253,7 @@
       <c r="B642" t="s">
         <v>95</v>
       </c>
-      <c r="C642" s="2">
+      <c r="C642" s="4">
         <v>45850.400729166664</v>
       </c>
       <c r="D642" t="s">
@@ -16272,7 +16276,7 @@
       <c r="B643" t="s">
         <v>116</v>
       </c>
-      <c r="C643" s="2">
+      <c r="C643" s="4">
         <v>45296</v>
       </c>
       <c r="D643" t="s">
@@ -16295,7 +16299,7 @@
       <c r="B644" t="s">
         <v>116</v>
       </c>
-      <c r="C644" s="2">
+      <c r="C644" s="4">
         <v>45300</v>
       </c>
       <c r="D644" t="s">
@@ -16318,7 +16322,7 @@
       <c r="B645" t="s">
         <v>116</v>
       </c>
-      <c r="C645" s="2">
+      <c r="C645" s="4">
         <v>45307</v>
       </c>
       <c r="D645" t="s">
@@ -16341,7 +16345,7 @@
       <c r="B646" t="s">
         <v>116</v>
       </c>
-      <c r="C646" s="2">
+      <c r="C646" s="4">
         <v>45314</v>
       </c>
       <c r="D646" t="s">
@@ -16364,7 +16368,7 @@
       <c r="B647" t="s">
         <v>116</v>
       </c>
-      <c r="C647" s="2">
+      <c r="C647" s="4">
         <v>45321</v>
       </c>
       <c r="D647" t="s">
@@ -16387,7 +16391,7 @@
       <c r="B648" t="s">
         <v>116</v>
       </c>
-      <c r="C648" s="2">
+      <c r="C648" s="4">
         <v>45328</v>
       </c>
       <c r="D648" t="s">
@@ -16410,7 +16414,7 @@
       <c r="B649" t="s">
         <v>116</v>
       </c>
-      <c r="C649" s="2">
+      <c r="C649" s="4">
         <v>45334</v>
       </c>
       <c r="D649" t="s">
@@ -16433,7 +16437,7 @@
       <c r="B650" t="s">
         <v>116</v>
       </c>
-      <c r="C650" s="2">
+      <c r="C650" s="4">
         <v>45350</v>
       </c>
       <c r="D650" t="s">
@@ -16456,7 +16460,7 @@
       <c r="B651" t="s">
         <v>116</v>
       </c>
-      <c r="C651" s="2">
+      <c r="C651" s="4">
         <v>45356</v>
       </c>
       <c r="D651" t="s">
@@ -16479,7 +16483,7 @@
       <c r="B652" t="s">
         <v>117</v>
       </c>
-      <c r="C652" s="2">
+      <c r="C652" s="4">
         <v>45317</v>
       </c>
       <c r="D652" t="s">
@@ -16502,7 +16506,7 @@
       <c r="B653" t="s">
         <v>117</v>
       </c>
-      <c r="C653" s="2">
+      <c r="C653" s="4">
         <v>45324</v>
       </c>
       <c r="D653" t="s">
@@ -16525,7 +16529,7 @@
       <c r="B654" t="s">
         <v>117</v>
       </c>
-      <c r="C654" s="2">
+      <c r="C654" s="4">
         <v>45331</v>
       </c>
       <c r="D654" t="s">
@@ -16548,7 +16552,7 @@
       <c r="B655" t="s">
         <v>117</v>
       </c>
-      <c r="C655" s="2">
+      <c r="C655" s="4">
         <v>45338</v>
       </c>
       <c r="D655" t="s">
@@ -16571,7 +16575,7 @@
       <c r="B656" t="s">
         <v>117</v>
       </c>
-      <c r="C656" s="2">
+      <c r="C656" s="4">
         <v>45343</v>
       </c>
       <c r="D656" t="s">
@@ -16594,7 +16598,7 @@
       <c r="B657" t="s">
         <v>117</v>
       </c>
-      <c r="C657" s="2">
+      <c r="C657" s="4">
         <v>45345</v>
       </c>
       <c r="D657" t="s">
@@ -16617,7 +16621,7 @@
       <c r="B658" t="s">
         <v>117</v>
       </c>
-      <c r="C658" s="2">
+      <c r="C658" s="4">
         <v>45352</v>
       </c>
       <c r="D658" t="s">
@@ -16640,7 +16644,7 @@
       <c r="B659" t="s">
         <v>117</v>
       </c>
-      <c r="C659" s="2">
+      <c r="C659" s="4">
         <v>45357</v>
       </c>
       <c r="D659" t="s">
@@ -16663,7 +16667,7 @@
       <c r="B660" t="s">
         <v>117</v>
       </c>
-      <c r="C660" s="2">
+      <c r="C660" s="4">
         <v>45357</v>
       </c>
       <c r="D660" t="s">
@@ -16686,7 +16690,7 @@
       <c r="B661" t="s">
         <v>117</v>
       </c>
-      <c r="C661" s="2">
+      <c r="C661" s="4">
         <v>45359</v>
       </c>
       <c r="D661" t="s">
@@ -16709,7 +16713,7 @@
       <c r="B662" t="s">
         <v>117</v>
       </c>
-      <c r="C662" s="2">
+      <c r="C662" s="4">
         <v>45364</v>
       </c>
       <c r="D662" t="s">
@@ -16732,7 +16736,7 @@
       <c r="B663" t="s">
         <v>117</v>
       </c>
-      <c r="C663" s="2">
+      <c r="C663" s="4">
         <v>45366</v>
       </c>
       <c r="D663" t="s">
@@ -16755,7 +16759,7 @@
       <c r="B664" t="s">
         <v>117</v>
       </c>
-      <c r="C664" s="2">
+      <c r="C664" s="4">
         <v>45371</v>
       </c>
       <c r="D664" t="s">
@@ -16778,7 +16782,7 @@
       <c r="B665" t="s">
         <v>117</v>
       </c>
-      <c r="C665" s="2">
+      <c r="C665" s="4">
         <v>45373</v>
       </c>
       <c r="D665" t="s">
@@ -16801,7 +16805,7 @@
       <c r="B666" t="s">
         <v>28</v>
       </c>
-      <c r="C666" s="2">
+      <c r="C666" s="4">
         <v>45723</v>
       </c>
       <c r="D666" t="s">
@@ -16824,7 +16828,7 @@
       <c r="B667" t="s">
         <v>28</v>
       </c>
-      <c r="C667" s="2">
+      <c r="C667" s="4">
         <v>45807.572453703702</v>
       </c>
       <c r="D667" t="s">
@@ -16847,7 +16851,7 @@
       <c r="B668" t="s">
         <v>28</v>
       </c>
-      <c r="C668" s="2">
+      <c r="C668" s="4">
         <v>45827</v>
       </c>
       <c r="D668" t="s">
@@ -16870,7 +16874,7 @@
       <c r="B669" t="s">
         <v>28</v>
       </c>
-      <c r="C669" s="2">
+      <c r="C669" s="4">
         <v>45840.428553240738</v>
       </c>
       <c r="D669" t="s">
@@ -16893,7 +16897,7 @@
       <c r="B670" t="s">
         <v>28</v>
       </c>
-      <c r="C670" s="2">
+      <c r="C670" s="4">
         <v>45842</v>
       </c>
       <c r="D670" t="s">
@@ -16916,7 +16920,7 @@
       <c r="B671" t="s">
         <v>28</v>
       </c>
-      <c r="C671" s="2">
+      <c r="C671" s="4">
         <v>45842.433749999997</v>
       </c>
       <c r="D671" t="s">
@@ -16939,7 +16943,7 @@
       <c r="B672" t="s">
         <v>28</v>
       </c>
-      <c r="C672" s="2">
+      <c r="C672" s="4">
         <v>45844.397974537038</v>
       </c>
       <c r="D672" t="s">
@@ -16962,7 +16966,7 @@
       <c r="B673" t="s">
         <v>28</v>
       </c>
-      <c r="C673" s="2">
+      <c r="C673" s="4">
         <v>45847.417199074072</v>
       </c>
       <c r="D673" t="s">
@@ -16985,7 +16989,7 @@
       <c r="B674" t="s">
         <v>28</v>
       </c>
-      <c r="C674" s="2">
+      <c r="C674" s="4">
         <v>45851.54650462963</v>
       </c>
       <c r="D674" t="s">
@@ -17008,7 +17012,7 @@
       <c r="B675" t="s">
         <v>28</v>
       </c>
-      <c r="C675" s="2">
+      <c r="C675" s="4">
         <v>45854.474270833329</v>
       </c>
       <c r="D675" t="s">
@@ -17031,7 +17035,7 @@
       <c r="B676" t="s">
         <v>28</v>
       </c>
-      <c r="C676" s="2">
+      <c r="C676" s="4">
         <v>45858.555185185185</v>
       </c>
       <c r="D676" t="s">
@@ -17054,7 +17058,7 @@
       <c r="B677" t="s">
         <v>28</v>
       </c>
-      <c r="C677" s="2">
+      <c r="C677" s="4">
         <v>45865.348599537036</v>
       </c>
       <c r="D677" t="s">
@@ -17077,7 +17081,7 @@
       <c r="B678" t="s">
         <v>83</v>
       </c>
-      <c r="C678" s="2">
+      <c r="C678" s="4">
         <v>45728.451828703699</v>
       </c>
       <c r="D678" t="s">
@@ -17100,7 +17104,7 @@
       <c r="B679" t="s">
         <v>83</v>
       </c>
-      <c r="C679" s="2">
+      <c r="C679" s="4">
         <v>45809.403622685182</v>
       </c>
       <c r="D679" t="s">
@@ -17123,7 +17127,7 @@
       <c r="B680" t="s">
         <v>83</v>
       </c>
-      <c r="C680" s="2">
+      <c r="C680" s="4">
         <v>45815.452858796292</v>
       </c>
       <c r="D680" t="s">
@@ -17146,7 +17150,7 @@
       <c r="B681" t="s">
         <v>83</v>
       </c>
-      <c r="C681" s="2">
+      <c r="C681" s="4">
         <v>45822.463680555556</v>
       </c>
       <c r="D681" t="s">
@@ -17169,7 +17173,7 @@
       <c r="B682" t="s">
         <v>83</v>
       </c>
-      <c r="C682" s="2">
+      <c r="C682" s="4">
         <v>45826.591446759259</v>
       </c>
       <c r="D682" t="s">
@@ -17192,7 +17196,7 @@
       <c r="B683" t="s">
         <v>83</v>
       </c>
-      <c r="C683" s="2">
+      <c r="C683" s="4">
         <v>45833.455775462964</v>
       </c>
       <c r="D683" t="s">
@@ -17215,7 +17219,7 @@
       <c r="B684" t="s">
         <v>83</v>
       </c>
-      <c r="C684" s="2">
+      <c r="C684" s="4">
         <v>45843.370069444441</v>
       </c>
       <c r="D684" t="s">
@@ -17238,7 +17242,7 @@
       <c r="B685" t="s">
         <v>83</v>
       </c>
-      <c r="C685" s="2">
+      <c r="C685" s="4">
         <v>45847.43237268518</v>
       </c>
       <c r="D685" t="s">
@@ -17261,7 +17265,7 @@
       <c r="B686" t="s">
         <v>104</v>
       </c>
-      <c r="C686" s="2">
+      <c r="C686" s="4">
         <v>45841.407118055555</v>
       </c>
       <c r="D686" t="s">
@@ -17284,7 +17288,7 @@
       <c r="B687" t="s">
         <v>113</v>
       </c>
-      <c r="C687" s="2">
+      <c r="C687" s="4">
         <v>45486</v>
       </c>
       <c r="D687" t="s">
@@ -17307,7 +17311,7 @@
       <c r="B688" t="s">
         <v>113</v>
       </c>
-      <c r="C688" s="2">
+      <c r="C688" s="4">
         <v>45490</v>
       </c>
       <c r="D688" t="s">
@@ -17330,7 +17334,7 @@
       <c r="B689" t="s">
         <v>113</v>
       </c>
-      <c r="C689" s="2">
+      <c r="C689" s="4">
         <v>45493</v>
       </c>
       <c r="D689" t="s">
@@ -17353,7 +17357,7 @@
       <c r="B690" t="s">
         <v>113</v>
       </c>
-      <c r="C690" s="2">
+      <c r="C690" s="4">
         <v>45493</v>
       </c>
       <c r="D690" t="s">
@@ -17376,7 +17380,7 @@
       <c r="B691" t="s">
         <v>113</v>
       </c>
-      <c r="C691" s="2">
+      <c r="C691" s="4">
         <v>45500</v>
       </c>
       <c r="D691" t="s">
@@ -17399,7 +17403,7 @@
       <c r="B692" t="s">
         <v>113</v>
       </c>
-      <c r="C692" s="2">
+      <c r="C692" s="4">
         <v>45504.400324074071</v>
       </c>
       <c r="D692" t="s">
@@ -17422,7 +17426,7 @@
       <c r="B693" t="s">
         <v>113</v>
       </c>
-      <c r="C693" s="2">
+      <c r="C693" s="4">
         <v>45507.36383101852</v>
       </c>
       <c r="D693" t="s">
@@ -17445,7 +17449,7 @@
       <c r="B694" t="s">
         <v>113</v>
       </c>
-      <c r="C694" s="2">
+      <c r="C694" s="4">
         <v>45508.595300925925</v>
       </c>
       <c r="D694" t="s">
@@ -17468,7 +17472,7 @@
       <c r="B695" t="s">
         <v>113</v>
       </c>
-      <c r="C695" s="2">
+      <c r="C695" s="4">
         <v>45511.439780092587</v>
       </c>
       <c r="D695" t="s">
@@ -17491,7 +17495,7 @@
       <c r="B696" t="s">
         <v>113</v>
       </c>
-      <c r="C696" s="2">
+      <c r="C696" s="4">
         <v>45511.738761574074</v>
       </c>
       <c r="D696" t="s">
@@ -17514,7 +17518,7 @@
       <c r="B697" t="s">
         <v>113</v>
       </c>
-      <c r="C697" s="2">
+      <c r="C697" s="4">
         <v>45514.449490740742</v>
       </c>
       <c r="D697" t="s">
@@ -17537,7 +17541,7 @@
       <c r="B698" t="s">
         <v>113</v>
       </c>
-      <c r="C698" s="2">
+      <c r="C698" s="4">
         <v>45515.351446759254</v>
       </c>
       <c r="D698" t="s">
@@ -17560,7 +17564,7 @@
       <c r="B699" t="s">
         <v>113</v>
       </c>
-      <c r="C699" s="2">
+      <c r="C699" s="4">
         <v>45518.426354166666</v>
       </c>
       <c r="D699" t="s">
@@ -17583,7 +17587,7 @@
       <c r="B700" t="s">
         <v>113</v>
       </c>
-      <c r="C700" s="2">
+      <c r="C700" s="4">
         <v>45521.387256944443</v>
       </c>
       <c r="D700" t="s">
@@ -17606,7 +17610,7 @@
       <c r="B701" t="s">
         <v>113</v>
       </c>
-      <c r="C701" s="2">
+      <c r="C701" s="4">
         <v>45524</v>
       </c>
       <c r="D701" t="s">
@@ -17629,7 +17633,7 @@
       <c r="B702" t="s">
         <v>113</v>
       </c>
-      <c r="C702" s="2">
+      <c r="C702" s="4">
         <v>45525.419756944444</v>
       </c>
       <c r="D702" t="s">
@@ -17652,7 +17656,7 @@
       <c r="B703" t="s">
         <v>113</v>
       </c>
-      <c r="C703" s="2">
+      <c r="C703" s="4">
         <v>45528.39403935185</v>
       </c>
       <c r="D703" t="s">
@@ -17675,7 +17679,7 @@
       <c r="B704" t="s">
         <v>113</v>
       </c>
-      <c r="C704" s="2">
+      <c r="C704" s="4">
         <v>45528.397210648145</v>
       </c>
       <c r="D704" t="s">
@@ -17698,7 +17702,7 @@
       <c r="B705" t="s">
         <v>113</v>
       </c>
-      <c r="C705" s="2">
+      <c r="C705" s="4">
         <v>45532.414675925924</v>
       </c>
       <c r="D705" t="s">
@@ -17721,7 +17725,7 @@
       <c r="B706" t="s">
         <v>113</v>
       </c>
-      <c r="C706" s="2">
+      <c r="C706" s="4">
         <v>45535</v>
       </c>
       <c r="D706" t="s">
@@ -17744,7 +17748,7 @@
       <c r="B707" t="s">
         <v>113</v>
       </c>
-      <c r="C707" s="2">
+      <c r="C707" s="4">
         <v>45535.375659722224</v>
       </c>
       <c r="D707" t="s">
@@ -17767,7 +17771,7 @@
       <c r="B708" t="s">
         <v>113</v>
       </c>
-      <c r="C708" s="2">
+      <c r="C708" s="4">
         <v>45535.396377314813</v>
       </c>
       <c r="D708" t="s">
@@ -17790,7 +17794,7 @@
       <c r="B709" t="s">
         <v>113</v>
       </c>
-      <c r="C709" s="2">
+      <c r="C709" s="4">
         <v>45536</v>
       </c>
       <c r="D709" t="s">
@@ -17813,7 +17817,7 @@
       <c r="B710" t="s">
         <v>113</v>
       </c>
-      <c r="C710" s="2">
+      <c r="C710" s="4">
         <v>45536.511307870365</v>
       </c>
       <c r="D710" t="s">
@@ -17836,7 +17840,7 @@
       <c r="B711" t="s">
         <v>113</v>
       </c>
-      <c r="C711" s="2">
+      <c r="C711" s="4">
         <v>45539</v>
       </c>
       <c r="D711" t="s">
@@ -17859,7 +17863,7 @@
       <c r="B712" t="s">
         <v>113</v>
       </c>
-      <c r="C712" s="2">
+      <c r="C712" s="4">
         <v>45539.412326388891</v>
       </c>
       <c r="D712" t="s">
@@ -17882,7 +17886,7 @@
       <c r="B713" t="s">
         <v>113</v>
       </c>
-      <c r="C713" s="2">
+      <c r="C713" s="4">
         <v>45542</v>
       </c>
       <c r="D713" t="s">
@@ -17905,7 +17909,7 @@
       <c r="B714" t="s">
         <v>113</v>
       </c>
-      <c r="C714" s="2">
+      <c r="C714" s="4">
         <v>45542.434201388889</v>
       </c>
       <c r="D714" t="s">
@@ -17928,7 +17932,7 @@
       <c r="B715" t="s">
         <v>113</v>
       </c>
-      <c r="C715" s="2">
+      <c r="C715" s="4">
         <v>45542.615046296298</v>
       </c>
       <c r="D715" t="s">
@@ -17951,7 +17955,7 @@
       <c r="B716" t="s">
         <v>113</v>
       </c>
-      <c r="C716" s="2">
+      <c r="C716" s="4">
         <v>45546.410300925927</v>
       </c>
       <c r="D716" t="s">
@@ -17974,7 +17978,7 @@
       <c r="B717" t="s">
         <v>113</v>
       </c>
-      <c r="C717" s="2">
+      <c r="C717" s="4">
         <v>45547.322060185186</v>
       </c>
       <c r="D717" t="s">
@@ -17997,7 +18001,7 @@
       <c r="B718" t="s">
         <v>113</v>
       </c>
-      <c r="C718" s="2">
+      <c r="C718" s="4">
         <v>45550</v>
       </c>
       <c r="D718" t="s">
@@ -18020,7 +18024,7 @@
       <c r="B719" t="s">
         <v>113</v>
       </c>
-      <c r="C719" s="2">
+      <c r="C719" s="4">
         <v>45550.435150462959</v>
       </c>
       <c r="D719" t="s">
@@ -18043,7 +18047,7 @@
       <c r="B720" t="s">
         <v>113</v>
       </c>
-      <c r="C720" s="2">
+      <c r="C720" s="4">
         <v>45828</v>
       </c>
       <c r="D720" t="s">
@@ -18066,7 +18070,7 @@
       <c r="B721" t="s">
         <v>113</v>
       </c>
-      <c r="C721" s="2">
+      <c r="C721" s="4">
         <v>45833.622210648144</v>
       </c>
       <c r="D721" t="s">
@@ -18089,7 +18093,7 @@
       <c r="B722" t="s">
         <v>113</v>
       </c>
-      <c r="C722" s="2">
+      <c r="C722" s="4">
         <v>45856.415729166663</v>
       </c>
       <c r="D722" t="s">
@@ -18112,7 +18116,7 @@
       <c r="B723" t="s">
         <v>113</v>
       </c>
-      <c r="C723" s="2">
+      <c r="C723" s="4">
         <v>45866</v>
       </c>
       <c r="D723" t="s">
@@ -18135,7 +18139,7 @@
       <c r="B724" t="s">
         <v>119</v>
       </c>
-      <c r="C724" s="2">
+      <c r="C724" s="4">
         <v>45344</v>
       </c>
       <c r="D724" t="s">
@@ -18158,7 +18162,7 @@
       <c r="B725" t="s">
         <v>119</v>
       </c>
-      <c r="C725" s="2">
+      <c r="C725" s="4">
         <v>45351</v>
       </c>
       <c r="D725" t="s">
@@ -18181,7 +18185,7 @@
       <c r="B726" t="s">
         <v>119</v>
       </c>
-      <c r="C726" s="2">
+      <c r="C726" s="4">
         <v>45358</v>
       </c>
       <c r="D726" t="s">
@@ -18204,7 +18208,7 @@
       <c r="B727" t="s">
         <v>119</v>
       </c>
-      <c r="C727" s="2">
+      <c r="C727" s="4">
         <v>45358</v>
       </c>
       <c r="D727" t="s">
@@ -18227,7 +18231,7 @@
       <c r="B728" t="s">
         <v>119</v>
       </c>
-      <c r="C728" s="2">
+      <c r="C728" s="4">
         <v>45365</v>
       </c>
       <c r="D728" t="s">
@@ -18250,7 +18254,7 @@
       <c r="B729" t="s">
         <v>119</v>
       </c>
-      <c r="C729" s="2">
+      <c r="C729" s="4">
         <v>45372</v>
       </c>
       <c r="D729" t="s">
@@ -18273,7 +18277,7 @@
       <c r="B730" t="s">
         <v>29</v>
       </c>
-      <c r="C730" s="2">
+      <c r="C730" s="4">
         <v>45742.383043981477</v>
       </c>
       <c r="D730" t="s">
@@ -18296,7 +18300,7 @@
       <c r="B731" t="s">
         <v>29</v>
       </c>
-      <c r="C731" s="2">
+      <c r="C731" s="4">
         <v>45744.424583333333</v>
       </c>
       <c r="D731" t="s">
@@ -18319,7 +18323,7 @@
       <c r="B732" t="s">
         <v>29</v>
       </c>
-      <c r="C732" s="2">
+      <c r="C732" s="4">
         <v>45746.422453703701</v>
       </c>
       <c r="D732" t="s">
@@ -18342,7 +18346,7 @@
       <c r="B733" t="s">
         <v>29</v>
       </c>
-      <c r="C733" s="2">
+      <c r="C733" s="4">
         <v>45840.397094907406</v>
       </c>
       <c r="D733" t="s">
@@ -18365,7 +18369,7 @@
       <c r="B734" t="s">
         <v>29</v>
       </c>
-      <c r="C734" s="2">
+      <c r="C734" s="4">
         <v>45844.409085648149</v>
       </c>
       <c r="D734" t="s">
@@ -18388,7 +18392,7 @@
       <c r="B735" t="s">
         <v>29</v>
       </c>
-      <c r="C735" s="2">
+      <c r="C735" s="4">
         <v>45847.417581018519</v>
       </c>
       <c r="D735" t="s">
@@ -18411,7 +18415,7 @@
       <c r="B736" t="s">
         <v>29</v>
       </c>
-      <c r="C736" s="2">
+      <c r="C736" s="4">
         <v>45849.510393518518</v>
       </c>
       <c r="D736" t="s">
@@ -18434,7 +18438,7 @@
       <c r="B737" t="s">
         <v>29</v>
       </c>
-      <c r="C737" s="2">
+      <c r="C737" s="4">
         <v>45851.415173611109</v>
       </c>
       <c r="D737" t="s">
@@ -18457,7 +18461,7 @@
       <c r="B738" t="s">
         <v>29</v>
       </c>
-      <c r="C738" s="2">
+      <c r="C738" s="4">
         <v>45858.560833333329</v>
       </c>
       <c r="D738" t="s">
@@ -18480,7 +18484,7 @@
       <c r="B739" t="s">
         <v>29</v>
       </c>
-      <c r="C739" s="2">
+      <c r="C739" s="4">
         <v>45858.589155092588</v>
       </c>
       <c r="D739" t="s">
@@ -18503,7 +18507,7 @@
       <c r="B740" t="s">
         <v>29</v>
       </c>
-      <c r="C740" s="2">
+      <c r="C740" s="4">
         <v>45863.48296296296</v>
       </c>
       <c r="D740" t="s">
@@ -18526,7 +18530,7 @@
       <c r="B741" t="s">
         <v>29</v>
       </c>
-      <c r="C741" s="2">
+      <c r="C741" s="4">
         <v>45865.350972222222</v>
       </c>
       <c r="D741" t="s">
@@ -18549,7 +18553,7 @@
       <c r="B742" t="s">
         <v>29</v>
       </c>
-      <c r="C742" s="2">
+      <c r="C742" s="4">
         <v>45870.43650462963</v>
       </c>
       <c r="D742" t="s">
@@ -18572,7 +18576,7 @@
       <c r="B743" t="s">
         <v>29</v>
       </c>
-      <c r="C743" s="2">
+      <c r="C743" s="4">
         <v>45871.49796296296</v>
       </c>
       <c r="D743" t="s">
@@ -18595,7 +18599,7 @@
       <c r="B744" t="s">
         <v>29</v>
       </c>
-      <c r="C744" s="2">
+      <c r="C744" s="4">
         <v>45871.521574074075</v>
       </c>
       <c r="D744" t="s">
@@ -18618,7 +18622,7 @@
       <c r="B745" t="s">
         <v>29</v>
       </c>
-      <c r="C745" s="2">
+      <c r="C745" s="4">
         <v>45872.371319444443</v>
       </c>
       <c r="D745" t="s">
@@ -18641,7 +18645,7 @@
       <c r="B746" t="s">
         <v>29</v>
       </c>
-      <c r="C746" s="2">
+      <c r="C746" s="4">
         <v>45875.486886574072</v>
       </c>
       <c r="D746" t="s">
@@ -18664,7 +18668,7 @@
       <c r="B747" t="s">
         <v>110</v>
       </c>
-      <c r="C747" s="2">
+      <c r="C747" s="4">
         <v>45576.322442129625</v>
       </c>
       <c r="D747" t="s">
@@ -18687,7 +18691,7 @@
       <c r="B748" t="s">
         <v>110</v>
       </c>
-      <c r="C748" s="2">
+      <c r="C748" s="4">
         <v>45578.326319444444</v>
       </c>
       <c r="D748" t="s">
@@ -18710,7 +18714,7 @@
       <c r="B749" t="s">
         <v>110</v>
       </c>
-      <c r="C749" s="2">
+      <c r="C749" s="4">
         <v>45583.41438657407</v>
       </c>
       <c r="D749" t="s">
@@ -18733,7 +18737,7 @@
       <c r="B750" t="s">
         <v>110</v>
       </c>
-      <c r="C750" s="2">
+      <c r="C750" s="4">
         <v>45585</v>
       </c>
       <c r="D750" t="s">
@@ -18756,7 +18760,7 @@
       <c r="B751" t="s">
         <v>110</v>
       </c>
-      <c r="C751" s="2">
+      <c r="C751" s="4">
         <v>45585.377824074072</v>
       </c>
       <c r="D751" t="s">
@@ -18779,7 +18783,7 @@
       <c r="B752" t="s">
         <v>110</v>
       </c>
-      <c r="C752" s="2">
+      <c r="C752" s="4">
         <v>45589.350578703699</v>
       </c>
       <c r="D752" t="s">
@@ -18802,7 +18806,7 @@
       <c r="B753" t="s">
         <v>110</v>
       </c>
-      <c r="C753" s="2">
+      <c r="C753" s="4">
         <v>45590.400312500002</v>
       </c>
       <c r="D753" t="s">
@@ -18825,7 +18829,7 @@
       <c r="B754" t="s">
         <v>110</v>
       </c>
-      <c r="C754" s="2">
+      <c r="C754" s="4">
         <v>45592.318645833329</v>
       </c>
       <c r="D754" t="s">
@@ -18848,7 +18852,7 @@
       <c r="B755" t="s">
         <v>110</v>
       </c>
-      <c r="C755" s="2">
+      <c r="C755" s="4">
         <v>45597.363958333328</v>
       </c>
       <c r="D755" t="s">
@@ -18871,7 +18875,7 @@
       <c r="B756" t="s">
         <v>110</v>
       </c>
-      <c r="C756" s="2">
+      <c r="C756" s="4">
         <v>45599.366689814815</v>
       </c>
       <c r="D756" t="s">
@@ -18894,7 +18898,7 @@
       <c r="B757" t="s">
         <v>110</v>
       </c>
-      <c r="C757" s="2">
+      <c r="C757" s="4">
         <v>45604.356678240736</v>
       </c>
       <c r="D757" t="s">
@@ -18917,7 +18921,7 @@
       <c r="B758" t="s">
         <v>110</v>
       </c>
-      <c r="C758" s="2">
+      <c r="C758" s="4">
         <v>45606.396145833329</v>
       </c>
       <c r="D758" t="s">
@@ -18940,7 +18944,7 @@
       <c r="B759" t="s">
         <v>110</v>
       </c>
-      <c r="C759" s="2">
+      <c r="C759" s="4">
         <v>45611.398483796293</v>
       </c>
       <c r="D759" t="s">
@@ -18963,7 +18967,7 @@
       <c r="B760" t="s">
         <v>110</v>
       </c>
-      <c r="C760" s="2">
+      <c r="C760" s="4">
         <v>45613.409537037034</v>
       </c>
       <c r="D760" t="s">
@@ -18986,7 +18990,7 @@
       <c r="B761" t="s">
         <v>110</v>
       </c>
-      <c r="C761" s="2">
+      <c r="C761" s="4">
         <v>45618.410648148143</v>
       </c>
       <c r="D761" t="s">
@@ -19009,7 +19013,7 @@
       <c r="B762" t="s">
         <v>110</v>
       </c>
-      <c r="C762" s="2">
+      <c r="C762" s="4">
         <v>45620.376469907409</v>
       </c>
       <c r="D762" t="s">
@@ -19032,7 +19036,7 @@
       <c r="B763" t="s">
         <v>110</v>
       </c>
-      <c r="C763" s="2">
+      <c r="C763" s="4">
         <v>45625.404166666667</v>
       </c>
       <c r="D763" t="s">
@@ -19055,7 +19059,7 @@
       <c r="B764" t="s">
         <v>110</v>
       </c>
-      <c r="C764" s="2">
+      <c r="C764" s="4">
         <v>45631.295439814814</v>
       </c>
       <c r="D764" t="s">
@@ -19078,7 +19082,7 @@
       <c r="B765" t="s">
         <v>110</v>
       </c>
-      <c r="C765" s="2">
+      <c r="C765" s="4">
         <v>45632.432152777779</v>
       </c>
       <c r="D765" t="s">
@@ -19101,7 +19105,7 @@
       <c r="B766" t="s">
         <v>110</v>
       </c>
-      <c r="C766" s="2">
+      <c r="C766" s="4">
         <v>45634.467002314814</v>
       </c>
       <c r="D766" t="s">
@@ -19124,7 +19128,7 @@
       <c r="B767" t="s">
         <v>110</v>
       </c>
-      <c r="C767" s="2">
+      <c r="C767" s="4">
         <v>45639.427731481483</v>
       </c>
       <c r="D767" t="s">
@@ -19147,7 +19151,7 @@
       <c r="B768" t="s">
         <v>110</v>
       </c>
-      <c r="C768" s="2">
+      <c r="C768" s="4">
         <v>45641.407673611109</v>
       </c>
       <c r="D768" t="s">
@@ -19170,7 +19174,7 @@
       <c r="B769" t="s">
         <v>110</v>
       </c>
-      <c r="C769" s="2">
+      <c r="C769" s="4">
         <v>45646.390069444446</v>
       </c>
       <c r="D769" t="s">
@@ -19193,7 +19197,7 @@
       <c r="B770" t="s">
         <v>122</v>
       </c>
-      <c r="C770" s="2">
+      <c r="C770" s="4">
         <v>45373</v>
       </c>
       <c r="D770" t="s">
@@ -19216,7 +19220,7 @@
       <c r="B771" t="s">
         <v>122</v>
       </c>
-      <c r="C771" s="2">
+      <c r="C771" s="4">
         <v>45378</v>
       </c>
       <c r="D771" t="s">
@@ -19239,7 +19243,7 @@
       <c r="B772" t="s">
         <v>122</v>
       </c>
-      <c r="C772" s="2">
+      <c r="C772" s="4">
         <v>45384</v>
       </c>
       <c r="D772" t="s">
@@ -19262,7 +19266,7 @@
       <c r="B773" t="s">
         <v>122</v>
       </c>
-      <c r="C773" s="2">
+      <c r="C773" s="4">
         <v>45385</v>
       </c>
       <c r="D773" t="s">
@@ -19285,7 +19289,7 @@
       <c r="B774" t="s">
         <v>122</v>
       </c>
-      <c r="C774" s="2">
+      <c r="C774" s="4">
         <v>45385</v>
       </c>
       <c r="D774" t="s">
@@ -19308,7 +19312,7 @@
       <c r="B775" t="s">
         <v>122</v>
       </c>
-      <c r="C775" s="2">
+      <c r="C775" s="4">
         <v>45392</v>
       </c>
       <c r="D775" t="s">
@@ -19331,7 +19335,7 @@
       <c r="B776" t="s">
         <v>122</v>
       </c>
-      <c r="C776" s="2">
+      <c r="C776" s="4">
         <v>45392</v>
       </c>
       <c r="D776" t="s">
@@ -19354,7 +19358,7 @@
       <c r="B777" t="s">
         <v>122</v>
       </c>
-      <c r="C777" s="2">
+      <c r="C777" s="4">
         <v>45392</v>
       </c>
       <c r="D777" t="s">
@@ -19377,7 +19381,7 @@
       <c r="B778" t="s">
         <v>122</v>
       </c>
-      <c r="C778" s="2">
+      <c r="C778" s="4">
         <v>45408</v>
       </c>
       <c r="D778" t="s">
@@ -19400,7 +19404,7 @@
       <c r="B779" t="s">
         <v>122</v>
       </c>
-      <c r="C779" s="2">
+      <c r="C779" s="4">
         <v>45408</v>
       </c>
       <c r="D779" t="s">
@@ -19423,7 +19427,7 @@
       <c r="B780" t="s">
         <v>122</v>
       </c>
-      <c r="C780" s="2">
+      <c r="C780" s="4">
         <v>45410</v>
       </c>
       <c r="D780" t="s">
@@ -19446,7 +19450,7 @@
       <c r="B781" t="s">
         <v>122</v>
       </c>
-      <c r="C781" s="2">
+      <c r="C781" s="4">
         <v>45415</v>
       </c>
       <c r="D781" t="s">
@@ -19469,7 +19473,7 @@
       <c r="B782" t="s">
         <v>122</v>
       </c>
-      <c r="C782" s="2">
+      <c r="C782" s="4">
         <v>45415</v>
       </c>
       <c r="D782" t="s">
@@ -19492,7 +19496,7 @@
       <c r="B783" t="s">
         <v>122</v>
       </c>
-      <c r="C783" s="2">
+      <c r="C783" s="4">
         <v>45415</v>
       </c>
       <c r="D783" t="s">
@@ -19515,7 +19519,7 @@
       <c r="B784" t="s">
         <v>122</v>
       </c>
-      <c r="C784" s="2">
+      <c r="C784" s="4">
         <v>45417</v>
       </c>
       <c r="D784" t="s">
@@ -19538,7 +19542,7 @@
       <c r="B785" t="s">
         <v>122</v>
       </c>
-      <c r="C785" s="2">
+      <c r="C785" s="4">
         <v>45422</v>
       </c>
       <c r="D785" t="s">
@@ -19561,7 +19565,7 @@
       <c r="B786" t="s">
         <v>122</v>
       </c>
-      <c r="C786" s="2">
+      <c r="C786" s="4">
         <v>45424</v>
       </c>
       <c r="D786" t="s">
@@ -19584,7 +19588,7 @@
       <c r="B787" t="s">
         <v>122</v>
       </c>
-      <c r="C787" s="2">
+      <c r="C787" s="4">
         <v>45429</v>
       </c>
       <c r="D787" t="s">
@@ -19607,7 +19611,7 @@
       <c r="B788" t="s">
         <v>122</v>
       </c>
-      <c r="C788" s="2">
+      <c r="C788" s="4">
         <v>45429</v>
       </c>
       <c r="D788" t="s">
@@ -19630,7 +19634,7 @@
       <c r="B789" t="s">
         <v>122</v>
       </c>
-      <c r="C789" s="2">
+      <c r="C789" s="4">
         <v>45429</v>
       </c>
       <c r="D789" t="s">
@@ -19653,7 +19657,7 @@
       <c r="B790" t="s">
         <v>122</v>
       </c>
-      <c r="C790" s="2">
+      <c r="C790" s="4">
         <v>45429</v>
       </c>
       <c r="D790" t="s">
@@ -19676,7 +19680,7 @@
       <c r="B791" t="s">
         <v>122</v>
       </c>
-      <c r="C791" s="2">
+      <c r="C791" s="4">
         <v>45436</v>
       </c>
       <c r="D791" t="s">
@@ -19699,7 +19703,7 @@
       <c r="B792" t="s">
         <v>122</v>
       </c>
-      <c r="C792" s="2">
+      <c r="C792" s="4">
         <v>45436</v>
       </c>
       <c r="D792" t="s">
@@ -19722,7 +19726,7 @@
       <c r="B793" t="s">
         <v>122</v>
       </c>
-      <c r="C793" s="2">
+      <c r="C793" s="4">
         <v>45438</v>
       </c>
       <c r="D793" t="s">
@@ -19745,7 +19749,7 @@
       <c r="B794" t="s">
         <v>122</v>
       </c>
-      <c r="C794" s="2">
+      <c r="C794" s="4">
         <v>45442</v>
       </c>
       <c r="D794" t="s">
@@ -19768,7 +19772,7 @@
       <c r="B795" t="s">
         <v>122</v>
       </c>
-      <c r="C795" s="2">
+      <c r="C795" s="4">
         <v>45445</v>
       </c>
       <c r="D795" t="s">
@@ -19791,7 +19795,7 @@
       <c r="B796" t="s">
         <v>122</v>
       </c>
-      <c r="C796" s="2">
+      <c r="C796" s="4">
         <v>45445</v>
       </c>
       <c r="D796" t="s">
@@ -19814,7 +19818,7 @@
       <c r="B797" t="s">
         <v>122</v>
       </c>
-      <c r="C797" s="2">
+      <c r="C797" s="4">
         <v>45450</v>
       </c>
       <c r="D797" t="s">
@@ -19837,7 +19841,7 @@
       <c r="B798" t="s">
         <v>122</v>
       </c>
-      <c r="C798" s="2">
+      <c r="C798" s="4">
         <v>45452</v>
       </c>
       <c r="D798" t="s">
@@ -19860,7 +19864,7 @@
       <c r="B799" t="s">
         <v>122</v>
       </c>
-      <c r="C799" s="2">
+      <c r="C799" s="4">
         <v>45452</v>
       </c>
       <c r="D799" t="s">
@@ -19883,7 +19887,7 @@
       <c r="B800" t="s">
         <v>122</v>
       </c>
-      <c r="C800" s="2">
+      <c r="C800" s="4">
         <v>45459</v>
       </c>
       <c r="D800" t="s">
@@ -19906,7 +19910,7 @@
       <c r="B801" t="s">
         <v>20</v>
       </c>
-      <c r="C801" s="2">
+      <c r="C801" s="4">
         <v>45324</v>
       </c>
       <c r="D801" t="s">
@@ -19929,7 +19933,7 @@
       <c r="B802" t="s">
         <v>20</v>
       </c>
-      <c r="C802" s="2">
+      <c r="C802" s="4">
         <v>45324</v>
       </c>
       <c r="D802" t="s">
@@ -19952,7 +19956,7 @@
       <c r="B803" t="s">
         <v>20</v>
       </c>
-      <c r="C803" s="2">
+      <c r="C803" s="4">
         <v>45331</v>
       </c>
       <c r="D803" t="s">
@@ -19975,7 +19979,7 @@
       <c r="B804" t="s">
         <v>20</v>
       </c>
-      <c r="C804" s="2">
+      <c r="C804" s="4">
         <v>45366</v>
       </c>
       <c r="D804" t="s">
@@ -19998,7 +20002,7 @@
       <c r="B805" t="s">
         <v>20</v>
       </c>
-      <c r="C805" s="2">
+      <c r="C805" s="4">
         <v>45390</v>
       </c>
       <c r="D805" t="s">
@@ -20021,7 +20025,7 @@
       <c r="B806" t="s">
         <v>20</v>
       </c>
-      <c r="C806" s="2">
+      <c r="C806" s="4">
         <v>45529.645949074074</v>
       </c>
       <c r="D806" t="s">
@@ -20044,7 +20048,7 @@
       <c r="B807" t="s">
         <v>232</v>
       </c>
-      <c r="C807" s="2">
+      <c r="C807" s="4">
         <v>45799</v>
       </c>
       <c r="D807" t="s">
@@ -20067,7 +20071,7 @@
       <c r="B808" t="s">
         <v>232</v>
       </c>
-      <c r="C808" s="2">
+      <c r="C808" s="4">
         <v>45863</v>
       </c>
       <c r="D808" t="s">
@@ -20090,7 +20094,7 @@
       <c r="B809" t="s">
         <v>233</v>
       </c>
-      <c r="C809" s="2">
+      <c r="C809" s="4">
         <v>45875.492118055554</v>
       </c>
       <c r="D809" t="s">
@@ -20113,7 +20117,7 @@
       <c r="B810" t="s">
         <v>39</v>
       </c>
-      <c r="C810" s="2">
+      <c r="C810" s="4">
         <v>45840.396122685182</v>
       </c>
       <c r="D810" t="s">
@@ -20136,7 +20140,7 @@
       <c r="B811" t="s">
         <v>39</v>
       </c>
-      <c r="C811" s="2">
+      <c r="C811" s="4">
         <v>45841.593726851846</v>
       </c>
       <c r="D811" t="s">
@@ -20159,7 +20163,7 @@
       <c r="B812" t="s">
         <v>39</v>
       </c>
-      <c r="C812" s="2">
+      <c r="C812" s="4">
         <v>45875.461087962962</v>
       </c>
       <c r="D812" t="s">
@@ -20182,7 +20186,7 @@
       <c r="B813" t="s">
         <v>118</v>
       </c>
-      <c r="C813" s="2">
+      <c r="C813" s="4">
         <v>45334</v>
       </c>
       <c r="D813" t="s">
@@ -20205,7 +20209,7 @@
       <c r="B814" t="s">
         <v>118</v>
       </c>
-      <c r="C814" s="2">
+      <c r="C814" s="4">
         <v>45343</v>
       </c>
       <c r="D814" t="s">
@@ -20228,7 +20232,7 @@
       <c r="B815" t="s">
         <v>118</v>
       </c>
-      <c r="C815" s="2">
+      <c r="C815" s="4">
         <v>45350</v>
       </c>
       <c r="D815" t="s">
@@ -20251,7 +20255,7 @@
       <c r="B816" t="s">
         <v>118</v>
       </c>
-      <c r="C816" s="2">
+      <c r="C816" s="4">
         <v>45357</v>
       </c>
       <c r="D816" t="s">
@@ -20274,7 +20278,7 @@
       <c r="B817" t="s">
         <v>118</v>
       </c>
-      <c r="C817" s="2">
+      <c r="C817" s="4">
         <v>45357</v>
       </c>
       <c r="D817" t="s">
@@ -20297,7 +20301,7 @@
       <c r="B818" t="s">
         <v>118</v>
       </c>
-      <c r="C818" s="2">
+      <c r="C818" s="4">
         <v>45379</v>
       </c>
       <c r="D818" t="s">
@@ -20320,7 +20324,7 @@
       <c r="B819" t="s">
         <v>118</v>
       </c>
-      <c r="C819" s="2">
+      <c r="C819" s="4">
         <v>45454</v>
       </c>
       <c r="D819" t="s">
@@ -20343,7 +20347,7 @@
       <c r="B820" t="s">
         <v>118</v>
       </c>
-      <c r="C820" s="2">
+      <c r="C820" s="4">
         <v>45519</v>
       </c>
       <c r="D820" t="s">
@@ -20366,7 +20370,7 @@
       <c r="B821" t="s">
         <v>118</v>
       </c>
-      <c r="C821" s="2">
+      <c r="C821" s="4">
         <v>45520</v>
       </c>
       <c r="D821" t="s">
@@ -20389,7 +20393,7 @@
       <c r="B822" t="s">
         <v>118</v>
       </c>
-      <c r="C822" s="2">
+      <c r="C822" s="4">
         <v>45558</v>
       </c>
       <c r="D822" t="s">
@@ -20412,7 +20416,7 @@
       <c r="B823" t="s">
         <v>46</v>
       </c>
-      <c r="C823" s="2">
+      <c r="C823" s="4">
         <v>45611.394942129627</v>
       </c>
       <c r="D823" t="s">
@@ -20435,7 +20439,7 @@
       <c r="B824" t="s">
         <v>46</v>
       </c>
-      <c r="C824" s="2">
+      <c r="C824" s="4">
         <v>45616.470092592594</v>
       </c>
       <c r="D824" t="s">
@@ -20458,7 +20462,7 @@
       <c r="B825" t="s">
         <v>46</v>
       </c>
-      <c r="C825" s="2">
+      <c r="C825" s="4">
         <v>45618.400416666664</v>
       </c>
       <c r="D825" t="s">
@@ -20481,7 +20485,7 @@
       <c r="B826" t="s">
         <v>7</v>
       </c>
-      <c r="C826" s="2">
+      <c r="C826" s="4">
         <v>45788</v>
       </c>
       <c r="D826" t="s">
@@ -20504,7 +20508,7 @@
       <c r="B827" t="s">
         <v>7</v>
       </c>
-      <c r="C827" s="2">
+      <c r="C827" s="4">
         <v>45836.412951388884</v>
       </c>
       <c r="D827" t="s">
@@ -20527,7 +20531,7 @@
       <c r="B828" t="s">
         <v>7</v>
       </c>
-      <c r="C828" s="2">
+      <c r="C828" s="4">
         <v>45854.476550925923</v>
       </c>
       <c r="D828" t="s">
@@ -20550,7 +20554,7 @@
       <c r="B829" t="s">
         <v>7</v>
       </c>
-      <c r="C829" s="2">
+      <c r="C829" s="4">
         <v>45861.477291666662</v>
       </c>
       <c r="D829" t="s">
@@ -20573,7 +20577,7 @@
       <c r="B830" t="s">
         <v>7</v>
       </c>
-      <c r="C830" s="2">
+      <c r="C830" s="4">
         <v>45864.431539351848</v>
       </c>
       <c r="D830" t="s">
@@ -20596,7 +20600,7 @@
       <c r="B831" t="s">
         <v>234</v>
       </c>
-      <c r="C831" s="2">
+      <c r="C831" s="4">
         <v>45870.425509259258</v>
       </c>
       <c r="D831" t="s">
@@ -20619,7 +20623,7 @@
       <c r="B832" t="s">
         <v>149</v>
       </c>
-      <c r="C832" s="2">
+      <c r="C832" s="4">
         <v>45856.379155092589</v>
       </c>
       <c r="D832" t="s">
@@ -20642,7 +20646,7 @@
       <c r="B833" t="s">
         <v>19</v>
       </c>
-      <c r="C833" s="2">
+      <c r="C833" s="4">
         <v>45721</v>
       </c>
       <c r="D833" t="s">
@@ -20665,7 +20669,7 @@
       <c r="B834" t="s">
         <v>19</v>
       </c>
-      <c r="C834" s="2">
+      <c r="C834" s="4">
         <v>45723</v>
       </c>
       <c r="D834" t="s">
@@ -20688,7 +20692,7 @@
       <c r="B835" t="s">
         <v>58</v>
       </c>
-      <c r="C835" s="2">
+      <c r="C835" s="4">
         <v>45406</v>
       </c>
       <c r="D835" t="s">
@@ -20711,7 +20715,7 @@
       <c r="B836" t="s">
         <v>58</v>
       </c>
-      <c r="C836" s="2">
+      <c r="C836" s="4">
         <v>45406</v>
       </c>
       <c r="D836" t="s">
@@ -20734,7 +20738,7 @@
       <c r="B837" t="s">
         <v>58</v>
       </c>
-      <c r="C837" s="2">
+      <c r="C837" s="4">
         <v>45419</v>
       </c>
       <c r="D837" t="s">
@@ -20757,7 +20761,7 @@
       <c r="B838" t="s">
         <v>235</v>
       </c>
-      <c r="C838" s="2">
+      <c r="C838" s="4">
         <v>45523.652939814812</v>
       </c>
       <c r="D838" t="s">
@@ -20780,7 +20784,7 @@
       <c r="B839" t="s">
         <v>235</v>
       </c>
-      <c r="C839" s="2">
+      <c r="C839" s="4">
         <v>45525.649525462963</v>
       </c>
       <c r="D839" t="s">
@@ -20803,7 +20807,7 @@
       <c r="B840" t="s">
         <v>235</v>
       </c>
-      <c r="C840" s="2">
+      <c r="C840" s="4">
         <v>45525.650046296294</v>
       </c>
       <c r="D840" t="s">
@@ -20826,7 +20830,7 @@
       <c r="B841" t="s">
         <v>235</v>
       </c>
-      <c r="C841" s="2">
+      <c r="C841" s="4">
         <v>45559.362581018519</v>
       </c>
       <c r="D841" t="s">
@@ -20849,7 +20853,7 @@
       <c r="B842" t="s">
         <v>235</v>
       </c>
-      <c r="C842" s="2">
+      <c r="C842" s="4">
         <v>45562.703564814816</v>
       </c>
       <c r="D842" t="s">
@@ -20872,7 +20876,7 @@
       <c r="B843" t="s">
         <v>235</v>
       </c>
-      <c r="C843" s="2">
+      <c r="C843" s="4">
         <v>45600.644212962958</v>
       </c>
       <c r="D843" t="s">
@@ -20895,7 +20899,7 @@
       <c r="B844" t="s">
         <v>235</v>
       </c>
-      <c r="C844" s="2">
+      <c r="C844" s="4">
         <v>45642.662048611106</v>
       </c>
       <c r="D844" t="s">
@@ -20918,7 +20922,7 @@
       <c r="B845" t="s">
         <v>235</v>
       </c>
-      <c r="C845" s="2">
+      <c r="C845" s="4">
         <v>45666.330254629625</v>
       </c>
       <c r="D845" t="s">
@@ -20941,7 +20945,7 @@
       <c r="B846" t="s">
         <v>235</v>
       </c>
-      <c r="C846" s="2">
+      <c r="C846" s="4">
         <v>45666.330960648149</v>
       </c>
       <c r="D846" t="s">
@@ -20964,7 +20968,7 @@
       <c r="B847" t="s">
         <v>236</v>
       </c>
-      <c r="C847" s="2">
+      <c r="C847" s="4">
         <v>45871.475462962961</v>
       </c>
       <c r="D847" t="s">
@@ -20987,7 +20991,7 @@
       <c r="B848" t="s">
         <v>98</v>
       </c>
-      <c r="C848" s="2">
+      <c r="C848" s="4">
         <v>45813.327604166661</v>
       </c>
       <c r="D848" t="s">
@@ -21010,7 +21014,7 @@
       <c r="B849" t="s">
         <v>98</v>
       </c>
-      <c r="C849" s="2">
+      <c r="C849" s="4">
         <v>45813.3283912037</v>
       </c>
       <c r="D849" t="s">
@@ -21033,7 +21037,7 @@
       <c r="B850" t="s">
         <v>98</v>
       </c>
-      <c r="C850" s="2">
+      <c r="C850" s="4">
         <v>45814</v>
       </c>
       <c r="D850" t="s">
@@ -21056,7 +21060,7 @@
       <c r="B851" t="s">
         <v>98</v>
       </c>
-      <c r="C851" s="2">
+      <c r="C851" s="4">
         <v>45819.446030092593</v>
       </c>
       <c r="D851" t="s">
@@ -21079,7 +21083,7 @@
       <c r="B852" t="s">
         <v>98</v>
       </c>
-      <c r="C852" s="2">
+      <c r="C852" s="4">
         <v>45833.4612037037</v>
       </c>
       <c r="D852" t="s">
@@ -21102,7 +21106,7 @@
       <c r="B853" t="s">
         <v>131</v>
       </c>
-      <c r="C853" s="2">
+      <c r="C853" s="4">
         <v>45666.481712962959</v>
       </c>
       <c r="D853" t="s">
@@ -21125,7 +21129,7 @@
       <c r="B854" t="s">
         <v>131</v>
       </c>
-      <c r="C854" s="2">
+      <c r="C854" s="4">
         <v>45669.268460648149</v>
       </c>
       <c r="D854" t="s">
@@ -21148,7 +21152,7 @@
       <c r="B855" t="s">
         <v>131</v>
       </c>
-      <c r="C855" s="2">
+      <c r="C855" s="4">
         <v>45669.27034722222</v>
       </c>
       <c r="D855" t="s">
@@ -21171,7 +21175,7 @@
       <c r="B856" t="s">
         <v>131</v>
       </c>
-      <c r="C856" s="2">
+      <c r="C856" s="4">
         <v>45674.454479166663</v>
       </c>
       <c r="D856" t="s">
@@ -21194,7 +21198,7 @@
       <c r="B857" t="s">
         <v>131</v>
       </c>
-      <c r="C857" s="2">
+      <c r="C857" s="4">
         <v>45674.458101851851</v>
       </c>
       <c r="D857" t="s">
@@ -21217,7 +21221,7 @@
       <c r="B858" t="s">
         <v>131</v>
       </c>
-      <c r="C858" s="2">
+      <c r="C858" s="4">
         <v>45674.521979166668</v>
       </c>
       <c r="D858" t="s">
@@ -21240,7 +21244,7 @@
       <c r="B859" t="s">
         <v>131</v>
       </c>
-      <c r="C859" s="2">
+      <c r="C859" s="4">
         <v>45714.485810185186</v>
       </c>
       <c r="D859" t="s">
@@ -21263,7 +21267,7 @@
       <c r="B860" t="s">
         <v>131</v>
       </c>
-      <c r="C860" s="2">
+      <c r="C860" s="4">
         <v>45714.48704861111</v>
       </c>
       <c r="D860" t="s">
@@ -21286,7 +21290,7 @@
       <c r="B861" t="s">
         <v>51</v>
       </c>
-      <c r="C861" s="2">
+      <c r="C861" s="4">
         <v>45837</v>
       </c>
       <c r="D861" t="s">
@@ -21309,7 +21313,7 @@
       <c r="B862" t="s">
         <v>51</v>
       </c>
-      <c r="C862" s="2">
+      <c r="C862" s="4">
         <v>45837.739259259259</v>
       </c>
       <c r="D862" t="s">
@@ -21332,7 +21336,7 @@
       <c r="B863" t="s">
         <v>51</v>
       </c>
-      <c r="C863" s="2">
+      <c r="C863" s="4">
         <v>45843.368854166663</v>
       </c>
       <c r="D863" t="s">
@@ -21355,7 +21359,7 @@
       <c r="B864" t="s">
         <v>51</v>
       </c>
-      <c r="C864" s="2">
+      <c r="C864" s="4">
         <v>45845.34983796296</v>
       </c>
       <c r="D864" t="s">
@@ -21378,7 +21382,7 @@
       <c r="B865" t="s">
         <v>51</v>
       </c>
-      <c r="C865" s="2">
+      <c r="C865" s="4">
         <v>45850.387407407405</v>
       </c>
       <c r="D865" t="s">
@@ -21401,7 +21405,7 @@
       <c r="B866" t="s">
         <v>51</v>
       </c>
-      <c r="C866" s="2">
+      <c r="C866" s="4">
         <v>45857.37296296296</v>
       </c>
       <c r="D866" t="s">
@@ -21424,7 +21428,7 @@
       <c r="B867" t="s">
         <v>51</v>
       </c>
-      <c r="C867" s="2">
+      <c r="C867" s="4">
         <v>45871.312986111108</v>
       </c>
       <c r="D867" t="s">
@@ -21447,7 +21451,7 @@
       <c r="B868" t="s">
         <v>237</v>
       </c>
-      <c r="C868" s="2">
+      <c r="C868" s="4">
         <v>45876.424050925925</v>
       </c>
       <c r="D868" t="s">
@@ -21470,7 +21474,7 @@
       <c r="B869" t="s">
         <v>96</v>
       </c>
-      <c r="C869" s="2">
+      <c r="C869" s="4">
         <v>45809</v>
       </c>
       <c r="D869" t="s">
@@ -21493,7 +21497,7 @@
       <c r="B870" t="s">
         <v>96</v>
       </c>
-      <c r="C870" s="2">
+      <c r="C870" s="4">
         <v>45841.443761574075</v>
       </c>
       <c r="D870" t="s">
@@ -21516,7 +21520,7 @@
       <c r="B871" t="s">
         <v>96</v>
       </c>
-      <c r="C871" s="2">
+      <c r="C871" s="4">
         <v>45843.573865740742</v>
       </c>
       <c r="D871" t="s">
@@ -21539,7 +21543,7 @@
       <c r="B872" t="s">
         <v>96</v>
       </c>
-      <c r="C872" s="2">
+      <c r="C872" s="4">
         <v>45847.482685185183</v>
       </c>
       <c r="D872" t="s">
@@ -21562,7 +21566,7 @@
       <c r="B873" t="s">
         <v>96</v>
       </c>
-      <c r="C873" s="2">
+      <c r="C873" s="4">
         <v>45850</v>
       </c>
       <c r="D873" t="s">
@@ -21585,7 +21589,7 @@
       <c r="B874" t="s">
         <v>96</v>
       </c>
-      <c r="C874" s="2">
+      <c r="C874" s="4">
         <v>45850.408761574072</v>
       </c>
       <c r="D874" t="s">
@@ -21608,7 +21612,7 @@
       <c r="B875" t="s">
         <v>96</v>
       </c>
-      <c r="C875" s="2">
+      <c r="C875" s="4">
         <v>45854</v>
       </c>
       <c r="D875" t="s">
@@ -21631,7 +21635,7 @@
       <c r="B876" t="s">
         <v>96</v>
       </c>
-      <c r="C876" s="2">
+      <c r="C876" s="4">
         <v>45855.441585648143</v>
       </c>
       <c r="D876" t="s">
@@ -21654,7 +21658,7 @@
       <c r="B877" t="s">
         <v>96</v>
       </c>
-      <c r="C877" s="2">
+      <c r="C877" s="4">
         <v>45858</v>
       </c>
       <c r="D877" t="s">
@@ -21677,7 +21681,7 @@
       <c r="B878" t="s">
         <v>96</v>
       </c>
-      <c r="C878" s="2">
+      <c r="C878" s="4">
         <v>45858.46638888889</v>
       </c>
       <c r="D878" t="s">
@@ -21700,7 +21704,7 @@
       <c r="B879" t="s">
         <v>96</v>
       </c>
-      <c r="C879" s="2">
+      <c r="C879" s="4">
         <v>45858.496712962959</v>
       </c>
       <c r="D879" t="s">
@@ -21723,7 +21727,7 @@
       <c r="B880" t="s">
         <v>96</v>
       </c>
-      <c r="C880" s="2">
+      <c r="C880" s="4">
         <v>45863.533888888887</v>
       </c>
       <c r="D880" t="s">
@@ -21746,7 +21750,7 @@
       <c r="B881" t="s">
         <v>96</v>
       </c>
-      <c r="C881" s="2">
+      <c r="C881" s="4">
         <v>45864.374131944445</v>
       </c>
       <c r="D881" t="s">
@@ -21769,7 +21773,7 @@
       <c r="B882" t="s">
         <v>96</v>
       </c>
-      <c r="C882" s="2">
+      <c r="C882" s="4">
         <v>45872.453530092593</v>
       </c>
       <c r="D882" t="s">
@@ -21792,7 +21796,7 @@
       <c r="B883" t="s">
         <v>96</v>
       </c>
-      <c r="C883" s="2">
+      <c r="C883" s="4">
         <v>45876.353935185187</v>
       </c>
       <c r="D883" t="s">
@@ -21815,7 +21819,7 @@
       <c r="B884" t="s">
         <v>238</v>
       </c>
-      <c r="C884" s="2">
+      <c r="C884" s="4">
         <v>45625.695590277777</v>
       </c>
       <c r="D884" t="s">
@@ -21838,7 +21842,7 @@
       <c r="B885" t="s">
         <v>47</v>
       </c>
-      <c r="C885" s="2">
+      <c r="C885" s="4">
         <v>45623.508842592593</v>
       </c>
       <c r="D885" t="s">
@@ -21861,7 +21865,7 @@
       <c r="B886" t="s">
         <v>47</v>
       </c>
-      <c r="C886" s="2">
+      <c r="C886" s="4">
         <v>45623.542187499996</v>
       </c>
       <c r="D886" t="s">
@@ -21884,7 +21888,7 @@
       <c r="B887" t="s">
         <v>47</v>
       </c>
-      <c r="C887" s="2">
+      <c r="C887" s="4">
         <v>45700.388761574075</v>
       </c>
       <c r="D887" t="s">
@@ -21907,7 +21911,7 @@
       <c r="B888" t="s">
         <v>129</v>
       </c>
-      <c r="C888" s="2">
+      <c r="C888" s="4">
         <v>45617.529409722221</v>
       </c>
       <c r="D888" t="s">
@@ -21930,7 +21934,7 @@
       <c r="B889" t="s">
         <v>129</v>
       </c>
-      <c r="C889" s="2">
+      <c r="C889" s="4">
         <v>45618.525520833333</v>
       </c>
       <c r="D889" t="s">
@@ -21953,7 +21957,7 @@
       <c r="B890" t="s">
         <v>129</v>
       </c>
-      <c r="C890" s="2">
+      <c r="C890" s="4">
         <v>45621.484432870369</v>
       </c>
       <c r="D890" t="s">
@@ -21976,7 +21980,7 @@
       <c r="B891" t="s">
         <v>129</v>
       </c>
-      <c r="C891" s="2">
+      <c r="C891" s="4">
         <v>45622.523738425924</v>
       </c>
       <c r="D891" t="s">
@@ -21999,7 +22003,7 @@
       <c r="B892" t="s">
         <v>129</v>
       </c>
-      <c r="C892" s="2">
+      <c r="C892" s="4">
         <v>45624.523645833331</v>
       </c>
       <c r="D892" t="s">
@@ -22022,7 +22026,7 @@
       <c r="B893" t="s">
         <v>129</v>
       </c>
-      <c r="C893" s="2">
+      <c r="C893" s="4">
         <v>45625.508668981478</v>
       </c>
       <c r="D893" t="s">
@@ -22045,7 +22049,7 @@
       <c r="B894" t="s">
         <v>129</v>
       </c>
-      <c r="C894" s="2">
+      <c r="C894" s="4">
         <v>45630.528043981481</v>
       </c>
       <c r="D894" t="s">
@@ -22068,7 +22072,7 @@
       <c r="B895" t="s">
         <v>129</v>
       </c>
-      <c r="C895" s="2">
+      <c r="C895" s="4">
         <v>45631.525763888887</v>
       </c>
       <c r="D895" t="s">
@@ -22091,7 +22095,7 @@
       <c r="B896" t="s">
         <v>129</v>
       </c>
-      <c r="C896" s="2">
+      <c r="C896" s="4">
         <v>45635.498506944445</v>
       </c>
       <c r="D896" t="s">
@@ -22114,7 +22118,7 @@
       <c r="B897" t="s">
         <v>129</v>
       </c>
-      <c r="C897" s="2">
+      <c r="C897" s="4">
         <v>45638.467731481476</v>
       </c>
       <c r="D897" t="s">
@@ -22137,7 +22141,7 @@
       <c r="B898" t="s">
         <v>129</v>
       </c>
-      <c r="C898" s="2">
+      <c r="C898" s="4">
         <v>45639.520069444443</v>
       </c>
       <c r="D898" t="s">
@@ -22160,7 +22164,7 @@
       <c r="B899" t="s">
         <v>129</v>
       </c>
-      <c r="C899" s="2">
+      <c r="C899" s="4">
         <v>45643.635775462964</v>
       </c>
       <c r="D899" t="s">
@@ -22183,7 +22187,7 @@
       <c r="B900" t="s">
         <v>129</v>
       </c>
-      <c r="C900" s="2">
+      <c r="C900" s="4">
         <v>45644.526874999996</v>
       </c>
       <c r="D900" t="s">
@@ -22206,7 +22210,7 @@
       <c r="B901" t="s">
         <v>129</v>
       </c>
-      <c r="C901" s="2">
+      <c r="C901" s="4">
         <v>45646.348194444443</v>
       </c>
       <c r="D901" t="s">
@@ -22229,7 +22233,7 @@
       <c r="B902" t="s">
         <v>129</v>
       </c>
-      <c r="C902" s="2">
+      <c r="C902" s="4">
         <v>45647</v>
       </c>
       <c r="D902" t="s">
@@ -22252,7 +22256,7 @@
       <c r="B903" t="s">
         <v>129</v>
       </c>
-      <c r="C903" s="2">
+      <c r="C903" s="4">
         <v>45651.474062499998</v>
       </c>
       <c r="D903" t="s">
@@ -22275,7 +22279,7 @@
       <c r="B904" t="s">
         <v>129</v>
       </c>
-      <c r="C904" s="2">
+      <c r="C904" s="4">
         <v>45652.542893518519</v>
       </c>
       <c r="D904" t="s">
@@ -22298,7 +22302,7 @@
       <c r="B905" t="s">
         <v>129</v>
       </c>
-      <c r="C905" s="2">
+      <c r="C905" s="4">
         <v>45680.661863425921</v>
       </c>
       <c r="D905" t="s">
@@ -22321,7 +22325,7 @@
       <c r="B906" t="s">
         <v>129</v>
       </c>
-      <c r="C906" s="2">
+      <c r="C906" s="4">
         <v>45685.509004629625</v>
       </c>
       <c r="D906" t="s">
@@ -22344,7 +22348,7 @@
       <c r="B907" t="s">
         <v>129</v>
       </c>
-      <c r="C907" s="2">
+      <c r="C907" s="4">
         <v>45685.656006944446</v>
       </c>
       <c r="D907" t="s">
@@ -22367,7 +22371,7 @@
       <c r="B908" t="s">
         <v>129</v>
       </c>
-      <c r="C908" s="2">
+      <c r="C908" s="4">
         <v>45686.495104166665</v>
       </c>
       <c r="D908" t="s">
@@ -22390,7 +22394,7 @@
       <c r="B909" t="s">
         <v>239</v>
       </c>
-      <c r="C909" s="2">
+      <c r="C909" s="4">
         <v>45816</v>
       </c>
       <c r="D909" t="s">
@@ -22413,7 +22417,7 @@
       <c r="B910" t="s">
         <v>132</v>
       </c>
-      <c r="C910" s="2">
+      <c r="C910" s="4">
         <v>45849.543668981481</v>
       </c>
       <c r="D910" t="s">
@@ -22436,7 +22440,7 @@
       <c r="B911" t="s">
         <v>240</v>
       </c>
-      <c r="C911" s="2">
+      <c r="C911" s="4">
         <v>45461</v>
       </c>
       <c r="D911" t="s">
@@ -22459,7 +22463,7 @@
       <c r="B912" t="s">
         <v>240</v>
       </c>
-      <c r="C912" s="2">
+      <c r="C912" s="4">
         <v>45625</v>
       </c>
       <c r="D912" t="s">
@@ -22482,7 +22486,7 @@
       <c r="B913" t="s">
         <v>240</v>
       </c>
-      <c r="C913" s="2">
+      <c r="C913" s="4">
         <v>45685</v>
       </c>
       <c r="D913" t="s">
@@ -22505,7 +22509,7 @@
       <c r="B914" t="s">
         <v>240</v>
       </c>
-      <c r="C914" s="2">
+      <c r="C914" s="4">
         <v>45707</v>
       </c>
       <c r="D914" t="s">
@@ -22528,7 +22532,7 @@
       <c r="B915" t="s">
         <v>240</v>
       </c>
-      <c r="C915" s="2">
+      <c r="C915" s="4">
         <v>45758</v>
       </c>
       <c r="D915" t="s">
@@ -22551,7 +22555,7 @@
       <c r="B916" t="s">
         <v>125</v>
       </c>
-      <c r="C916" s="2">
+      <c r="C916" s="4">
         <v>45449</v>
       </c>
       <c r="D916" t="s">
@@ -22574,7 +22578,7 @@
       <c r="B917" t="s">
         <v>125</v>
       </c>
-      <c r="C917" s="2">
+      <c r="C917" s="4">
         <v>45451</v>
       </c>
       <c r="D917" t="s">
@@ -22597,7 +22601,7 @@
       <c r="B918" t="s">
         <v>109</v>
       </c>
-      <c r="C918" s="2">
+      <c r="C918" s="4">
         <v>45709.344953703701</v>
       </c>
       <c r="D918" t="s">
@@ -22620,7 +22624,7 @@
       <c r="B919" t="s">
         <v>109</v>
       </c>
-      <c r="C919" s="2">
+      <c r="C919" s="4">
         <v>45714.376412037032</v>
       </c>
       <c r="D919" t="s">
@@ -22643,7 +22647,7 @@
       <c r="B920" t="s">
         <v>109</v>
       </c>
-      <c r="C920" s="2">
+      <c r="C920" s="4">
         <v>45721.332939814813</v>
       </c>
       <c r="D920" t="s">
@@ -22666,7 +22670,7 @@
       <c r="B921" t="s">
         <v>109</v>
       </c>
-      <c r="C921" s="2">
+      <c r="C921" s="4">
         <v>45728.382476851853</v>
       </c>
       <c r="D921" t="s">
@@ -22689,7 +22693,7 @@
       <c r="B922" t="s">
         <v>109</v>
       </c>
-      <c r="C922" s="2">
+      <c r="C922" s="4">
         <v>45735.399155092593</v>
       </c>
       <c r="D922" t="s">
@@ -22712,7 +22716,7 @@
       <c r="B923" t="s">
         <v>109</v>
       </c>
-      <c r="C923" s="2">
+      <c r="C923" s="4">
         <v>45744.414965277778</v>
       </c>
       <c r="D923" t="s">
@@ -22735,7 +22739,7 @@
       <c r="B924" t="s">
         <v>155</v>
       </c>
-      <c r="C924" s="2">
+      <c r="C924" s="4">
         <v>45862.486886574072</v>
       </c>
       <c r="D924" t="s">
@@ -22758,7 +22762,7 @@
       <c r="B925" t="s">
         <v>241</v>
       </c>
-      <c r="C925" s="2">
+      <c r="C925" s="4">
         <v>45649</v>
       </c>
       <c r="D925" t="s">
@@ -22781,7 +22785,7 @@
       <c r="B926" t="s">
         <v>17</v>
       </c>
-      <c r="C926" s="2">
+      <c r="C926" s="4">
         <v>45755</v>
       </c>
       <c r="D926" t="s">
@@ -22804,7 +22808,7 @@
       <c r="B927" t="s">
         <v>127</v>
       </c>
-      <c r="C927" s="2">
+      <c r="C927" s="4">
         <v>45569.376574074071</v>
       </c>
       <c r="D927" t="s">
@@ -22827,7 +22831,7 @@
       <c r="B928" t="s">
         <v>128</v>
       </c>
-      <c r="C928" s="2">
+      <c r="C928" s="4">
         <v>45583.457974537036</v>
       </c>
       <c r="D928" t="s">
@@ -22850,7 +22854,7 @@
       <c r="B929" t="s">
         <v>128</v>
       </c>
-      <c r="C929" s="2">
+      <c r="C929" s="4">
         <v>45604.537928240738</v>
       </c>
       <c r="D929" t="s">
@@ -22873,7 +22877,7 @@
       <c r="B930" t="s">
         <v>128</v>
       </c>
-      <c r="C930" s="2">
+      <c r="C930" s="4">
         <v>45605.425682870366</v>
       </c>
       <c r="D930" t="s">
@@ -22896,7 +22900,7 @@
       <c r="B931" t="s">
         <v>128</v>
       </c>
-      <c r="C931" s="2">
+      <c r="C931" s="4">
         <v>45639.49019675926</v>
       </c>
       <c r="D931" t="s">
@@ -22919,7 +22923,7 @@
       <c r="B932" t="s">
         <v>128</v>
       </c>
-      <c r="C932" s="2">
+      <c r="C932" s="4">
         <v>45766</v>
       </c>
       <c r="D932" t="s">
@@ -22942,7 +22946,7 @@
       <c r="B933" t="s">
         <v>242</v>
       </c>
-      <c r="C933" s="2">
+      <c r="C933" s="4">
         <v>45566</v>
       </c>
       <c r="D933" t="s">
@@ -22965,7 +22969,7 @@
       <c r="B934" t="s">
         <v>47</v>
       </c>
-      <c r="C934" s="2">
+      <c r="C934" s="4">
         <v>45687</v>
       </c>
       <c r="D934" t="s">
@@ -22988,7 +22992,7 @@
       <c r="B935" t="s">
         <v>152</v>
       </c>
-      <c r="C935" s="2">
+      <c r="C935" s="4">
         <v>45752</v>
       </c>
       <c r="D935" t="s">
@@ -23011,7 +23015,7 @@
       <c r="B936" t="s">
         <v>152</v>
       </c>
-      <c r="C936" s="2">
+      <c r="C936" s="4">
         <v>45869.420972222222</v>
       </c>
       <c r="D936" t="s">
@@ -23034,7 +23038,7 @@
       <c r="B937" t="s">
         <v>133</v>
       </c>
-      <c r="C937" s="2">
+      <c r="C937" s="4">
         <v>45872.279374999998</v>
       </c>
       <c r="D937" t="s">
@@ -23057,7 +23061,7 @@
       <c r="B938" t="s">
         <v>91</v>
       </c>
-      <c r="C938" s="2">
+      <c r="C938" s="4">
         <v>45615</v>
       </c>
       <c r="D938" t="s">
@@ -23080,7 +23084,7 @@
       <c r="B939" t="s">
         <v>91</v>
       </c>
-      <c r="C939" s="2">
+      <c r="C939" s="4">
         <v>45624.445694444439</v>
       </c>
       <c r="D939" t="s">
@@ -23103,7 +23107,7 @@
       <c r="B940" t="s">
         <v>91</v>
       </c>
-      <c r="C940" s="2">
+      <c r="C940" s="4">
         <v>45629.426215277774</v>
       </c>
       <c r="D940" t="s">
@@ -23126,7 +23130,7 @@
       <c r="B941" t="s">
         <v>91</v>
       </c>
-      <c r="C941" s="2">
+      <c r="C941" s="4">
         <v>45638.420543981483</v>
       </c>
       <c r="D941" t="s">
@@ -23149,7 +23153,7 @@
       <c r="B942" t="s">
         <v>65</v>
       </c>
-      <c r="C942" s="2">
+      <c r="C942" s="4">
         <v>45819</v>
       </c>
       <c r="D942" t="s">
@@ -23172,7 +23176,7 @@
       <c r="B943" t="s">
         <v>65</v>
       </c>
-      <c r="C943" s="2">
+      <c r="C943" s="4">
         <v>45865.462974537033</v>
       </c>
       <c r="D943" t="s">
@@ -23195,7 +23199,7 @@
       <c r="B944" t="s">
         <v>243</v>
       </c>
-      <c r="C944" s="2">
+      <c r="C944" s="4">
         <v>45600</v>
       </c>
       <c r="D944" t="s">
@@ -23218,7 +23222,7 @@
       <c r="B945" t="s">
         <v>57</v>
       </c>
-      <c r="C945" s="2">
+      <c r="C945" s="4">
         <v>45746.622569444444</v>
       </c>
       <c r="D945" t="s">
@@ -23241,7 +23245,7 @@
       <c r="B946" t="s">
         <v>157</v>
       </c>
-      <c r="C946" s="2">
+      <c r="C946" s="4">
         <v>45864.368680555555</v>
       </c>
       <c r="D946" t="s">
@@ -23264,7 +23268,7 @@
       <c r="B947" t="s">
         <v>59</v>
       </c>
-      <c r="C947" s="2">
+      <c r="C947" s="4">
         <v>45645.632534722223</v>
       </c>
       <c r="D947" t="s">
@@ -23287,7 +23291,7 @@
       <c r="B948" t="s">
         <v>59</v>
       </c>
-      <c r="C948" s="2">
+      <c r="C948" s="4">
         <v>45674.591909722221</v>
       </c>
       <c r="D948" t="s">
@@ -23310,7 +23314,7 @@
       <c r="B949" t="s">
         <v>59</v>
       </c>
-      <c r="C949" s="2">
+      <c r="C949" s="4">
         <v>45695.643865740742</v>
       </c>
       <c r="D949" t="s">
@@ -23333,7 +23337,7 @@
       <c r="B950" t="s">
         <v>100</v>
       </c>
-      <c r="C950" s="2">
+      <c r="C950" s="4">
         <v>45842.419490740736</v>
       </c>
       <c r="D950" t="s">
@@ -23356,7 +23360,7 @@
       <c r="B951" t="s">
         <v>244</v>
       </c>
-      <c r="C951" s="2">
+      <c r="C951" s="4">
         <v>45629.72824074074</v>
       </c>
       <c r="D951" t="s">
@@ -23379,7 +23383,7 @@
       <c r="B952" t="s">
         <v>244</v>
       </c>
-      <c r="C952" s="2">
+      <c r="C952" s="4">
         <v>45688</v>
       </c>
       <c r="D952" t="s">
@@ -23402,7 +23406,7 @@
       <c r="B953" t="s">
         <v>244</v>
       </c>
-      <c r="C953" s="2">
+      <c r="C953" s="4">
         <v>45688</v>
       </c>
       <c r="D953" t="s">
@@ -23425,7 +23429,7 @@
       <c r="B954" t="s">
         <v>130</v>
       </c>
-      <c r="C954" s="2">
+      <c r="C954" s="4">
         <v>45675.61577546296</v>
       </c>
       <c r="D954" t="s">
@@ -23448,7 +23452,7 @@
       <c r="B955" t="s">
         <v>130</v>
       </c>
-      <c r="C955" s="2">
+      <c r="C955" s="4">
         <v>45690.532627314809</v>
       </c>
       <c r="D955" t="s">
@@ -23471,7 +23475,7 @@
       <c r="B956" t="s">
         <v>130</v>
       </c>
-      <c r="C956" s="2">
+      <c r="C956" s="4">
         <v>45697.436215277776</v>
       </c>
       <c r="D956" t="s">
@@ -23494,7 +23498,7 @@
       <c r="B957" t="s">
         <v>54</v>
       </c>
-      <c r="C957" s="2">
+      <c r="C957" s="4">
         <v>45834.405034722222</v>
       </c>
       <c r="D957" t="s">
@@ -23517,7 +23521,7 @@
       <c r="B958" t="s">
         <v>54</v>
       </c>
-      <c r="C958" s="2">
+      <c r="C958" s="4">
         <v>45843.497025462959</v>
       </c>
       <c r="D958" t="s">
@@ -23540,7 +23544,7 @@
       <c r="B959" t="s">
         <v>103</v>
       </c>
-      <c r="C959" s="2">
+      <c r="C959" s="4">
         <v>45842.434988425921</v>
       </c>
       <c r="D959" t="s">
@@ -23563,7 +23567,7 @@
       <c r="B960" t="s">
         <v>103</v>
       </c>
-      <c r="C960" s="2">
+      <c r="C960" s="4">
         <v>45849.53875</v>
       </c>
       <c r="D960" t="s">
@@ -23586,7 +23590,7 @@
       <c r="B961" t="s">
         <v>103</v>
       </c>
-      <c r="C961" s="2">
+      <c r="C961" s="4">
         <v>45858.547083333331</v>
       </c>
       <c r="D961" t="s">
@@ -23609,7 +23613,7 @@
       <c r="B962" t="s">
         <v>103</v>
       </c>
-      <c r="C962" s="2">
+      <c r="C962" s="4">
         <v>45863.488576388889</v>
       </c>
       <c r="D962" t="s">
@@ -23632,7 +23636,7 @@
       <c r="B963" t="s">
         <v>144</v>
       </c>
-      <c r="C963" s="2">
+      <c r="C963" s="4">
         <v>45864.648715277777</v>
       </c>
       <c r="D963" t="s">
@@ -23655,7 +23659,7 @@
       <c r="B964" t="s">
         <v>144</v>
       </c>
-      <c r="C964" s="2">
+      <c r="C964" s="4">
         <v>45868.70212962963</v>
       </c>
       <c r="D964" t="s">
@@ -23678,7 +23682,7 @@
       <c r="B965" t="s">
         <v>148</v>
       </c>
-      <c r="C965" s="2">
+      <c r="C965" s="4">
         <v>45865.474641203698</v>
       </c>
       <c r="D965" t="s">
@@ -23701,7 +23705,7 @@
       <c r="B966" t="s">
         <v>148</v>
       </c>
-      <c r="C966" s="2">
+      <c r="C966" s="4">
         <v>45867.445196759254</v>
       </c>
       <c r="D966" t="s">
@@ -23724,7 +23728,7 @@
       <c r="B967" t="s">
         <v>112</v>
       </c>
-      <c r="C967" s="2">
+      <c r="C967" s="4">
         <v>45765.364606481482</v>
       </c>
       <c r="D967" t="s">
@@ -23747,7 +23751,7 @@
       <c r="B968" t="s">
         <v>111</v>
       </c>
-      <c r="C968" s="2">
+      <c r="C968" s="4">
         <v>45827</v>
       </c>
       <c r="D968" t="s">
@@ -23770,7 +23774,7 @@
       <c r="B969" t="s">
         <v>111</v>
       </c>
-      <c r="C969" s="2">
+      <c r="C969" s="4">
         <v>45827.408125000002</v>
       </c>
       <c r="D969" t="s">
@@ -23793,7 +23797,7 @@
       <c r="B970" t="s">
         <v>101</v>
       </c>
-      <c r="C970" s="2">
+      <c r="C970" s="4">
         <v>45843.511874999997</v>
       </c>
       <c r="D970" t="s">
@@ -23816,7 +23820,7 @@
       <c r="B971" t="s">
         <v>101</v>
       </c>
-      <c r="C971" s="2">
+      <c r="C971" s="4">
         <v>45855.436157407406</v>
       </c>
       <c r="D971" t="s">
@@ -23839,7 +23843,7 @@
       <c r="B972" t="s">
         <v>101</v>
       </c>
-      <c r="C972" s="2">
+      <c r="C972" s="4">
         <v>45862.422569444439</v>
       </c>
       <c r="D972" t="s">
@@ -23862,7 +23866,7 @@
       <c r="B973" t="s">
         <v>101</v>
       </c>
-      <c r="C973" s="2">
+      <c r="C973" s="4">
         <v>45869.465671296297</v>
       </c>
       <c r="D973" t="s">
@@ -23885,7 +23889,7 @@
       <c r="B974" t="s">
         <v>156</v>
       </c>
-      <c r="C974" s="2">
+      <c r="C974" s="4">
         <v>45864.369942129626</v>
       </c>
       <c r="D974" t="s">
@@ -23908,7 +23912,7 @@
       <c r="B975" t="s">
         <v>156</v>
       </c>
-      <c r="C975" s="2">
+      <c r="C975" s="4">
         <v>45872.371122685181</v>
       </c>
       <c r="D975" t="s">
@@ -23931,7 +23935,7 @@
       <c r="B976" t="s">
         <v>107</v>
       </c>
-      <c r="C976" s="2">
+      <c r="C976" s="4">
         <v>45849.30768518518</v>
       </c>
       <c r="D976" t="s">
@@ -23954,7 +23958,7 @@
       <c r="B977" t="s">
         <v>107</v>
       </c>
-      <c r="C977" s="2">
+      <c r="C977" s="4">
         <v>45875.540937500002</v>
       </c>
       <c r="D977" t="s">
@@ -23977,7 +23981,7 @@
       <c r="B978" t="s">
         <v>245</v>
       </c>
-      <c r="C978" s="2">
+      <c r="C978" s="4">
         <v>45765</v>
       </c>
       <c r="D978" t="s">
@@ -24000,7 +24004,7 @@
       <c r="B979" t="s">
         <v>246</v>
       </c>
-      <c r="C979" s="2">
+      <c r="C979" s="4">
         <v>45871.36619212963</v>
       </c>
       <c r="D979" t="s">
@@ -24023,7 +24027,7 @@
       <c r="B980" t="s">
         <v>150</v>
       </c>
-      <c r="C980" s="2">
+      <c r="C980" s="4">
         <v>45869.310335648144</v>
       </c>
       <c r="D980" t="s">
@@ -24046,7 +24050,7 @@
       <c r="B981" t="s">
         <v>150</v>
       </c>
-      <c r="C981" s="2">
+      <c r="C981" s="4">
         <v>45871.426805555551</v>
       </c>
       <c r="D981" t="s">
@@ -24069,7 +24073,7 @@
       <c r="B982" t="s">
         <v>56</v>
       </c>
-      <c r="C982" s="2">
+      <c r="C982" s="4">
         <v>45828.710740740738</v>
       </c>
       <c r="D982" t="s">
@@ -24092,7 +24096,7 @@
       <c r="B983" t="s">
         <v>56</v>
       </c>
-      <c r="C983" s="2">
+      <c r="C983" s="4">
         <v>45842.656388888885</v>
       </c>
       <c r="D983" t="s">
@@ -24115,7 +24119,7 @@
       <c r="B984" t="s">
         <v>56</v>
       </c>
-      <c r="C984" s="2">
+      <c r="C984" s="4">
         <v>45848</v>
       </c>
       <c r="D984" t="s">
@@ -24138,7 +24142,7 @@
       <c r="B985" t="s">
         <v>142</v>
       </c>
-      <c r="C985" s="2">
+      <c r="C985" s="4">
         <v>45858.693182870367</v>
       </c>
       <c r="D985" t="s">
@@ -24161,7 +24165,7 @@
       <c r="B986" t="s">
         <v>247</v>
       </c>
-      <c r="C986" s="2">
+      <c r="C986" s="4">
         <v>45872.417395833334</v>
       </c>
       <c r="D986" t="s">
@@ -24184,7 +24188,7 @@
       <c r="B987" t="s">
         <v>45</v>
       </c>
-      <c r="C987" s="2">
+      <c r="C987" s="4">
         <v>45750</v>
       </c>
       <c r="D987" t="s">
@@ -24207,7 +24211,7 @@
       <c r="B988" t="s">
         <v>45</v>
       </c>
-      <c r="C988" s="2">
+      <c r="C988" s="4">
         <v>45757.313206018516</v>
       </c>
       <c r="D988" t="s">
@@ -24230,7 +24234,7 @@
       <c r="B989" t="s">
         <v>84</v>
       </c>
-      <c r="C989" s="2">
+      <c r="C989" s="4">
         <v>45756.409236111111</v>
       </c>
       <c r="D989" t="s">
@@ -24253,7 +24257,7 @@
       <c r="B990" t="s">
         <v>84</v>
       </c>
-      <c r="C990" s="2">
+      <c r="C990" s="4">
         <v>45759.373854166668</v>
       </c>
       <c r="D990" t="s">
@@ -24276,7 +24280,7 @@
       <c r="B991" t="s">
         <v>84</v>
       </c>
-      <c r="C991" s="2">
+      <c r="C991" s="4">
         <v>45763.42769675926</v>
       </c>
       <c r="D991" t="s">
@@ -24299,7 +24303,7 @@
       <c r="B992" t="s">
         <v>84</v>
       </c>
-      <c r="C992" s="2">
+      <c r="C992" s="4">
         <v>45766.434282407405</v>
       </c>
       <c r="D992" t="s">
@@ -24322,7 +24326,7 @@
       <c r="B993" t="s">
         <v>84</v>
       </c>
-      <c r="C993" s="2">
+      <c r="C993" s="4">
         <v>45770.497349537036</v>
       </c>
       <c r="D993" t="s">
@@ -24345,7 +24349,7 @@
       <c r="B994" t="s">
         <v>84</v>
       </c>
-      <c r="C994" s="2">
+      <c r="C994" s="4">
         <v>45798.435636574075</v>
       </c>
       <c r="D994" t="s">
@@ -24368,7 +24372,7 @@
       <c r="B995" t="s">
         <v>84</v>
       </c>
-      <c r="C995" s="2">
+      <c r="C995" s="4">
         <v>45808.469456018516</v>
       </c>
       <c r="D995" t="s">
@@ -24391,7 +24395,7 @@
       <c r="B996" t="s">
         <v>84</v>
       </c>
-      <c r="C996" s="2">
+      <c r="C996" s="4">
         <v>45815.547233796293</v>
       </c>
       <c r="D996" t="s">
@@ -24414,7 +24418,7 @@
       <c r="B997" t="s">
         <v>52</v>
       </c>
-      <c r="C997" s="2">
+      <c r="C997" s="4">
         <v>45777.661319444444</v>
       </c>
       <c r="D997" t="s">
@@ -24437,7 +24441,7 @@
       <c r="B998" t="s">
         <v>52</v>
       </c>
-      <c r="C998" s="2">
+      <c r="C998" s="4">
         <v>45800.410613425927</v>
       </c>
       <c r="D998" t="s">
@@ -24460,7 +24464,7 @@
       <c r="B999" t="s">
         <v>108</v>
       </c>
-      <c r="C999" s="2">
+      <c r="C999" s="4">
         <v>45849.446979166663</v>
       </c>
       <c r="D999" t="s">
@@ -24483,7 +24487,7 @@
       <c r="B1000" t="s">
         <v>108</v>
       </c>
-      <c r="C1000" s="2">
+      <c r="C1000" s="4">
         <v>45863.370891203704</v>
       </c>
       <c r="D1000" t="s">
@@ -24506,7 +24510,7 @@
       <c r="B1001" t="s">
         <v>248</v>
       </c>
-      <c r="C1001" s="2">
+      <c r="C1001" s="4">
         <v>45872.371064814812</v>
       </c>
       <c r="D1001" t="s">
@@ -24529,7 +24533,7 @@
       <c r="B1002" t="s">
         <v>134</v>
       </c>
-      <c r="C1002" s="2">
+      <c r="C1002" s="4">
         <v>45844.45857638889</v>
       </c>
       <c r="D1002" t="s">
@@ -24552,7 +24556,7 @@
       <c r="B1003" t="s">
         <v>12</v>
       </c>
-      <c r="C1003" s="2">
+      <c r="C1003" s="4">
         <v>45803</v>
       </c>
       <c r="D1003" t="s">
@@ -24575,7 +24579,7 @@
       <c r="B1004" t="s">
         <v>249</v>
       </c>
-      <c r="C1004" s="2">
+      <c r="C1004" s="4">
         <v>45861</v>
       </c>
       <c r="D1004" t="s">
@@ -24598,7 +24602,7 @@
       <c r="B1005" t="s">
         <v>249</v>
       </c>
-      <c r="C1005" s="2">
+      <c r="C1005" s="4">
         <v>45875</v>
       </c>
       <c r="D1005" t="s">
@@ -24621,7 +24625,7 @@
       <c r="B1006" t="s">
         <v>250</v>
       </c>
-      <c r="C1006" s="2">
+      <c r="C1006" s="4">
         <v>45872.277824074074</v>
       </c>
       <c r="D1006" t="s">
@@ -24644,7 +24648,7 @@
       <c r="B1007" t="s">
         <v>14</v>
       </c>
-      <c r="C1007" s="2">
+      <c r="C1007" s="4">
         <v>45792.648773148147</v>
       </c>
       <c r="D1007" t="s">
@@ -24667,7 +24671,7 @@
       <c r="B1008" t="s">
         <v>159</v>
       </c>
-      <c r="C1008" s="2">
+      <c r="C1008" s="4">
         <v>45862.388344907406</v>
       </c>
       <c r="D1008" t="s">
@@ -24690,7 +24694,7 @@
       <c r="B1009" t="s">
         <v>159</v>
       </c>
-      <c r="C1009" s="2">
+      <c r="C1009" s="4">
         <v>45863.295810185184</v>
       </c>
       <c r="D1009" t="s">
@@ -24713,7 +24717,7 @@
       <c r="B1010" t="s">
         <v>160</v>
       </c>
-      <c r="C1010" s="2">
+      <c r="C1010" s="4">
         <v>45862.486909722218</v>
       </c>
       <c r="D1010" t="s">
@@ -24736,7 +24740,7 @@
       <c r="B1011" t="s">
         <v>160</v>
       </c>
-      <c r="C1011" s="2">
+      <c r="C1011" s="4">
         <v>45876.455208333333</v>
       </c>
       <c r="D1011" t="s">
@@ -24759,7 +24763,7 @@
       <c r="B1012" t="s">
         <v>251</v>
       </c>
-      <c r="C1012" s="2">
+      <c r="C1012" s="4">
         <v>45876.454710648148</v>
       </c>
       <c r="D1012" t="s">
@@ -24782,7 +24786,7 @@
       <c r="B1013" t="s">
         <v>252</v>
       </c>
-      <c r="C1013" s="2">
+      <c r="C1013" s="4">
         <v>45870.377777777772</v>
       </c>
       <c r="D1013" t="s">
@@ -24805,7 +24809,7 @@
       <c r="B1014" t="s">
         <v>146</v>
       </c>
-      <c r="C1014" s="2">
+      <c r="C1014" s="4">
         <v>45868.475057870368</v>
       </c>
       <c r="D1014" t="s">
@@ -24828,7 +24832,7 @@
       <c r="B1015" t="s">
         <v>146</v>
       </c>
-      <c r="C1015" s="2">
+      <c r="C1015" s="4">
         <v>45874.460439814815</v>
       </c>
       <c r="D1015" t="s">
@@ -24851,7 +24855,7 @@
       <c r="B1016" t="s">
         <v>61</v>
       </c>
-      <c r="C1016" s="2">
+      <c r="C1016" s="4">
         <v>45603.629884259259</v>
       </c>
       <c r="D1016" t="s">
@@ -24874,7 +24878,7 @@
       <c r="B1017" t="s">
         <v>61</v>
       </c>
-      <c r="C1017" s="2">
+      <c r="C1017" s="4">
         <v>45630</v>
       </c>
       <c r="D1017" t="s">
@@ -24897,7 +24901,7 @@
       <c r="B1018" t="s">
         <v>61</v>
       </c>
-      <c r="C1018" s="2">
+      <c r="C1018" s="4">
         <v>45708.588148148148</v>
       </c>
       <c r="D1018" t="s">
@@ -24920,7 +24924,7 @@
       <c r="B1019" t="s">
         <v>61</v>
       </c>
-      <c r="C1019" s="2">
+      <c r="C1019" s="4">
         <v>45749</v>
       </c>
       <c r="D1019" t="s">
@@ -24943,7 +24947,7 @@
       <c r="B1020" t="s">
         <v>253</v>
       </c>
-      <c r="C1020" s="2">
+      <c r="C1020" s="4">
         <v>45570.517129629625</v>
       </c>
       <c r="D1020" t="s">
@@ -24966,7 +24970,7 @@
       <c r="B1021" t="s">
         <v>66</v>
       </c>
-      <c r="C1021" s="2">
+      <c r="C1021" s="4">
         <v>45851.59134259259</v>
       </c>
       <c r="D1021" t="s">
@@ -24989,7 +24993,7 @@
       <c r="B1022" t="s">
         <v>66</v>
       </c>
-      <c r="C1022" s="2">
+      <c r="C1022" s="4">
         <v>45858.607731481483</v>
       </c>
       <c r="D1022" t="s">
@@ -25012,7 +25016,7 @@
       <c r="B1023" t="s">
         <v>66</v>
       </c>
-      <c r="C1023" s="2">
+      <c r="C1023" s="4">
         <v>45863.601412037038</v>
       </c>
       <c r="D1023" t="s">
@@ -25035,7 +25039,7 @@
       <c r="B1024" t="s">
         <v>66</v>
       </c>
-      <c r="C1024" s="2">
+      <c r="C1024" s="4">
         <v>45871.611539351848</v>
       </c>
       <c r="D1024" t="s">
@@ -25058,7 +25062,7 @@
       <c r="B1025" t="s">
         <v>66</v>
       </c>
-      <c r="C1025" s="2">
+      <c r="C1025" s="4">
         <v>45875.600995370369</v>
       </c>
       <c r="D1025" t="s">
@@ -25081,7 +25085,7 @@
       <c r="B1026" t="s">
         <v>254</v>
       </c>
-      <c r="C1026" s="2">
+      <c r="C1026" s="4">
         <v>45570.5149537037</v>
       </c>
       <c r="D1026" t="s">
@@ -25104,7 +25108,7 @@
       <c r="B1027" t="s">
         <v>255</v>
       </c>
-      <c r="C1027" s="2">
+      <c r="C1027" s="4">
         <v>45529</v>
       </c>
       <c r="D1027" t="s">
@@ -25127,7 +25131,7 @@
       <c r="B1028" t="s">
         <v>255</v>
       </c>
-      <c r="C1028" s="2">
+      <c r="C1028" s="4">
         <v>45548.667442129627</v>
       </c>
       <c r="D1028" t="s">
@@ -25150,7 +25154,7 @@
       <c r="B1029" t="s">
         <v>255</v>
       </c>
-      <c r="C1029" s="2">
+      <c r="C1029" s="4">
         <v>45570.516041666662</v>
       </c>
       <c r="D1029" t="s">
@@ -25173,7 +25177,7 @@
       <c r="B1030" t="s">
         <v>87</v>
       </c>
-      <c r="C1030" s="2">
+      <c r="C1030" s="4">
         <v>45837.366851851853</v>
       </c>
       <c r="D1030" t="s">
@@ -25196,7 +25200,7 @@
       <c r="B1031" t="s">
         <v>87</v>
       </c>
-      <c r="C1031" s="2">
+      <c r="C1031" s="4">
         <v>45838</v>
       </c>
       <c r="D1031" t="s">
@@ -25219,7 +25223,7 @@
       <c r="B1032" t="s">
         <v>87</v>
       </c>
-      <c r="C1032" s="2">
+      <c r="C1032" s="4">
         <v>45844.405763888884</v>
       </c>
       <c r="D1032" t="s">
@@ -25242,7 +25246,7 @@
       <c r="B1033" t="s">
         <v>256</v>
       </c>
-      <c r="C1033" s="2">
+      <c r="C1033" s="4">
         <v>45714.715497685182</v>
       </c>
       <c r="D1033" t="s">
@@ -25265,7 +25269,7 @@
       <c r="B1034" t="s">
         <v>136</v>
       </c>
-      <c r="C1034" s="2">
+      <c r="C1034" s="4">
         <v>45822.616782407407</v>
       </c>
       <c r="D1034" t="s">
@@ -25288,7 +25292,7 @@
       <c r="B1035" t="s">
         <v>136</v>
       </c>
-      <c r="C1035" s="2">
+      <c r="C1035" s="4">
         <v>45871.716412037036</v>
       </c>
       <c r="D1035" t="s">
@@ -25311,7 +25315,7 @@
       <c r="B1036" t="s">
         <v>257</v>
       </c>
-      <c r="C1036" s="2">
+      <c r="C1036" s="4">
         <v>45876.543217592589</v>
       </c>
       <c r="D1036" t="s">
@@ -25334,7 +25338,7 @@
       <c r="B1037" t="s">
         <v>137</v>
       </c>
-      <c r="C1037" s="2">
+      <c r="C1037" s="4">
         <v>45846.644560185181</v>
       </c>
       <c r="D1037" t="s">
@@ -25357,7 +25361,7 @@
       <c r="B1038" t="s">
         <v>138</v>
       </c>
-      <c r="C1038" s="2">
+      <c r="C1038" s="4">
         <v>45866.648009259254</v>
       </c>
       <c r="D1038" t="s">
@@ -25380,7 +25384,7 @@
       <c r="B1039" t="s">
         <v>258</v>
       </c>
-      <c r="C1039" s="2">
+      <c r="C1039" s="4">
         <v>45847</v>
       </c>
       <c r="D1039" t="s">

--- a/VVencidos.xlsx
+++ b/VVencidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51664228-050A-4790-A73F-BB8D416FAC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DE0F82-F99C-4C3A-85B5-C4AE3C25ED86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{269BE8FF-AC33-4B8A-A7D2-D9ACD2484502}"/>
   </bookViews>
@@ -869,10 +869,10 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1089,8 +1089,8 @@
     <tableColumn id="2" xr3:uid="{E994E525-E8F7-4E36-A14E-B828F21DD2B7}" name="Entidade"/>
     <tableColumn id="3" xr3:uid="{8C71B35A-76E5-41CC-893F-C6A5F5424276}" name="Data Venc." dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{4F64E40E-EA13-478A-B38B-A7E23E5B5DA4}" name="Categoria"/>
-    <tableColumn id="5" xr3:uid="{FD3FF5CA-F698-4B26-BF8F-91E78F8A2106}" name="Dias" dataDxfId="3" totalsRowDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{33454140-250C-41F7-8B0B-05CFA24A88F7}" name="Valor Pendente" dataDxfId="2" totalsRowDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{FD3FF5CA-F698-4B26-BF8F-91E78F8A2106}" name="Dias" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{33454140-250C-41F7-8B0B-05CFA24A88F7}" name="Valor Pendente" dataDxfId="1" totalsRowDxfId="0"/>
     <tableColumn id="7" xr3:uid="{84591041-0E65-4E8A-BDDC-5277BA7468A0}" name="Comercial"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1416,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D11E89-AF2E-42BF-80E5-E5E20F3E6DF5}">
   <dimension ref="A1:G969"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A955" workbookViewId="0">
-      <selection activeCell="B961" sqref="B961"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F969"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/VVencidos.xlsx
+++ b/VVencidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A626D907-B37D-4339-AA4F-617E84A6E4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9FEBD3-A57B-403D-82C9-75D33E5A0F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{269BE8FF-AC33-4B8A-A7D2-D9ACD2484502}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="245">
   <si>
     <t>Entidade</t>
   </si>
@@ -758,6 +758,39 @@
   </si>
   <si>
     <t>Leitão dos Arcos, Lda.</t>
+  </si>
+  <si>
+    <t>Vânia Silva</t>
+  </si>
+  <si>
+    <t>Bracar</t>
+  </si>
+  <si>
+    <t>Paulo Costa</t>
+  </si>
+  <si>
+    <t>Ricardo G.Silva</t>
+  </si>
+  <si>
+    <t>Pedro Fonseca</t>
+  </si>
+  <si>
+    <t>Contencioso</t>
+  </si>
+  <si>
+    <t>Bruno Brito</t>
+  </si>
+  <si>
+    <t>Sandra Silva</t>
+  </si>
+  <si>
+    <t>Luis Fonseca</t>
+  </si>
+  <si>
+    <t>Manuel Russo</t>
+  </si>
+  <si>
+    <t>Igor Chemanitov</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1168,7 @@
   <dimension ref="A1:G969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G2" sqref="G2:G969"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,7 +1224,7 @@
         <v>-4.08</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1214,7 +1247,7 @@
         <v>323.56</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1237,7 +1270,7 @@
         <v>418.54</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1260,7 +1293,7 @@
         <v>122.63</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1283,7 +1316,7 @@
         <v>-122.63</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1306,7 +1339,7 @@
         <v>570.56000000000006</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1329,7 +1362,7 @@
         <v>5778.43</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1352,7 +1385,7 @@
         <v>45.85</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1375,7 +1408,7 @@
         <v>-36.31</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1398,7 +1431,7 @@
         <v>140.92000000000002</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1421,7 +1454,7 @@
         <v>64.11</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1444,7 +1477,7 @@
         <v>174.55</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1467,7 +1500,7 @@
         <v>208.79</v>
       </c>
       <c r="G14" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1490,7 +1523,7 @@
         <v>100.2</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1513,7 +1546,7 @@
         <v>519.91999999999996</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1536,7 +1569,7 @@
         <v>87.67</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1559,7 +1592,7 @@
         <v>173.8</v>
       </c>
       <c r="G18" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1582,7 +1615,7 @@
         <v>20.75</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1605,7 +1638,7 @@
         <v>283.05</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1628,7 +1661,7 @@
         <v>228.83</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1651,7 +1684,7 @@
         <v>545.98</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1674,7 +1707,7 @@
         <v>2.63</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1697,7 +1730,7 @@
         <v>338.76</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1720,7 +1753,7 @@
         <v>460.23</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1743,7 +1776,7 @@
         <v>544.83000000000004</v>
       </c>
       <c r="G26" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1766,7 +1799,7 @@
         <v>603.02</v>
       </c>
       <c r="G27" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1789,7 +1822,7 @@
         <v>647.23</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1812,7 +1845,7 @@
         <v>-5.91</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1835,7 +1868,7 @@
         <v>682.81000000000006</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1858,7 +1891,7 @@
         <v>753.16</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1881,7 +1914,7 @@
         <v>25.46</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1904,7 +1937,7 @@
         <v>592.29</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1927,7 +1960,7 @@
         <v>-537.06000000000006</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1950,7 +1983,7 @@
         <v>677.38</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1973,7 +2006,7 @@
         <v>-472.29</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1996,7 +2029,7 @@
         <v>944.59</v>
       </c>
       <c r="G37" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2019,7 +2052,7 @@
         <v>577.26</v>
       </c>
       <c r="G38" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2042,7 +2075,7 @@
         <v>138.74</v>
       </c>
       <c r="G39" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2065,7 +2098,7 @@
         <v>-5.96</v>
       </c>
       <c r="G40" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2088,7 +2121,7 @@
         <v>493.26</v>
       </c>
       <c r="G41" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2111,7 +2144,7 @@
         <v>-18</v>
       </c>
       <c r="G42" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2134,7 +2167,7 @@
         <v>849.23</v>
       </c>
       <c r="G43" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2157,7 +2190,7 @@
         <v>-1811.28</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2180,7 +2213,7 @@
         <v>-10.33</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2203,7 +2236,7 @@
         <v>-9</v>
       </c>
       <c r="G46" t="s">
-        <v>8</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2226,7 +2259,7 @@
         <v>156.46</v>
       </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2249,7 +2282,7 @@
         <v>244.68</v>
       </c>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2272,7 +2305,7 @@
         <v>276.02</v>
       </c>
       <c r="G49" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2295,7 +2328,7 @@
         <v>316.33</v>
       </c>
       <c r="G50" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2318,7 +2351,7 @@
         <v>17.97</v>
       </c>
       <c r="G51" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2341,7 +2374,7 @@
         <v>152.74</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2364,7 +2397,7 @@
         <v>97.61</v>
       </c>
       <c r="G53" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2387,7 +2420,7 @@
         <v>-28.150000000000002</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2410,7 +2443,7 @@
         <v>595.76</v>
       </c>
       <c r="G55" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2433,7 +2466,7 @@
         <v>-19.89</v>
       </c>
       <c r="G56" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2456,7 +2489,7 @@
         <v>602.47</v>
       </c>
       <c r="G57" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2479,7 +2512,7 @@
         <v>1149.52</v>
       </c>
       <c r="G58" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2502,7 +2535,7 @@
         <v>124.59</v>
       </c>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2525,7 +2558,7 @@
         <v>126.64</v>
       </c>
       <c r="G60" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2548,7 +2581,7 @@
         <v>-54.59</v>
       </c>
       <c r="G61" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2571,7 +2604,7 @@
         <v>84.29</v>
       </c>
       <c r="G62" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2594,7 +2627,7 @@
         <v>19.84</v>
       </c>
       <c r="G63" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2617,7 +2650,7 @@
         <v>104.85000000000001</v>
       </c>
       <c r="G64" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2640,7 +2673,7 @@
         <v>72.040000000000006</v>
       </c>
       <c r="G65" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2663,7 +2696,7 @@
         <v>172.05</v>
       </c>
       <c r="G66" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2686,7 +2719,7 @@
         <v>90.210000000000008</v>
       </c>
       <c r="G67" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2709,7 +2742,7 @@
         <v>117.93</v>
       </c>
       <c r="G68" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2732,7 +2765,7 @@
         <v>230.42000000000002</v>
       </c>
       <c r="G69" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2755,7 +2788,7 @@
         <v>-34.83</v>
       </c>
       <c r="G70" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2778,7 +2811,7 @@
         <v>209.71</v>
       </c>
       <c r="G71" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2801,7 +2834,7 @@
         <v>149.91</v>
       </c>
       <c r="G72" t="s">
-        <v>6</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2824,7 +2857,7 @@
         <v>180.47</v>
       </c>
       <c r="G73" t="s">
-        <v>6</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2847,7 +2880,7 @@
         <v>7.7700000000000005</v>
       </c>
       <c r="G74" t="s">
-        <v>6</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2870,7 +2903,7 @@
         <v>-2.2800000000000002</v>
       </c>
       <c r="G75" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2893,7 +2926,7 @@
         <v>303.73</v>
       </c>
       <c r="G76" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2916,7 +2949,7 @@
         <v>23.44</v>
       </c>
       <c r="G77" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2939,7 +2972,7 @@
         <v>744.48</v>
       </c>
       <c r="G78" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2962,7 +2995,7 @@
         <v>-14.19</v>
       </c>
       <c r="G79" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2985,7 +3018,7 @@
         <v>955.98</v>
       </c>
       <c r="G80" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3008,7 +3041,7 @@
         <v>358.77</v>
       </c>
       <c r="G81" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3031,7 +3064,7 @@
         <v>275.25</v>
       </c>
       <c r="G82" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3054,7 +3087,7 @@
         <v>178.93</v>
       </c>
       <c r="G83" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3077,7 +3110,7 @@
         <v>-24.38</v>
       </c>
       <c r="G84" t="s">
-        <v>6</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3100,7 +3133,7 @@
         <v>124.86</v>
       </c>
       <c r="G85" t="s">
-        <v>6</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3123,7 +3156,7 @@
         <v>201.51</v>
       </c>
       <c r="G86" t="s">
-        <v>6</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3146,7 +3179,7 @@
         <v>35.44</v>
       </c>
       <c r="G87" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3169,7 +3202,7 @@
         <v>1022.6800000000001</v>
       </c>
       <c r="G88" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3192,7 +3225,7 @@
         <v>27.580000000000002</v>
       </c>
       <c r="G89" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3215,7 +3248,7 @@
         <v>-34.61</v>
       </c>
       <c r="G90" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3238,7 +3271,7 @@
         <v>-18.62</v>
       </c>
       <c r="G91" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3261,7 +3294,7 @@
         <v>-54.59</v>
       </c>
       <c r="G92" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3284,7 +3317,7 @@
         <v>418.38</v>
       </c>
       <c r="G93" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3307,7 +3340,7 @@
         <v>1261.7</v>
       </c>
       <c r="G94" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3330,7 +3363,7 @@
         <v>206.64000000000001</v>
       </c>
       <c r="G95" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3353,7 +3386,7 @@
         <v>2648.9500000000003</v>
       </c>
       <c r="G96" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3376,7 +3409,7 @@
         <v>3262.2000000000003</v>
       </c>
       <c r="G97" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3399,7 +3432,7 @@
         <v>22.76</v>
       </c>
       <c r="G98" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3422,7 +3455,7 @@
         <v>1174.21</v>
       </c>
       <c r="G99" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3445,7 +3478,7 @@
         <v>3434.98</v>
       </c>
       <c r="G100" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3468,7 +3501,7 @@
         <v>789.28</v>
       </c>
       <c r="G101" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3491,7 +3524,7 @@
         <v>3031.75</v>
       </c>
       <c r="G102" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3514,7 +3547,7 @@
         <v>1458.6100000000001</v>
       </c>
       <c r="G103" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3537,7 +3570,7 @@
         <v>46.300000000000004</v>
       </c>
       <c r="G104" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3560,7 +3593,7 @@
         <v>1624.13</v>
       </c>
       <c r="G105" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3583,7 +3616,7 @@
         <v>34.44</v>
       </c>
       <c r="G106" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3606,7 +3639,7 @@
         <v>796.17000000000007</v>
       </c>
       <c r="G107" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3629,7 +3662,7 @@
         <v>128.76</v>
       </c>
       <c r="G108" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3652,7 +3685,7 @@
         <v>-3.71</v>
       </c>
       <c r="G109" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3675,7 +3708,7 @@
         <v>1378.22</v>
       </c>
       <c r="G110" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3698,7 +3731,7 @@
         <v>2786.05</v>
       </c>
       <c r="G111" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3721,7 +3754,7 @@
         <v>-516.81000000000006</v>
       </c>
       <c r="G112" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3744,7 +3777,7 @@
         <v>463.82</v>
       </c>
       <c r="G113" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3767,7 +3800,7 @@
         <v>5396.05</v>
       </c>
       <c r="G114" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3790,7 +3823,7 @@
         <v>25.72</v>
       </c>
       <c r="G115" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3813,7 +3846,7 @@
         <v>-63.870000000000005</v>
       </c>
       <c r="G116" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3836,7 +3869,7 @@
         <v>2509.11</v>
       </c>
       <c r="G117" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3859,7 +3892,7 @@
         <v>2723.42</v>
       </c>
       <c r="G118" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -3882,7 +3915,7 @@
         <v>2331.11</v>
       </c>
       <c r="G119" t="s">
-        <v>16</v>
+        <v>238</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -3905,7 +3938,7 @@
         <v>127.27</v>
       </c>
       <c r="G120" t="s">
-        <v>16</v>
+        <v>238</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -3928,7 +3961,7 @@
         <v>-44.300000000000004</v>
       </c>
       <c r="G121" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -3951,7 +3984,7 @@
         <v>-157.55000000000001</v>
       </c>
       <c r="G122" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -3974,7 +4007,7 @@
         <v>-42.26</v>
       </c>
       <c r="G123" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -3997,7 +4030,7 @@
         <v>-43.6</v>
       </c>
       <c r="G124" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4020,7 +4053,7 @@
         <v>-113.52</v>
       </c>
       <c r="G125" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -4043,7 +4076,7 @@
         <v>-50.85</v>
       </c>
       <c r="G126" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -4066,7 +4099,7 @@
         <v>-100.23</v>
       </c>
       <c r="G127" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -4089,7 +4122,7 @@
         <v>118.63</v>
       </c>
       <c r="G128" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -4112,7 +4145,7 @@
         <v>240.19</v>
       </c>
       <c r="G129" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -4135,7 +4168,7 @@
         <v>451.6</v>
       </c>
       <c r="G130" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -4158,7 +4191,7 @@
         <v>304.07</v>
       </c>
       <c r="G131" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -4181,7 +4214,7 @@
         <v>250.1</v>
       </c>
       <c r="G132" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4204,7 +4237,7 @@
         <v>357.07</v>
       </c>
       <c r="G133" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4227,7 +4260,7 @@
         <v>281.37</v>
       </c>
       <c r="G134" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -4250,7 +4283,7 @@
         <v>326.22000000000003</v>
       </c>
       <c r="G135" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -4273,7 +4306,7 @@
         <v>-70.86</v>
       </c>
       <c r="G136" t="s">
-        <v>18</v>
+        <v>236</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -4296,7 +4329,7 @@
         <v>305.11</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -4319,7 +4352,7 @@
         <v>67.900000000000006</v>
       </c>
       <c r="G138" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -4342,7 +4375,7 @@
         <v>-34.119999999999997</v>
       </c>
       <c r="G139" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -4365,7 +4398,7 @@
         <v>90.75</v>
       </c>
       <c r="G140" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -4388,7 +4421,7 @@
         <v>450.61</v>
       </c>
       <c r="G141" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -4411,7 +4444,7 @@
         <v>-0.83000000000000007</v>
       </c>
       <c r="G142" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -4434,7 +4467,7 @@
         <v>-1.45</v>
       </c>
       <c r="G143" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -4457,7 +4490,7 @@
         <v>110.45</v>
       </c>
       <c r="G144" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -4480,7 +4513,7 @@
         <v>294.15000000000003</v>
       </c>
       <c r="G145" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -4503,7 +4536,7 @@
         <v>185.83</v>
       </c>
       <c r="G146" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -4526,7 +4559,7 @@
         <v>157.53</v>
       </c>
       <c r="G147" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -4549,7 +4582,7 @@
         <v>76.31</v>
       </c>
       <c r="G148" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -4572,7 +4605,7 @@
         <v>116.51</v>
       </c>
       <c r="G149" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -4595,7 +4628,7 @@
         <v>195.94</v>
       </c>
       <c r="G150" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -4618,7 +4651,7 @@
         <v>22.5</v>
       </c>
       <c r="G151" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -4641,7 +4674,7 @@
         <v>16.66</v>
       </c>
       <c r="G152" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -4664,7 +4697,7 @@
         <v>185.21</v>
       </c>
       <c r="G153" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4687,7 +4720,7 @@
         <v>-0.27</v>
       </c>
       <c r="G154" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -4710,7 +4743,7 @@
         <v>159.84</v>
       </c>
       <c r="G155" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -4733,7 +4766,7 @@
         <v>33.19</v>
       </c>
       <c r="G156" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -4756,7 +4789,7 @@
         <v>83.960000000000008</v>
       </c>
       <c r="G157" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -4779,7 +4812,7 @@
         <v>37.81</v>
       </c>
       <c r="G158" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -4802,7 +4835,7 @@
         <v>76.97</v>
       </c>
       <c r="G159" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -4825,7 +4858,7 @@
         <v>16.27</v>
       </c>
       <c r="G160" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -4848,7 +4881,7 @@
         <v>7.0600000000000005</v>
       </c>
       <c r="G161" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -4871,7 +4904,7 @@
         <v>14.36</v>
       </c>
       <c r="G162" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -4894,7 +4927,7 @@
         <v>309.89</v>
       </c>
       <c r="G163" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -4917,7 +4950,7 @@
         <v>1192.5</v>
       </c>
       <c r="G164" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -4940,7 +4973,7 @@
         <v>556.5</v>
       </c>
       <c r="G165" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -4963,7 +4996,7 @@
         <v>795</v>
       </c>
       <c r="G166" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -4986,7 +5019,7 @@
         <v>60.46</v>
       </c>
       <c r="G167" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -5009,7 +5042,7 @@
         <v>34.51</v>
       </c>
       <c r="G168" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -5032,7 +5065,7 @@
         <v>-42.46</v>
       </c>
       <c r="G169" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -5055,7 +5088,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="G170" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -5078,7 +5111,7 @@
         <v>954</v>
       </c>
       <c r="G171" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -5101,7 +5134,7 @@
         <v>10.85</v>
       </c>
       <c r="G172" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -5124,7 +5157,7 @@
         <v>26.03</v>
       </c>
       <c r="G173" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -5147,7 +5180,7 @@
         <v>157.82</v>
       </c>
       <c r="G174" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -5170,7 +5203,7 @@
         <v>207.65</v>
       </c>
       <c r="G175" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -5193,7 +5226,7 @@
         <v>33.380000000000003</v>
       </c>
       <c r="G176" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -5216,7 +5249,7 @@
         <v>335.47</v>
       </c>
       <c r="G177" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -5239,7 +5272,7 @@
         <v>128.04</v>
       </c>
       <c r="G178" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -5262,7 +5295,7 @@
         <v>58.94</v>
       </c>
       <c r="G179" t="s">
-        <v>6</v>
+        <v>241</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -5285,7 +5318,7 @@
         <v>-6.59</v>
       </c>
       <c r="G180" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -5308,7 +5341,7 @@
         <v>-5.01</v>
       </c>
       <c r="G181" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -5331,7 +5364,7 @@
         <v>-190.8</v>
       </c>
       <c r="G182" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -5354,7 +5387,7 @@
         <v>-138.94</v>
       </c>
       <c r="G183" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -5377,7 +5410,7 @@
         <v>-25.46</v>
       </c>
       <c r="G184" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -5400,7 +5433,7 @@
         <v>344.99</v>
       </c>
       <c r="G185" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -5423,7 +5456,7 @@
         <v>403.34000000000003</v>
       </c>
       <c r="G186" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -5446,7 +5479,7 @@
         <v>253.59</v>
       </c>
       <c r="G187" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -5469,7 +5502,7 @@
         <v>523.9</v>
       </c>
       <c r="G188" t="s">
-        <v>6</v>
+        <v>241</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -5492,7 +5525,7 @@
         <v>67.02</v>
       </c>
       <c r="G189" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -5515,7 +5548,7 @@
         <v>-6.05</v>
       </c>
       <c r="G190" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -5538,7 +5571,7 @@
         <v>129.42000000000002</v>
       </c>
       <c r="G191" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -5561,7 +5594,7 @@
         <v>15.35</v>
       </c>
       <c r="G192" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -5584,7 +5617,7 @@
         <v>-69.150000000000006</v>
       </c>
       <c r="G193" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -5607,7 +5640,7 @@
         <v>247.82</v>
       </c>
       <c r="G194" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -5630,7 +5663,7 @@
         <v>124.66</v>
       </c>
       <c r="G195" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -5653,7 +5686,7 @@
         <v>179.35</v>
       </c>
       <c r="G196" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -5676,7 +5709,7 @@
         <v>-218.63</v>
       </c>
       <c r="G197" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -5699,7 +5732,7 @@
         <v>671.81000000000006</v>
       </c>
       <c r="G198" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -5722,7 +5755,7 @@
         <v>112.59</v>
       </c>
       <c r="G199" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -5745,7 +5778,7 @@
         <v>573.16</v>
       </c>
       <c r="G200" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -5768,7 +5801,7 @@
         <v>127.81</v>
       </c>
       <c r="G201" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -5791,7 +5824,7 @@
         <v>460.43</v>
       </c>
       <c r="G202" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -5814,7 +5847,7 @@
         <v>240.19</v>
       </c>
       <c r="G203" t="s">
-        <v>6</v>
+        <v>234</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -5837,7 +5870,7 @@
         <v>640.66999999999996</v>
       </c>
       <c r="G204" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -5860,7 +5893,7 @@
         <v>415.94</v>
       </c>
       <c r="G205" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -5883,7 +5916,7 @@
         <v>509.33</v>
       </c>
       <c r="G206" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -5906,7 +5939,7 @@
         <v>248.84</v>
       </c>
       <c r="G207" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -5929,7 +5962,7 @@
         <v>529.79999999999995</v>
       </c>
       <c r="G208" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -5952,7 +5985,7 @@
         <v>326.15000000000003</v>
       </c>
       <c r="G209" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -5975,7 +6008,7 @@
         <v>128.44999999999999</v>
       </c>
       <c r="G210" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -5998,7 +6031,7 @@
         <v>420.28000000000003</v>
       </c>
       <c r="G211" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -6021,7 +6054,7 @@
         <v>-5.01</v>
       </c>
       <c r="G212" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6044,7 +6077,7 @@
         <v>360.85</v>
       </c>
       <c r="G213" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -6067,7 +6100,7 @@
         <v>512.03</v>
       </c>
       <c r="G214" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -6090,7 +6123,7 @@
         <v>818.30000000000007</v>
       </c>
       <c r="G215" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -6113,7 +6146,7 @@
         <v>260.89</v>
       </c>
       <c r="G216" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -6136,7 +6169,7 @@
         <v>688.37</v>
       </c>
       <c r="G217" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -6159,7 +6192,7 @@
         <v>-6.47</v>
       </c>
       <c r="G218" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -6182,7 +6215,7 @@
         <v>28.51</v>
       </c>
       <c r="G219" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -6205,7 +6238,7 @@
         <v>199.05</v>
       </c>
       <c r="G220" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -6228,7 +6261,7 @@
         <v>129.57</v>
       </c>
       <c r="G221" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -6251,7 +6284,7 @@
         <v>270.58</v>
       </c>
       <c r="G222" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -6274,7 +6307,7 @@
         <v>309.35000000000002</v>
       </c>
       <c r="G223" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -6297,7 +6330,7 @@
         <v>-33.380000000000003</v>
       </c>
       <c r="G224" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -6320,7 +6353,7 @@
         <v>172.58</v>
       </c>
       <c r="G225" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -6343,7 +6376,7 @@
         <v>547.85</v>
       </c>
       <c r="G226" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -6366,7 +6399,7 @@
         <v>304.60000000000002</v>
       </c>
       <c r="G227" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -6389,7 +6422,7 @@
         <v>-54.99</v>
       </c>
       <c r="G228" t="s">
-        <v>13</v>
+        <v>237</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -6412,7 +6445,7 @@
         <v>328.56</v>
       </c>
       <c r="G229" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -6435,7 +6468,7 @@
         <v>-7.1000000000000005</v>
       </c>
       <c r="G230" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -6458,7 +6491,7 @@
         <v>280.28000000000003</v>
       </c>
       <c r="G231" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -6481,7 +6514,7 @@
         <v>-4.63</v>
       </c>
       <c r="G232" t="s">
-        <v>6</v>
+        <v>237</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -6504,7 +6537,7 @@
         <v>167.72</v>
       </c>
       <c r="G233" t="s">
-        <v>6</v>
+        <v>237</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -6527,7 +6560,7 @@
         <v>301.11</v>
       </c>
       <c r="G234" t="s">
-        <v>6</v>
+        <v>237</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -6550,7 +6583,7 @@
         <v>-164.29</v>
       </c>
       <c r="G235" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -6573,7 +6606,7 @@
         <v>99.72</v>
       </c>
       <c r="G236" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -6596,7 +6629,7 @@
         <v>1365.27</v>
       </c>
       <c r="G237" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -6619,7 +6652,7 @@
         <v>3331.38</v>
       </c>
       <c r="G238" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -6642,7 +6675,7 @@
         <v>112.29</v>
       </c>
       <c r="G239" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -6665,7 +6698,7 @@
         <v>22.71</v>
       </c>
       <c r="G240" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -6688,7 +6721,7 @@
         <v>1828.3400000000001</v>
       </c>
       <c r="G241" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -6711,7 +6744,7 @@
         <v>-43.31</v>
       </c>
       <c r="G242" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -6734,7 +6767,7 @@
         <v>3869.51</v>
       </c>
       <c r="G243" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -6757,7 +6790,7 @@
         <v>-1470</v>
       </c>
       <c r="G244" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -6780,7 +6813,7 @@
         <v>2846.36</v>
       </c>
       <c r="G245" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -6803,7 +6836,7 @@
         <v>-22.1</v>
       </c>
       <c r="G246" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -6826,7 +6859,7 @@
         <v>742.15</v>
       </c>
       <c r="G247" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -6849,7 +6882,7 @@
         <v>-2.12</v>
       </c>
       <c r="G248" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -6872,7 +6905,7 @@
         <v>145.68</v>
       </c>
       <c r="G249" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -6895,7 +6928,7 @@
         <v>85.460000000000008</v>
       </c>
       <c r="G250" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -6918,7 +6951,7 @@
         <v>-38.380000000000003</v>
       </c>
       <c r="G251" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -6941,7 +6974,7 @@
         <v>328.58</v>
       </c>
       <c r="G252" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -6964,7 +6997,7 @@
         <v>301.90000000000003</v>
       </c>
       <c r="G253" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -6987,7 +7020,7 @@
         <v>-238.5</v>
       </c>
       <c r="G254" t="s">
-        <v>6</v>
+        <v>242</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -7010,7 +7043,7 @@
         <v>5167.5</v>
       </c>
       <c r="G255" t="s">
-        <v>6</v>
+        <v>242</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -7033,7 +7066,7 @@
         <v>111.63</v>
       </c>
       <c r="G256" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -7056,7 +7089,7 @@
         <v>93.44</v>
       </c>
       <c r="G257" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -7079,7 +7112,7 @@
         <v>107.98</v>
       </c>
       <c r="G258" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -7102,7 +7135,7 @@
         <v>5623.02</v>
       </c>
       <c r="G259" t="s">
-        <v>15</v>
+        <v>243</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -7125,7 +7158,7 @@
         <v>239.08</v>
       </c>
       <c r="G260" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -7148,7 +7181,7 @@
         <v>43.46</v>
       </c>
       <c r="G261" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -7171,7 +7204,7 @@
         <v>786.98</v>
       </c>
       <c r="G262" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -7194,7 +7227,7 @@
         <v>-1.73</v>
       </c>
       <c r="G263" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -7217,7 +7250,7 @@
         <v>-89.27</v>
       </c>
       <c r="G264" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -7240,7 +7273,7 @@
         <v>64.48</v>
       </c>
       <c r="G265" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -7263,7 +7296,7 @@
         <v>658.35</v>
       </c>
       <c r="G266" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -7286,7 +7319,7 @@
         <v>-10.31</v>
       </c>
       <c r="G267" t="s">
-        <v>8</v>
+        <v>243</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -7309,7 +7342,7 @@
         <v>-36.15</v>
       </c>
       <c r="G268" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -7332,7 +7365,7 @@
         <v>36.46</v>
       </c>
       <c r="G269" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -7355,7 +7388,7 @@
         <v>1681.45</v>
       </c>
       <c r="G270" t="s">
-        <v>15</v>
+        <v>235</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -7378,7 +7411,7 @@
         <v>-4</v>
       </c>
       <c r="G271" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -7401,7 +7434,7 @@
         <v>-1</v>
       </c>
       <c r="G272" t="s">
-        <v>16</v>
+        <v>243</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -7424,7 +7457,7 @@
         <v>-127.16</v>
       </c>
       <c r="G273" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -7447,7 +7480,7 @@
         <v>126.35000000000001</v>
       </c>
       <c r="G274" t="s">
-        <v>8</v>
+        <v>237</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
@@ -7470,7 +7503,7 @@
         <v>391.52</v>
       </c>
       <c r="G275" t="s">
-        <v>8</v>
+        <v>237</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -7493,7 +7526,7 @@
         <v>59.06</v>
       </c>
       <c r="G276" t="s">
-        <v>8</v>
+        <v>237</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -7516,7 +7549,7 @@
         <v>314.43</v>
       </c>
       <c r="G277" t="s">
-        <v>8</v>
+        <v>237</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -7539,7 +7572,7 @@
         <v>394.83</v>
       </c>
       <c r="G278" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -7562,7 +7595,7 @@
         <v>340.11</v>
       </c>
       <c r="G279" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -7585,7 +7618,7 @@
         <v>163.52000000000001</v>
       </c>
       <c r="G280" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -7608,7 +7641,7 @@
         <v>159.94</v>
       </c>
       <c r="G281" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -7631,7 +7664,7 @@
         <v>69.59</v>
       </c>
       <c r="G282" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -7654,7 +7687,7 @@
         <v>362.03000000000003</v>
       </c>
       <c r="G283" t="s">
-        <v>6</v>
+        <v>237</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -7677,7 +7710,7 @@
         <v>-62.620000000000005</v>
       </c>
       <c r="G284" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
@@ -7700,7 +7733,7 @@
         <v>431.11</v>
       </c>
       <c r="G285" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -7723,7 +7756,7 @@
         <v>90.9</v>
       </c>
       <c r="G286" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -7746,7 +7779,7 @@
         <v>65.69</v>
       </c>
       <c r="G287" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
@@ -7769,7 +7802,7 @@
         <v>186.65</v>
       </c>
       <c r="G288" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
@@ -7792,7 +7825,7 @@
         <v>242.16</v>
       </c>
       <c r="G289" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
@@ -7815,7 +7848,7 @@
         <v>501.57</v>
       </c>
       <c r="G290" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
@@ -7838,7 +7871,7 @@
         <v>282.33</v>
       </c>
       <c r="G291" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -7861,7 +7894,7 @@
         <v>-50.160000000000004</v>
       </c>
       <c r="G292" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
@@ -7884,7 +7917,7 @@
         <v>1120.28</v>
       </c>
       <c r="G293" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
@@ -7907,7 +7940,7 @@
         <v>57.67</v>
       </c>
       <c r="G294" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
@@ -7930,7 +7963,7 @@
         <v>301.74</v>
       </c>
       <c r="G295" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -7953,7 +7986,7 @@
         <v>758.25</v>
       </c>
       <c r="G296" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
@@ -7976,7 +8009,7 @@
         <v>29.150000000000002</v>
       </c>
       <c r="G297" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
@@ -7999,7 +8032,7 @@
         <v>328.79</v>
       </c>
       <c r="G298" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
@@ -8022,7 +8055,7 @@
         <v>858.25</v>
       </c>
       <c r="G299" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
@@ -8045,7 +8078,7 @@
         <v>266.19</v>
       </c>
       <c r="G300" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
@@ -8068,7 +8101,7 @@
         <v>1118.7</v>
       </c>
       <c r="G301" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
@@ -8091,7 +8124,7 @@
         <v>365.37</v>
       </c>
       <c r="G302" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
@@ -8114,7 +8147,7 @@
         <v>1035.3600000000001</v>
       </c>
       <c r="G303" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
@@ -8137,7 +8170,7 @@
         <v>47.81</v>
       </c>
       <c r="G304" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
@@ -8160,7 +8193,7 @@
         <v>1274.8399999999999</v>
       </c>
       <c r="G305" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
@@ -8183,7 +8216,7 @@
         <v>191.20000000000002</v>
       </c>
       <c r="G306" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
@@ -8206,7 +8239,7 @@
         <v>924.54</v>
       </c>
       <c r="G307" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
@@ -8229,7 +8262,7 @@
         <v>78.19</v>
       </c>
       <c r="G308" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
@@ -8252,7 +8285,7 @@
         <v>23.85</v>
       </c>
       <c r="G309" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
@@ -8275,7 +8308,7 @@
         <v>1002.2</v>
       </c>
       <c r="G310" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
@@ -8298,7 +8331,7 @@
         <v>74.41</v>
       </c>
       <c r="G311" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
@@ -8321,7 +8354,7 @@
         <v>661.97</v>
       </c>
       <c r="G312" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
@@ -8344,7 +8377,7 @@
         <v>970.66</v>
       </c>
       <c r="G313" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
@@ -8367,7 +8400,7 @@
         <v>173.89000000000001</v>
       </c>
       <c r="G314" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
@@ -8390,7 +8423,7 @@
         <v>476.07</v>
       </c>
       <c r="G315" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -8413,7 +8446,7 @@
         <v>751.33</v>
       </c>
       <c r="G316" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
@@ -8436,7 +8469,7 @@
         <v>-13.030000000000001</v>
       </c>
       <c r="G317" t="s">
-        <v>16</v>
+        <v>238</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -8459,7 +8492,7 @@
         <v>88.72</v>
       </c>
       <c r="G318" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
@@ -8482,7 +8515,7 @@
         <v>-17.34</v>
       </c>
       <c r="G319" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
@@ -8505,7 +8538,7 @@
         <v>414.82</v>
       </c>
       <c r="G320" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
@@ -8528,7 +8561,7 @@
         <v>-77.91</v>
       </c>
       <c r="G321" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
@@ -8551,7 +8584,7 @@
         <v>303.93</v>
       </c>
       <c r="G322" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
@@ -8574,7 +8607,7 @@
         <v>-29.34</v>
       </c>
       <c r="G323" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
@@ -8597,7 +8630,7 @@
         <v>-4.99</v>
       </c>
       <c r="G324" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
@@ -8620,7 +8653,7 @@
         <v>421.25</v>
       </c>
       <c r="G325" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
@@ -8643,7 +8676,7 @@
         <v>361.42</v>
       </c>
       <c r="G326" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
@@ -8666,7 +8699,7 @@
         <v>177.99</v>
       </c>
       <c r="G327" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
@@ -8689,7 +8722,7 @@
         <v>258.84000000000003</v>
       </c>
       <c r="G328" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
@@ -8712,7 +8745,7 @@
         <v>-9.41</v>
       </c>
       <c r="G329" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
@@ -8735,7 +8768,7 @@
         <v>377.68</v>
       </c>
       <c r="G330" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
@@ -8758,7 +8791,7 @@
         <v>257.82</v>
       </c>
       <c r="G331" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
@@ -8781,7 +8814,7 @@
         <v>315.04000000000002</v>
       </c>
       <c r="G332" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
@@ -8804,7 +8837,7 @@
         <v>389.41</v>
       </c>
       <c r="G333" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
@@ -8827,7 +8860,7 @@
         <v>405.75</v>
       </c>
       <c r="G334" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
@@ -8850,7 +8883,7 @@
         <v>445.23</v>
       </c>
       <c r="G335" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
@@ -8873,7 +8906,7 @@
         <v>349.32</v>
       </c>
       <c r="G336" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
@@ -8896,7 +8929,7 @@
         <v>951.75</v>
       </c>
       <c r="G337" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
@@ -8919,7 +8952,7 @@
         <v>78.92</v>
       </c>
       <c r="G338" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
@@ -8942,7 +8975,7 @@
         <v>81.25</v>
       </c>
       <c r="G339" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
@@ -8965,7 +8998,7 @@
         <v>833.06000000000006</v>
       </c>
       <c r="G340" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
@@ -8988,7 +9021,7 @@
         <v>1056.32</v>
       </c>
       <c r="G341" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
@@ -9011,7 +9044,7 @@
         <v>210.29</v>
       </c>
       <c r="G342" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
@@ -9034,7 +9067,7 @@
         <v>-507.94</v>
       </c>
       <c r="G343" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
@@ -9057,7 +9090,7 @@
         <v>540.54999999999995</v>
       </c>
       <c r="G344" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
@@ -9080,7 +9113,7 @@
         <v>165.06</v>
       </c>
       <c r="G345" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
@@ -9103,7 +9136,7 @@
         <v>110.59</v>
       </c>
       <c r="G346" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
@@ -9126,7 +9159,7 @@
         <v>439.56</v>
       </c>
       <c r="G347" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
@@ -9149,7 +9182,7 @@
         <v>200.86</v>
       </c>
       <c r="G348" t="s">
-        <v>6</v>
+        <v>241</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
@@ -9172,7 +9205,7 @@
         <v>112.11</v>
       </c>
       <c r="G349" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
@@ -9195,7 +9228,7 @@
         <v>75.03</v>
       </c>
       <c r="G350" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
@@ -9218,7 +9251,7 @@
         <v>114.44</v>
       </c>
       <c r="G351" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
@@ -9241,7 +9274,7 @@
         <v>-73.5</v>
       </c>
       <c r="G352" t="s">
-        <v>6</v>
+        <v>237</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
@@ -9264,7 +9297,7 @@
         <v>112.3</v>
       </c>
       <c r="G353" t="s">
-        <v>6</v>
+        <v>237</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
@@ -9287,7 +9320,7 @@
         <v>10.91</v>
       </c>
       <c r="G354" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
@@ -9310,7 +9343,7 @@
         <v>337.18</v>
       </c>
       <c r="G355" t="s">
-        <v>13</v>
+        <v>237</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
@@ -9333,7 +9366,7 @@
         <v>1000</v>
       </c>
       <c r="G356" t="s">
-        <v>13</v>
+        <v>237</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
@@ -9356,7 +9389,7 @@
         <v>111.17</v>
       </c>
       <c r="G357" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
@@ -9379,7 +9412,7 @@
         <v>380.47</v>
       </c>
       <c r="G358" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
@@ -9402,7 +9435,7 @@
         <v>525.45000000000005</v>
       </c>
       <c r="G359" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
@@ -9425,7 +9458,7 @@
         <v>64.489999999999995</v>
       </c>
       <c r="G360" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
@@ -9448,7 +9481,7 @@
         <v>231.59</v>
       </c>
       <c r="G361" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
@@ -9471,7 +9504,7 @@
         <v>325.24</v>
       </c>
       <c r="G362" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
@@ -9494,7 +9527,7 @@
         <v>124.06</v>
       </c>
       <c r="G363" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
@@ -9517,7 +9550,7 @@
         <v>141.94</v>
       </c>
       <c r="G364" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
@@ -9540,7 +9573,7 @@
         <v>322.45</v>
       </c>
       <c r="G365" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
@@ -9563,7 +9596,7 @@
         <v>243.8</v>
       </c>
       <c r="G366" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
@@ -9586,7 +9619,7 @@
         <v>314.53000000000003</v>
       </c>
       <c r="G367" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
@@ -9609,7 +9642,7 @@
         <v>155.41</v>
       </c>
       <c r="G368" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
@@ -9632,7 +9665,7 @@
         <v>48.38</v>
       </c>
       <c r="G369" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
@@ -9655,7 +9688,7 @@
         <v>1518.74</v>
       </c>
       <c r="G370" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
@@ -9678,7 +9711,7 @@
         <v>221.94</v>
       </c>
       <c r="G371" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
@@ -9701,7 +9734,7 @@
         <v>2118.5300000000002</v>
       </c>
       <c r="G372" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
@@ -9724,7 +9757,7 @@
         <v>471.49</v>
       </c>
       <c r="G373" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
@@ -9747,7 +9780,7 @@
         <v>1312.27</v>
       </c>
       <c r="G374" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
@@ -9770,7 +9803,7 @@
         <v>1681.83</v>
       </c>
       <c r="G375" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
@@ -9793,7 +9826,7 @@
         <v>2061.3200000000002</v>
       </c>
       <c r="G376" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
@@ -9816,7 +9849,7 @@
         <v>1420.72</v>
       </c>
       <c r="G377" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
@@ -9839,7 +9872,7 @@
         <v>-200</v>
       </c>
       <c r="G378" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
@@ -9862,7 +9895,7 @@
         <v>-24.060000000000002</v>
       </c>
       <c r="G379" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
@@ -9885,7 +9918,7 @@
         <v>192.77</v>
       </c>
       <c r="G380" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
@@ -9908,7 +9941,7 @@
         <v>57.51</v>
       </c>
       <c r="G381" t="s">
-        <v>6</v>
+        <v>241</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
@@ -9931,7 +9964,7 @@
         <v>414.76</v>
       </c>
       <c r="G382" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
@@ -9954,7 +9987,7 @@
         <v>-21.400000000000002</v>
       </c>
       <c r="G383" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
@@ -9977,7 +10010,7 @@
         <v>-0.69000000000000006</v>
       </c>
       <c r="G384" t="s">
-        <v>6</v>
+        <v>237</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
@@ -10000,7 +10033,7 @@
         <v>158.86000000000001</v>
       </c>
       <c r="G385" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
@@ -10023,7 +10056,7 @@
         <v>-67.3</v>
       </c>
       <c r="G386" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
@@ -10046,7 +10079,7 @@
         <v>118.29</v>
       </c>
       <c r="G387" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
@@ -10069,7 +10102,7 @@
         <v>87.7</v>
       </c>
       <c r="G388" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
@@ -10092,7 +10125,7 @@
         <v>120.81</v>
       </c>
       <c r="G389" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
@@ -10115,7 +10148,7 @@
         <v>161.81</v>
       </c>
       <c r="G390" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
@@ -10138,7 +10171,7 @@
         <v>71.540000000000006</v>
       </c>
       <c r="G391" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
@@ -10161,7 +10194,7 @@
         <v>243.53</v>
       </c>
       <c r="G392" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
@@ -10184,7 +10217,7 @@
         <v>-22</v>
       </c>
       <c r="G393" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
@@ -10207,7 +10240,7 @@
         <v>-27.45</v>
       </c>
       <c r="G394" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
@@ -10230,7 +10263,7 @@
         <v>-5.73</v>
       </c>
       <c r="G395" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
@@ -10253,7 +10286,7 @@
         <v>-680.83</v>
       </c>
       <c r="G396" t="s">
-        <v>6</v>
+        <v>234</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
@@ -10276,7 +10309,7 @@
         <v>968.26</v>
       </c>
       <c r="G397" t="s">
-        <v>6</v>
+        <v>234</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
@@ -10299,7 +10332,7 @@
         <v>545.36</v>
       </c>
       <c r="G398" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
@@ -10322,7 +10355,7 @@
         <v>321.40000000000003</v>
       </c>
       <c r="G399" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
@@ -10345,7 +10378,7 @@
         <v>-19.75</v>
       </c>
       <c r="G400" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
@@ -10368,7 +10401,7 @@
         <v>670.55000000000007</v>
       </c>
       <c r="G401" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
@@ -10391,7 +10424,7 @@
         <v>62.52</v>
       </c>
       <c r="G402" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
@@ -10414,7 +10447,7 @@
         <v>-70.06</v>
       </c>
       <c r="G403" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
@@ -10437,7 +10470,7 @@
         <v>19.12</v>
       </c>
       <c r="G404" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
@@ -10460,7 +10493,7 @@
         <v>131.35</v>
       </c>
       <c r="G405" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
@@ -10483,7 +10516,7 @@
         <v>463.83</v>
       </c>
       <c r="G406" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
@@ -10506,7 +10539,7 @@
         <v>119.33</v>
       </c>
       <c r="G407" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
@@ -10529,7 +10562,7 @@
         <v>173.5</v>
       </c>
       <c r="G408" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
@@ -10552,7 +10585,7 @@
         <v>-80.75</v>
       </c>
       <c r="G409" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
@@ -10575,7 +10608,7 @@
         <v>-20.990000000000002</v>
       </c>
       <c r="G410" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
@@ -10598,7 +10631,7 @@
         <v>799.53</v>
       </c>
       <c r="G411" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
@@ -10621,7 +10654,7 @@
         <v>886.28</v>
       </c>
       <c r="G412" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
@@ -10644,7 +10677,7 @@
         <v>586.05000000000007</v>
       </c>
       <c r="G413" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
@@ -10667,7 +10700,7 @@
         <v>350.3</v>
       </c>
       <c r="G414" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
@@ -10690,7 +10723,7 @@
         <v>984.59</v>
       </c>
       <c r="G415" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
@@ -10713,7 +10746,7 @@
         <v>987.85</v>
       </c>
       <c r="G416" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
@@ -10736,7 +10769,7 @@
         <v>-39.5</v>
       </c>
       <c r="G417" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
@@ -10759,7 +10792,7 @@
         <v>798.18000000000006</v>
       </c>
       <c r="G418" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
@@ -10782,7 +10815,7 @@
         <v>830.9</v>
       </c>
       <c r="G419" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
@@ -10805,7 +10838,7 @@
         <v>857.26</v>
       </c>
       <c r="G420" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
@@ -10828,7 +10861,7 @@
         <v>-37.76</v>
       </c>
       <c r="G421" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
@@ -10851,7 +10884,7 @@
         <v>998.21</v>
       </c>
       <c r="G422" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
@@ -10874,7 +10907,7 @@
         <v>642.09</v>
       </c>
       <c r="G423" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
@@ -10897,7 +10930,7 @@
         <v>746.45</v>
       </c>
       <c r="G424" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
@@ -10920,7 +10953,7 @@
         <v>118.74000000000001</v>
       </c>
       <c r="G425" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
@@ -10943,7 +10976,7 @@
         <v>12.8</v>
       </c>
       <c r="G426" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
@@ -10966,7 +10999,7 @@
         <v>275.3</v>
       </c>
       <c r="G427" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
@@ -10989,7 +11022,7 @@
         <v>242.91</v>
       </c>
       <c r="G428" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
@@ -11012,7 +11045,7 @@
         <v>81.070000000000007</v>
       </c>
       <c r="G429" t="s">
-        <v>6</v>
+        <v>237</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
@@ -11035,7 +11068,7 @@
         <v>76.72</v>
       </c>
       <c r="G430" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
@@ -11058,7 +11091,7 @@
         <v>504.83</v>
       </c>
       <c r="G431" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
@@ -11081,7 +11114,7 @@
         <v>1039.74</v>
       </c>
       <c r="G432" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
@@ -11104,7 +11137,7 @@
         <v>739.42</v>
       </c>
       <c r="G433" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
@@ -11127,7 +11160,7 @@
         <v>810.6</v>
       </c>
       <c r="G434" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
@@ -11150,7 +11183,7 @@
         <v>858.71</v>
       </c>
       <c r="G435" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
@@ -11173,7 +11206,7 @@
         <v>727.32</v>
       </c>
       <c r="G436" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
@@ -11196,7 +11229,7 @@
         <v>40.74</v>
       </c>
       <c r="G437" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
@@ -11219,7 +11252,7 @@
         <v>700.72</v>
       </c>
       <c r="G438" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
@@ -11242,7 +11275,7 @@
         <v>1101.82</v>
       </c>
       <c r="G439" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
@@ -11265,7 +11298,7 @@
         <v>406.74</v>
       </c>
       <c r="G440" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
@@ -11288,7 +11321,7 @@
         <v>845.74</v>
       </c>
       <c r="G441" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
@@ -11311,7 +11344,7 @@
         <v>239.32</v>
       </c>
       <c r="G442" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
@@ -11334,7 +11367,7 @@
         <v>999.6</v>
       </c>
       <c r="G443" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
@@ -11357,7 +11390,7 @@
         <v>288.85000000000002</v>
       </c>
       <c r="G444" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
@@ -11380,7 +11413,7 @@
         <v>-6.45</v>
       </c>
       <c r="G445" t="s">
-        <v>8</v>
+        <v>243</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
@@ -11403,7 +11436,7 @@
         <v>101.82000000000001</v>
       </c>
       <c r="G446" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
@@ -11426,7 +11459,7 @@
         <v>36.53</v>
       </c>
       <c r="G447" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
@@ -11449,7 +11482,7 @@
         <v>306.20999999999998</v>
       </c>
       <c r="G448" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
@@ -11472,7 +11505,7 @@
         <v>205.67000000000002</v>
       </c>
       <c r="G449" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
@@ -11495,7 +11528,7 @@
         <v>189.42000000000002</v>
       </c>
       <c r="G450" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
@@ -11518,7 +11551,7 @@
         <v>110.71000000000001</v>
       </c>
       <c r="G451" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
@@ -11541,7 +11574,7 @@
         <v>151.81</v>
       </c>
       <c r="G452" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
@@ -11564,7 +11597,7 @@
         <v>283.92</v>
       </c>
       <c r="G453" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
@@ -11587,7 +11620,7 @@
         <v>411.15000000000003</v>
       </c>
       <c r="G454" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
@@ -11610,7 +11643,7 @@
         <v>1504.08</v>
       </c>
       <c r="G455" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
@@ -11633,7 +11666,7 @@
         <v>218.74</v>
       </c>
       <c r="G456" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
@@ -11656,7 +11689,7 @@
         <v>1729.6100000000001</v>
       </c>
       <c r="G457" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
@@ -11679,7 +11712,7 @@
         <v>361.61</v>
       </c>
       <c r="G458" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
@@ -11702,7 +11735,7 @@
         <v>2482.61</v>
       </c>
       <c r="G459" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
@@ -11725,7 +11758,7 @@
         <v>1488.39</v>
       </c>
       <c r="G460" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
@@ -11748,7 +11781,7 @@
         <v>134.44</v>
       </c>
       <c r="G461" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
@@ -11771,7 +11804,7 @@
         <v>44.52</v>
       </c>
       <c r="G462" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
@@ -11794,7 +11827,7 @@
         <v>586.06000000000006</v>
       </c>
       <c r="G463" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
@@ -11817,7 +11850,7 @@
         <v>253.12</v>
       </c>
       <c r="G464" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
@@ -11840,7 +11873,7 @@
         <v>509.63</v>
       </c>
       <c r="G465" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
@@ -11863,7 +11896,7 @@
         <v>-71.320000000000007</v>
       </c>
       <c r="G466" t="s">
-        <v>16</v>
+        <v>238</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
@@ -11886,7 +11919,7 @@
         <v>47.99</v>
       </c>
       <c r="G467" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
@@ -11909,7 +11942,7 @@
         <v>406.79</v>
       </c>
       <c r="G468" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
@@ -11932,7 +11965,7 @@
         <v>265.05</v>
       </c>
       <c r="G469" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
@@ -11955,7 +11988,7 @@
         <v>491.36</v>
       </c>
       <c r="G470" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
@@ -11978,7 +12011,7 @@
         <v>209.52</v>
       </c>
       <c r="G471" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
@@ -12001,7 +12034,7 @@
         <v>723.61</v>
       </c>
       <c r="G472" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
@@ -12024,7 +12057,7 @@
         <v>959.48</v>
       </c>
       <c r="G473" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
@@ -12047,7 +12080,7 @@
         <v>17</v>
       </c>
       <c r="G474" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
@@ -12070,7 +12103,7 @@
         <v>1181.72</v>
       </c>
       <c r="G475" t="s">
-        <v>6</v>
+        <v>241</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
@@ -12093,7 +12126,7 @@
         <v>332.62</v>
       </c>
       <c r="G476" t="s">
-        <v>6</v>
+        <v>241</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
@@ -12116,7 +12149,7 @@
         <v>3277.76</v>
       </c>
       <c r="G477" t="s">
-        <v>6</v>
+        <v>234</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
@@ -12139,7 +12172,7 @@
         <v>73.38</v>
       </c>
       <c r="G478" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
@@ -12162,7 +12195,7 @@
         <v>3239.9</v>
       </c>
       <c r="G479" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
@@ -12185,7 +12218,7 @@
         <v>2005.4</v>
       </c>
       <c r="G480" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
@@ -12208,7 +12241,7 @@
         <v>384.93</v>
       </c>
       <c r="G481" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
@@ -12231,7 +12264,7 @@
         <v>1352.23</v>
       </c>
       <c r="G482" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
@@ -12254,7 +12287,7 @@
         <v>-23.64</v>
       </c>
       <c r="G483" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
@@ -12277,7 +12310,7 @@
         <v>320.7</v>
       </c>
       <c r="G484" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
@@ -12300,7 +12333,7 @@
         <v>317.35000000000002</v>
       </c>
       <c r="G485" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
@@ -12323,7 +12356,7 @@
         <v>393.14</v>
       </c>
       <c r="G486" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
@@ -12346,7 +12379,7 @@
         <v>987.06000000000006</v>
       </c>
       <c r="G487" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
@@ -12369,7 +12402,7 @@
         <v>492.79</v>
       </c>
       <c r="G488" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
@@ -12392,7 +12425,7 @@
         <v>-6.76</v>
       </c>
       <c r="G489" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
@@ -12415,7 +12448,7 @@
         <v>369.55</v>
       </c>
       <c r="G490" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
@@ -12438,7 +12471,7 @@
         <v>416.22</v>
       </c>
       <c r="G491" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
@@ -12461,7 +12494,7 @@
         <v>732.56000000000006</v>
       </c>
       <c r="G492" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
@@ -12484,7 +12517,7 @@
         <v>339.5</v>
       </c>
       <c r="G493" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
@@ -12507,7 +12540,7 @@
         <v>148.75</v>
       </c>
       <c r="G494" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
@@ -12530,7 +12563,7 @@
         <v>-782.21</v>
       </c>
       <c r="G495" t="s">
-        <v>18</v>
+        <v>234</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
@@ -12553,7 +12586,7 @@
         <v>444.66</v>
       </c>
       <c r="G496" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
@@ -12576,7 +12609,7 @@
         <v>172.99</v>
       </c>
       <c r="G497" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
@@ -12599,7 +12632,7 @@
         <v>199.31</v>
       </c>
       <c r="G498" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
@@ -12622,7 +12655,7 @@
         <v>593.08000000000004</v>
       </c>
       <c r="G499" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
@@ -12645,7 +12678,7 @@
         <v>48.77</v>
       </c>
       <c r="G500" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
@@ -12668,7 +12701,7 @@
         <v>345.14</v>
       </c>
       <c r="G501" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
@@ -12691,7 +12724,7 @@
         <v>326.65000000000003</v>
       </c>
       <c r="G502" t="s">
-        <v>15</v>
+        <v>235</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
@@ -12714,7 +12747,7 @@
         <v>326.65000000000003</v>
       </c>
       <c r="G503" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
@@ -12737,7 +12770,7 @@
         <v>6.4</v>
       </c>
       <c r="G504" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
@@ -12760,7 +12793,7 @@
         <v>18.740000000000002</v>
       </c>
       <c r="G505" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
@@ -12783,7 +12816,7 @@
         <v>21.48</v>
       </c>
       <c r="G506" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
@@ -12806,7 +12839,7 @@
         <v>34.47</v>
       </c>
       <c r="G507" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
@@ -12829,7 +12862,7 @@
         <v>-9.120000000000001</v>
       </c>
       <c r="G508" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
@@ -12852,7 +12885,7 @@
         <v>22.09</v>
       </c>
       <c r="G509" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
@@ -12875,7 +12908,7 @@
         <v>187.19</v>
       </c>
       <c r="G510" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
@@ -12898,7 +12931,7 @@
         <v>1845</v>
       </c>
       <c r="G511" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
@@ -12921,7 +12954,7 @@
         <v>3519.2000000000003</v>
       </c>
       <c r="G512" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
@@ -12944,7 +12977,7 @@
         <v>947.1</v>
       </c>
       <c r="G513" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
@@ -12967,7 +13000,7 @@
         <v>143.54</v>
       </c>
       <c r="G514" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
@@ -12990,7 +13023,7 @@
         <v>255.70000000000002</v>
       </c>
       <c r="G515" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
@@ -13013,7 +13046,7 @@
         <v>57.78</v>
       </c>
       <c r="G516" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
@@ -13036,7 +13069,7 @@
         <v>270.23</v>
       </c>
       <c r="G517" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
@@ -13059,7 +13092,7 @@
         <v>-14.33</v>
       </c>
       <c r="G518" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
@@ -13082,7 +13115,7 @@
         <v>-0.59</v>
       </c>
       <c r="G519" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
@@ -13105,7 +13138,7 @@
         <v>-27.82</v>
       </c>
       <c r="G520" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
@@ -13128,7 +13161,7 @@
         <v>94.320000000000007</v>
       </c>
       <c r="G521" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
@@ -13151,7 +13184,7 @@
         <v>368.73</v>
       </c>
       <c r="G522" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
@@ -13174,7 +13207,7 @@
         <v>325.09000000000003</v>
       </c>
       <c r="G523" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
@@ -13197,7 +13230,7 @@
         <v>7.54</v>
       </c>
       <c r="G524" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
@@ -13220,7 +13253,7 @@
         <v>4.92</v>
       </c>
       <c r="G525" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
@@ -13243,7 +13276,7 @@
         <v>166.20000000000002</v>
       </c>
       <c r="G526" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
@@ -13266,7 +13299,7 @@
         <v>258.7</v>
       </c>
       <c r="G527" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
@@ -13289,7 +13322,7 @@
         <v>222.71</v>
       </c>
       <c r="G528" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
@@ -13312,7 +13345,7 @@
         <v>230.23000000000002</v>
       </c>
       <c r="G529" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
@@ -13335,7 +13368,7 @@
         <v>138.11000000000001</v>
       </c>
       <c r="G530" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
@@ -13358,7 +13391,7 @@
         <v>652.66</v>
       </c>
       <c r="G531" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
@@ -13381,7 +13414,7 @@
         <v>683.25</v>
       </c>
       <c r="G532" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
@@ -13404,7 +13437,7 @@
         <v>-29.48</v>
       </c>
       <c r="G533" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
@@ -13427,7 +13460,7 @@
         <v>38.56</v>
       </c>
       <c r="G534" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
@@ -13450,7 +13483,7 @@
         <v>810.86</v>
       </c>
       <c r="G535" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
@@ -13473,7 +13506,7 @@
         <v>570.34</v>
       </c>
       <c r="G536" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
@@ -13496,7 +13529,7 @@
         <v>534.62</v>
       </c>
       <c r="G537" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
@@ -13519,7 +13552,7 @@
         <v>-7.98</v>
       </c>
       <c r="G538" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
@@ -13542,7 +13575,7 @@
         <v>812.82</v>
       </c>
       <c r="G539" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
@@ -13565,7 +13598,7 @@
         <v>-24.580000000000002</v>
       </c>
       <c r="G540" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
@@ -13588,7 +13621,7 @@
         <v>738.30000000000007</v>
       </c>
       <c r="G541" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
@@ -13611,7 +13644,7 @@
         <v>742.86</v>
       </c>
       <c r="G542" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
@@ -13634,7 +13667,7 @@
         <v>522.28</v>
       </c>
       <c r="G543" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
@@ -13657,7 +13690,7 @@
         <v>600.01</v>
       </c>
       <c r="G544" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
@@ -13680,7 +13713,7 @@
         <v>542.08000000000004</v>
       </c>
       <c r="G545" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
@@ -13703,7 +13736,7 @@
         <v>501.46000000000004</v>
       </c>
       <c r="G546" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
@@ -13726,7 +13759,7 @@
         <v>349.04</v>
       </c>
       <c r="G547" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
@@ -13749,7 +13782,7 @@
         <v>-3</v>
       </c>
       <c r="G548" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
@@ -13772,7 +13805,7 @@
         <v>293.86</v>
       </c>
       <c r="G549" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
@@ -13795,7 +13828,7 @@
         <v>641.37</v>
       </c>
       <c r="G550" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
@@ -13818,7 +13851,7 @@
         <v>704.85</v>
       </c>
       <c r="G551" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
@@ -13841,7 +13874,7 @@
         <v>320.52</v>
       </c>
       <c r="G552" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
@@ -13864,7 +13897,7 @@
         <v>77.16</v>
       </c>
       <c r="G553" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
@@ -13887,7 +13920,7 @@
         <v>19.5</v>
       </c>
       <c r="G554" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
@@ -13910,7 +13943,7 @@
         <v>356.04</v>
       </c>
       <c r="G555" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
@@ -13933,7 +13966,7 @@
         <v>617.21</v>
       </c>
       <c r="G556" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
@@ -13956,7 +13989,7 @@
         <v>16.96</v>
       </c>
       <c r="G557" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
@@ -13979,7 +14012,7 @@
         <v>-879.78</v>
       </c>
       <c r="G558" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
@@ -14002,7 +14035,7 @@
         <v>1512.51</v>
       </c>
       <c r="G559" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
@@ -14025,7 +14058,7 @@
         <v>821.08</v>
       </c>
       <c r="G560" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
@@ -14048,7 +14081,7 @@
         <v>1012.74</v>
       </c>
       <c r="G561" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
@@ -14071,7 +14104,7 @@
         <v>561.69000000000005</v>
       </c>
       <c r="G562" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
@@ -14094,7 +14127,7 @@
         <v>15.72</v>
       </c>
       <c r="G563" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
@@ -14117,7 +14150,7 @@
         <v>863.99</v>
       </c>
       <c r="G564" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
@@ -14140,7 +14173,7 @@
         <v>13.65</v>
       </c>
       <c r="G565" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
@@ -14163,7 +14196,7 @@
         <v>528.26</v>
       </c>
       <c r="G566" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
@@ -14186,7 +14219,7 @@
         <v>17.309999999999999</v>
       </c>
       <c r="G567" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
@@ -14209,7 +14242,7 @@
         <v>931.78</v>
       </c>
       <c r="G568" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
@@ -14232,7 +14265,7 @@
         <v>468.37</v>
       </c>
       <c r="G569" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
@@ -14255,7 +14288,7 @@
         <v>1078.33</v>
       </c>
       <c r="G570" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
@@ -14278,7 +14311,7 @@
         <v>68.86</v>
       </c>
       <c r="G571" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
@@ -14301,7 +14334,7 @@
         <v>19.5</v>
       </c>
       <c r="G572" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
@@ -14324,7 +14357,7 @@
         <v>509.69</v>
       </c>
       <c r="G573" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
@@ -14347,7 +14380,7 @@
         <v>749.22</v>
       </c>
       <c r="G574" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
@@ -14370,7 +14403,7 @@
         <v>481.54</v>
       </c>
       <c r="G575" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
@@ -14393,7 +14426,7 @@
         <v>782.67000000000007</v>
       </c>
       <c r="G576" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
@@ -14416,7 +14449,7 @@
         <v>694.57</v>
       </c>
       <c r="G577" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
@@ -14439,7 +14472,7 @@
         <v>19.5</v>
       </c>
       <c r="G578" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
@@ -14462,7 +14495,7 @@
         <v>374.8</v>
       </c>
       <c r="G579" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
@@ -14485,7 +14518,7 @@
         <v>405.93</v>
       </c>
       <c r="G580" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
@@ -14508,7 +14541,7 @@
         <v>593.81000000000006</v>
       </c>
       <c r="G581" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
@@ -14531,7 +14564,7 @@
         <v>760.12</v>
       </c>
       <c r="G582" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
@@ -14554,7 +14587,7 @@
         <v>710.26</v>
       </c>
       <c r="G583" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
@@ -14577,7 +14610,7 @@
         <v>203.08</v>
       </c>
       <c r="G584" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
@@ -14600,7 +14633,7 @@
         <v>87.76</v>
       </c>
       <c r="G585" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
@@ -14623,7 +14656,7 @@
         <v>1000</v>
       </c>
       <c r="G586" t="s">
-        <v>8</v>
+        <v>239</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
@@ -14646,7 +14679,7 @@
         <v>1264.6300000000001</v>
       </c>
       <c r="G587" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
@@ -14669,7 +14702,7 @@
         <v>1142.43</v>
       </c>
       <c r="G588" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
@@ -14692,7 +14725,7 @@
         <v>524.29999999999995</v>
       </c>
       <c r="G589" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
@@ -14715,7 +14748,7 @@
         <v>503.93</v>
       </c>
       <c r="G590" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
@@ -14738,7 +14771,7 @@
         <v>854.19</v>
       </c>
       <c r="G591" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
@@ -14761,7 +14794,7 @@
         <v>965.58</v>
       </c>
       <c r="G592" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
@@ -14784,7 +14817,7 @@
         <v>-21.95</v>
       </c>
       <c r="G593" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
@@ -14807,7 +14840,7 @@
         <v>661.05000000000007</v>
       </c>
       <c r="G594" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
@@ -14830,7 +14863,7 @@
         <v>455.28000000000003</v>
       </c>
       <c r="G595" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
@@ -14853,7 +14886,7 @@
         <v>-43.28</v>
       </c>
       <c r="G596" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
@@ -14876,7 +14909,7 @@
         <v>1254.4000000000001</v>
       </c>
       <c r="G597" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
@@ -14899,7 +14932,7 @@
         <v>1004.34</v>
       </c>
       <c r="G598" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
@@ -14922,7 +14955,7 @@
         <v>263.54000000000002</v>
       </c>
       <c r="G599" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
@@ -14945,7 +14978,7 @@
         <v>820.59</v>
       </c>
       <c r="G600" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
@@ -14968,7 +15001,7 @@
         <v>664.49</v>
       </c>
       <c r="G601" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
@@ -14991,7 +15024,7 @@
         <v>556.16</v>
       </c>
       <c r="G602" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
@@ -15014,7 +15047,7 @@
         <v>917.36</v>
       </c>
       <c r="G603" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
@@ -15037,7 +15070,7 @@
         <v>801.17000000000007</v>
       </c>
       <c r="G604" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
@@ -15060,7 +15093,7 @@
         <v>724.49</v>
       </c>
       <c r="G605" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
@@ -15083,7 +15116,7 @@
         <v>812.97</v>
       </c>
       <c r="G606" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
@@ -15106,7 +15139,7 @@
         <v>929.61</v>
       </c>
       <c r="G607" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
@@ -15129,7 +15162,7 @@
         <v>975.75</v>
       </c>
       <c r="G608" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
@@ -15152,7 +15185,7 @@
         <v>1109.44</v>
       </c>
       <c r="G609" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
@@ -15175,7 +15208,7 @@
         <v>1023.88</v>
       </c>
       <c r="G610" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
@@ -15198,7 +15231,7 @@
         <v>1550.74</v>
       </c>
       <c r="G611" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
@@ -15221,7 +15254,7 @@
         <v>253.18</v>
       </c>
       <c r="G612" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
@@ -15244,7 +15277,7 @@
         <v>146.89000000000001</v>
       </c>
       <c r="G613" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
@@ -15267,7 +15300,7 @@
         <v>819</v>
       </c>
       <c r="G614" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
@@ -15290,7 +15323,7 @@
         <v>249.67000000000002</v>
       </c>
       <c r="G615" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
@@ -15313,7 +15346,7 @@
         <v>230.37</v>
       </c>
       <c r="G616" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
@@ -15336,7 +15369,7 @@
         <v>262.28000000000003</v>
       </c>
       <c r="G617" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
@@ -15359,7 +15392,7 @@
         <v>233.05</v>
       </c>
       <c r="G618" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
@@ -15382,7 +15415,7 @@
         <v>227.69</v>
       </c>
       <c r="G619" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
@@ -15405,7 +15438,7 @@
         <v>218.3</v>
       </c>
       <c r="G620" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
@@ -15428,7 +15461,7 @@
         <v>231.92000000000002</v>
       </c>
       <c r="G621" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
@@ -15451,7 +15484,7 @@
         <v>28.41</v>
       </c>
       <c r="G622" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
@@ -15474,7 +15507,7 @@
         <v>262.77</v>
       </c>
       <c r="G623" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
@@ -15497,7 +15530,7 @@
         <v>393.57</v>
       </c>
       <c r="G624" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
@@ -15520,7 +15553,7 @@
         <v>462.03000000000003</v>
       </c>
       <c r="G625" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
@@ -15543,7 +15576,7 @@
         <v>420.86</v>
       </c>
       <c r="G626" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
@@ -15566,7 +15599,7 @@
         <v>487.52</v>
       </c>
       <c r="G627" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
@@ -15589,7 +15622,7 @@
         <v>370.23</v>
       </c>
       <c r="G628" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
@@ -15612,7 +15645,7 @@
         <v>631.41999999999996</v>
       </c>
       <c r="G629" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
@@ -15635,7 +15668,7 @@
         <v>533.65</v>
       </c>
       <c r="G630" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
@@ -15658,7 +15691,7 @@
         <v>285.92</v>
       </c>
       <c r="G631" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
@@ -15681,7 +15714,7 @@
         <v>-131.92000000000002</v>
       </c>
       <c r="G632" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
@@ -15704,7 +15737,7 @@
         <v>260.5</v>
       </c>
       <c r="G633" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
@@ -15727,7 +15760,7 @@
         <v>291.90000000000003</v>
       </c>
       <c r="G634" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
@@ -15750,7 +15783,7 @@
         <v>372.52</v>
       </c>
       <c r="G635" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
@@ -15773,7 +15806,7 @@
         <v>174.71</v>
       </c>
       <c r="G636" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
@@ -15796,7 +15829,7 @@
         <v>458.5</v>
       </c>
       <c r="G637" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.25">
@@ -15819,7 +15852,7 @@
         <v>-6.58</v>
       </c>
       <c r="G638" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.25">
@@ -15842,7 +15875,7 @@
         <v>-33.630000000000003</v>
       </c>
       <c r="G639" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.25">
@@ -15865,7 +15898,7 @@
         <v>-4.3500000000000005</v>
       </c>
       <c r="G640" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.25">
@@ -15888,7 +15921,7 @@
         <v>250.32</v>
       </c>
       <c r="G641" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.25">
@@ -15911,7 +15944,7 @@
         <v>113.9</v>
       </c>
       <c r="G642" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.25">
@@ -15934,7 +15967,7 @@
         <v>296.66000000000003</v>
       </c>
       <c r="G643" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.25">
@@ -15957,7 +15990,7 @@
         <v>210.99</v>
       </c>
       <c r="G644" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.25">
@@ -15980,7 +16013,7 @@
         <v>548.06000000000006</v>
       </c>
       <c r="G645" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.25">
@@ -16003,7 +16036,7 @@
         <v>171.42000000000002</v>
       </c>
       <c r="G646" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.25">
@@ -16026,7 +16059,7 @@
         <v>47.17</v>
       </c>
       <c r="G647" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.25">
@@ -16049,7 +16082,7 @@
         <v>400.97</v>
       </c>
       <c r="G648" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.25">
@@ -16072,7 +16105,7 @@
         <v>322.75</v>
       </c>
       <c r="G649" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.25">
@@ -16095,7 +16128,7 @@
         <v>407.85</v>
       </c>
       <c r="G650" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.25">
@@ -16118,7 +16151,7 @@
         <v>133.82</v>
       </c>
       <c r="G651" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.25">
@@ -16141,7 +16174,7 @@
         <v>279.38</v>
       </c>
       <c r="G652" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.25">
@@ -16164,7 +16197,7 @@
         <v>1145.4000000000001</v>
       </c>
       <c r="G653" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.25">
@@ -16187,7 +16220,7 @@
         <v>533.66</v>
       </c>
       <c r="G654" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.25">
@@ -16210,7 +16243,7 @@
         <v>1478.5</v>
       </c>
       <c r="G655" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.25">
@@ -16233,7 +16266,7 @@
         <v>-32.700000000000003</v>
       </c>
       <c r="G656" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.25">
@@ -16256,7 +16289,7 @@
         <v>1458.09</v>
       </c>
       <c r="G657" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.25">
@@ -16279,7 +16312,7 @@
         <v>446.09000000000003</v>
       </c>
       <c r="G658" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.25">
@@ -16302,7 +16335,7 @@
         <v>339.47</v>
       </c>
       <c r="G659" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.25">
@@ -16325,7 +16358,7 @@
         <v>663.58</v>
       </c>
       <c r="G660" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.25">
@@ -16348,7 +16381,7 @@
         <v>369.26</v>
       </c>
       <c r="G661" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.25">
@@ -16371,7 +16404,7 @@
         <v>23.85</v>
       </c>
       <c r="G662" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.25">
@@ -16394,7 +16427,7 @@
         <v>1234.1100000000001</v>
       </c>
       <c r="G663" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.25">
@@ -16417,7 +16450,7 @@
         <v>151.81</v>
       </c>
       <c r="G664" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.25">
@@ -16440,7 +16473,7 @@
         <v>642.68000000000006</v>
       </c>
       <c r="G665" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.25">
@@ -16463,7 +16496,7 @@
         <v>863.11</v>
       </c>
       <c r="G666" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.25">
@@ -16486,7 +16519,7 @@
         <v>25.86</v>
       </c>
       <c r="G667" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.25">
@@ -16509,7 +16542,7 @@
         <v>720.95</v>
       </c>
       <c r="G668" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.25">
@@ -16532,7 +16565,7 @@
         <v>1124.29</v>
       </c>
       <c r="G669" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.25">
@@ -16555,7 +16588,7 @@
         <v>19.080000000000002</v>
       </c>
       <c r="G670" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.25">
@@ -16578,7 +16611,7 @@
         <v>528.11</v>
       </c>
       <c r="G671" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.25">
@@ -16601,7 +16634,7 @@
         <v>-4.05</v>
       </c>
       <c r="G672" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.25">
@@ -16624,7 +16657,7 @@
         <v>194.88</v>
       </c>
       <c r="G673" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.25">
@@ -16647,7 +16680,7 @@
         <v>734.02</v>
       </c>
       <c r="G674" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.25">
@@ -16670,7 +16703,7 @@
         <v>-8.61</v>
       </c>
       <c r="G675" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.25">
@@ -16693,7 +16726,7 @@
         <v>47.61</v>
       </c>
       <c r="G676" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.25">
@@ -16716,7 +16749,7 @@
         <v>-8.31</v>
       </c>
       <c r="G677" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.25">
@@ -16739,7 +16772,7 @@
         <v>436.53000000000003</v>
       </c>
       <c r="G678" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.25">
@@ -16762,7 +16795,7 @@
         <v>-45.03</v>
       </c>
       <c r="G679" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.25">
@@ -16785,7 +16818,7 @@
         <v>1260.6400000000001</v>
       </c>
       <c r="G680" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.25">
@@ -16808,7 +16841,7 @@
         <v>15.58</v>
       </c>
       <c r="G681" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.25">
@@ -16831,7 +16864,7 @@
         <v>508.56</v>
       </c>
       <c r="G682" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.25">
@@ -16854,7 +16887,7 @@
         <v>394.33</v>
       </c>
       <c r="G683" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.25">
@@ -16877,7 +16910,7 @@
         <v>-0.89</v>
       </c>
       <c r="G684" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.25">
@@ -16900,7 +16933,7 @@
         <v>1322.84</v>
       </c>
       <c r="G685" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.25">
@@ -16923,7 +16956,7 @@
         <v>-4.54</v>
       </c>
       <c r="G686" t="s">
-        <v>8</v>
+        <v>239</v>
       </c>
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.25">
@@ -16946,7 +16979,7 @@
         <v>7.38</v>
       </c>
       <c r="G687" t="s">
-        <v>8</v>
+        <v>239</v>
       </c>
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.25">
@@ -16969,7 +17002,7 @@
         <v>347.39</v>
       </c>
       <c r="G688" t="s">
-        <v>15</v>
+        <v>239</v>
       </c>
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.25">
@@ -16992,7 +17025,7 @@
         <v>-138.49</v>
       </c>
       <c r="G689" t="s">
-        <v>15</v>
+        <v>239</v>
       </c>
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.25">
@@ -17015,7 +17048,7 @@
         <v>329</v>
       </c>
       <c r="G690" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.25">
@@ -17038,7 +17071,7 @@
         <v>-13.25</v>
       </c>
       <c r="G691" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.25">
@@ -17061,7 +17094,7 @@
         <v>17.650000000000002</v>
       </c>
       <c r="G692" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.25">
@@ -17084,7 +17117,7 @@
         <v>239.07</v>
       </c>
       <c r="G693" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.25">
@@ -17107,7 +17140,7 @@
         <v>251.27</v>
       </c>
       <c r="G694" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.25">
@@ -17130,7 +17163,7 @@
         <v>334</v>
       </c>
       <c r="G695" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.25">
@@ -17153,7 +17186,7 @@
         <v>275.13</v>
       </c>
       <c r="G696" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.25">
@@ -17176,7 +17209,7 @@
         <v>288.82</v>
       </c>
       <c r="G697" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.25">
@@ -17199,7 +17232,7 @@
         <v>100.77</v>
       </c>
       <c r="G698" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.25">
@@ -17222,7 +17255,7 @@
         <v>85.48</v>
       </c>
       <c r="G699" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.25">
@@ -17245,7 +17278,7 @@
         <v>343.34000000000003</v>
       </c>
       <c r="G700" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.25">
@@ -17268,7 +17301,7 @@
         <v>95.38</v>
       </c>
       <c r="G701" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.25">
@@ -17291,7 +17324,7 @@
         <v>344.86</v>
       </c>
       <c r="G702" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.25">
@@ -17314,7 +17347,7 @@
         <v>123.52</v>
       </c>
       <c r="G703" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.25">
@@ -17337,7 +17370,7 @@
         <v>347.33</v>
       </c>
       <c r="G704" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.25">
@@ -17360,7 +17393,7 @@
         <v>13.540000000000001</v>
       </c>
       <c r="G705" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.25">
@@ -17383,7 +17416,7 @@
         <v>279</v>
       </c>
       <c r="G706" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.25">
@@ -17406,7 +17439,7 @@
         <v>88.58</v>
       </c>
       <c r="G707" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.25">
@@ -17429,7 +17462,7 @@
         <v>122.06</v>
       </c>
       <c r="G708" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.25">
@@ -17452,7 +17485,7 @@
         <v>8.4600000000000009</v>
       </c>
       <c r="G709" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.25">
@@ -17475,7 +17508,7 @@
         <v>44.26</v>
       </c>
       <c r="G710" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.25">
@@ -17498,7 +17531,7 @@
         <v>59.96</v>
       </c>
       <c r="G711" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.25">
@@ -17521,7 +17554,7 @@
         <v>84.14</v>
       </c>
       <c r="G712" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.25">
@@ -17544,7 +17577,7 @@
         <v>286.63</v>
       </c>
       <c r="G713" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.25">
@@ -17567,7 +17600,7 @@
         <v>-5.08</v>
       </c>
       <c r="G714" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.25">
@@ -17590,7 +17623,7 @@
         <v>138.38</v>
       </c>
       <c r="G715" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.25">
@@ -17613,7 +17646,7 @@
         <v>766.01</v>
       </c>
       <c r="G716" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.25">
@@ -17636,7 +17669,7 @@
         <v>460.32</v>
       </c>
       <c r="G717" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.25">
@@ -17659,7 +17692,7 @@
         <v>835.09</v>
       </c>
       <c r="G718" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.25">
@@ -17682,7 +17715,7 @@
         <v>-513.41</v>
       </c>
       <c r="G719" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.25">
@@ -17705,7 +17738,7 @@
         <v>783.98</v>
       </c>
       <c r="G720" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.25">
@@ -17728,7 +17761,7 @@
         <v>193.11</v>
       </c>
       <c r="G721" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.25">
@@ -17751,7 +17784,7 @@
         <v>1126.82</v>
       </c>
       <c r="G722" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.25">
@@ -17774,7 +17807,7 @@
         <v>412.7</v>
       </c>
       <c r="G723" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.25">
@@ -17797,7 +17830,7 @@
         <v>211.26</v>
       </c>
       <c r="G724" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.25">
@@ -17820,7 +17853,7 @@
         <v>1372.04</v>
       </c>
       <c r="G725" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.25">
@@ -17843,7 +17876,7 @@
         <v>1137.1400000000001</v>
       </c>
       <c r="G726" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.25">
@@ -17866,7 +17899,7 @@
         <v>715.96</v>
       </c>
       <c r="G727" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.25">
@@ -17889,7 +17922,7 @@
         <v>712.88</v>
       </c>
       <c r="G728" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.25">
@@ -17912,7 +17945,7 @@
         <v>972.03</v>
       </c>
       <c r="G729" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.25">
@@ -17935,7 +17968,7 @@
         <v>799.39</v>
       </c>
       <c r="G730" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.25">
@@ -17958,7 +17991,7 @@
         <v>796.55000000000007</v>
       </c>
       <c r="G731" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.25">
@@ -17981,7 +18014,7 @@
         <v>934.67000000000007</v>
       </c>
       <c r="G732" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.25">
@@ -18004,7 +18037,7 @@
         <v>514.53</v>
       </c>
       <c r="G733" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.25">
@@ -18027,7 +18060,7 @@
         <v>1133.27</v>
       </c>
       <c r="G734" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.25">
@@ -18050,7 +18083,7 @@
         <v>444.67</v>
       </c>
       <c r="G735" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.25">
@@ -18073,7 +18106,7 @@
         <v>928.15</v>
       </c>
       <c r="G736" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.25">
@@ -18096,7 +18129,7 @@
         <v>449.81</v>
       </c>
       <c r="G737" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.25">
@@ -18119,7 +18152,7 @@
         <v>663.91</v>
       </c>
       <c r="G738" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.25">
@@ -18142,7 +18175,7 @@
         <v>448.09000000000003</v>
       </c>
       <c r="G739" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.25">
@@ -18165,7 +18198,7 @@
         <v>1381.6200000000001</v>
       </c>
       <c r="G740" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.25">
@@ -18188,7 +18221,7 @@
         <v>-5.17</v>
       </c>
       <c r="G741" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.25">
@@ -18211,7 +18244,7 @@
         <v>975.49</v>
       </c>
       <c r="G742" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.25">
@@ -18234,7 +18267,7 @@
         <v>34.340000000000003</v>
       </c>
       <c r="G743" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.25">
@@ -18257,7 +18290,7 @@
         <v>1067.46</v>
       </c>
       <c r="G744" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="745" spans="1:7" x14ac:dyDescent="0.25">
@@ -18280,7 +18313,7 @@
         <v>-0.28999999999999998</v>
       </c>
       <c r="G745" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="746" spans="1:7" x14ac:dyDescent="0.25">
@@ -18303,7 +18336,7 @@
         <v>23.32</v>
       </c>
       <c r="G746" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.25">
@@ -18326,7 +18359,7 @@
         <v>244.22</v>
       </c>
       <c r="G747" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="748" spans="1:7" x14ac:dyDescent="0.25">
@@ -18349,7 +18382,7 @@
         <v>21.2</v>
       </c>
       <c r="G748" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="749" spans="1:7" x14ac:dyDescent="0.25">
@@ -18372,7 +18405,7 @@
         <v>579.98</v>
       </c>
       <c r="G749" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="750" spans="1:7" x14ac:dyDescent="0.25">
@@ -18395,7 +18428,7 @@
         <v>860.69</v>
       </c>
       <c r="G750" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="751" spans="1:7" x14ac:dyDescent="0.25">
@@ -18418,7 +18451,7 @@
         <v>-9.25</v>
       </c>
       <c r="G751" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="752" spans="1:7" x14ac:dyDescent="0.25">
@@ -18441,7 +18474,7 @@
         <v>8.9</v>
       </c>
       <c r="G752" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="753" spans="1:7" x14ac:dyDescent="0.25">
@@ -18464,7 +18497,7 @@
         <v>284.16000000000003</v>
       </c>
       <c r="G753" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="754" spans="1:7" x14ac:dyDescent="0.25">
@@ -18487,7 +18520,7 @@
         <v>809.56000000000006</v>
       </c>
       <c r="G754" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="755" spans="1:7" x14ac:dyDescent="0.25">
@@ -18510,7 +18543,7 @@
         <v>241.85</v>
       </c>
       <c r="G755" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="756" spans="1:7" x14ac:dyDescent="0.25">
@@ -18533,7 +18566,7 @@
         <v>1198.26</v>
       </c>
       <c r="G756" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="757" spans="1:7" x14ac:dyDescent="0.25">
@@ -18556,7 +18589,7 @@
         <v>-6.37</v>
       </c>
       <c r="G757" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="758" spans="1:7" x14ac:dyDescent="0.25">
@@ -18579,7 +18612,7 @@
         <v>-2.12</v>
       </c>
       <c r="G758" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="759" spans="1:7" x14ac:dyDescent="0.25">
@@ -18602,7 +18635,7 @@
         <v>34.340000000000003</v>
       </c>
       <c r="G759" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="760" spans="1:7" x14ac:dyDescent="0.25">
@@ -18625,7 +18658,7 @@
         <v>839.88</v>
       </c>
       <c r="G760" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.25">
@@ -18648,7 +18681,7 @@
         <v>29.68</v>
       </c>
       <c r="G761" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="762" spans="1:7" x14ac:dyDescent="0.25">
@@ -18671,7 +18704,7 @@
         <v>-24.02</v>
       </c>
       <c r="G762" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.25">
@@ -18694,7 +18727,7 @@
         <v>550.83000000000004</v>
       </c>
       <c r="G763" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="764" spans="1:7" x14ac:dyDescent="0.25">
@@ -18717,7 +18750,7 @@
         <v>258.37</v>
       </c>
       <c r="G764" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.25">
@@ -18740,7 +18773,7 @@
         <v>20.14</v>
       </c>
       <c r="G765" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="766" spans="1:7" x14ac:dyDescent="0.25">
@@ -18763,7 +18796,7 @@
         <v>846.12</v>
       </c>
       <c r="G766" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.25">
@@ -18786,7 +18819,7 @@
         <v>246.34</v>
       </c>
       <c r="G767" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.25">
@@ -18809,7 +18842,7 @@
         <v>243.61</v>
       </c>
       <c r="G768" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.25">
@@ -18832,7 +18865,7 @@
         <v>522.75</v>
       </c>
       <c r="G769" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="770" spans="1:7" x14ac:dyDescent="0.25">
@@ -18855,7 +18888,7 @@
         <v>200.59</v>
       </c>
       <c r="G770" t="s">
-        <v>18</v>
+        <v>237</v>
       </c>
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.25">
@@ -18878,7 +18911,7 @@
         <v>76.36</v>
       </c>
       <c r="G771" t="s">
-        <v>18</v>
+        <v>237</v>
       </c>
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.25">
@@ -18901,7 +18934,7 @@
         <v>209.18</v>
       </c>
       <c r="G772" t="s">
-        <v>18</v>
+        <v>237</v>
       </c>
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.25">
@@ -18924,7 +18957,7 @@
         <v>872.94</v>
       </c>
       <c r="G773" t="s">
-        <v>18</v>
+        <v>237</v>
       </c>
     </row>
     <row r="774" spans="1:7" x14ac:dyDescent="0.25">
@@ -18947,7 +18980,7 @@
         <v>261.22000000000003</v>
       </c>
       <c r="G774" t="s">
-        <v>18</v>
+        <v>237</v>
       </c>
     </row>
     <row r="775" spans="1:7" x14ac:dyDescent="0.25">
@@ -18970,7 +19003,7 @@
         <v>68.7</v>
       </c>
       <c r="G775" t="s">
-        <v>18</v>
+        <v>237</v>
       </c>
     </row>
     <row r="776" spans="1:7" x14ac:dyDescent="0.25">
@@ -18993,7 +19026,7 @@
         <v>45.2</v>
       </c>
       <c r="G776" t="s">
-        <v>15</v>
+        <v>235</v>
       </c>
     </row>
     <row r="777" spans="1:7" x14ac:dyDescent="0.25">
@@ -19016,7 +19049,7 @@
         <v>156.59</v>
       </c>
       <c r="G777" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="778" spans="1:7" x14ac:dyDescent="0.25">
@@ -19039,7 +19072,7 @@
         <v>327.08</v>
       </c>
       <c r="G778" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="779" spans="1:7" x14ac:dyDescent="0.25">
@@ -19062,7 +19095,7 @@
         <v>285.37</v>
       </c>
       <c r="G779" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="780" spans="1:7" x14ac:dyDescent="0.25">
@@ -19085,7 +19118,7 @@
         <v>617.12</v>
       </c>
       <c r="G780" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="781" spans="1:7" x14ac:dyDescent="0.25">
@@ -19108,7 +19141,7 @@
         <v>386.84000000000003</v>
       </c>
       <c r="G781" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="782" spans="1:7" x14ac:dyDescent="0.25">
@@ -19131,7 +19164,7 @@
         <v>-10.39</v>
       </c>
       <c r="G782" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="783" spans="1:7" x14ac:dyDescent="0.25">
@@ -19154,7 +19187,7 @@
         <v>-9.74</v>
       </c>
       <c r="G783" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="784" spans="1:7" x14ac:dyDescent="0.25">
@@ -19177,7 +19210,7 @@
         <v>-327.08</v>
       </c>
       <c r="G784" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="785" spans="1:7" x14ac:dyDescent="0.25">
@@ -19200,7 +19233,7 @@
         <v>-250</v>
       </c>
       <c r="G785" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="786" spans="1:7" x14ac:dyDescent="0.25">
@@ -19223,7 +19256,7 @@
         <v>-250</v>
       </c>
       <c r="G786" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="787" spans="1:7" x14ac:dyDescent="0.25">
@@ -19246,7 +19279,7 @@
         <v>-200</v>
       </c>
       <c r="G787" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="788" spans="1:7" x14ac:dyDescent="0.25">
@@ -19269,7 +19302,7 @@
         <v>1.35</v>
       </c>
       <c r="G788" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="789" spans="1:7" x14ac:dyDescent="0.25">
@@ -19292,7 +19325,7 @@
         <v>536.15</v>
       </c>
       <c r="G789" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="790" spans="1:7" x14ac:dyDescent="0.25">
@@ -19315,7 +19348,7 @@
         <v>522.87</v>
       </c>
       <c r="G790" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.25">
@@ -19338,7 +19371,7 @@
         <v>-16.809999999999999</v>
       </c>
       <c r="G791" t="s">
-        <v>16</v>
+        <v>237</v>
       </c>
     </row>
     <row r="792" spans="1:7" x14ac:dyDescent="0.25">
@@ -19361,7 +19394,7 @@
         <v>417.92</v>
       </c>
       <c r="G792" t="s">
-        <v>8</v>
+        <v>237</v>
       </c>
     </row>
     <row r="793" spans="1:7" x14ac:dyDescent="0.25">
@@ -19384,7 +19417,7 @@
         <v>276.85000000000002</v>
       </c>
       <c r="G793" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
     </row>
     <row r="794" spans="1:7" x14ac:dyDescent="0.25">
@@ -19407,7 +19440,7 @@
         <v>179.56</v>
       </c>
       <c r="G794" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
     </row>
     <row r="795" spans="1:7" x14ac:dyDescent="0.25">
@@ -19430,7 +19463,7 @@
         <v>124.9</v>
       </c>
       <c r="G795" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
     </row>
     <row r="796" spans="1:7" x14ac:dyDescent="0.25">
@@ -19453,7 +19486,7 @@
         <v>201.15</v>
       </c>
       <c r="G796" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="797" spans="1:7" x14ac:dyDescent="0.25">
@@ -19476,7 +19509,7 @@
         <v>82.15</v>
       </c>
       <c r="G797" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="798" spans="1:7" x14ac:dyDescent="0.25">
@@ -19499,7 +19532,7 @@
         <v>66.69</v>
       </c>
       <c r="G798" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="799" spans="1:7" x14ac:dyDescent="0.25">
@@ -19522,7 +19555,7 @@
         <v>217.71</v>
       </c>
       <c r="G799" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="800" spans="1:7" x14ac:dyDescent="0.25">
@@ -19545,7 +19578,7 @@
         <v>-52.050000000000004</v>
       </c>
       <c r="G800" t="s">
-        <v>18</v>
+        <v>237</v>
       </c>
     </row>
     <row r="801" spans="1:7" x14ac:dyDescent="0.25">
@@ -19568,7 +19601,7 @@
         <v>-26.51</v>
       </c>
       <c r="G801" t="s">
-        <v>18</v>
+        <v>237</v>
       </c>
     </row>
     <row r="802" spans="1:7" x14ac:dyDescent="0.25">
@@ -19591,7 +19624,7 @@
         <v>597.29</v>
       </c>
       <c r="G802" t="s">
-        <v>18</v>
+        <v>234</v>
       </c>
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.25">
@@ -19614,7 +19647,7 @@
         <v>591.72</v>
       </c>
       <c r="G803" t="s">
-        <v>18</v>
+        <v>234</v>
       </c>
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.25">
@@ -19637,7 +19670,7 @@
         <v>599.27</v>
       </c>
       <c r="G804" t="s">
-        <v>18</v>
+        <v>234</v>
       </c>
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.25">
@@ -19660,7 +19693,7 @@
         <v>777.01</v>
       </c>
       <c r="G805" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="806" spans="1:7" x14ac:dyDescent="0.25">
@@ -19683,7 +19716,7 @@
         <v>807.52</v>
       </c>
       <c r="G806" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.25">
@@ -19706,7 +19739,7 @@
         <v>-2.57</v>
       </c>
       <c r="G807" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.25">
@@ -19729,7 +19762,7 @@
         <v>1009.59</v>
       </c>
       <c r="G808" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.25">
@@ -19752,7 +19785,7 @@
         <v>811.01</v>
       </c>
       <c r="G809" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.25">
@@ -19775,7 +19808,7 @@
         <v>310.99</v>
       </c>
       <c r="G810" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
     </row>
     <row r="811" spans="1:7" x14ac:dyDescent="0.25">
@@ -19798,7 +19831,7 @@
         <v>5072.16</v>
       </c>
       <c r="G811" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.25">
@@ -19821,7 +19854,7 @@
         <v>2543.98</v>
       </c>
       <c r="G812" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
     </row>
     <row r="813" spans="1:7" x14ac:dyDescent="0.25">
@@ -19844,7 +19877,7 @@
         <v>8836.16</v>
       </c>
       <c r="G813" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.25">
@@ -19867,7 +19900,7 @@
         <v>3653.82</v>
       </c>
       <c r="G814" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
     </row>
     <row r="815" spans="1:7" x14ac:dyDescent="0.25">
@@ -19890,7 +19923,7 @@
         <v>2285.5700000000002</v>
       </c>
       <c r="G815" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
     </row>
     <row r="816" spans="1:7" x14ac:dyDescent="0.25">
@@ -19913,7 +19946,7 @@
         <v>2293.62</v>
       </c>
       <c r="G816" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
     </row>
     <row r="817" spans="1:7" x14ac:dyDescent="0.25">
@@ -19936,7 +19969,7 @@
         <v>3913.94</v>
       </c>
       <c r="G817" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
     </row>
     <row r="818" spans="1:7" x14ac:dyDescent="0.25">
@@ -19959,7 +19992,7 @@
         <v>-313.76</v>
       </c>
       <c r="G818" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
     </row>
     <row r="819" spans="1:7" x14ac:dyDescent="0.25">
@@ -19982,7 +20015,7 @@
         <v>4925.1000000000004</v>
       </c>
       <c r="G819" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
     </row>
     <row r="820" spans="1:7" x14ac:dyDescent="0.25">
@@ -20005,7 +20038,7 @@
         <v>4675.67</v>
       </c>
       <c r="G820" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
     </row>
     <row r="821" spans="1:7" x14ac:dyDescent="0.25">
@@ -20028,7 +20061,7 @@
         <v>4323.37</v>
       </c>
       <c r="G821" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
     </row>
     <row r="822" spans="1:7" x14ac:dyDescent="0.25">
@@ -20051,7 +20084,7 @@
         <v>7394.88</v>
       </c>
       <c r="G822" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
     </row>
     <row r="823" spans="1:7" x14ac:dyDescent="0.25">
@@ -20074,7 +20107,7 @@
         <v>3927.87</v>
       </c>
       <c r="G823" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="824" spans="1:7" x14ac:dyDescent="0.25">
@@ -20097,7 +20130,7 @@
         <v>2626.23</v>
       </c>
       <c r="G824" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="825" spans="1:7" x14ac:dyDescent="0.25">
@@ -20120,7 +20153,7 @@
         <v>589.51</v>
       </c>
       <c r="G825" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="826" spans="1:7" x14ac:dyDescent="0.25">
@@ -20143,7 +20176,7 @@
         <v>748.97</v>
       </c>
       <c r="G826" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="827" spans="1:7" x14ac:dyDescent="0.25">
@@ -20166,7 +20199,7 @@
         <v>-11.27</v>
       </c>
       <c r="G827" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="828" spans="1:7" x14ac:dyDescent="0.25">
@@ -20189,7 +20222,7 @@
         <v>-6.43</v>
       </c>
       <c r="G828" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.25">
@@ -20212,7 +20245,7 @@
         <v>958.68000000000006</v>
       </c>
       <c r="G829" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.25">
@@ -20235,7 +20268,7 @@
         <v>-936.84</v>
       </c>
       <c r="G830" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="831" spans="1:7" x14ac:dyDescent="0.25">
@@ -20258,7 +20291,7 @@
         <v>754.74</v>
       </c>
       <c r="G831" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.25">
@@ -20281,7 +20314,7 @@
         <v>-22.68</v>
       </c>
       <c r="G832" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="833" spans="1:7" x14ac:dyDescent="0.25">
@@ -20304,7 +20337,7 @@
         <v>79.22</v>
       </c>
       <c r="G833" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="834" spans="1:7" x14ac:dyDescent="0.25">
@@ -20327,7 +20360,7 @@
         <v>197.99</v>
       </c>
       <c r="G834" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="835" spans="1:7" x14ac:dyDescent="0.25">
@@ -20350,7 +20383,7 @@
         <v>421.13</v>
       </c>
       <c r="G835" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="836" spans="1:7" x14ac:dyDescent="0.25">
@@ -20373,7 +20406,7 @@
         <v>908.49</v>
       </c>
       <c r="G836" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="837" spans="1:7" x14ac:dyDescent="0.25">
@@ -20396,7 +20429,7 @@
         <v>140.15</v>
       </c>
       <c r="G837" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="838" spans="1:7" x14ac:dyDescent="0.25">
@@ -20419,7 +20452,7 @@
         <v>237.76</v>
       </c>
       <c r="G838" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="839" spans="1:7" x14ac:dyDescent="0.25">
@@ -20442,7 +20475,7 @@
         <v>736.29</v>
       </c>
       <c r="G839" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="840" spans="1:7" x14ac:dyDescent="0.25">
@@ -20465,7 +20498,7 @@
         <v>31.8</v>
       </c>
       <c r="G840" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="841" spans="1:7" x14ac:dyDescent="0.25">
@@ -20488,7 +20521,7 @@
         <v>146.47999999999999</v>
       </c>
       <c r="G841" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="842" spans="1:7" x14ac:dyDescent="0.25">
@@ -20511,7 +20544,7 @@
         <v>264.67</v>
       </c>
       <c r="G842" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="843" spans="1:7" x14ac:dyDescent="0.25">
@@ -20534,7 +20567,7 @@
         <v>441.15000000000003</v>
       </c>
       <c r="G843" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="844" spans="1:7" x14ac:dyDescent="0.25">
@@ -20557,7 +20590,7 @@
         <v>850.56000000000006</v>
       </c>
       <c r="G844" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="845" spans="1:7" x14ac:dyDescent="0.25">
@@ -20580,7 +20613,7 @@
         <v>232.31</v>
       </c>
       <c r="G845" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="846" spans="1:7" x14ac:dyDescent="0.25">
@@ -20603,7 +20636,7 @@
         <v>331.78000000000003</v>
       </c>
       <c r="G846" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="847" spans="1:7" x14ac:dyDescent="0.25">
@@ -20626,7 +20659,7 @@
         <v>51.99</v>
       </c>
       <c r="G847" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="848" spans="1:7" x14ac:dyDescent="0.25">
@@ -20649,7 +20682,7 @@
         <v>388.08</v>
       </c>
       <c r="G848" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="849" spans="1:7" x14ac:dyDescent="0.25">
@@ -20672,7 +20705,7 @@
         <v>-86.42</v>
       </c>
       <c r="G849" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
     </row>
     <row r="850" spans="1:7" x14ac:dyDescent="0.25">
@@ -20695,7 +20728,7 @@
         <v>135.85</v>
       </c>
       <c r="G850" t="s">
-        <v>8</v>
+        <v>192</v>
       </c>
     </row>
     <row r="851" spans="1:7" x14ac:dyDescent="0.25">
@@ -20718,7 +20751,7 @@
         <v>71.570000000000007</v>
       </c>
       <c r="G851" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="852" spans="1:7" x14ac:dyDescent="0.25">
@@ -20741,7 +20774,7 @@
         <v>-4.55</v>
       </c>
       <c r="G852" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
     </row>
     <row r="853" spans="1:7" x14ac:dyDescent="0.25">
@@ -20764,7 +20797,7 @@
         <v>-4.22</v>
       </c>
       <c r="G853" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
     </row>
     <row r="854" spans="1:7" x14ac:dyDescent="0.25">
@@ -20787,7 +20820,7 @@
         <v>-64.710000000000008</v>
       </c>
       <c r="G854" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
     </row>
     <row r="855" spans="1:7" x14ac:dyDescent="0.25">
@@ -20810,7 +20843,7 @@
         <v>-1.51</v>
       </c>
       <c r="G855" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
     </row>
     <row r="856" spans="1:7" x14ac:dyDescent="0.25">
@@ -20833,7 +20866,7 @@
         <v>-5.15</v>
       </c>
       <c r="G856" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
     </row>
     <row r="857" spans="1:7" x14ac:dyDescent="0.25">
@@ -20856,7 +20889,7 @@
         <v>840.65</v>
       </c>
       <c r="G857" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="858" spans="1:7" x14ac:dyDescent="0.25">
@@ -20879,7 +20912,7 @@
         <v>756.44</v>
       </c>
       <c r="G858" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="859" spans="1:7" x14ac:dyDescent="0.25">
@@ -20902,7 +20935,7 @@
         <v>631.23</v>
       </c>
       <c r="G859" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
     </row>
     <row r="860" spans="1:7" x14ac:dyDescent="0.25">
@@ -20925,7 +20958,7 @@
         <v>513.54</v>
       </c>
       <c r="G860" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
     </row>
     <row r="861" spans="1:7" x14ac:dyDescent="0.25">
@@ -20948,7 +20981,7 @@
         <v>229.46</v>
       </c>
       <c r="G861" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
     </row>
     <row r="862" spans="1:7" x14ac:dyDescent="0.25">
@@ -20971,7 +21004,7 @@
         <v>475.38</v>
       </c>
       <c r="G862" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
     </row>
     <row r="863" spans="1:7" x14ac:dyDescent="0.25">
@@ -20994,7 +21027,7 @@
         <v>253.95000000000002</v>
       </c>
       <c r="G863" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
     </row>
     <row r="864" spans="1:7" x14ac:dyDescent="0.25">
@@ -21017,7 +21050,7 @@
         <v>-109.25</v>
       </c>
       <c r="G864" t="s">
-        <v>18</v>
+        <v>237</v>
       </c>
     </row>
     <row r="865" spans="1:7" x14ac:dyDescent="0.25">
@@ -21040,7 +21073,7 @@
         <v>5909.71</v>
       </c>
       <c r="G865" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="866" spans="1:7" x14ac:dyDescent="0.25">
@@ -21063,7 +21096,7 @@
         <v>292.51</v>
       </c>
       <c r="G866" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="867" spans="1:7" x14ac:dyDescent="0.25">
@@ -21086,7 +21119,7 @@
         <v>507.96000000000004</v>
       </c>
       <c r="G867" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="868" spans="1:7" x14ac:dyDescent="0.25">
@@ -21109,7 +21142,7 @@
         <v>201.07</v>
       </c>
       <c r="G868" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="869" spans="1:7" x14ac:dyDescent="0.25">
@@ -21132,7 +21165,7 @@
         <v>1146.93</v>
       </c>
       <c r="G869" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="870" spans="1:7" x14ac:dyDescent="0.25">
@@ -21155,7 +21188,7 @@
         <v>-3.8200000000000003</v>
       </c>
       <c r="G870" t="s">
-        <v>16</v>
+        <v>239</v>
       </c>
     </row>
     <row r="871" spans="1:7" x14ac:dyDescent="0.25">
@@ -21178,7 +21211,7 @@
         <v>35.15</v>
       </c>
       <c r="G871" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="872" spans="1:7" x14ac:dyDescent="0.25">
@@ -21201,7 +21234,7 @@
         <v>-19.080000000000002</v>
       </c>
       <c r="G872" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="873" spans="1:7" x14ac:dyDescent="0.25">
@@ -21224,7 +21257,7 @@
         <v>-35.78</v>
       </c>
       <c r="G873" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
     </row>
     <row r="874" spans="1:7" x14ac:dyDescent="0.25">
@@ -21247,7 +21280,7 @@
         <v>39.800000000000004</v>
       </c>
       <c r="G874" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="875" spans="1:7" x14ac:dyDescent="0.25">
@@ -21270,7 +21303,7 @@
         <v>2385</v>
       </c>
       <c r="G875" t="s">
-        <v>15</v>
+        <v>242</v>
       </c>
     </row>
     <row r="876" spans="1:7" x14ac:dyDescent="0.25">
@@ -21293,7 +21326,7 @@
         <v>3180</v>
       </c>
       <c r="G876" t="s">
-        <v>6</v>
+        <v>242</v>
       </c>
     </row>
     <row r="877" spans="1:7" x14ac:dyDescent="0.25">
@@ -21316,7 +21349,7 @@
         <v>-3.73</v>
       </c>
       <c r="G877" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="878" spans="1:7" x14ac:dyDescent="0.25">
@@ -21339,7 +21372,7 @@
         <v>292.16000000000003</v>
       </c>
       <c r="G878" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="879" spans="1:7" x14ac:dyDescent="0.25">
@@ -21362,7 +21395,7 @@
         <v>76.03</v>
       </c>
       <c r="G879" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="880" spans="1:7" x14ac:dyDescent="0.25">
@@ -21385,7 +21418,7 @@
         <v>49.71</v>
       </c>
       <c r="G880" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="881" spans="1:7" x14ac:dyDescent="0.25">
@@ -21408,7 +21441,7 @@
         <v>-2.35</v>
       </c>
       <c r="G881" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
     </row>
     <row r="882" spans="1:7" x14ac:dyDescent="0.25">
@@ -21431,7 +21464,7 @@
         <v>52.45</v>
       </c>
       <c r="G882" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="883" spans="1:7" x14ac:dyDescent="0.25">
@@ -21454,7 +21487,7 @@
         <v>74.72</v>
       </c>
       <c r="G883" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="884" spans="1:7" x14ac:dyDescent="0.25">
@@ -21477,7 +21510,7 @@
         <v>2434.46</v>
       </c>
       <c r="G884" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="885" spans="1:7" x14ac:dyDescent="0.25">
@@ -21500,7 +21533,7 @@
         <v>233.77</v>
       </c>
       <c r="G885" t="s">
-        <v>18</v>
+        <v>234</v>
       </c>
     </row>
     <row r="886" spans="1:7" x14ac:dyDescent="0.25">
@@ -21523,7 +21556,7 @@
         <v>123.81</v>
       </c>
       <c r="G886" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="887" spans="1:7" x14ac:dyDescent="0.25">
@@ -21546,7 +21579,7 @@
         <v>3108.19</v>
       </c>
       <c r="G887" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="888" spans="1:7" x14ac:dyDescent="0.25">
@@ -21569,7 +21602,7 @@
         <v>24601.440000000002</v>
       </c>
       <c r="G888" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="889" spans="1:7" x14ac:dyDescent="0.25">
@@ -21592,7 +21625,7 @@
         <v>33.700000000000003</v>
       </c>
       <c r="G889" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
     </row>
     <row r="890" spans="1:7" x14ac:dyDescent="0.25">
@@ -21615,7 +21648,7 @@
         <v>477</v>
       </c>
       <c r="G890" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="891" spans="1:7" x14ac:dyDescent="0.25">
@@ -21638,7 +21671,7 @@
         <v>277.98</v>
       </c>
       <c r="G891" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="892" spans="1:7" x14ac:dyDescent="0.25">
@@ -21661,7 +21694,7 @@
         <v>252.96</v>
       </c>
       <c r="G892" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="893" spans="1:7" x14ac:dyDescent="0.25">
@@ -21684,7 +21717,7 @@
         <v>466.29</v>
       </c>
       <c r="G893" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="894" spans="1:7" x14ac:dyDescent="0.25">
@@ -21707,7 +21740,7 @@
         <v>367.21</v>
       </c>
       <c r="G894" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="895" spans="1:7" x14ac:dyDescent="0.25">
@@ -21730,7 +21763,7 @@
         <v>222.6</v>
       </c>
       <c r="G895" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="896" spans="1:7" x14ac:dyDescent="0.25">
@@ -21753,7 +21786,7 @@
         <v>765.47</v>
       </c>
       <c r="G896" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
     </row>
     <row r="897" spans="1:7" x14ac:dyDescent="0.25">
@@ -21776,7 +21809,7 @@
         <v>309.58</v>
       </c>
       <c r="G897" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
     </row>
     <row r="898" spans="1:7" x14ac:dyDescent="0.25">
@@ -21799,7 +21832,7 @@
         <v>269.18</v>
       </c>
       <c r="G898" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="899" spans="1:7" x14ac:dyDescent="0.25">
@@ -21822,7 +21855,7 @@
         <v>255.28</v>
       </c>
       <c r="G899" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="900" spans="1:7" x14ac:dyDescent="0.25">
@@ -21845,7 +21878,7 @@
         <v>23.3</v>
       </c>
       <c r="G900" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="901" spans="1:7" x14ac:dyDescent="0.25">
@@ -21868,7 +21901,7 @@
         <v>260.31</v>
       </c>
       <c r="G901" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="902" spans="1:7" x14ac:dyDescent="0.25">
@@ -21891,7 +21924,7 @@
         <v>2033.5</v>
       </c>
       <c r="G902" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="903" spans="1:7" x14ac:dyDescent="0.25">
@@ -21914,7 +21947,7 @@
         <v>56.5</v>
       </c>
       <c r="G903" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="904" spans="1:7" x14ac:dyDescent="0.25">
@@ -21937,7 +21970,7 @@
         <v>192.32</v>
       </c>
       <c r="G904" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="905" spans="1:7" x14ac:dyDescent="0.25">
@@ -21960,7 +21993,7 @@
         <v>20.84</v>
       </c>
       <c r="G905" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="906" spans="1:7" x14ac:dyDescent="0.25">
@@ -21983,7 +22016,7 @@
         <v>-9.67</v>
       </c>
       <c r="G906" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
     </row>
     <row r="907" spans="1:7" x14ac:dyDescent="0.25">
@@ -22006,7 +22039,7 @@
         <v>4.84</v>
       </c>
       <c r="G907" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
     </row>
     <row r="908" spans="1:7" x14ac:dyDescent="0.25">
@@ -22029,7 +22062,7 @@
         <v>554.03</v>
       </c>
       <c r="G908" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
     </row>
     <row r="909" spans="1:7" x14ac:dyDescent="0.25">
@@ -22052,7 +22085,7 @@
         <v>579.14</v>
       </c>
       <c r="G909" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="910" spans="1:7" x14ac:dyDescent="0.25">
@@ -22075,7 +22108,7 @@
         <v>483.82</v>
       </c>
       <c r="G910" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="911" spans="1:7" x14ac:dyDescent="0.25">
@@ -22098,7 +22131,7 @@
         <v>456.34000000000003</v>
       </c>
       <c r="G911" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="912" spans="1:7" x14ac:dyDescent="0.25">
@@ -22121,7 +22154,7 @@
         <v>139.32</v>
       </c>
       <c r="G912" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="913" spans="1:7" x14ac:dyDescent="0.25">
@@ -22144,7 +22177,7 @@
         <v>88.38</v>
       </c>
       <c r="G913" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="914" spans="1:7" x14ac:dyDescent="0.25">
@@ -22167,7 +22200,7 @@
         <v>53.71</v>
       </c>
       <c r="G914" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="915" spans="1:7" x14ac:dyDescent="0.25">
@@ -22190,7 +22223,7 @@
         <v>116.64</v>
       </c>
       <c r="G915" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="916" spans="1:7" x14ac:dyDescent="0.25">
@@ -22213,7 +22246,7 @@
         <v>80.87</v>
       </c>
       <c r="G916" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
     </row>
     <row r="917" spans="1:7" x14ac:dyDescent="0.25">
@@ -22236,7 +22269,7 @@
         <v>-0.21</v>
       </c>
       <c r="G917" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="918" spans="1:7" x14ac:dyDescent="0.25">
@@ -22259,7 +22292,7 @@
         <v>275.11</v>
       </c>
       <c r="G918" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="919" spans="1:7" x14ac:dyDescent="0.25">
@@ -22282,7 +22315,7 @@
         <v>1008.07</v>
       </c>
       <c r="G919" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="920" spans="1:7" x14ac:dyDescent="0.25">
@@ -22305,7 +22338,7 @@
         <v>4153.0600000000004</v>
       </c>
       <c r="G920" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="921" spans="1:7" x14ac:dyDescent="0.25">
@@ -22328,7 +22361,7 @@
         <v>-192.45000000000002</v>
       </c>
       <c r="G921" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="922" spans="1:7" x14ac:dyDescent="0.25">
@@ -22348,7 +22381,7 @@
         <v>4828.7</v>
       </c>
       <c r="G922" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="923" spans="1:7" x14ac:dyDescent="0.25">
@@ -22368,7 +22401,7 @@
         <v>140.56</v>
       </c>
       <c r="G923" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="924" spans="1:7" x14ac:dyDescent="0.25">
@@ -22388,7 +22421,7 @@
         <v>74.63</v>
       </c>
       <c r="G924" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="925" spans="1:7" x14ac:dyDescent="0.25">
@@ -22408,7 +22441,7 @@
         <v>153.52000000000001</v>
       </c>
       <c r="G925" t="s">
-        <v>16</v>
+        <v>239</v>
       </c>
     </row>
     <row r="926" spans="1:7" x14ac:dyDescent="0.25">
@@ -22428,7 +22461,7 @@
         <v>89.73</v>
       </c>
       <c r="G926" t="s">
-        <v>16</v>
+        <v>239</v>
       </c>
     </row>
     <row r="927" spans="1:7" x14ac:dyDescent="0.25">
@@ -22448,7 +22481,7 @@
         <v>155.36000000000001</v>
       </c>
       <c r="G927" t="s">
-        <v>16</v>
+        <v>239</v>
       </c>
     </row>
     <row r="928" spans="1:7" x14ac:dyDescent="0.25">
@@ -22468,7 +22501,7 @@
         <v>165.34</v>
       </c>
       <c r="G928" t="s">
-        <v>13</v>
+        <v>239</v>
       </c>
     </row>
     <row r="929" spans="2:7" x14ac:dyDescent="0.25">
@@ -22488,7 +22521,7 @@
         <v>117.93</v>
       </c>
       <c r="G929" t="s">
-        <v>13</v>
+        <v>239</v>
       </c>
     </row>
     <row r="930" spans="2:7" x14ac:dyDescent="0.25">
@@ -22508,7 +22541,7 @@
         <v>286.40000000000003</v>
       </c>
       <c r="G930" t="s">
-        <v>13</v>
+        <v>239</v>
       </c>
     </row>
     <row r="931" spans="2:7" x14ac:dyDescent="0.25">
@@ -22528,7 +22561,7 @@
         <v>81.22</v>
       </c>
       <c r="G931" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="932" spans="2:7" x14ac:dyDescent="0.25">
@@ -22548,7 +22581,7 @@
         <v>-0.24</v>
       </c>
       <c r="G932" t="s">
-        <v>13</v>
+        <v>237</v>
       </c>
     </row>
     <row r="933" spans="2:7" x14ac:dyDescent="0.25">
@@ -22568,7 +22601,7 @@
         <v>18.010000000000002</v>
       </c>
       <c r="G933" t="s">
-        <v>15</v>
+        <v>235</v>
       </c>
     </row>
     <row r="934" spans="2:7" x14ac:dyDescent="0.25">
@@ -22588,7 +22621,7 @@
         <v>-390.40000000000003</v>
       </c>
       <c r="G934" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="935" spans="2:7" x14ac:dyDescent="0.25">
@@ -22608,7 +22641,7 @@
         <v>-49.21</v>
       </c>
       <c r="G935" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="936" spans="2:7" x14ac:dyDescent="0.25">
@@ -22628,7 +22661,7 @@
         <v>839.52</v>
       </c>
       <c r="G936" t="s">
-        <v>15</v>
+        <v>242</v>
       </c>
     </row>
     <row r="937" spans="2:7" x14ac:dyDescent="0.25">
@@ -22648,7 +22681,7 @@
         <v>839.52</v>
       </c>
       <c r="G937" t="s">
-        <v>6</v>
+        <v>242</v>
       </c>
     </row>
     <row r="938" spans="2:7" x14ac:dyDescent="0.25">
@@ -22668,7 +22701,7 @@
         <v>481.94</v>
       </c>
       <c r="G938" t="s">
-        <v>16</v>
+        <v>237</v>
       </c>
     </row>
     <row r="939" spans="2:7" x14ac:dyDescent="0.25">
@@ -22688,7 +22721,7 @@
         <v>80.56</v>
       </c>
       <c r="G939" t="s">
-        <v>15</v>
+        <v>242</v>
       </c>
     </row>
     <row r="940" spans="2:7" x14ac:dyDescent="0.25">
@@ -22708,7 +22741,7 @@
         <v>161.12</v>
       </c>
       <c r="G940" t="s">
-        <v>15</v>
+        <v>242</v>
       </c>
     </row>
     <row r="941" spans="2:7" x14ac:dyDescent="0.25">
@@ -22728,7 +22761,7 @@
         <v>2385</v>
       </c>
       <c r="G941" t="s">
-        <v>6</v>
+        <v>242</v>
       </c>
     </row>
     <row r="942" spans="2:7" x14ac:dyDescent="0.25">
@@ -22748,7 +22781,7 @@
         <v>636.36</v>
       </c>
       <c r="G942" t="s">
-        <v>6</v>
+        <v>242</v>
       </c>
     </row>
     <row r="943" spans="2:7" x14ac:dyDescent="0.25">
@@ -22768,7 +22801,7 @@
         <v>2226</v>
       </c>
       <c r="G943" t="s">
-        <v>6</v>
+        <v>242</v>
       </c>
     </row>
     <row r="944" spans="2:7" x14ac:dyDescent="0.25">
@@ -22788,7 +22821,7 @@
         <v>295.07</v>
       </c>
       <c r="G944" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
     </row>
     <row r="945" spans="2:7" x14ac:dyDescent="0.25">
@@ -22808,7 +22841,7 @@
         <v>1971.6000000000001</v>
       </c>
       <c r="G945" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="946" spans="2:7" x14ac:dyDescent="0.25">
@@ -22828,7 +22861,7 @@
         <v>890.4</v>
       </c>
       <c r="G946" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="947" spans="2:7" x14ac:dyDescent="0.25">
@@ -22848,7 +22881,7 @@
         <v>3471.6</v>
       </c>
       <c r="G947" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="948" spans="2:7" x14ac:dyDescent="0.25">
@@ -22868,7 +22901,7 @@
         <v>-63.36</v>
       </c>
       <c r="G948" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="949" spans="2:7" x14ac:dyDescent="0.25">
@@ -22888,7 +22921,7 @@
         <v>2820.4</v>
       </c>
       <c r="G949" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="950" spans="2:7" x14ac:dyDescent="0.25">
@@ -22908,7 +22941,7 @@
         <v>-554.25</v>
       </c>
       <c r="G950" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="951" spans="2:7" x14ac:dyDescent="0.25">
@@ -22928,7 +22961,7 @@
         <v>1212.71</v>
       </c>
       <c r="G951" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="952" spans="2:7" x14ac:dyDescent="0.25">
@@ -22948,7 +22981,7 @@
         <v>75.600000000000009</v>
       </c>
       <c r="G952" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="953" spans="2:7" x14ac:dyDescent="0.25">
@@ -22968,7 +23001,7 @@
         <v>102.60000000000001</v>
       </c>
       <c r="G953" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="954" spans="2:7" x14ac:dyDescent="0.25">
@@ -22988,7 +23021,7 @@
         <v>91.8</v>
       </c>
       <c r="G954" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="955" spans="2:7" x14ac:dyDescent="0.25">
@@ -23008,7 +23041,7 @@
         <v>86.4</v>
       </c>
       <c r="G955" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="956" spans="2:7" x14ac:dyDescent="0.25">
@@ -23028,7 +23061,7 @@
         <v>923.72</v>
       </c>
       <c r="G956" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="957" spans="2:7" x14ac:dyDescent="0.25">
@@ -23048,7 +23081,7 @@
         <v>18</v>
       </c>
       <c r="G957" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="958" spans="2:7" x14ac:dyDescent="0.25">
@@ -23068,7 +23101,7 @@
         <v>1280.67</v>
       </c>
       <c r="G958" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="959" spans="2:7" x14ac:dyDescent="0.25">
@@ -23088,7 +23121,7 @@
         <v>1285.6200000000001</v>
       </c>
       <c r="G959" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="960" spans="2:7" x14ac:dyDescent="0.25">
@@ -23108,7 +23141,7 @@
         <v>2932.67</v>
       </c>
       <c r="G960" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
     </row>
     <row r="961" spans="2:7" x14ac:dyDescent="0.25">
@@ -23128,7 +23161,7 @@
         <v>-52.49</v>
       </c>
       <c r="G961" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
     </row>
     <row r="962" spans="2:7" x14ac:dyDescent="0.25">
@@ -23148,7 +23181,7 @@
         <v>2299.2800000000002</v>
       </c>
       <c r="G962" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
     </row>
     <row r="963" spans="2:7" x14ac:dyDescent="0.25">
@@ -23168,7 +23201,7 @@
         <v>706.09</v>
       </c>
       <c r="G963" t="s">
-        <v>13</v>
+        <v>244</v>
       </c>
     </row>
     <row r="964" spans="2:7" x14ac:dyDescent="0.25">
@@ -23188,7 +23221,7 @@
         <v>123.91</v>
       </c>
       <c r="G964" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
     </row>
     <row r="965" spans="2:7" x14ac:dyDescent="0.25">
@@ -23208,7 +23241,7 @@
         <v>1400</v>
       </c>
       <c r="G965" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
     </row>
     <row r="966" spans="2:7" x14ac:dyDescent="0.25">
@@ -23228,7 +23261,7 @@
         <v>832</v>
       </c>
       <c r="G966" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
     </row>
     <row r="967" spans="2:7" x14ac:dyDescent="0.25">
@@ -23248,7 +23281,7 @@
         <v>11520</v>
       </c>
       <c r="G967" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
     </row>
     <row r="968" spans="2:7" x14ac:dyDescent="0.25">
@@ -23268,7 +23301,7 @@
         <v>-9056.01</v>
       </c>
       <c r="G968" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="969" spans="2:7" x14ac:dyDescent="0.25">
@@ -23288,7 +23321,7 @@
         <v>9056</v>
       </c>
       <c r="G969" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/VVencidos.xlsx
+++ b/VVencidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulocosta\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A7518B-7682-4642-9AC1-183F3E9E9314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CBDC51-21DB-4E52-99A4-6EA816EC69BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{269BE8FF-AC33-4B8A-A7D2-D9ACD2484502}"/>
   </bookViews>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D11E89-AF2E-42BF-80E5-E5E20F3E6DF5}">
   <dimension ref="A1:G877"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G877"/>
+    <sheetView tabSelected="1" topLeftCell="A865" workbookViewId="0">
+      <selection activeCell="C884" sqref="C884"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19001,6 +19001,9 @@
       </c>
     </row>
     <row r="782" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A782">
+        <v>780</v>
+      </c>
       <c r="B782" t="s">
         <v>68</v>
       </c>
@@ -19021,6 +19024,9 @@
       </c>
     </row>
     <row r="783" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A783">
+        <v>781</v>
+      </c>
       <c r="B783" t="s">
         <v>54</v>
       </c>
@@ -19041,6 +19047,9 @@
       </c>
     </row>
     <row r="784" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A784">
+        <v>782</v>
+      </c>
       <c r="B784" t="s">
         <v>165</v>
       </c>
@@ -19060,7 +19069,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="785" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A785">
+        <v>783</v>
+      </c>
       <c r="B785" t="s">
         <v>69</v>
       </c>
@@ -19080,7 +19092,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="786" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A786">
+        <v>784</v>
+      </c>
       <c r="B786" t="s">
         <v>70</v>
       </c>
@@ -19100,7 +19115,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="787" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A787">
+        <v>785</v>
+      </c>
       <c r="B787" t="s">
         <v>70</v>
       </c>
@@ -19120,7 +19138,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="788" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A788">
+        <v>786</v>
+      </c>
       <c r="B788" t="s">
         <v>70</v>
       </c>
@@ -19140,7 +19161,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="789" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A789">
+        <v>787</v>
+      </c>
       <c r="B789" t="s">
         <v>70</v>
       </c>
@@ -19160,7 +19184,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="790" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A790">
+        <v>788</v>
+      </c>
       <c r="B790" t="s">
         <v>70</v>
       </c>
@@ -19180,7 +19207,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="791" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A791">
+        <v>789</v>
+      </c>
       <c r="B791" t="s">
         <v>91</v>
       </c>
@@ -19200,7 +19230,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="792" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A792">
+        <v>790</v>
+      </c>
       <c r="B792" t="s">
         <v>26</v>
       </c>
@@ -19220,7 +19253,10 @@
         <v>195</v>
       </c>
     </row>
-    <row r="793" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A793">
+        <v>791</v>
+      </c>
       <c r="B793" t="s">
         <v>114</v>
       </c>
@@ -19240,7 +19276,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="794" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A794">
+        <v>792</v>
+      </c>
       <c r="B794" t="s">
         <v>114</v>
       </c>
@@ -19260,7 +19299,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="795" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A795">
+        <v>793</v>
+      </c>
       <c r="B795" t="s">
         <v>114</v>
       </c>
@@ -19280,7 +19322,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="796" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A796">
+        <v>794</v>
+      </c>
       <c r="B796" t="s">
         <v>114</v>
       </c>
@@ -19300,7 +19345,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="797" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>795</v>
+      </c>
       <c r="B797" t="s">
         <v>114</v>
       </c>
@@ -19320,7 +19368,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="798" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A798">
+        <v>796</v>
+      </c>
       <c r="B798" t="s">
         <v>107</v>
       </c>
@@ -19340,7 +19391,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="799" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A799">
+        <v>797</v>
+      </c>
       <c r="B799" t="s">
         <v>107</v>
       </c>
@@ -19360,7 +19414,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="800" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A800">
+        <v>798</v>
+      </c>
       <c r="B800" t="s">
         <v>107</v>
       </c>
@@ -19380,7 +19437,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="801" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A801">
+        <v>799</v>
+      </c>
       <c r="B801" t="s">
         <v>45</v>
       </c>
@@ -19400,7 +19460,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="802" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A802">
+        <v>800</v>
+      </c>
       <c r="B802" t="s">
         <v>45</v>
       </c>
@@ -19420,7 +19483,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="803" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A803">
+        <v>801</v>
+      </c>
       <c r="B803" t="s">
         <v>45</v>
       </c>
@@ -19440,7 +19506,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="804" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A804">
+        <v>802</v>
+      </c>
       <c r="B804" t="s">
         <v>45</v>
       </c>
@@ -19460,7 +19529,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="805" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A805">
+        <v>803</v>
+      </c>
       <c r="B805" t="s">
         <v>32</v>
       </c>
@@ -19480,7 +19552,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="806" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A806">
+        <v>804</v>
+      </c>
       <c r="B806" t="s">
         <v>32</v>
       </c>
@@ -19500,7 +19575,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="807" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A807">
+        <v>805</v>
+      </c>
       <c r="B807" t="s">
         <v>32</v>
       </c>
@@ -19520,7 +19598,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="808" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A808">
+        <v>806</v>
+      </c>
       <c r="B808" t="s">
         <v>32</v>
       </c>
@@ -19540,7 +19621,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="809" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A809">
+        <v>807</v>
+      </c>
       <c r="B809" t="s">
         <v>92</v>
       </c>
@@ -19560,7 +19644,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="810" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A810">
+        <v>808</v>
+      </c>
       <c r="B810" t="s">
         <v>92</v>
       </c>
@@ -19580,7 +19667,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="811" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A811">
+        <v>809</v>
+      </c>
       <c r="B811" t="s">
         <v>30</v>
       </c>
@@ -19600,7 +19690,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="812" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A812">
+        <v>810</v>
+      </c>
       <c r="B812" t="s">
         <v>30</v>
       </c>
@@ -19620,7 +19713,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="813" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A813">
+        <v>811</v>
+      </c>
       <c r="B813" t="s">
         <v>30</v>
       </c>
@@ -19640,7 +19736,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="814" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A814">
+        <v>812</v>
+      </c>
       <c r="B814" t="s">
         <v>93</v>
       </c>
@@ -19660,7 +19759,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="815" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A815">
+        <v>813</v>
+      </c>
       <c r="B815" t="s">
         <v>93</v>
       </c>
@@ -19680,7 +19782,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="816" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A816">
+        <v>814</v>
+      </c>
       <c r="B816" t="s">
         <v>93</v>
       </c>
@@ -19700,7 +19805,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="817" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A817">
+        <v>815</v>
+      </c>
       <c r="B817" t="s">
         <v>147</v>
       </c>
@@ -19720,7 +19828,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="818" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A818">
+        <v>816</v>
+      </c>
       <c r="B818" t="s">
         <v>147</v>
       </c>
@@ -19740,7 +19851,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="819" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A819">
+        <v>817</v>
+      </c>
       <c r="B819" t="s">
         <v>147</v>
       </c>
@@ -19760,7 +19874,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="820" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A820">
+        <v>818</v>
+      </c>
       <c r="B820" t="s">
         <v>131</v>
       </c>
@@ -19780,7 +19897,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="821" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A821">
+        <v>819</v>
+      </c>
       <c r="B821" t="s">
         <v>131</v>
       </c>
@@ -19800,7 +19920,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="822" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A822">
+        <v>820</v>
+      </c>
       <c r="B822" t="s">
         <v>51</v>
       </c>
@@ -19820,7 +19943,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="823" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A823">
+        <v>821</v>
+      </c>
       <c r="B823" t="s">
         <v>51</v>
       </c>
@@ -19840,7 +19966,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="824" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A824">
+        <v>822</v>
+      </c>
       <c r="B824" t="s">
         <v>148</v>
       </c>
@@ -19860,7 +19989,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="825" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A825">
+        <v>823</v>
+      </c>
       <c r="B825" t="s">
         <v>148</v>
       </c>
@@ -19880,7 +20012,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="826" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A826">
+        <v>824</v>
+      </c>
       <c r="B826" t="s">
         <v>148</v>
       </c>
@@ -19900,7 +20035,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="827" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A827">
+        <v>825</v>
+      </c>
       <c r="B827" t="s">
         <v>188</v>
       </c>
@@ -19920,7 +20058,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="828" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A828">
+        <v>826</v>
+      </c>
       <c r="B828" t="s">
         <v>56</v>
       </c>
@@ -19940,7 +20081,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="829" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A829">
+        <v>827</v>
+      </c>
       <c r="B829" t="s">
         <v>49</v>
       </c>
@@ -19960,7 +20104,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="830" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A830">
+        <v>828</v>
+      </c>
       <c r="B830" t="s">
         <v>49</v>
       </c>
@@ -19980,7 +20127,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="831" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A831">
+        <v>829</v>
+      </c>
       <c r="B831" t="s">
         <v>49</v>
       </c>
@@ -20000,7 +20150,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="832" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A832">
+        <v>830</v>
+      </c>
       <c r="B832" t="s">
         <v>49</v>
       </c>
@@ -20020,7 +20173,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="833" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A833">
+        <v>831</v>
+      </c>
       <c r="B833" t="s">
         <v>49</v>
       </c>
@@ -20040,7 +20196,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="834" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A834">
+        <v>832</v>
+      </c>
       <c r="B834" t="s">
         <v>116</v>
       </c>
@@ -20060,7 +20219,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="835" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A835">
+        <v>833</v>
+      </c>
       <c r="B835" t="s">
         <v>116</v>
       </c>
@@ -20080,7 +20242,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="836" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A836">
+        <v>834</v>
+      </c>
       <c r="B836" t="s">
         <v>116</v>
       </c>
@@ -20100,7 +20265,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="837" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A837">
+        <v>835</v>
+      </c>
       <c r="B837" t="s">
         <v>53</v>
       </c>
@@ -20120,7 +20288,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="838" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A838">
+        <v>836</v>
+      </c>
       <c r="B838" t="s">
         <v>53</v>
       </c>
@@ -20140,7 +20311,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="839" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A839">
+        <v>837</v>
+      </c>
       <c r="B839" t="s">
         <v>189</v>
       </c>
@@ -20160,7 +20334,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="840" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A840">
+        <v>838</v>
+      </c>
       <c r="B840" t="s">
         <v>25</v>
       </c>
@@ -20180,7 +20357,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="841" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A841">
+        <v>839</v>
+      </c>
       <c r="B841" t="s">
         <v>25</v>
       </c>
@@ -20200,7 +20380,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="842" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A842">
+        <v>840</v>
+      </c>
       <c r="B842" t="s">
         <v>40</v>
       </c>
@@ -20220,7 +20403,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="843" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A843">
+        <v>841</v>
+      </c>
       <c r="B843" t="s">
         <v>40</v>
       </c>
@@ -20240,7 +20426,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="844" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A844">
+        <v>842</v>
+      </c>
       <c r="B844" t="s">
         <v>40</v>
       </c>
@@ -20260,7 +20449,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="845" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A845">
+        <v>843</v>
+      </c>
       <c r="B845" t="s">
         <v>40</v>
       </c>
@@ -20280,7 +20472,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="846" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A846">
+        <v>844</v>
+      </c>
       <c r="B846" t="s">
         <v>40</v>
       </c>
@@ -20300,7 +20495,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="847" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A847">
+        <v>845</v>
+      </c>
       <c r="B847" t="s">
         <v>40</v>
       </c>
@@ -20320,7 +20518,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="848" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A848">
+        <v>846</v>
+      </c>
       <c r="B848" t="s">
         <v>40</v>
       </c>
@@ -20340,7 +20541,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="849" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A849">
+        <v>847</v>
+      </c>
       <c r="B849" t="s">
         <v>40</v>
       </c>
@@ -20360,7 +20564,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="850" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A850">
+        <v>848</v>
+      </c>
       <c r="B850" t="s">
         <v>149</v>
       </c>
@@ -20380,7 +20587,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="851" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A851">
+        <v>849</v>
+      </c>
       <c r="B851" t="s">
         <v>166</v>
       </c>
@@ -20400,7 +20610,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="852" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A852">
+        <v>850</v>
+      </c>
       <c r="B852" t="s">
         <v>112</v>
       </c>
@@ -20420,7 +20633,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="853" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A853">
+        <v>851</v>
+      </c>
       <c r="B853" t="s">
         <v>112</v>
       </c>
@@ -20440,7 +20656,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="854" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A854">
+        <v>852</v>
+      </c>
       <c r="B854" t="s">
         <v>190</v>
       </c>
@@ -20460,7 +20679,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="855" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A855">
+        <v>853</v>
+      </c>
       <c r="B855" t="s">
         <v>191</v>
       </c>
@@ -20480,7 +20702,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="856" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A856">
+        <v>854</v>
+      </c>
       <c r="B856" t="s">
         <v>132</v>
       </c>
@@ -20500,7 +20725,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="857" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A857">
+        <v>855</v>
+      </c>
       <c r="B857" t="s">
         <v>132</v>
       </c>
@@ -20520,7 +20748,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="858" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A858">
+        <v>856</v>
+      </c>
       <c r="B858" t="s">
         <v>117</v>
       </c>
@@ -20540,7 +20771,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="859" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A859">
+        <v>857</v>
+      </c>
       <c r="B859" t="s">
         <v>117</v>
       </c>
@@ -20560,7 +20794,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="860" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A860">
+        <v>858</v>
+      </c>
       <c r="B860" t="s">
         <v>150</v>
       </c>
@@ -20580,7 +20817,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="861" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A861">
+        <v>859</v>
+      </c>
       <c r="B861" t="s">
         <v>150</v>
       </c>
@@ -20600,7 +20840,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="862" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A862">
+        <v>860</v>
+      </c>
       <c r="B862" t="s">
         <v>150</v>
       </c>
@@ -20620,7 +20863,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="863" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A863">
+        <v>861</v>
+      </c>
       <c r="B863" t="s">
         <v>150</v>
       </c>
@@ -20640,7 +20886,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="864" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A864">
+        <v>862</v>
+      </c>
       <c r="B864" t="s">
         <v>192</v>
       </c>
@@ -20660,7 +20909,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="865" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A865">
+        <v>863</v>
+      </c>
       <c r="B865" t="s">
         <v>167</v>
       </c>
@@ -20680,7 +20932,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="866" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A866">
+        <v>864</v>
+      </c>
       <c r="B866" t="s">
         <v>167</v>
       </c>
@@ -20700,7 +20955,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="867" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A867">
+        <v>865</v>
+      </c>
       <c r="B867" t="s">
         <v>94</v>
       </c>
@@ -20720,7 +20978,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="868" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A868">
+        <v>866</v>
+      </c>
       <c r="B868" t="s">
         <v>95</v>
       </c>
@@ -20740,7 +21001,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="869" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A869">
+        <v>867</v>
+      </c>
       <c r="B869" t="s">
         <v>96</v>
       </c>
@@ -20760,7 +21024,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="870" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A870">
+        <v>868</v>
+      </c>
       <c r="B870" t="s">
         <v>96</v>
       </c>
@@ -20780,7 +21047,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="871" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A871">
+        <v>869</v>
+      </c>
       <c r="B871" t="s">
         <v>96</v>
       </c>
@@ -20800,7 +21070,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="872" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A872">
+        <v>870</v>
+      </c>
       <c r="B872" t="s">
         <v>43</v>
       </c>
@@ -20820,7 +21093,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="873" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A873">
+        <v>871</v>
+      </c>
       <c r="B873" t="s">
         <v>43</v>
       </c>
@@ -20840,7 +21116,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="874" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A874">
+        <v>872</v>
+      </c>
       <c r="B874" t="s">
         <v>193</v>
       </c>
@@ -20860,7 +21139,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="875" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A875">
+        <v>873</v>
+      </c>
       <c r="B875" t="s">
         <v>133</v>
       </c>
@@ -20880,7 +21162,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="876" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A876">
+        <v>874</v>
+      </c>
       <c r="B876" t="s">
         <v>133</v>
       </c>
@@ -20900,7 +21185,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="877" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A877">
+        <v>875</v>
+      </c>
       <c r="B877" t="s">
         <v>194</v>
       </c>
